--- a/compatibility.xlsx
+++ b/compatibility.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15070" uniqueCount="5196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15071" uniqueCount="5197">
   <si>
     <t>pacman</t>
   </si>
@@ -15643,6 +15643,9 @@
   </si>
   <si>
     <t>rastan sndhrdw</t>
+  </si>
+  <si>
+    <t>STEREO SOUND</t>
   </si>
 </sst>
 </file>
@@ -15966,10 +15969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15981,9 +15984,10 @@
     <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1638</v>
       </c>
@@ -16008,8 +16012,11 @@
       <c r="Q1" t="s">
         <v>5195</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>5196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3121</v>
       </c>
@@ -16035,7 +16042,7 @@
         <v>3123</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3124</v>
       </c>
@@ -16061,7 +16068,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4170</v>
       </c>
@@ -16084,7 +16091,7 @@
         <v>4172</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4173</v>
       </c>
@@ -16107,7 +16114,7 @@
         <v>4174</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4175</v>
       </c>
@@ -16133,7 +16140,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4177</v>
       </c>

--- a/compatibility.xlsx
+++ b/compatibility.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="working" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="DETAILS" localSheetId="2">Φύλλο1!$A$1:$O$2329</definedName>
+    <definedName name="DETAILS" localSheetId="2">Φύλλο1!$A$1:$O$2325</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -15969,10 +15969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16164,6 +16164,86 @@
       </c>
       <c r="O7" s="1" t="s">
         <v>4178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4231</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4234</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4236</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4238</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>4239</v>
       </c>
     </row>
   </sheetData>
@@ -16220,10 +16300,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2329"/>
+  <dimension ref="A1:O2325"/>
   <sheetViews>
-    <sheetView topLeftCell="A1863" workbookViewId="0">
-      <selection activeCell="F1872" sqref="F1872"/>
+    <sheetView tabSelected="1" topLeftCell="A1885" workbookViewId="0">
+      <selection activeCell="I1894" sqref="I1894"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56985,87 +57065,99 @@
     </row>
     <row r="1899" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1899" s="1" t="s">
-        <v>4231</v>
+        <v>4240</v>
       </c>
       <c r="B1899" s="1" t="s">
-        <v>4232</v>
+        <v>4241</v>
       </c>
       <c r="C1899" s="1" t="s">
-        <v>446</v>
+        <v>2</v>
       </c>
       <c r="D1899" s="1" t="s">
-        <v>1266</v>
+        <v>2</v>
       </c>
       <c r="J1899" s="1" t="s">
         <v>62</v>
       </c>
       <c r="O1899" s="1" t="s">
-        <v>4233</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="1900" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1900" s="1" t="s">
-        <v>4234</v>
+        <v>4243</v>
       </c>
       <c r="B1900" s="1" t="s">
-        <v>4232</v>
+        <v>4241</v>
       </c>
       <c r="C1900" s="1" t="s">
-        <v>446</v>
+        <v>2</v>
       </c>
       <c r="D1900" s="1" t="s">
-        <v>1266</v>
+        <v>2</v>
       </c>
       <c r="J1900" s="1" t="s">
         <v>62</v>
       </c>
       <c r="O1900" s="1" t="s">
-        <v>4235</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="1901" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1901" s="1" t="s">
-        <v>4236</v>
+        <v>4245</v>
       </c>
       <c r="B1901" s="1" t="s">
-        <v>4232</v>
+        <v>4241</v>
       </c>
       <c r="C1901" s="1" t="s">
-        <v>446</v>
+        <v>2</v>
       </c>
       <c r="D1901" s="1" t="s">
-        <v>1266</v>
+        <v>2</v>
       </c>
       <c r="J1901" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="K1901" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="L1901" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="O1901" s="1" t="s">
-        <v>4237</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="1902" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1902" s="1" t="s">
-        <v>4238</v>
+        <v>4247</v>
       </c>
       <c r="B1902" s="1" t="s">
-        <v>4232</v>
+        <v>4241</v>
       </c>
       <c r="C1902" s="1" t="s">
-        <v>446</v>
+        <v>2</v>
       </c>
       <c r="D1902" s="1" t="s">
-        <v>1266</v>
+        <v>2</v>
       </c>
       <c r="J1902" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="K1902" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="L1902" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="O1902" s="1" t="s">
-        <v>4239</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="1903" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1903" s="1" t="s">
-        <v>4240</v>
+        <v>4249</v>
       </c>
       <c r="B1903" s="1" t="s">
         <v>4241</v>
@@ -57079,16 +57171,22 @@
       <c r="J1903" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="K1903" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="L1903" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="O1903" s="1" t="s">
-        <v>4242</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="1904" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1904" s="1" t="s">
-        <v>4243</v>
+        <v>4251</v>
       </c>
       <c r="B1904" s="1" t="s">
-        <v>4241</v>
+        <v>4252</v>
       </c>
       <c r="C1904" s="1" t="s">
         <v>2</v>
@@ -57100,306 +57198,306 @@
         <v>62</v>
       </c>
       <c r="O1904" s="1" t="s">
-        <v>4244</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="1905" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1905" s="1" t="s">
-        <v>4245</v>
+        <v>4254</v>
       </c>
       <c r="B1905" s="1" t="s">
-        <v>4241</v>
+        <v>4255</v>
       </c>
       <c r="C1905" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1905" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1905" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1905" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="L1905" s="1" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="O1905" s="1" t="s">
-        <v>4246</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="1906" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1906" s="1" t="s">
-        <v>4247</v>
+        <v>4257</v>
       </c>
       <c r="B1906" s="1" t="s">
-        <v>4241</v>
+        <v>4255</v>
       </c>
       <c r="C1906" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1906" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1906" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1906" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="L1906" s="1" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="O1906" s="1" t="s">
-        <v>4248</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="1907" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1907" s="1" t="s">
-        <v>4249</v>
+        <v>4259</v>
       </c>
       <c r="B1907" s="1" t="s">
-        <v>4241</v>
+        <v>4260</v>
       </c>
       <c r="C1907" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1907" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1907" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1907" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="L1907" s="1" t="s">
-        <v>171</v>
+        <v>1165</v>
+      </c>
+      <c r="E1907" s="1" t="s">
+        <v>1165</v>
       </c>
       <c r="O1907" s="1" t="s">
-        <v>4250</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="1908" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1908" s="1" t="s">
-        <v>4251</v>
+        <v>4262</v>
       </c>
       <c r="B1908" s="1" t="s">
-        <v>4252</v>
+        <v>4260</v>
       </c>
       <c r="C1908" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1908" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1908" s="1" t="s">
-        <v>62</v>
+        <v>1165</v>
+      </c>
+      <c r="E1908" s="1" t="s">
+        <v>1165</v>
       </c>
       <c r="O1908" s="1" t="s">
-        <v>4253</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="1909" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1909" s="1" t="s">
-        <v>4254</v>
+        <v>4264</v>
       </c>
       <c r="B1909" s="1" t="s">
-        <v>4255</v>
+        <v>4260</v>
       </c>
       <c r="C1909" s="1" t="s">
-        <v>214</v>
+        <v>2</v>
+      </c>
+      <c r="D1909" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E1909" s="1" t="s">
+        <v>1165</v>
       </c>
       <c r="O1909" s="1" t="s">
-        <v>4256</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="1910" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1910" s="1" t="s">
-        <v>4257</v>
+        <v>4266</v>
       </c>
       <c r="B1910" s="1" t="s">
-        <v>4255</v>
+        <v>4260</v>
       </c>
       <c r="C1910" s="1" t="s">
-        <v>214</v>
+        <v>2</v>
+      </c>
+      <c r="D1910" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E1910" s="1" t="s">
+        <v>1165</v>
       </c>
       <c r="O1910" s="1" t="s">
-        <v>4258</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="1911" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1911" s="1" t="s">
-        <v>4259</v>
+        <v>4268</v>
       </c>
       <c r="B1911" s="1" t="s">
-        <v>4260</v>
+        <v>4269</v>
       </c>
       <c r="C1911" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1911" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E1911" s="1" t="s">
-        <v>1165</v>
+      <c r="J1911" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="O1911" s="1" t="s">
-        <v>4261</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="1912" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1912" s="1" t="s">
-        <v>4262</v>
+        <v>4271</v>
       </c>
       <c r="B1912" s="1" t="s">
-        <v>4260</v>
+        <v>4269</v>
       </c>
       <c r="C1912" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1912" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E1912" s="1" t="s">
-        <v>1165</v>
+      <c r="J1912" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="O1912" s="1" t="s">
-        <v>4263</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="1913" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1913" s="1" t="s">
-        <v>4264</v>
+        <v>4273</v>
       </c>
       <c r="B1913" s="1" t="s">
-        <v>4260</v>
+        <v>4274</v>
       </c>
       <c r="C1913" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1913" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E1913" s="1" t="s">
-        <v>1165</v>
+      <c r="J1913" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="O1913" s="1" t="s">
-        <v>4265</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="1914" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1914" s="1" t="s">
-        <v>4266</v>
+        <v>4276</v>
       </c>
       <c r="B1914" s="1" t="s">
-        <v>4260</v>
+        <v>4274</v>
       </c>
       <c r="C1914" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1914" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E1914" s="1" t="s">
-        <v>1165</v>
+      <c r="J1914" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="O1914" s="1" t="s">
-        <v>4267</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="1915" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1915" s="1" t="s">
-        <v>4268</v>
+        <v>4278</v>
       </c>
       <c r="B1915" s="1" t="s">
-        <v>4269</v>
+        <v>4279</v>
       </c>
       <c r="C1915" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1915" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
       </c>
       <c r="O1915" s="1" t="s">
-        <v>4270</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="1916" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1916" s="1" t="s">
-        <v>4271</v>
+        <v>4281</v>
       </c>
       <c r="B1916" s="1" t="s">
-        <v>4269</v>
+        <v>4279</v>
       </c>
       <c r="C1916" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1916" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J1916" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
+      </c>
+      <c r="K1916" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="L1916" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="O1916" s="1" t="s">
-        <v>4272</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="1917" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1917" s="1" t="s">
-        <v>4273</v>
+        <v>4283</v>
       </c>
       <c r="B1917" s="1" t="s">
-        <v>4274</v>
+        <v>4279</v>
       </c>
       <c r="C1917" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1917" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J1917" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
+      </c>
+      <c r="K1917" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="L1917" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="O1917" s="1" t="s">
-        <v>4275</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="1918" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1918" s="1" t="s">
-        <v>4276</v>
+        <v>4285</v>
       </c>
       <c r="B1918" s="1" t="s">
-        <v>4274</v>
+        <v>4279</v>
       </c>
       <c r="C1918" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1918" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J1918" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
+      </c>
+      <c r="K1918" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="L1918" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="O1918" s="1" t="s">
-        <v>4277</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="1919" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1919" s="1" t="s">
-        <v>4278</v>
+        <v>4287</v>
       </c>
       <c r="B1919" s="1" t="s">
-        <v>4279</v>
+        <v>4288</v>
       </c>
       <c r="C1919" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1919" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J1919" s="1" t="s">
         <v>1538</v>
       </c>
       <c r="O1919" s="1" t="s">
-        <v>4280</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="1920" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1920" s="1" t="s">
-        <v>4281</v>
+        <v>4290</v>
       </c>
       <c r="B1920" s="1" t="s">
-        <v>4279</v>
+        <v>4288</v>
       </c>
       <c r="C1920" s="1" t="s">
         <v>2</v>
@@ -57410,111 +57508,135 @@
       <c r="J1920" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="K1920" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="L1920" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="O1920" s="1" t="s">
-        <v>4282</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="1921" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1921" s="1" t="s">
-        <v>4283</v>
+        <v>4292</v>
       </c>
       <c r="B1921" s="1" t="s">
-        <v>4279</v>
+        <v>4293</v>
       </c>
       <c r="C1921" s="1" t="s">
-        <v>2</v>
+        <v>4294</v>
       </c>
       <c r="D1921" s="1" t="s">
-        <v>158</v>
+        <v>567</v>
+      </c>
+      <c r="E1921" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="J1921" s="1" t="s">
-        <v>1538</v>
+        <v>85</v>
       </c>
       <c r="K1921" s="1" t="s">
-        <v>447</v>
+        <v>609</v>
       </c>
       <c r="L1921" s="1" t="s">
-        <v>85</v>
+        <v>359</v>
+      </c>
+      <c r="M1921" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="O1921" s="1" t="s">
-        <v>4284</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="1922" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1922" s="1" t="s">
-        <v>4285</v>
+        <v>4296</v>
       </c>
       <c r="B1922" s="1" t="s">
-        <v>4279</v>
+        <v>4293</v>
       </c>
       <c r="C1922" s="1" t="s">
-        <v>2</v>
+        <v>4294</v>
       </c>
       <c r="D1922" s="1" t="s">
-        <v>158</v>
+        <v>567</v>
+      </c>
+      <c r="E1922" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="J1922" s="1" t="s">
-        <v>1538</v>
+        <v>85</v>
       </c>
       <c r="K1922" s="1" t="s">
-        <v>447</v>
+        <v>609</v>
       </c>
       <c r="L1922" s="1" t="s">
-        <v>85</v>
+        <v>359</v>
+      </c>
+      <c r="M1922" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="O1922" s="1" t="s">
-        <v>4286</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1923" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1923" s="1" t="s">
-        <v>4287</v>
+        <v>4298</v>
       </c>
       <c r="B1923" s="1" t="s">
-        <v>4288</v>
+        <v>4293</v>
       </c>
       <c r="C1923" s="1" t="s">
-        <v>2</v>
+        <v>4294</v>
       </c>
       <c r="D1923" s="1" t="s">
-        <v>158</v>
+        <v>567</v>
       </c>
       <c r="J1923" s="1" t="s">
-        <v>1538</v>
+        <v>85</v>
+      </c>
+      <c r="K1923" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1923" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1923" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="O1923" s="1" t="s">
-        <v>4289</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1924" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1924" s="1" t="s">
-        <v>4290</v>
+        <v>4300</v>
       </c>
       <c r="B1924" s="1" t="s">
-        <v>4288</v>
+        <v>4293</v>
       </c>
       <c r="C1924" s="1" t="s">
-        <v>2</v>
+        <v>4294</v>
       </c>
       <c r="D1924" s="1" t="s">
-        <v>158</v>
+        <v>567</v>
       </c>
       <c r="J1924" s="1" t="s">
-        <v>1538</v>
+        <v>85</v>
+      </c>
+      <c r="K1924" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1924" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1924" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="O1924" s="1" t="s">
-        <v>4291</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="1925" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1925" s="1" t="s">
-        <v>4292</v>
+        <v>4302</v>
       </c>
       <c r="B1925" s="1" t="s">
         <v>4293</v>
@@ -57525,9 +57647,6 @@
       <c r="D1925" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E1925" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="J1925" s="1" t="s">
         <v>85</v>
       </c>
@@ -57535,18 +57654,18 @@
         <v>609</v>
       </c>
       <c r="L1925" s="1" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
       <c r="M1925" s="1" t="s">
         <v>1203</v>
       </c>
       <c r="O1925" s="1" t="s">
-        <v>4295</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="1926" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1926" s="1" t="s">
-        <v>4296</v>
+        <v>4304</v>
       </c>
       <c r="B1926" s="1" t="s">
         <v>4293</v>
@@ -57557,9 +57676,6 @@
       <c r="D1926" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E1926" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="J1926" s="1" t="s">
         <v>85</v>
       </c>
@@ -57567,18 +57683,18 @@
         <v>609</v>
       </c>
       <c r="L1926" s="1" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
       <c r="M1926" s="1" t="s">
         <v>1203</v>
       </c>
       <c r="O1926" s="1" t="s">
-        <v>4297</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="1927" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1927" s="1" t="s">
-        <v>4298</v>
+        <v>4306</v>
       </c>
       <c r="B1927" s="1" t="s">
         <v>4293</v>
@@ -57602,12 +57718,12 @@
         <v>1203</v>
       </c>
       <c r="O1927" s="1" t="s">
-        <v>4299</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1928" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1928" s="1" t="s">
-        <v>4300</v>
+        <v>4308</v>
       </c>
       <c r="B1928" s="1" t="s">
         <v>4293</v>
@@ -57631,12 +57747,12 @@
         <v>1203</v>
       </c>
       <c r="O1928" s="1" t="s">
-        <v>4301</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="1929" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1929" s="1" t="s">
-        <v>4302</v>
+        <v>4310</v>
       </c>
       <c r="B1929" s="1" t="s">
         <v>4293</v>
@@ -57660,12 +57776,12 @@
         <v>1203</v>
       </c>
       <c r="O1929" s="1" t="s">
-        <v>4303</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="1930" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1930" s="1" t="s">
-        <v>4304</v>
+        <v>4312</v>
       </c>
       <c r="B1930" s="1" t="s">
         <v>4293</v>
@@ -57689,12 +57805,12 @@
         <v>1203</v>
       </c>
       <c r="O1930" s="1" t="s">
-        <v>4305</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="1931" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1931" s="1" t="s">
-        <v>4306</v>
+        <v>4314</v>
       </c>
       <c r="B1931" s="1" t="s">
         <v>4293</v>
@@ -57718,12 +57834,12 @@
         <v>1203</v>
       </c>
       <c r="O1931" s="1" t="s">
-        <v>4307</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="1932" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1932" s="1" t="s">
-        <v>4308</v>
+        <v>4316</v>
       </c>
       <c r="B1932" s="1" t="s">
         <v>4293</v>
@@ -57747,15 +57863,15 @@
         <v>1203</v>
       </c>
       <c r="O1932" s="1" t="s">
-        <v>4309</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="1933" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1933" s="1" t="s">
-        <v>4310</v>
+        <v>4318</v>
       </c>
       <c r="B1933" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1933" s="1" t="s">
         <v>4294</v>
@@ -57773,15 +57889,15 @@
         <v>171</v>
       </c>
       <c r="M1933" s="1" t="s">
-        <v>1203</v>
+        <v>1925</v>
       </c>
       <c r="O1933" s="1" t="s">
-        <v>4311</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1934" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1934" s="1" t="s">
-        <v>4312</v>
+        <v>4321</v>
       </c>
       <c r="B1934" s="1" t="s">
         <v>4293</v>
@@ -57802,15 +57918,15 @@
         <v>171</v>
       </c>
       <c r="M1934" s="1" t="s">
-        <v>1203</v>
+        <v>1925</v>
       </c>
       <c r="O1934" s="1" t="s">
-        <v>4313</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1935" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1935" s="1" t="s">
-        <v>4314</v>
+        <v>4323</v>
       </c>
       <c r="B1935" s="1" t="s">
         <v>4293</v>
@@ -57831,15 +57947,15 @@
         <v>171</v>
       </c>
       <c r="M1935" s="1" t="s">
-        <v>1203</v>
+        <v>1925</v>
       </c>
       <c r="O1935" s="1" t="s">
-        <v>4315</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1936" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1936" s="1" t="s">
-        <v>4316</v>
+        <v>4325</v>
       </c>
       <c r="B1936" s="1" t="s">
         <v>4293</v>
@@ -57860,18 +57976,18 @@
         <v>171</v>
       </c>
       <c r="M1936" s="1" t="s">
-        <v>1203</v>
+        <v>1925</v>
       </c>
       <c r="O1936" s="1" t="s">
-        <v>4317</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1937" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1937" s="1" t="s">
-        <v>4318</v>
+        <v>4327</v>
       </c>
       <c r="B1937" s="1" t="s">
-        <v>4319</v>
+        <v>4293</v>
       </c>
       <c r="C1937" s="1" t="s">
         <v>4294</v>
@@ -57892,12 +58008,12 @@
         <v>1925</v>
       </c>
       <c r="O1937" s="1" t="s">
-        <v>4320</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1938" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1938" s="1" t="s">
-        <v>4321</v>
+        <v>4329</v>
       </c>
       <c r="B1938" s="1" t="s">
         <v>4293</v>
@@ -57921,12 +58037,12 @@
         <v>1925</v>
       </c>
       <c r="O1938" s="1" t="s">
-        <v>4322</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1939" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1939" s="1" t="s">
-        <v>4323</v>
+        <v>4331</v>
       </c>
       <c r="B1939" s="1" t="s">
         <v>4293</v>
@@ -57950,12 +58066,12 @@
         <v>1925</v>
       </c>
       <c r="O1939" s="1" t="s">
-        <v>4324</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1940" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1940" s="1" t="s">
-        <v>4325</v>
+        <v>4333</v>
       </c>
       <c r="B1940" s="1" t="s">
         <v>4293</v>
@@ -57979,102 +58095,84 @@
         <v>1925</v>
       </c>
       <c r="O1940" s="1" t="s">
-        <v>4326</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1941" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1941" s="1" t="s">
-        <v>4327</v>
+        <v>4335</v>
       </c>
       <c r="B1941" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1941" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1941" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1941" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1941" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1941" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1941" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1941" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1941" s="1" t="s">
-        <v>4328</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1942" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1942" s="1" t="s">
-        <v>4329</v>
+        <v>4339</v>
       </c>
       <c r="B1942" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1942" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1942" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1942" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1942" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1942" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1942" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1942" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1942" s="1" t="s">
-        <v>4330</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1943" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1943" s="1" t="s">
-        <v>4331</v>
+        <v>4341</v>
       </c>
       <c r="B1943" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1943" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1943" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1943" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1943" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1943" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1943" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1943" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1943" s="1" t="s">
-        <v>4332</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1944" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1944" s="1" t="s">
-        <v>4333</v>
+        <v>4343</v>
       </c>
       <c r="B1944" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1944" s="1" t="s">
         <v>4294</v>
@@ -58095,12 +58193,12 @@
         <v>1925</v>
       </c>
       <c r="O1944" s="1" t="s">
-        <v>4334</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1945" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1945" s="1" t="s">
-        <v>4335</v>
+        <v>4345</v>
       </c>
       <c r="B1945" s="1" t="s">
         <v>4319</v>
@@ -58109,21 +58207,27 @@
         <v>4294</v>
       </c>
       <c r="D1945" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1945" s="1" t="s">
-        <v>4337</v>
+        <v>567</v>
       </c>
       <c r="J1945" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="K1945" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1945" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1945" s="1" t="s">
+        <v>1925</v>
+      </c>
       <c r="O1945" s="1" t="s">
-        <v>4338</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1946" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1946" s="1" t="s">
-        <v>4339</v>
+        <v>4347</v>
       </c>
       <c r="B1946" s="1" t="s">
         <v>4319</v>
@@ -58132,21 +58236,27 @@
         <v>4294</v>
       </c>
       <c r="D1946" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1946" s="1" t="s">
-        <v>4337</v>
+        <v>567</v>
       </c>
       <c r="J1946" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="K1946" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1946" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1946" s="1" t="s">
+        <v>1925</v>
+      </c>
       <c r="O1946" s="1" t="s">
-        <v>4340</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1947" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1947" s="1" t="s">
-        <v>4341</v>
+        <v>4349</v>
       </c>
       <c r="B1947" s="1" t="s">
         <v>4319</v>
@@ -58155,21 +58265,27 @@
         <v>4294</v>
       </c>
       <c r="D1947" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1947" s="1" t="s">
-        <v>4337</v>
+        <v>567</v>
       </c>
       <c r="J1947" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="K1947" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1947" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1947" s="1" t="s">
+        <v>1925</v>
+      </c>
       <c r="O1947" s="1" t="s">
-        <v>4342</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1948" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1948" s="1" t="s">
-        <v>4343</v>
+        <v>4351</v>
       </c>
       <c r="B1948" s="1" t="s">
         <v>4319</v>
@@ -58193,12 +58309,12 @@
         <v>1925</v>
       </c>
       <c r="O1948" s="1" t="s">
-        <v>4344</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1949" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1949" s="1" t="s">
-        <v>4345</v>
+        <v>4353</v>
       </c>
       <c r="B1949" s="1" t="s">
         <v>4319</v>
@@ -58222,128 +58338,104 @@
         <v>1925</v>
       </c>
       <c r="O1949" s="1" t="s">
-        <v>4346</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1950" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1950" s="1" t="s">
-        <v>4347</v>
+        <v>4355</v>
       </c>
       <c r="B1950" s="1" t="s">
-        <v>4319</v>
+        <v>4356</v>
       </c>
       <c r="C1950" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1950" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1950" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1950" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1950" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1950" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1950" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1950" s="1" t="s">
-        <v>4348</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1951" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1951" s="1" t="s">
-        <v>4349</v>
+        <v>4358</v>
       </c>
       <c r="B1951" s="1" t="s">
-        <v>4319</v>
+        <v>4356</v>
       </c>
       <c r="C1951" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1951" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1951" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1951" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1951" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1951" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1951" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1951" s="1" t="s">
-        <v>4350</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1952" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1952" s="1" t="s">
-        <v>4351</v>
+        <v>4360</v>
       </c>
       <c r="B1952" s="1" t="s">
-        <v>4319</v>
+        <v>4356</v>
       </c>
       <c r="C1952" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1952" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1952" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1952" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1952" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1952" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1952" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1952" s="1" t="s">
-        <v>4352</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1953" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1953" s="1" t="s">
-        <v>4353</v>
+        <v>4362</v>
       </c>
       <c r="B1953" s="1" t="s">
-        <v>4319</v>
+        <v>4356</v>
       </c>
       <c r="C1953" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1953" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1953" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1953" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1953" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1953" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1953" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1953" s="1" t="s">
-        <v>4354</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="1954" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1954" s="1" t="s">
-        <v>4355</v>
+        <v>4364</v>
       </c>
       <c r="B1954" s="1" t="s">
         <v>4356</v>
@@ -58361,12 +58453,12 @@
         <v>85</v>
       </c>
       <c r="O1954" s="1" t="s">
-        <v>4357</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1955" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1955" s="1" t="s">
-        <v>4358</v>
+        <v>4366</v>
       </c>
       <c r="B1955" s="1" t="s">
         <v>4356</v>
@@ -58384,12 +58476,12 @@
         <v>85</v>
       </c>
       <c r="O1955" s="1" t="s">
-        <v>4359</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="1956" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1956" s="1" t="s">
-        <v>4360</v>
+        <v>4368</v>
       </c>
       <c r="B1956" s="1" t="s">
         <v>4356</v>
@@ -58407,12 +58499,12 @@
         <v>85</v>
       </c>
       <c r="O1956" s="1" t="s">
-        <v>4361</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="1957" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1957" s="1" t="s">
-        <v>4362</v>
+        <v>4370</v>
       </c>
       <c r="B1957" s="1" t="s">
         <v>4356</v>
@@ -58430,12 +58522,12 @@
         <v>85</v>
       </c>
       <c r="O1957" s="1" t="s">
-        <v>4363</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="1958" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1958" s="1" t="s">
-        <v>4364</v>
+        <v>4372</v>
       </c>
       <c r="B1958" s="1" t="s">
         <v>4356</v>
@@ -58453,12 +58545,12 @@
         <v>85</v>
       </c>
       <c r="O1958" s="1" t="s">
-        <v>4365</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="1959" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1959" s="1" t="s">
-        <v>4366</v>
+        <v>4374</v>
       </c>
       <c r="B1959" s="1" t="s">
         <v>4356</v>
@@ -58476,104 +58568,92 @@
         <v>85</v>
       </c>
       <c r="O1959" s="1" t="s">
-        <v>4367</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="1960" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1960" s="1" t="s">
-        <v>4368</v>
+        <v>4376</v>
       </c>
       <c r="B1960" s="1" t="s">
-        <v>4356</v>
+        <v>4377</v>
       </c>
       <c r="C1960" s="1" t="s">
-        <v>4294</v>
+        <v>2</v>
       </c>
       <c r="D1960" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1960" s="1" t="s">
-        <v>4337</v>
+        <v>158</v>
       </c>
       <c r="J1960" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="O1960" s="1" t="s">
-        <v>4369</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1961" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1961" s="1" t="s">
-        <v>4370</v>
+        <v>4379</v>
       </c>
       <c r="B1961" s="1" t="s">
-        <v>4356</v>
+        <v>4377</v>
       </c>
       <c r="C1961" s="1" t="s">
-        <v>4294</v>
+        <v>2</v>
       </c>
       <c r="D1961" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1961" s="1" t="s">
-        <v>4337</v>
+        <v>158</v>
       </c>
       <c r="J1961" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="O1961" s="1" t="s">
-        <v>4371</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1962" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1962" s="1" t="s">
-        <v>4372</v>
+        <v>4381</v>
       </c>
       <c r="B1962" s="1" t="s">
-        <v>4356</v>
+        <v>4377</v>
       </c>
       <c r="C1962" s="1" t="s">
-        <v>4294</v>
+        <v>2</v>
       </c>
       <c r="D1962" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1962" s="1" t="s">
-        <v>4337</v>
+        <v>158</v>
       </c>
       <c r="J1962" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="O1962" s="1" t="s">
-        <v>4373</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1963" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1963" s="1" t="s">
-        <v>4374</v>
+        <v>4383</v>
       </c>
       <c r="B1963" s="1" t="s">
-        <v>4356</v>
+        <v>4377</v>
       </c>
       <c r="C1963" s="1" t="s">
-        <v>4294</v>
+        <v>2</v>
       </c>
       <c r="D1963" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1963" s="1" t="s">
-        <v>4337</v>
+        <v>158</v>
       </c>
       <c r="J1963" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="O1963" s="1" t="s">
-        <v>4375</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1964" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1964" s="1" t="s">
-        <v>4376</v>
+        <v>4385</v>
       </c>
       <c r="B1964" s="1" t="s">
         <v>4377</v>
@@ -58588,12 +58668,12 @@
         <v>62</v>
       </c>
       <c r="O1964" s="1" t="s">
-        <v>4378</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1965" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1965" s="1" t="s">
-        <v>4379</v>
+        <v>4387</v>
       </c>
       <c r="B1965" s="1" t="s">
         <v>4377</v>
@@ -58608,12 +58688,12 @@
         <v>62</v>
       </c>
       <c r="O1965" s="1" t="s">
-        <v>4380</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1966" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1966" s="1" t="s">
-        <v>4381</v>
+        <v>4389</v>
       </c>
       <c r="B1966" s="1" t="s">
         <v>4377</v>
@@ -58628,12 +58708,12 @@
         <v>62</v>
       </c>
       <c r="O1966" s="1" t="s">
-        <v>4382</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1967" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1967" s="1" t="s">
-        <v>4383</v>
+        <v>4391</v>
       </c>
       <c r="B1967" s="1" t="s">
         <v>4377</v>
@@ -58648,12 +58728,12 @@
         <v>62</v>
       </c>
       <c r="O1967" s="1" t="s">
-        <v>4384</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1968" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1968" s="1" t="s">
-        <v>4385</v>
+        <v>4393</v>
       </c>
       <c r="B1968" s="1" t="s">
         <v>4377</v>
@@ -58668,92 +58748,77 @@
         <v>62</v>
       </c>
       <c r="O1968" s="1" t="s">
-        <v>4386</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1969" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1969" s="1" t="s">
-        <v>4387</v>
+        <v>4395</v>
       </c>
       <c r="B1969" s="1" t="s">
-        <v>4377</v>
+        <v>4396</v>
       </c>
       <c r="C1969" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1969" s="1" t="s">
-        <v>158</v>
+        <v>4397</v>
       </c>
       <c r="J1969" s="1" t="s">
-        <v>62</v>
+        <v>447</v>
       </c>
       <c r="O1969" s="1" t="s">
-        <v>4388</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1970" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1970" s="1" t="s">
-        <v>4389</v>
+        <v>4399</v>
       </c>
       <c r="B1970" s="1" t="s">
-        <v>4377</v>
+        <v>4396</v>
       </c>
       <c r="C1970" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1970" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1970" s="1" t="s">
-        <v>62</v>
+        <v>4397</v>
       </c>
       <c r="O1970" s="1" t="s">
-        <v>4390</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1971" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1971" s="1" t="s">
-        <v>4391</v>
+        <v>4401</v>
       </c>
       <c r="B1971" s="1" t="s">
-        <v>4377</v>
+        <v>4396</v>
       </c>
       <c r="C1971" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1971" s="1" t="s">
-        <v>158</v>
+        <v>4397</v>
       </c>
       <c r="J1971" s="1" t="s">
-        <v>62</v>
+        <v>447</v>
       </c>
       <c r="O1971" s="1" t="s">
-        <v>4392</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="1972" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1972" s="1" t="s">
-        <v>4393</v>
+        <v>4403</v>
       </c>
       <c r="B1972" s="1" t="s">
-        <v>4377</v>
+        <v>4396</v>
       </c>
       <c r="C1972" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1972" s="1" t="s">
-        <v>158</v>
+        <v>4397</v>
       </c>
       <c r="J1972" s="1" t="s">
-        <v>62</v>
+        <v>447</v>
       </c>
       <c r="O1972" s="1" t="s">
-        <v>4394</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="1973" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1973" s="1" t="s">
-        <v>4395</v>
+        <v>4405</v>
       </c>
       <c r="B1973" s="1" t="s">
         <v>4396</v>
@@ -58761,16 +58826,13 @@
       <c r="C1973" s="1" t="s">
         <v>4397</v>
       </c>
-      <c r="J1973" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="O1973" s="1" t="s">
-        <v>4398</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="1974" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1974" s="1" t="s">
-        <v>4399</v>
+        <v>4407</v>
       </c>
       <c r="B1974" s="1" t="s">
         <v>4396</v>
@@ -58778,13 +58840,16 @@
       <c r="C1974" s="1" t="s">
         <v>4397</v>
       </c>
+      <c r="J1974" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="O1974" s="1" t="s">
-        <v>4400</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="1975" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1975" s="1" t="s">
-        <v>4401</v>
+        <v>4409</v>
       </c>
       <c r="B1975" s="1" t="s">
         <v>4396</v>
@@ -58792,16 +58857,13 @@
       <c r="C1975" s="1" t="s">
         <v>4397</v>
       </c>
-      <c r="J1975" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="O1975" s="1" t="s">
-        <v>4402</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="1976" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1976" s="1" t="s">
-        <v>4403</v>
+        <v>4411</v>
       </c>
       <c r="B1976" s="1" t="s">
         <v>4396</v>
@@ -58809,16 +58871,13 @@
       <c r="C1976" s="1" t="s">
         <v>4397</v>
       </c>
-      <c r="J1976" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="O1976" s="1" t="s">
-        <v>4404</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="1977" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1977" s="1" t="s">
-        <v>4405</v>
+        <v>4413</v>
       </c>
       <c r="B1977" s="1" t="s">
         <v>4396</v>
@@ -58826,13 +58885,16 @@
       <c r="C1977" s="1" t="s">
         <v>4397</v>
       </c>
+      <c r="J1977" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="O1977" s="1" t="s">
-        <v>4406</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="1978" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1978" s="1" t="s">
-        <v>4407</v>
+        <v>4415</v>
       </c>
       <c r="B1978" s="1" t="s">
         <v>4396</v>
@@ -58840,16 +58902,13 @@
       <c r="C1978" s="1" t="s">
         <v>4397</v>
       </c>
-      <c r="J1978" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="O1978" s="1" t="s">
-        <v>4408</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="1979" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1979" s="1" t="s">
-        <v>4409</v>
+        <v>4417</v>
       </c>
       <c r="B1979" s="1" t="s">
         <v>4396</v>
@@ -58857,13 +58916,16 @@
       <c r="C1979" s="1" t="s">
         <v>4397</v>
       </c>
+      <c r="J1979" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="O1979" s="1" t="s">
-        <v>4410</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="1980" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1980" s="1" t="s">
-        <v>4411</v>
+        <v>4419</v>
       </c>
       <c r="B1980" s="1" t="s">
         <v>4396</v>
@@ -58872,12 +58934,12 @@
         <v>4397</v>
       </c>
       <c r="O1980" s="1" t="s">
-        <v>4412</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="1981" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1981" s="1" t="s">
-        <v>4413</v>
+        <v>4421</v>
       </c>
       <c r="B1981" s="1" t="s">
         <v>4396</v>
@@ -58885,16 +58947,13 @@
       <c r="C1981" s="1" t="s">
         <v>4397</v>
       </c>
-      <c r="J1981" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="O1981" s="1" t="s">
-        <v>4414</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="1982" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1982" s="1" t="s">
-        <v>4415</v>
+        <v>4423</v>
       </c>
       <c r="B1982" s="1" t="s">
         <v>4396</v>
@@ -58903,12 +58962,12 @@
         <v>4397</v>
       </c>
       <c r="O1982" s="1" t="s">
-        <v>4416</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1983" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1983" s="1" t="s">
-        <v>4417</v>
+        <v>4425</v>
       </c>
       <c r="B1983" s="1" t="s">
         <v>4396</v>
@@ -58916,124 +58975,145 @@
       <c r="C1983" s="1" t="s">
         <v>4397</v>
       </c>
+      <c r="D1983" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J1983" s="1" t="s">
-        <v>447</v>
+        <v>349</v>
       </c>
       <c r="O1983" s="1" t="s">
-        <v>4418</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1984" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1984" s="1" t="s">
-        <v>4419</v>
+        <v>4427</v>
       </c>
       <c r="B1984" s="1" t="s">
-        <v>4396</v>
+        <v>4428</v>
       </c>
       <c r="C1984" s="1" t="s">
-        <v>4397</v>
+        <v>348</v>
+      </c>
+      <c r="D1984" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1984" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1984" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="O1984" s="1" t="s">
-        <v>4420</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="1985" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1985" s="1" t="s">
-        <v>4421</v>
+        <v>4430</v>
       </c>
       <c r="B1985" s="1" t="s">
-        <v>4396</v>
+        <v>4428</v>
       </c>
       <c r="C1985" s="1" t="s">
-        <v>4397</v>
+        <v>348</v>
+      </c>
+      <c r="D1985" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1985" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1985" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="O1985" s="1" t="s">
-        <v>4422</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="1986" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1986" s="1" t="s">
-        <v>4423</v>
+        <v>4432</v>
       </c>
       <c r="B1986" s="1" t="s">
-        <v>4396</v>
+        <v>4433</v>
       </c>
       <c r="C1986" s="1" t="s">
-        <v>4397</v>
+        <v>2</v>
+      </c>
+      <c r="D1986" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1986" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="O1986" s="1" t="s">
-        <v>4424</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="1987" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1987" s="1" t="s">
-        <v>4425</v>
+        <v>4435</v>
       </c>
       <c r="B1987" s="1" t="s">
-        <v>4396</v>
+        <v>4433</v>
       </c>
       <c r="C1987" s="1" t="s">
-        <v>4397</v>
+        <v>2</v>
       </c>
       <c r="D1987" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J1987" s="1" t="s">
-        <v>349</v>
+        <v>177</v>
       </c>
       <c r="O1987" s="1" t="s">
-        <v>4426</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="1988" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1988" s="1" t="s">
-        <v>4427</v>
+        <v>4437</v>
       </c>
       <c r="B1988" s="1" t="s">
-        <v>4428</v>
+        <v>4433</v>
       </c>
       <c r="C1988" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1988" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1988" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K1988" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="O1988" s="1" t="s">
-        <v>4429</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="1989" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1989" s="1" t="s">
-        <v>4430</v>
+        <v>4439</v>
       </c>
       <c r="B1989" s="1" t="s">
-        <v>4428</v>
+        <v>4433</v>
       </c>
       <c r="C1989" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1989" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1989" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K1989" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="O1989" s="1" t="s">
-        <v>4431</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="1990" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1990" s="1" t="s">
-        <v>4432</v>
+        <v>4441</v>
       </c>
       <c r="B1990" s="1" t="s">
         <v>4433</v>
@@ -59048,12 +59128,12 @@
         <v>177</v>
       </c>
       <c r="O1990" s="1" t="s">
-        <v>4434</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="1991" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1991" s="1" t="s">
-        <v>4435</v>
+        <v>4443</v>
       </c>
       <c r="B1991" s="1" t="s">
         <v>4433</v>
@@ -59068,12 +59148,12 @@
         <v>177</v>
       </c>
       <c r="O1991" s="1" t="s">
-        <v>4436</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="1992" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1992" s="1" t="s">
-        <v>4437</v>
+        <v>4445</v>
       </c>
       <c r="B1992" s="1" t="s">
         <v>4433</v>
@@ -59088,12 +59168,12 @@
         <v>177</v>
       </c>
       <c r="O1992" s="1" t="s">
-        <v>4438</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="1993" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1993" s="1" t="s">
-        <v>4439</v>
+        <v>4447</v>
       </c>
       <c r="B1993" s="1" t="s">
         <v>4433</v>
@@ -59108,12 +59188,12 @@
         <v>177</v>
       </c>
       <c r="O1993" s="1" t="s">
-        <v>4440</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="1994" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1994" s="1" t="s">
-        <v>4441</v>
+        <v>4449</v>
       </c>
       <c r="B1994" s="1" t="s">
         <v>4433</v>
@@ -59128,92 +59208,92 @@
         <v>177</v>
       </c>
       <c r="O1994" s="1" t="s">
-        <v>4442</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="1995" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1995" s="1" t="s">
-        <v>4443</v>
+        <v>4451</v>
       </c>
       <c r="B1995" s="1" t="s">
-        <v>4433</v>
+        <v>4452</v>
       </c>
       <c r="C1995" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1995" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J1995" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
+      </c>
+      <c r="K1995" s="1" t="s">
+        <v>4453</v>
       </c>
       <c r="O1995" s="1" t="s">
-        <v>4444</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="1996" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1996" s="1" t="s">
-        <v>4445</v>
+        <v>4455</v>
       </c>
       <c r="B1996" s="1" t="s">
-        <v>4433</v>
+        <v>4452</v>
       </c>
       <c r="C1996" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1996" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J1996" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
+      </c>
+      <c r="K1996" s="1" t="s">
+        <v>4453</v>
       </c>
       <c r="O1996" s="1" t="s">
-        <v>4446</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1997" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1997" s="1" t="s">
-        <v>4447</v>
+        <v>4457</v>
       </c>
       <c r="B1997" s="1" t="s">
-        <v>4433</v>
+        <v>4452</v>
       </c>
       <c r="C1997" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1997" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J1997" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
+      </c>
+      <c r="K1997" s="1" t="s">
+        <v>4453</v>
       </c>
       <c r="O1997" s="1" t="s">
-        <v>4448</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1998" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1998" s="1" t="s">
-        <v>4449</v>
+        <v>4459</v>
       </c>
       <c r="B1998" s="1" t="s">
-        <v>4433</v>
+        <v>4452</v>
       </c>
       <c r="C1998" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1998" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J1998" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
+      </c>
+      <c r="K1998" s="1" t="s">
+        <v>4453</v>
       </c>
       <c r="O1998" s="1" t="s">
-        <v>4450</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1999" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1999" s="1" t="s">
-        <v>4451</v>
+        <v>4461</v>
       </c>
       <c r="B1999" s="1" t="s">
         <v>4452</v>
@@ -59228,12 +59308,12 @@
         <v>4453</v>
       </c>
       <c r="O1999" s="1" t="s">
-        <v>4454</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="2000" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2000" s="1" t="s">
-        <v>4455</v>
+        <v>4463</v>
       </c>
       <c r="B2000" s="1" t="s">
         <v>4452</v>
@@ -59248,12 +59328,12 @@
         <v>4453</v>
       </c>
       <c r="O2000" s="1" t="s">
-        <v>4456</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="2001" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2001" s="1" t="s">
-        <v>4457</v>
+        <v>4465</v>
       </c>
       <c r="B2001" s="1" t="s">
         <v>4452</v>
@@ -59264,93 +59344,93 @@
       <c r="J2001" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K2001" s="1" t="s">
-        <v>4453</v>
-      </c>
       <c r="O2001" s="1" t="s">
-        <v>4458</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="2002" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2002" s="1" t="s">
-        <v>4459</v>
+        <v>4467</v>
       </c>
       <c r="B2002" s="1" t="s">
-        <v>4452</v>
+        <v>4468</v>
       </c>
       <c r="C2002" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2002" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2002" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2002" s="1" t="s">
-        <v>4453</v>
+        <v>177</v>
       </c>
       <c r="O2002" s="1" t="s">
-        <v>4460</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="2003" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2003" s="1" t="s">
-        <v>4461</v>
+        <v>4470</v>
       </c>
       <c r="B2003" s="1" t="s">
-        <v>4452</v>
+        <v>4468</v>
       </c>
       <c r="C2003" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2003" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2003" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2003" s="1" t="s">
-        <v>4453</v>
+        <v>177</v>
       </c>
       <c r="O2003" s="1" t="s">
-        <v>4462</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="2004" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2004" s="1" t="s">
-        <v>4463</v>
+        <v>4472</v>
       </c>
       <c r="B2004" s="1" t="s">
-        <v>4452</v>
+        <v>4468</v>
       </c>
       <c r="C2004" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2004" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2004" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2004" s="1" t="s">
-        <v>4453</v>
+        <v>177</v>
       </c>
       <c r="O2004" s="1" t="s">
-        <v>4464</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="2005" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2005" s="1" t="s">
-        <v>4465</v>
+        <v>4474</v>
       </c>
       <c r="B2005" s="1" t="s">
-        <v>4452</v>
+        <v>4468</v>
       </c>
       <c r="C2005" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2005" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2005" s="1" t="s">
-        <v>62</v>
+        <v>349</v>
       </c>
       <c r="O2005" s="1" t="s">
-        <v>4466</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="2006" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2006" s="1" t="s">
-        <v>4467</v>
+        <v>4476</v>
       </c>
       <c r="B2006" s="1" t="s">
         <v>4468</v>
@@ -59362,58 +59442,64 @@
         <v>158</v>
       </c>
       <c r="J2006" s="1" t="s">
-        <v>177</v>
+        <v>349</v>
       </c>
       <c r="O2006" s="1" t="s">
-        <v>4469</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="2007" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2007" s="1" t="s">
-        <v>4470</v>
+        <v>4478</v>
       </c>
       <c r="B2007" s="1" t="s">
-        <v>4468</v>
+        <v>4479</v>
       </c>
       <c r="C2007" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2007" s="1" t="s">
-        <v>158</v>
+        <v>1274</v>
       </c>
       <c r="J2007" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="K2007" s="1" t="s">
+        <v>1275</v>
+      </c>
       <c r="O2007" s="1" t="s">
-        <v>4471</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="2008" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2008" s="1" t="s">
-        <v>4472</v>
+        <v>4481</v>
       </c>
       <c r="B2008" s="1" t="s">
-        <v>4468</v>
+        <v>4479</v>
       </c>
       <c r="C2008" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2008" s="1" t="s">
-        <v>158</v>
+        <v>1274</v>
       </c>
       <c r="J2008" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="K2008" s="1" t="s">
+        <v>1275</v>
+      </c>
       <c r="O2008" s="1" t="s">
-        <v>4473</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="2009" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2009" s="1" t="s">
-        <v>4474</v>
+        <v>4483</v>
       </c>
       <c r="B2009" s="1" t="s">
-        <v>4468</v>
+        <v>4484</v>
       </c>
       <c r="C2009" s="1" t="s">
         <v>2</v>
@@ -59422,18 +59508,21 @@
         <v>158</v>
       </c>
       <c r="J2009" s="1" t="s">
-        <v>349</v>
+        <v>1538</v>
+      </c>
+      <c r="K2009" s="1" t="s">
+        <v>1534</v>
       </c>
       <c r="O2009" s="1" t="s">
-        <v>4475</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="2010" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2010" s="1" t="s">
-        <v>4476</v>
+        <v>4486</v>
       </c>
       <c r="B2010" s="1" t="s">
-        <v>4468</v>
+        <v>4484</v>
       </c>
       <c r="C2010" s="1" t="s">
         <v>2</v>
@@ -59442,133 +59531,142 @@
         <v>158</v>
       </c>
       <c r="J2010" s="1" t="s">
-        <v>349</v>
+        <v>1538</v>
+      </c>
+      <c r="K2010" s="1" t="s">
+        <v>1534</v>
       </c>
       <c r="O2010" s="1" t="s">
-        <v>4477</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="2011" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2011" s="1" t="s">
-        <v>4478</v>
+        <v>4488</v>
       </c>
       <c r="B2011" s="1" t="s">
-        <v>4479</v>
+        <v>4484</v>
       </c>
       <c r="C2011" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2011" s="1" t="s">
-        <v>1274</v>
+        <v>158</v>
       </c>
       <c r="J2011" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
       </c>
       <c r="K2011" s="1" t="s">
-        <v>1275</v>
+        <v>1534</v>
       </c>
       <c r="O2011" s="1" t="s">
-        <v>4480</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="2012" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2012" s="1" t="s">
-        <v>4481</v>
+        <v>4490</v>
       </c>
       <c r="B2012" s="1" t="s">
-        <v>4479</v>
+        <v>4491</v>
       </c>
       <c r="C2012" s="1" t="s">
-        <v>2</v>
+        <v>1340</v>
       </c>
       <c r="D2012" s="1" t="s">
-        <v>1274</v>
+        <v>1340</v>
       </c>
       <c r="J2012" s="1" t="s">
-        <v>177</v>
+        <v>383</v>
       </c>
       <c r="K2012" s="1" t="s">
-        <v>1275</v>
+        <v>1925</v>
       </c>
       <c r="O2012" s="1" t="s">
-        <v>4482</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="2013" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2013" s="1" t="s">
-        <v>4483</v>
+        <v>4493</v>
       </c>
       <c r="B2013" s="1" t="s">
-        <v>4484</v>
+        <v>4491</v>
       </c>
       <c r="C2013" s="1" t="s">
-        <v>2</v>
+        <v>1340</v>
       </c>
       <c r="D2013" s="1" t="s">
-        <v>158</v>
+        <v>1340</v>
       </c>
       <c r="J2013" s="1" t="s">
-        <v>1538</v>
+        <v>383</v>
       </c>
       <c r="K2013" s="1" t="s">
-        <v>1534</v>
+        <v>1925</v>
       </c>
       <c r="O2013" s="1" t="s">
-        <v>4485</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="2014" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2014" s="1" t="s">
-        <v>4486</v>
+        <v>4495</v>
       </c>
       <c r="B2014" s="1" t="s">
-        <v>4484</v>
+        <v>4496</v>
       </c>
       <c r="C2014" s="1" t="s">
-        <v>2</v>
+        <v>1340</v>
       </c>
       <c r="D2014" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E2014" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J2014" s="1" t="s">
-        <v>1538</v>
+        <v>383</v>
       </c>
       <c r="K2014" s="1" t="s">
-        <v>1534</v>
+        <v>1925</v>
       </c>
       <c r="O2014" s="1" t="s">
-        <v>4487</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="2015" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2015" s="1" t="s">
-        <v>4488</v>
+        <v>4498</v>
       </c>
       <c r="B2015" s="1" t="s">
-        <v>4484</v>
+        <v>4496</v>
       </c>
       <c r="C2015" s="1" t="s">
-        <v>2</v>
+        <v>1340</v>
       </c>
       <c r="D2015" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E2015" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J2015" s="1" t="s">
-        <v>1538</v>
+        <v>383</v>
       </c>
       <c r="K2015" s="1" t="s">
-        <v>1534</v>
+        <v>1925</v>
       </c>
       <c r="O2015" s="1" t="s">
-        <v>4489</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="2016" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2016" s="1" t="s">
-        <v>4490</v>
+        <v>4500</v>
       </c>
       <c r="B2016" s="1" t="s">
-        <v>4491</v>
+        <v>4496</v>
       </c>
       <c r="C2016" s="1" t="s">
         <v>1340</v>
@@ -59576,6 +59674,9 @@
       <c r="D2016" s="1" t="s">
         <v>1340</v>
       </c>
+      <c r="E2016" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2016" s="1" t="s">
         <v>383</v>
       </c>
@@ -59583,21 +59684,21 @@
         <v>1925</v>
       </c>
       <c r="O2016" s="1" t="s">
-        <v>4492</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="2017" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2017" s="1" t="s">
-        <v>4493</v>
+        <v>4502</v>
       </c>
       <c r="B2017" s="1" t="s">
-        <v>4491</v>
+        <v>4503</v>
       </c>
       <c r="C2017" s="1" t="s">
-        <v>1340</v>
+        <v>348</v>
       </c>
       <c r="D2017" s="1" t="s">
-        <v>1340</v>
+        <v>158</v>
       </c>
       <c r="J2017" s="1" t="s">
         <v>383</v>
@@ -59606,93 +59707,72 @@
         <v>1925</v>
       </c>
       <c r="O2017" s="1" t="s">
-        <v>4494</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="2018" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2018" s="1" t="s">
-        <v>4495</v>
+        <v>4505</v>
       </c>
       <c r="B2018" s="1" t="s">
-        <v>4496</v>
+        <v>4506</v>
       </c>
       <c r="C2018" s="1" t="s">
-        <v>1340</v>
+        <v>348</v>
       </c>
       <c r="D2018" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E2018" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2018" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2018" s="1" t="s">
-        <v>1925</v>
+        <v>158</v>
       </c>
       <c r="O2018" s="1" t="s">
-        <v>4497</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="2019" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2019" s="1" t="s">
-        <v>4498</v>
+        <v>4508</v>
       </c>
       <c r="B2019" s="1" t="s">
-        <v>4496</v>
+        <v>4506</v>
       </c>
       <c r="C2019" s="1" t="s">
-        <v>1340</v>
+        <v>348</v>
       </c>
       <c r="D2019" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E2019" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2019" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2019" s="1" t="s">
-        <v>1925</v>
+        <v>158</v>
       </c>
       <c r="O2019" s="1" t="s">
-        <v>4499</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="2020" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2020" s="1" t="s">
-        <v>4500</v>
+        <v>4510</v>
       </c>
       <c r="B2020" s="1" t="s">
-        <v>4496</v>
+        <v>4506</v>
       </c>
       <c r="C2020" s="1" t="s">
-        <v>1340</v>
+        <v>348</v>
       </c>
       <c r="D2020" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E2020" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J2020" s="1" t="s">
-        <v>383</v>
+        <v>609</v>
       </c>
       <c r="K2020" s="1" t="s">
-        <v>1925</v>
+        <v>4511</v>
       </c>
       <c r="O2020" s="1" t="s">
-        <v>4501</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="2021" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2021" s="1" t="s">
-        <v>4502</v>
+        <v>4513</v>
       </c>
       <c r="B2021" s="1" t="s">
-        <v>4503</v>
+        <v>4514</v>
       </c>
       <c r="C2021" s="1" t="s">
         <v>348</v>
@@ -59704,18 +59784,18 @@
         <v>383</v>
       </c>
       <c r="K2021" s="1" t="s">
-        <v>1925</v>
+        <v>1534</v>
       </c>
       <c r="O2021" s="1" t="s">
-        <v>4504</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="2022" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2022" s="1" t="s">
-        <v>4505</v>
+        <v>4516</v>
       </c>
       <c r="B2022" s="1" t="s">
-        <v>4506</v>
+        <v>4514</v>
       </c>
       <c r="C2022" s="1" t="s">
         <v>348</v>
@@ -59723,16 +59803,22 @@
       <c r="D2022" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="J2022" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="K2022" s="1" t="s">
+        <v>1534</v>
+      </c>
       <c r="O2022" s="1" t="s">
-        <v>4507</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="2023" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2023" s="1" t="s">
-        <v>4508</v>
+        <v>4518</v>
       </c>
       <c r="B2023" s="1" t="s">
-        <v>4506</v>
+        <v>4514</v>
       </c>
       <c r="C2023" s="1" t="s">
         <v>348</v>
@@ -59740,16 +59826,22 @@
       <c r="D2023" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="J2023" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="K2023" s="1" t="s">
+        <v>1534</v>
+      </c>
       <c r="O2023" s="1" t="s">
-        <v>4509</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="2024" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2024" s="1" t="s">
-        <v>4510</v>
+        <v>4520</v>
       </c>
       <c r="B2024" s="1" t="s">
-        <v>4506</v>
+        <v>4514</v>
       </c>
       <c r="C2024" s="1" t="s">
         <v>348</v>
@@ -59758,18 +59850,18 @@
         <v>158</v>
       </c>
       <c r="J2024" s="1" t="s">
-        <v>609</v>
+        <v>383</v>
       </c>
       <c r="K2024" s="1" t="s">
-        <v>4511</v>
+        <v>1534</v>
       </c>
       <c r="O2024" s="1" t="s">
-        <v>4512</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="2025" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2025" s="1" t="s">
-        <v>4513</v>
+        <v>4522</v>
       </c>
       <c r="B2025" s="1" t="s">
         <v>4514</v>
@@ -59787,15 +59879,15 @@
         <v>1534</v>
       </c>
       <c r="O2025" s="1" t="s">
-        <v>4515</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="2026" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2026" s="1" t="s">
-        <v>4516</v>
+        <v>4524</v>
       </c>
       <c r="B2026" s="1" t="s">
-        <v>4514</v>
+        <v>4525</v>
       </c>
       <c r="C2026" s="1" t="s">
         <v>348</v>
@@ -59807,18 +59899,18 @@
         <v>383</v>
       </c>
       <c r="K2026" s="1" t="s">
-        <v>1534</v>
+        <v>1925</v>
       </c>
       <c r="O2026" s="1" t="s">
-        <v>4517</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="2027" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2027" s="1" t="s">
-        <v>4518</v>
+        <v>4527</v>
       </c>
       <c r="B2027" s="1" t="s">
-        <v>4514</v>
+        <v>4525</v>
       </c>
       <c r="C2027" s="1" t="s">
         <v>348</v>
@@ -59830,170 +59922,158 @@
         <v>383</v>
       </c>
       <c r="K2027" s="1" t="s">
-        <v>1534</v>
+        <v>1925</v>
       </c>
       <c r="O2027" s="1" t="s">
-        <v>4519</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="2028" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2028" s="1" t="s">
-        <v>4520</v>
+        <v>4529</v>
       </c>
       <c r="B2028" s="1" t="s">
-        <v>4514</v>
+        <v>4530</v>
       </c>
       <c r="C2028" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D2028" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J2028" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2028" s="1" t="s">
-        <v>1534</v>
+        <v>177</v>
       </c>
       <c r="O2028" s="1" t="s">
-        <v>4521</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="2029" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2029" s="1" t="s">
-        <v>4522</v>
+        <v>4532</v>
       </c>
       <c r="B2029" s="1" t="s">
-        <v>4514</v>
+        <v>4530</v>
       </c>
       <c r="C2029" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D2029" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J2029" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2029" s="1" t="s">
-        <v>1534</v>
+        <v>177</v>
       </c>
       <c r="O2029" s="1" t="s">
-        <v>4523</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="2030" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2030" s="1" t="s">
-        <v>4524</v>
+        <v>4534</v>
       </c>
       <c r="B2030" s="1" t="s">
-        <v>4525</v>
+        <v>4530</v>
       </c>
       <c r="C2030" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D2030" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J2030" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2030" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
       </c>
       <c r="O2030" s="1" t="s">
-        <v>4526</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="2031" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2031" s="1" t="s">
-        <v>4527</v>
+        <v>4536</v>
       </c>
       <c r="B2031" s="1" t="s">
-        <v>4525</v>
+        <v>4537</v>
       </c>
       <c r="C2031" s="1" t="s">
-        <v>348</v>
+        <v>521</v>
       </c>
       <c r="D2031" s="1" t="s">
-        <v>158</v>
+        <v>567</v>
       </c>
       <c r="J2031" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2031" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
       </c>
       <c r="O2031" s="1" t="s">
-        <v>4528</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="2032" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2032" s="1" t="s">
-        <v>4529</v>
+        <v>4539</v>
       </c>
       <c r="B2032" s="1" t="s">
-        <v>4530</v>
+        <v>4537</v>
       </c>
       <c r="C2032" s="1" t="s">
-        <v>2</v>
+        <v>521</v>
       </c>
       <c r="D2032" s="1" t="s">
-        <v>2</v>
+        <v>567</v>
       </c>
       <c r="J2032" s="1" t="s">
         <v>177</v>
       </c>
       <c r="O2032" s="1" t="s">
-        <v>4531</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="2033" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2033" s="1" t="s">
-        <v>4532</v>
+        <v>4541</v>
       </c>
       <c r="B2033" s="1" t="s">
-        <v>4530</v>
+        <v>4542</v>
       </c>
       <c r="C2033" s="1" t="s">
-        <v>2</v>
+        <v>521</v>
       </c>
       <c r="D2033" s="1" t="s">
-        <v>2</v>
+        <v>567</v>
       </c>
       <c r="J2033" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
       </c>
       <c r="O2033" s="1" t="s">
-        <v>4533</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="2034" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2034" s="1" t="s">
-        <v>4534</v>
+        <v>4544</v>
       </c>
       <c r="B2034" s="1" t="s">
-        <v>4530</v>
+        <v>4542</v>
       </c>
       <c r="C2034" s="1" t="s">
-        <v>2</v>
+        <v>521</v>
       </c>
       <c r="D2034" s="1" t="s">
-        <v>2</v>
+        <v>567</v>
       </c>
       <c r="J2034" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
       </c>
       <c r="O2034" s="1" t="s">
-        <v>4535</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="2035" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2035" s="1" t="s">
-        <v>4536</v>
+        <v>4546</v>
       </c>
       <c r="B2035" s="1" t="s">
-        <v>4537</v>
+        <v>4542</v>
       </c>
       <c r="C2035" s="1" t="s">
         <v>521</v>
@@ -60002,232 +60082,244 @@
         <v>567</v>
       </c>
       <c r="J2035" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
       </c>
       <c r="O2035" s="1" t="s">
-        <v>4538</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="2036" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2036" s="1" t="s">
-        <v>4539</v>
+        <v>4548</v>
       </c>
       <c r="B2036" s="1" t="s">
-        <v>4537</v>
+        <v>4549</v>
       </c>
       <c r="C2036" s="1" t="s">
-        <v>521</v>
+        <v>446</v>
       </c>
       <c r="D2036" s="1" t="s">
-        <v>567</v>
+        <v>2</v>
       </c>
       <c r="J2036" s="1" t="s">
         <v>177</v>
       </c>
       <c r="O2036" s="1" t="s">
-        <v>4540</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="2037" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2037" s="1" t="s">
-        <v>4541</v>
+        <v>4551</v>
       </c>
       <c r="B2037" s="1" t="s">
-        <v>4542</v>
+        <v>4549</v>
       </c>
       <c r="C2037" s="1" t="s">
-        <v>521</v>
+        <v>446</v>
       </c>
       <c r="D2037" s="1" t="s">
-        <v>567</v>
+        <v>2</v>
       </c>
       <c r="J2037" s="1" t="s">
-        <v>1538</v>
+        <v>177</v>
       </c>
       <c r="O2037" s="1" t="s">
-        <v>4543</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="2038" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2038" s="1" t="s">
-        <v>4544</v>
+        <v>4553</v>
       </c>
       <c r="B2038" s="1" t="s">
-        <v>4542</v>
+        <v>4554</v>
       </c>
       <c r="C2038" s="1" t="s">
-        <v>521</v>
+        <v>2</v>
       </c>
       <c r="D2038" s="1" t="s">
-        <v>567</v>
+        <v>158</v>
       </c>
       <c r="J2038" s="1" t="s">
         <v>1538</v>
       </c>
       <c r="O2038" s="1" t="s">
-        <v>4545</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="2039" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2039" s="1" t="s">
-        <v>4546</v>
+        <v>4556</v>
       </c>
       <c r="B2039" s="1" t="s">
-        <v>4542</v>
+        <v>4557</v>
       </c>
       <c r="C2039" s="1" t="s">
-        <v>521</v>
+        <v>348</v>
       </c>
       <c r="D2039" s="1" t="s">
         <v>567</v>
       </c>
       <c r="J2039" s="1" t="s">
-        <v>1538</v>
+        <v>62</v>
+      </c>
+      <c r="K2039" s="1" t="s">
+        <v>4078</v>
       </c>
       <c r="O2039" s="1" t="s">
-        <v>4547</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="2040" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2040" s="1" t="s">
-        <v>4548</v>
+        <v>4559</v>
       </c>
       <c r="B2040" s="1" t="s">
-        <v>4549</v>
+        <v>4560</v>
       </c>
       <c r="C2040" s="1" t="s">
-        <v>446</v>
+        <v>2</v>
       </c>
       <c r="D2040" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J2040" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
       </c>
       <c r="O2040" s="1" t="s">
-        <v>4550</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="2041" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2041" s="1" t="s">
-        <v>4551</v>
+        <v>4562</v>
       </c>
       <c r="B2041" s="1" t="s">
-        <v>4549</v>
+        <v>4560</v>
       </c>
       <c r="C2041" s="1" t="s">
-        <v>446</v>
+        <v>2</v>
       </c>
       <c r="D2041" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J2041" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
       </c>
       <c r="O2041" s="1" t="s">
-        <v>4552</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="2042" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2042" s="1" t="s">
-        <v>4553</v>
+        <v>4564</v>
       </c>
       <c r="B2042" s="1" t="s">
-        <v>4554</v>
+        <v>4565</v>
       </c>
       <c r="C2042" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2042" s="1" t="s">
-        <v>158</v>
+        <v>348</v>
+      </c>
+      <c r="E2042" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2042" s="1" t="s">
+        <v>1177</v>
       </c>
       <c r="J2042" s="1" t="s">
-        <v>1538</v>
+        <v>609</v>
+      </c>
+      <c r="K2042" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O2042" s="1" t="s">
-        <v>4555</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="2043" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2043" s="1" t="s">
-        <v>4556</v>
+        <v>4567</v>
       </c>
       <c r="B2043" s="1" t="s">
-        <v>4557</v>
+        <v>4565</v>
       </c>
       <c r="C2043" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D2043" s="1" t="s">
-        <v>567</v>
+        <v>348</v>
+      </c>
+      <c r="E2043" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2043" s="1" t="s">
+        <v>1177</v>
       </c>
       <c r="J2043" s="1" t="s">
-        <v>62</v>
+        <v>609</v>
       </c>
       <c r="K2043" s="1" t="s">
-        <v>4078</v>
+        <v>1723</v>
       </c>
       <c r="O2043" s="1" t="s">
-        <v>4558</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="2044" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2044" s="1" t="s">
-        <v>4559</v>
+        <v>4569</v>
       </c>
       <c r="B2044" s="1" t="s">
-        <v>4560</v>
+        <v>4570</v>
       </c>
       <c r="C2044" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2044" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J2044" s="1" t="s">
-        <v>1538</v>
+        <v>364</v>
       </c>
       <c r="O2044" s="1" t="s">
-        <v>4561</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="2045" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2045" s="1" t="s">
-        <v>4562</v>
+        <v>4572</v>
       </c>
       <c r="B2045" s="1" t="s">
-        <v>4560</v>
+        <v>4570</v>
       </c>
       <c r="C2045" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2045" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J2045" s="1" t="s">
-        <v>1538</v>
+        <v>364</v>
       </c>
       <c r="O2045" s="1" t="s">
-        <v>4563</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="2046" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2046" s="1" t="s">
-        <v>4564</v>
+        <v>4574</v>
       </c>
       <c r="B2046" s="1" t="s">
-        <v>4565</v>
+        <v>4570</v>
       </c>
       <c r="C2046" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D2046" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E2046" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F2046" s="1" t="s">
         <v>1177</v>
       </c>
       <c r="J2046" s="1" t="s">
@@ -60237,26 +60329,20 @@
         <v>1723</v>
       </c>
       <c r="O2046" s="1" t="s">
-        <v>4566</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="2047" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2047" s="1" t="s">
-        <v>4567</v>
+        <v>4576</v>
       </c>
       <c r="B2047" s="1" t="s">
-        <v>4565</v>
+        <v>4570</v>
       </c>
       <c r="C2047" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D2047" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E2047" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F2047" s="1" t="s">
         <v>1177</v>
       </c>
       <c r="J2047" s="1" t="s">
@@ -60266,12 +60352,12 @@
         <v>1723</v>
       </c>
       <c r="O2047" s="1" t="s">
-        <v>4568</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="2048" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2048" s="1" t="s">
-        <v>4569</v>
+        <v>4578</v>
       </c>
       <c r="B2048" s="1" t="s">
         <v>4570</v>
@@ -60280,18 +60366,21 @@
         <v>348</v>
       </c>
       <c r="D2048" s="1" t="s">
-        <v>158</v>
+        <v>1177</v>
       </c>
       <c r="J2048" s="1" t="s">
-        <v>364</v>
+        <v>609</v>
+      </c>
+      <c r="K2048" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O2048" s="1" t="s">
-        <v>4571</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="2049" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2049" s="1" t="s">
-        <v>4572</v>
+        <v>4580</v>
       </c>
       <c r="B2049" s="1" t="s">
         <v>4570</v>
@@ -60300,18 +60389,21 @@
         <v>348</v>
       </c>
       <c r="D2049" s="1" t="s">
-        <v>158</v>
+        <v>1177</v>
       </c>
       <c r="J2049" s="1" t="s">
-        <v>364</v>
+        <v>609</v>
+      </c>
+      <c r="K2049" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O2049" s="1" t="s">
-        <v>4573</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="2050" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2050" s="1" t="s">
-        <v>4574</v>
+        <v>4582</v>
       </c>
       <c r="B2050" s="1" t="s">
         <v>4570</v>
@@ -60329,12 +60421,12 @@
         <v>1723</v>
       </c>
       <c r="O2050" s="1" t="s">
-        <v>4575</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="2051" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2051" s="1" t="s">
-        <v>4576</v>
+        <v>4584</v>
       </c>
       <c r="B2051" s="1" t="s">
         <v>4570</v>
@@ -60352,12 +60444,12 @@
         <v>1723</v>
       </c>
       <c r="O2051" s="1" t="s">
-        <v>4577</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="2052" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2052" s="1" t="s">
-        <v>4578</v>
+        <v>4586</v>
       </c>
       <c r="B2052" s="1" t="s">
         <v>4570</v>
@@ -60375,12 +60467,12 @@
         <v>1723</v>
       </c>
       <c r="O2052" s="1" t="s">
-        <v>4579</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="2053" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2053" s="1" t="s">
-        <v>4580</v>
+        <v>4588</v>
       </c>
       <c r="B2053" s="1" t="s">
         <v>4570</v>
@@ -60398,12 +60490,12 @@
         <v>1723</v>
       </c>
       <c r="O2053" s="1" t="s">
-        <v>4581</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="2054" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2054" s="1" t="s">
-        <v>4582</v>
+        <v>4590</v>
       </c>
       <c r="B2054" s="1" t="s">
         <v>4570</v>
@@ -60421,12 +60513,12 @@
         <v>1723</v>
       </c>
       <c r="O2054" s="1" t="s">
-        <v>4583</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="2055" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2055" s="1" t="s">
-        <v>4584</v>
+        <v>4592</v>
       </c>
       <c r="B2055" s="1" t="s">
         <v>4570</v>
@@ -60444,12 +60536,12 @@
         <v>1723</v>
       </c>
       <c r="O2055" s="1" t="s">
-        <v>4585</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="2056" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2056" s="1" t="s">
-        <v>4586</v>
+        <v>4594</v>
       </c>
       <c r="B2056" s="1" t="s">
         <v>4570</v>
@@ -60467,12 +60559,12 @@
         <v>1723</v>
       </c>
       <c r="O2056" s="1" t="s">
-        <v>4587</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="2057" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2057" s="1" t="s">
-        <v>4588</v>
+        <v>4596</v>
       </c>
       <c r="B2057" s="1" t="s">
         <v>4570</v>
@@ -60490,12 +60582,12 @@
         <v>1723</v>
       </c>
       <c r="O2057" s="1" t="s">
-        <v>4589</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="2058" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2058" s="1" t="s">
-        <v>4590</v>
+        <v>4598</v>
       </c>
       <c r="B2058" s="1" t="s">
         <v>4570</v>
@@ -60513,12 +60605,12 @@
         <v>1723</v>
       </c>
       <c r="O2058" s="1" t="s">
-        <v>4591</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="2059" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2059" s="1" t="s">
-        <v>4592</v>
+        <v>4600</v>
       </c>
       <c r="B2059" s="1" t="s">
         <v>4570</v>
@@ -60536,12 +60628,12 @@
         <v>1723</v>
       </c>
       <c r="O2059" s="1" t="s">
-        <v>4593</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="2060" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2060" s="1" t="s">
-        <v>4594</v>
+        <v>4602</v>
       </c>
       <c r="B2060" s="1" t="s">
         <v>4570</v>
@@ -60559,12 +60651,12 @@
         <v>1723</v>
       </c>
       <c r="O2060" s="1" t="s">
-        <v>4595</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="2061" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2061" s="1" t="s">
-        <v>4596</v>
+        <v>4604</v>
       </c>
       <c r="B2061" s="1" t="s">
         <v>4570</v>
@@ -60582,12 +60674,12 @@
         <v>1723</v>
       </c>
       <c r="O2061" s="1" t="s">
-        <v>4597</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="2062" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2062" s="1" t="s">
-        <v>4598</v>
+        <v>4606</v>
       </c>
       <c r="B2062" s="1" t="s">
         <v>4570</v>
@@ -60605,12 +60697,12 @@
         <v>1723</v>
       </c>
       <c r="O2062" s="1" t="s">
-        <v>4599</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="2063" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2063" s="1" t="s">
-        <v>4600</v>
+        <v>4608</v>
       </c>
       <c r="B2063" s="1" t="s">
         <v>4570</v>
@@ -60628,12 +60720,12 @@
         <v>1723</v>
       </c>
       <c r="O2063" s="1" t="s">
-        <v>4601</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="2064" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2064" s="1" t="s">
-        <v>4602</v>
+        <v>4610</v>
       </c>
       <c r="B2064" s="1" t="s">
         <v>4570</v>
@@ -60651,12 +60743,12 @@
         <v>1723</v>
       </c>
       <c r="O2064" s="1" t="s">
-        <v>4603</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="2065" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2065" s="1" t="s">
-        <v>4604</v>
+        <v>4612</v>
       </c>
       <c r="B2065" s="1" t="s">
         <v>4570</v>
@@ -60674,12 +60766,12 @@
         <v>1723</v>
       </c>
       <c r="O2065" s="1" t="s">
-        <v>4605</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="2066" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2066" s="1" t="s">
-        <v>4606</v>
+        <v>4614</v>
       </c>
       <c r="B2066" s="1" t="s">
         <v>4570</v>
@@ -60687,22 +60779,16 @@
       <c r="C2066" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D2066" s="1" t="s">
-        <v>1177</v>
-      </c>
       <c r="J2066" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K2066" s="1" t="s">
-        <v>1723</v>
+        <v>1925</v>
       </c>
       <c r="O2066" s="1" t="s">
-        <v>4607</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="2067" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2067" s="1" t="s">
-        <v>4608</v>
+        <v>4616</v>
       </c>
       <c r="B2067" s="1" t="s">
         <v>4570</v>
@@ -60720,193 +60806,187 @@
         <v>1723</v>
       </c>
       <c r="O2067" s="1" t="s">
-        <v>4609</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="2068" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2068" s="1" t="s">
-        <v>4610</v>
+        <v>4618</v>
       </c>
       <c r="B2068" s="1" t="s">
-        <v>4570</v>
+        <v>4619</v>
       </c>
       <c r="C2068" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D2068" s="1" t="s">
-        <v>1177</v>
+        <v>2</v>
       </c>
       <c r="J2068" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K2068" s="1" t="s">
-        <v>1723</v>
+        <v>2692</v>
       </c>
       <c r="O2068" s="1" t="s">
-        <v>4611</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="2069" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2069" s="1" t="s">
-        <v>4612</v>
+        <v>4621</v>
       </c>
       <c r="B2069" s="1" t="s">
-        <v>4570</v>
+        <v>4619</v>
       </c>
       <c r="C2069" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D2069" s="1" t="s">
-        <v>1177</v>
+        <v>2</v>
       </c>
       <c r="J2069" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K2069" s="1" t="s">
-        <v>1723</v>
+        <v>2692</v>
       </c>
       <c r="O2069" s="1" t="s">
-        <v>4613</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="2070" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2070" s="1" t="s">
-        <v>4614</v>
+        <v>4623</v>
       </c>
       <c r="B2070" s="1" t="s">
-        <v>4570</v>
+        <v>4619</v>
       </c>
       <c r="C2070" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D2070" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="J2070" s="1" t="s">
-        <v>1925</v>
+        <v>609</v>
+      </c>
+      <c r="K2070" s="1" t="s">
+        <v>2692</v>
       </c>
       <c r="O2070" s="1" t="s">
-        <v>4615</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="2071" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2071" s="1" t="s">
-        <v>4616</v>
+        <v>4625</v>
       </c>
       <c r="B2071" s="1" t="s">
-        <v>4570</v>
+        <v>4619</v>
       </c>
       <c r="C2071" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D2071" s="1" t="s">
-        <v>1177</v>
+        <v>2</v>
       </c>
       <c r="J2071" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K2071" s="1" t="s">
-        <v>1723</v>
+        <v>2692</v>
       </c>
       <c r="O2071" s="1" t="s">
-        <v>4617</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="2072" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2072" s="1" t="s">
-        <v>4618</v>
+        <v>4627</v>
       </c>
       <c r="B2072" s="1" t="s">
-        <v>4619</v>
+        <v>4628</v>
       </c>
       <c r="C2072" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D2072" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J2072" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K2072" s="1" t="s">
-        <v>2692</v>
+        <v>4629</v>
       </c>
       <c r="O2072" s="1" t="s">
-        <v>4620</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="2073" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2073" s="1" t="s">
-        <v>4621</v>
+        <v>4631</v>
       </c>
       <c r="B2073" s="1" t="s">
-        <v>4619</v>
+        <v>4628</v>
       </c>
       <c r="C2073" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D2073" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J2073" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K2073" s="1" t="s">
-        <v>2692</v>
+        <v>4629</v>
       </c>
       <c r="O2073" s="1" t="s">
-        <v>4622</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="2074" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2074" s="1" t="s">
-        <v>4623</v>
+        <v>4633</v>
       </c>
       <c r="B2074" s="1" t="s">
-        <v>4619</v>
+        <v>4634</v>
       </c>
       <c r="C2074" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D2074" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J2074" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K2074" s="1" t="s">
-        <v>2692</v>
+        <v>1640</v>
       </c>
       <c r="O2074" s="1" t="s">
-        <v>4624</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="2075" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2075" s="1" t="s">
-        <v>4625</v>
+        <v>4636</v>
       </c>
       <c r="B2075" s="1" t="s">
-        <v>4619</v>
+        <v>4634</v>
       </c>
       <c r="C2075" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D2075" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J2075" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K2075" s="1" t="s">
-        <v>2692</v>
+        <v>4629</v>
       </c>
       <c r="O2075" s="1" t="s">
-        <v>4626</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="2076" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2076" s="1" t="s">
-        <v>4627</v>
+        <v>4638</v>
       </c>
       <c r="B2076" s="1" t="s">
-        <v>4628</v>
+        <v>4639</v>
       </c>
       <c r="C2076" s="1" t="s">
         <v>348</v>
@@ -60915,18 +60995,18 @@
         <v>158</v>
       </c>
       <c r="J2076" s="1" t="s">
-        <v>4629</v>
+        <v>1640</v>
       </c>
       <c r="O2076" s="1" t="s">
-        <v>4630</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="2077" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2077" s="1" t="s">
-        <v>4631</v>
+        <v>4641</v>
       </c>
       <c r="B2077" s="1" t="s">
-        <v>4628</v>
+        <v>4639</v>
       </c>
       <c r="C2077" s="1" t="s">
         <v>348</v>
@@ -60935,21 +61015,21 @@
         <v>158</v>
       </c>
       <c r="J2077" s="1" t="s">
-        <v>4629</v>
+        <v>1640</v>
       </c>
       <c r="O2077" s="1" t="s">
-        <v>4632</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="2078" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2078" s="1" t="s">
-        <v>4633</v>
+        <v>4643</v>
       </c>
       <c r="B2078" s="1" t="s">
-        <v>4634</v>
+        <v>4639</v>
       </c>
       <c r="C2078" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2078" s="1" t="s">
         <v>158</v>
@@ -60958,32 +61038,32 @@
         <v>1640</v>
       </c>
       <c r="O2078" s="1" t="s">
-        <v>4635</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="2079" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2079" s="1" t="s">
-        <v>4636</v>
+        <v>4645</v>
       </c>
       <c r="B2079" s="1" t="s">
-        <v>4634</v>
+        <v>4639</v>
       </c>
       <c r="C2079" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2079" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J2079" s="1" t="s">
-        <v>4629</v>
+        <v>1640</v>
       </c>
       <c r="O2079" s="1" t="s">
-        <v>4637</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="2080" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2080" s="1" t="s">
-        <v>4638</v>
+        <v>4647</v>
       </c>
       <c r="B2080" s="1" t="s">
         <v>4639</v>
@@ -60998,12 +61078,12 @@
         <v>1640</v>
       </c>
       <c r="O2080" s="1" t="s">
-        <v>4640</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="2081" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2081" s="1" t="s">
-        <v>4641</v>
+        <v>4649</v>
       </c>
       <c r="B2081" s="1" t="s">
         <v>4639</v>
@@ -61018,12 +61098,12 @@
         <v>1640</v>
       </c>
       <c r="O2081" s="1" t="s">
-        <v>4642</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="2082" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2082" s="1" t="s">
-        <v>4643</v>
+        <v>4651</v>
       </c>
       <c r="B2082" s="1" t="s">
         <v>4639</v>
@@ -61038,12 +61118,12 @@
         <v>1640</v>
       </c>
       <c r="O2082" s="1" t="s">
-        <v>4644</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="2083" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2083" s="1" t="s">
-        <v>4645</v>
+        <v>4653</v>
       </c>
       <c r="B2083" s="1" t="s">
         <v>4639</v>
@@ -61058,12 +61138,12 @@
         <v>1640</v>
       </c>
       <c r="O2083" s="1" t="s">
-        <v>4646</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="2084" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2084" s="1" t="s">
-        <v>4647</v>
+        <v>4655</v>
       </c>
       <c r="B2084" s="1" t="s">
         <v>4639</v>
@@ -61078,12 +61158,12 @@
         <v>1640</v>
       </c>
       <c r="O2084" s="1" t="s">
-        <v>4648</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="2085" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2085" s="1" t="s">
-        <v>4649</v>
+        <v>4657</v>
       </c>
       <c r="B2085" s="1" t="s">
         <v>4639</v>
@@ -61098,12 +61178,12 @@
         <v>1640</v>
       </c>
       <c r="O2085" s="1" t="s">
-        <v>4650</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="2086" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2086" s="1" t="s">
-        <v>4651</v>
+        <v>4659</v>
       </c>
       <c r="B2086" s="1" t="s">
         <v>4639</v>
@@ -61118,12 +61198,12 @@
         <v>1640</v>
       </c>
       <c r="O2086" s="1" t="s">
-        <v>4652</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="2087" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2087" s="1" t="s">
-        <v>4653</v>
+        <v>4661</v>
       </c>
       <c r="B2087" s="1" t="s">
         <v>4639</v>
@@ -61138,18 +61218,18 @@
         <v>1640</v>
       </c>
       <c r="O2087" s="1" t="s">
-        <v>4654</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="2088" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2088" s="1" t="s">
-        <v>4655</v>
+        <v>4663</v>
       </c>
       <c r="B2088" s="1" t="s">
-        <v>4639</v>
+        <v>4664</v>
       </c>
       <c r="C2088" s="1" t="s">
-        <v>348</v>
+        <v>2297</v>
       </c>
       <c r="D2088" s="1" t="s">
         <v>158</v>
@@ -61158,18 +61238,18 @@
         <v>1640</v>
       </c>
       <c r="O2088" s="1" t="s">
-        <v>4656</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="2089" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2089" s="1" t="s">
-        <v>4657</v>
+        <v>4666</v>
       </c>
       <c r="B2089" s="1" t="s">
-        <v>4639</v>
+        <v>4664</v>
       </c>
       <c r="C2089" s="1" t="s">
-        <v>348</v>
+        <v>2297</v>
       </c>
       <c r="D2089" s="1" t="s">
         <v>158</v>
@@ -61178,92 +61258,80 @@
         <v>1640</v>
       </c>
       <c r="O2089" s="1" t="s">
-        <v>4658</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="2090" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2090" s="1" t="s">
-        <v>4659</v>
+        <v>4668</v>
       </c>
       <c r="B2090" s="1" t="s">
-        <v>4639</v>
+        <v>4669</v>
       </c>
       <c r="C2090" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2090" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J2090" s="1" t="s">
-        <v>1640</v>
+        <v>62</v>
       </c>
       <c r="O2090" s="1" t="s">
-        <v>4660</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="2091" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2091" s="1" t="s">
-        <v>4661</v>
+        <v>4671</v>
       </c>
       <c r="B2091" s="1" t="s">
-        <v>4639</v>
+        <v>4669</v>
       </c>
       <c r="C2091" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2091" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J2091" s="1" t="s">
-        <v>1640</v>
+        <v>62</v>
       </c>
       <c r="O2091" s="1" t="s">
-        <v>4662</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="2092" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2092" s="1" t="s">
-        <v>4663</v>
+        <v>4673</v>
       </c>
       <c r="B2092" s="1" t="s">
-        <v>4664</v>
+        <v>4669</v>
       </c>
       <c r="C2092" s="1" t="s">
-        <v>2297</v>
-      </c>
-      <c r="D2092" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J2092" s="1" t="s">
-        <v>1640</v>
+        <v>62</v>
       </c>
       <c r="O2092" s="1" t="s">
-        <v>4665</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="2093" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2093" s="1" t="s">
-        <v>4666</v>
+        <v>4675</v>
       </c>
       <c r="B2093" s="1" t="s">
-        <v>4664</v>
+        <v>4669</v>
       </c>
       <c r="C2093" s="1" t="s">
-        <v>2297</v>
-      </c>
-      <c r="D2093" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J2093" s="1" t="s">
-        <v>1640</v>
+        <v>62</v>
       </c>
       <c r="O2093" s="1" t="s">
-        <v>4667</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="2094" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2094" s="1" t="s">
-        <v>4668</v>
+        <v>4677</v>
       </c>
       <c r="B2094" s="1" t="s">
         <v>4669</v>
@@ -61275,12 +61343,12 @@
         <v>62</v>
       </c>
       <c r="O2094" s="1" t="s">
-        <v>4670</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="2095" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2095" s="1" t="s">
-        <v>4671</v>
+        <v>4679</v>
       </c>
       <c r="B2095" s="1" t="s">
         <v>4669</v>
@@ -61292,12 +61360,12 @@
         <v>62</v>
       </c>
       <c r="O2095" s="1" t="s">
-        <v>4672</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="2096" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2096" s="1" t="s">
-        <v>4673</v>
+        <v>4681</v>
       </c>
       <c r="B2096" s="1" t="s">
         <v>4669</v>
@@ -61309,12 +61377,12 @@
         <v>62</v>
       </c>
       <c r="O2096" s="1" t="s">
-        <v>4674</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="2097" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2097" s="1" t="s">
-        <v>4675</v>
+        <v>4683</v>
       </c>
       <c r="B2097" s="1" t="s">
         <v>4669</v>
@@ -61323,18 +61391,18 @@
         <v>2</v>
       </c>
       <c r="J2097" s="1" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="O2097" s="1" t="s">
-        <v>4676</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="2098" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2098" s="1" t="s">
-        <v>4677</v>
+        <v>4685</v>
       </c>
       <c r="B2098" s="1" t="s">
-        <v>4669</v>
+        <v>4686</v>
       </c>
       <c r="C2098" s="1" t="s">
         <v>2</v>
@@ -61343,15 +61411,15 @@
         <v>62</v>
       </c>
       <c r="O2098" s="1" t="s">
-        <v>4678</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="2099" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2099" s="1" t="s">
-        <v>4679</v>
+        <v>4688</v>
       </c>
       <c r="B2099" s="1" t="s">
-        <v>4669</v>
+        <v>4686</v>
       </c>
       <c r="C2099" s="1" t="s">
         <v>2</v>
@@ -61360,83 +61428,95 @@
         <v>62</v>
       </c>
       <c r="O2099" s="1" t="s">
-        <v>4680</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="2100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2100" s="1" t="s">
-        <v>4681</v>
+        <v>4690</v>
       </c>
       <c r="B2100" s="1" t="s">
-        <v>4669</v>
+        <v>4691</v>
       </c>
       <c r="C2100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2100" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2100" s="1" t="s">
         <v>62</v>
       </c>
       <c r="O2100" s="1" t="s">
-        <v>4682</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="2101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2101" s="1" t="s">
-        <v>4683</v>
+        <v>4693</v>
       </c>
       <c r="B2101" s="1" t="s">
-        <v>4669</v>
+        <v>4691</v>
       </c>
       <c r="C2101" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2101" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="J2101" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="O2101" s="1" t="s">
-        <v>4684</v>
+        <v>4694</v>
       </c>
     </row>
     <row r="2102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2102" s="1" t="s">
-        <v>4685</v>
+        <v>4695</v>
       </c>
       <c r="B2102" s="1" t="s">
-        <v>4686</v>
+        <v>4691</v>
       </c>
       <c r="C2102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2102" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2102" s="1" t="s">
         <v>62</v>
       </c>
       <c r="O2102" s="1" t="s">
-        <v>4687</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="2103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2103" s="1" t="s">
-        <v>4688</v>
+        <v>4697</v>
       </c>
       <c r="B2103" s="1" t="s">
-        <v>4686</v>
+        <v>4691</v>
       </c>
       <c r="C2103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2103" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2103" s="1" t="s">
         <v>62</v>
       </c>
       <c r="O2103" s="1" t="s">
-        <v>4689</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="2104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2104" s="1" t="s">
-        <v>4690</v>
+        <v>4699</v>
       </c>
       <c r="B2104" s="1" t="s">
-        <v>4691</v>
+        <v>4700</v>
       </c>
       <c r="C2104" s="1" t="s">
         <v>2</v>
@@ -61448,15 +61528,15 @@
         <v>62</v>
       </c>
       <c r="O2104" s="1" t="s">
-        <v>4692</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="2105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2105" s="1" t="s">
-        <v>4693</v>
+        <v>4702</v>
       </c>
       <c r="B2105" s="1" t="s">
-        <v>4691</v>
+        <v>4700</v>
       </c>
       <c r="C2105" s="1" t="s">
         <v>2</v>
@@ -61468,15 +61548,15 @@
         <v>62</v>
       </c>
       <c r="O2105" s="1" t="s">
-        <v>4694</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="2106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2106" s="1" t="s">
-        <v>4695</v>
+        <v>4704</v>
       </c>
       <c r="B2106" s="1" t="s">
-        <v>4691</v>
+        <v>4705</v>
       </c>
       <c r="C2106" s="1" t="s">
         <v>2</v>
@@ -61488,15 +61568,15 @@
         <v>62</v>
       </c>
       <c r="O2106" s="1" t="s">
-        <v>4696</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="2107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2107" s="1" t="s">
-        <v>4697</v>
+        <v>4707</v>
       </c>
       <c r="B2107" s="1" t="s">
-        <v>4691</v>
+        <v>4705</v>
       </c>
       <c r="C2107" s="1" t="s">
         <v>2</v>
@@ -61508,289 +61588,295 @@
         <v>62</v>
       </c>
       <c r="O2107" s="1" t="s">
-        <v>4698</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="2108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2108" s="1" t="s">
-        <v>4699</v>
+        <v>4709</v>
       </c>
       <c r="B2108" s="1" t="s">
-        <v>4700</v>
+        <v>4710</v>
       </c>
       <c r="C2108" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2108" s="1" t="s">
-        <v>2</v>
+        <v>567</v>
       </c>
       <c r="J2108" s="1" t="s">
-        <v>62</v>
+        <v>383</v>
+      </c>
+      <c r="K2108" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O2108" s="1" t="s">
-        <v>4701</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="2109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2109" s="1" t="s">
-        <v>4702</v>
+        <v>4712</v>
       </c>
       <c r="B2109" s="1" t="s">
-        <v>4700</v>
+        <v>4713</v>
       </c>
       <c r="C2109" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2109" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2109" s="1" t="s">
-        <v>62</v>
+        <v>383</v>
+      </c>
+      <c r="K2109" s="1" t="s">
+        <v>1534</v>
       </c>
       <c r="O2109" s="1" t="s">
-        <v>4703</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="2110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2110" s="1" t="s">
-        <v>4704</v>
+        <v>4715</v>
       </c>
       <c r="B2110" s="1" t="s">
-        <v>4705</v>
+        <v>4710</v>
       </c>
       <c r="C2110" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2110" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="J2110" s="1" t="s">
-        <v>62</v>
+        <v>1925</v>
       </c>
       <c r="O2110" s="1" t="s">
-        <v>4706</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="2111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2111" s="1" t="s">
-        <v>4707</v>
+        <v>4717</v>
       </c>
       <c r="B2111" s="1" t="s">
-        <v>4705</v>
+        <v>4718</v>
       </c>
       <c r="C2111" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2111" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="J2111" s="1" t="s">
-        <v>62</v>
+        <v>177</v>
+      </c>
+      <c r="K2111" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O2111" s="1" t="s">
-        <v>4708</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="2112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2112" s="1" t="s">
-        <v>4709</v>
+        <v>4720</v>
       </c>
       <c r="B2112" s="1" t="s">
-        <v>4710</v>
+        <v>4718</v>
       </c>
       <c r="C2112" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D2112" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="J2112" s="1" t="s">
-        <v>383</v>
+        <v>177</v>
       </c>
       <c r="K2112" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O2112" s="1" t="s">
-        <v>4711</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="2113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2113" s="1" t="s">
-        <v>4712</v>
+        <v>4722</v>
       </c>
       <c r="B2113" s="1" t="s">
-        <v>4713</v>
+        <v>4718</v>
       </c>
       <c r="C2113" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D2113" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="J2113" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2113" s="1" t="s">
-        <v>1534</v>
+        <v>1723</v>
       </c>
       <c r="O2113" s="1" t="s">
-        <v>4714</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="2114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2114" s="1" t="s">
-        <v>4715</v>
+        <v>4724</v>
       </c>
       <c r="B2114" s="1" t="s">
-        <v>4710</v>
+        <v>4718</v>
       </c>
       <c r="C2114" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J2114" s="1" t="s">
-        <v>1925</v>
+        <v>1723</v>
       </c>
       <c r="O2114" s="1" t="s">
-        <v>4716</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="2115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2115" s="1" t="s">
-        <v>4717</v>
+        <v>4726</v>
       </c>
       <c r="B2115" s="1" t="s">
-        <v>4718</v>
+        <v>4727</v>
       </c>
       <c r="C2115" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J2115" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2115" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O2115" s="1" t="s">
-        <v>4719</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="2116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2116" s="1" t="s">
-        <v>4720</v>
+        <v>4729</v>
       </c>
       <c r="B2116" s="1" t="s">
-        <v>4718</v>
+        <v>4730</v>
       </c>
       <c r="C2116" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
+      </c>
+      <c r="D2116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2116" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="J2116" s="1" t="s">
-        <v>177</v>
+        <v>364</v>
       </c>
       <c r="K2116" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O2116" s="1" t="s">
-        <v>4721</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="2117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2117" s="1" t="s">
-        <v>4722</v>
+        <v>4732</v>
       </c>
       <c r="B2117" s="1" t="s">
-        <v>4718</v>
+        <v>4733</v>
       </c>
       <c r="C2117" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="J2117" s="1" t="s">
-        <v>1723</v>
+        <v>62</v>
       </c>
       <c r="O2117" s="1" t="s">
-        <v>4723</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="2118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2118" s="1" t="s">
-        <v>4724</v>
+        <v>4735</v>
       </c>
       <c r="B2118" s="1" t="s">
-        <v>4718</v>
+        <v>4736</v>
       </c>
       <c r="C2118" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D2118" s="1" t="s">
+        <v>4737</v>
+      </c>
       <c r="J2118" s="1" t="s">
-        <v>1723</v>
+        <v>364</v>
+      </c>
+      <c r="K2118" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="O2118" s="1" t="s">
-        <v>4725</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="2119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2119" s="1" t="s">
-        <v>4726</v>
+        <v>4739</v>
       </c>
       <c r="B2119" s="1" t="s">
-        <v>4727</v>
+        <v>4736</v>
       </c>
       <c r="C2119" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D2119" s="1" t="s">
+        <v>4737</v>
+      </c>
       <c r="J2119" s="1" t="s">
-        <v>1925</v>
+        <v>364</v>
+      </c>
+      <c r="K2119" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="O2119" s="1" t="s">
-        <v>4728</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="2120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2120" s="1" t="s">
-        <v>4729</v>
+        <v>4741</v>
       </c>
       <c r="B2120" s="1" t="s">
-        <v>4730</v>
+        <v>4736</v>
       </c>
       <c r="C2120" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2120" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2120" s="1" t="s">
-        <v>2</v>
+        <v>4737</v>
       </c>
       <c r="J2120" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K2120" s="1" t="s">
-        <v>1925</v>
+        <v>85</v>
       </c>
       <c r="O2120" s="1" t="s">
-        <v>4731</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="2121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2121" s="1" t="s">
-        <v>4732</v>
+        <v>4743</v>
       </c>
       <c r="B2121" s="1" t="s">
-        <v>4733</v>
+        <v>4736</v>
       </c>
       <c r="C2121" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
+      </c>
+      <c r="D2121" s="1" t="s">
+        <v>4737</v>
       </c>
       <c r="J2121" s="1" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="O2121" s="1" t="s">
-        <v>4734</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="2122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2122" s="1" t="s">
-        <v>4735</v>
+        <v>4745</v>
       </c>
       <c r="B2122" s="1" t="s">
         <v>4736</v>
@@ -61802,18 +61888,15 @@
         <v>4737</v>
       </c>
       <c r="J2122" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K2122" s="1" t="s">
-        <v>383</v>
+        <v>85</v>
       </c>
       <c r="O2122" s="1" t="s">
-        <v>4738</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="2123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2123" s="1" t="s">
-        <v>4739</v>
+        <v>4747</v>
       </c>
       <c r="B2123" s="1" t="s">
         <v>4736</v>
@@ -61825,18 +61908,15 @@
         <v>4737</v>
       </c>
       <c r="J2123" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K2123" s="1" t="s">
-        <v>383</v>
+        <v>85</v>
       </c>
       <c r="O2123" s="1" t="s">
-        <v>4740</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="2124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2124" s="1" t="s">
-        <v>4741</v>
+        <v>4749</v>
       </c>
       <c r="B2124" s="1" t="s">
         <v>4736</v>
@@ -61844,19 +61924,16 @@
       <c r="C2124" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D2124" s="1" t="s">
-        <v>4737</v>
-      </c>
       <c r="J2124" s="1" t="s">
         <v>85</v>
       </c>
       <c r="O2124" s="1" t="s">
-        <v>4742</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="2125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2125" s="1" t="s">
-        <v>4743</v>
+        <v>4751</v>
       </c>
       <c r="B2125" s="1" t="s">
         <v>4736</v>
@@ -61871,12 +61948,12 @@
         <v>85</v>
       </c>
       <c r="O2125" s="1" t="s">
-        <v>4744</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="2126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2126" s="1" t="s">
-        <v>4745</v>
+        <v>4753</v>
       </c>
       <c r="B2126" s="1" t="s">
         <v>4736</v>
@@ -61891,12 +61968,12 @@
         <v>85</v>
       </c>
       <c r="O2126" s="1" t="s">
-        <v>4746</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="2127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2127" s="1" t="s">
-        <v>4747</v>
+        <v>4755</v>
       </c>
       <c r="B2127" s="1" t="s">
         <v>4736</v>
@@ -61904,19 +61981,16 @@
       <c r="C2127" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D2127" s="1" t="s">
-        <v>4737</v>
-      </c>
       <c r="J2127" s="1" t="s">
         <v>85</v>
       </c>
       <c r="O2127" s="1" t="s">
-        <v>4748</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="2128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2128" s="1" t="s">
-        <v>4749</v>
+        <v>4757</v>
       </c>
       <c r="B2128" s="1" t="s">
         <v>4736</v>
@@ -61928,12 +62002,12 @@
         <v>85</v>
       </c>
       <c r="O2128" s="1" t="s">
-        <v>4750</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="2129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2129" s="1" t="s">
-        <v>4751</v>
+        <v>4759</v>
       </c>
       <c r="B2129" s="1" t="s">
         <v>4736</v>
@@ -61941,324 +62015,333 @@
       <c r="C2129" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D2129" s="1" t="s">
-        <v>4737</v>
-      </c>
       <c r="J2129" s="1" t="s">
         <v>85</v>
       </c>
       <c r="O2129" s="1" t="s">
-        <v>4752</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="2130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2130" s="1" t="s">
-        <v>4753</v>
+        <v>4761</v>
       </c>
       <c r="B2130" s="1" t="s">
-        <v>4736</v>
+        <v>4762</v>
       </c>
       <c r="C2130" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D2130" s="1" t="s">
-        <v>4737</v>
-      </c>
       <c r="J2130" s="1" t="s">
-        <v>85</v>
+        <v>1925</v>
       </c>
       <c r="O2130" s="1" t="s">
-        <v>4754</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="2131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2131" s="1" t="s">
-        <v>4755</v>
+        <v>4764</v>
       </c>
       <c r="B2131" s="1" t="s">
-        <v>4736</v>
+        <v>4765</v>
       </c>
       <c r="C2131" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J2131" s="1" t="s">
-        <v>85</v>
+        <v>1925</v>
       </c>
       <c r="O2131" s="1" t="s">
-        <v>4756</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="2132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2132" s="1" t="s">
-        <v>4757</v>
+        <v>4767</v>
       </c>
       <c r="B2132" s="1" t="s">
-        <v>4736</v>
+        <v>4768</v>
       </c>
       <c r="C2132" s="1" t="s">
-        <v>348</v>
+        <v>1340</v>
       </c>
       <c r="J2132" s="1" t="s">
-        <v>85</v>
+        <v>364</v>
       </c>
       <c r="O2132" s="1" t="s">
-        <v>4758</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="2133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2133" s="1" t="s">
-        <v>4759</v>
+        <v>4770</v>
       </c>
       <c r="B2133" s="1" t="s">
-        <v>4736</v>
+        <v>4771</v>
       </c>
       <c r="C2133" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J2133" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
+      </c>
+      <c r="K2133" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O2133" s="1" t="s">
-        <v>4760</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="2134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2134" s="1" t="s">
-        <v>4761</v>
+        <v>4773</v>
       </c>
       <c r="B2134" s="1" t="s">
-        <v>4762</v>
+        <v>4771</v>
       </c>
       <c r="C2134" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D2134" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="J2134" s="1" t="s">
+        <v>4774</v>
+      </c>
+      <c r="K2134" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O2134" s="1" t="s">
-        <v>4763</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="2135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2135" s="1" t="s">
-        <v>4764</v>
+        <v>4776</v>
       </c>
       <c r="B2135" s="1" t="s">
-        <v>4765</v>
+        <v>4771</v>
       </c>
       <c r="C2135" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D2135" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="J2135" s="1" t="s">
+        <v>4774</v>
+      </c>
+      <c r="K2135" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O2135" s="1" t="s">
-        <v>4766</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="2136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2136" s="1" t="s">
-        <v>4767</v>
+        <v>4778</v>
       </c>
       <c r="B2136" s="1" t="s">
-        <v>4768</v>
+        <v>4779</v>
       </c>
       <c r="C2136" s="1" t="s">
-        <v>1340</v>
+        <v>2</v>
+      </c>
+      <c r="D2136" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J2136" s="1" t="s">
         <v>364</v>
       </c>
       <c r="O2136" s="1" t="s">
-        <v>4769</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="2137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2137" s="1" t="s">
-        <v>4770</v>
+        <v>4781</v>
       </c>
       <c r="B2137" s="1" t="s">
-        <v>4771</v>
+        <v>4782</v>
       </c>
       <c r="C2137" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D2137" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2137" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2137" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2137" s="1" t="s">
-        <v>62</v>
+        <v>609</v>
       </c>
       <c r="K2137" s="1" t="s">
-        <v>1925</v>
+        <v>4783</v>
       </c>
       <c r="O2137" s="1" t="s">
-        <v>4772</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="2138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2138" s="1" t="s">
-        <v>4773</v>
+        <v>4785</v>
       </c>
       <c r="B2138" s="1" t="s">
-        <v>4771</v>
+        <v>4786</v>
       </c>
       <c r="C2138" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2138" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2138" s="1" t="s">
-        <v>4774</v>
-      </c>
-      <c r="K2138" s="1" t="s">
-        <v>1925</v>
+        <v>364</v>
       </c>
       <c r="O2138" s="1" t="s">
-        <v>4775</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="2139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2139" s="1" t="s">
-        <v>4776</v>
+        <v>4788</v>
       </c>
       <c r="B2139" s="1" t="s">
-        <v>4771</v>
+        <v>4786</v>
       </c>
       <c r="C2139" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2139" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2139" s="1" t="s">
-        <v>4774</v>
-      </c>
-      <c r="K2139" s="1" t="s">
-        <v>1925</v>
+        <v>364</v>
       </c>
       <c r="O2139" s="1" t="s">
-        <v>4777</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="2140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2140" s="1" t="s">
-        <v>4778</v>
+        <v>4790</v>
       </c>
       <c r="B2140" s="1" t="s">
-        <v>4779</v>
+        <v>4786</v>
       </c>
       <c r="C2140" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D2140" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="J2140" s="1" t="s">
         <v>364</v>
       </c>
       <c r="O2140" s="1" t="s">
-        <v>4780</v>
+        <v>4791</v>
       </c>
     </row>
     <row r="2141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2141" s="1" t="s">
-        <v>4781</v>
+        <v>4792</v>
       </c>
       <c r="B2141" s="1" t="s">
-        <v>4782</v>
+        <v>4786</v>
       </c>
       <c r="C2141" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2141" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2141" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2141" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J2141" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K2141" s="1" t="s">
-        <v>4783</v>
+        <v>364</v>
       </c>
       <c r="O2141" s="1" t="s">
-        <v>4784</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="2142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2142" s="1" t="s">
-        <v>4785</v>
+        <v>4794</v>
       </c>
       <c r="B2142" s="1" t="s">
-        <v>4786</v>
+        <v>4795</v>
       </c>
       <c r="C2142" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2142" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2142" s="1" t="s">
-        <v>364</v>
+        <v>1538</v>
       </c>
       <c r="O2142" s="1" t="s">
-        <v>4787</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="2143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2143" s="1" t="s">
-        <v>4788</v>
+        <v>4797</v>
       </c>
       <c r="B2143" s="1" t="s">
-        <v>4786</v>
+        <v>4795</v>
       </c>
       <c r="C2143" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2143" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2143" s="1" t="s">
-        <v>364</v>
+        <v>1538</v>
       </c>
       <c r="O2143" s="1" t="s">
-        <v>4789</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="2144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2144" s="1" t="s">
-        <v>4790</v>
+        <v>4799</v>
       </c>
       <c r="B2144" s="1" t="s">
-        <v>4786</v>
+        <v>4795</v>
       </c>
       <c r="C2144" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2144" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2144" s="1" t="s">
-        <v>364</v>
+        <v>1538</v>
       </c>
       <c r="O2144" s="1" t="s">
-        <v>4791</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="2145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2145" s="1" t="s">
-        <v>4792</v>
+        <v>4801</v>
       </c>
       <c r="B2145" s="1" t="s">
-        <v>4786</v>
+        <v>4795</v>
       </c>
       <c r="C2145" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2145" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2145" s="1" t="s">
-        <v>364</v>
+        <v>609</v>
+      </c>
+      <c r="K2145" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O2145" s="1" t="s">
-        <v>4793</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="2146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2146" s="1" t="s">
-        <v>4794</v>
+        <v>4803</v>
       </c>
       <c r="B2146" s="1" t="s">
         <v>4795</v>
@@ -62270,104 +62353,104 @@
         <v>158</v>
       </c>
       <c r="J2146" s="1" t="s">
-        <v>1538</v>
+        <v>609</v>
+      </c>
+      <c r="K2146" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O2146" s="1" t="s">
-        <v>4796</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="2147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2147" s="1" t="s">
-        <v>4797</v>
+        <v>4805</v>
       </c>
       <c r="B2147" s="1" t="s">
         <v>4795</v>
       </c>
       <c r="C2147" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2147" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J2147" s="1" t="s">
-        <v>1538</v>
+        <v>609</v>
+      </c>
+      <c r="K2147" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O2147" s="1" t="s">
-        <v>4798</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="2148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2148" s="1" t="s">
-        <v>4799</v>
+        <v>4807</v>
       </c>
       <c r="B2148" s="1" t="s">
-        <v>4795</v>
+        <v>4808</v>
       </c>
       <c r="C2148" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2148" s="1" t="s">
-        <v>158</v>
+        <v>348</v>
       </c>
       <c r="J2148" s="1" t="s">
-        <v>1538</v>
+        <v>1723</v>
       </c>
       <c r="O2148" s="1" t="s">
-        <v>4800</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="2149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2149" s="1" t="s">
-        <v>4801</v>
+        <v>4810</v>
       </c>
       <c r="B2149" s="1" t="s">
-        <v>4795</v>
+        <v>4811</v>
       </c>
       <c r="C2149" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2149" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J2149" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K2149" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O2149" s="1" t="s">
-        <v>4802</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="2150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2150" s="1" t="s">
-        <v>4803</v>
+        <v>4813</v>
       </c>
       <c r="B2150" s="1" t="s">
-        <v>4795</v>
+        <v>4814</v>
       </c>
       <c r="C2150" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2150" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J2150" s="1" t="s">
-        <v>609</v>
+        <v>383</v>
       </c>
       <c r="K2150" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O2150" s="1" t="s">
-        <v>4804</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="2151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2151" s="1" t="s">
-        <v>4805</v>
+        <v>4816</v>
       </c>
       <c r="B2151" s="1" t="s">
-        <v>4795</v>
+        <v>4814</v>
       </c>
       <c r="C2151" s="1" t="s">
         <v>348</v>
@@ -62376,104 +62459,89 @@
         <v>158</v>
       </c>
       <c r="J2151" s="1" t="s">
-        <v>609</v>
+        <v>383</v>
       </c>
       <c r="K2151" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O2151" s="1" t="s">
-        <v>4806</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="2152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2152" s="1" t="s">
-        <v>4807</v>
+        <v>4818</v>
       </c>
       <c r="B2152" s="1" t="s">
-        <v>4808</v>
+        <v>4727</v>
       </c>
       <c r="C2152" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J2152" s="1" t="s">
-        <v>1723</v>
+        <v>1925</v>
       </c>
       <c r="O2152" s="1" t="s">
-        <v>4809</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="2153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2153" s="1" t="s">
-        <v>4810</v>
+        <v>4820</v>
       </c>
       <c r="B2153" s="1" t="s">
-        <v>4811</v>
+        <v>4727</v>
       </c>
       <c r="C2153" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="D2153" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="J2153" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O2153" s="1" t="s">
-        <v>4812</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="2154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2154" s="1" t="s">
-        <v>4813</v>
+        <v>4822</v>
       </c>
       <c r="B2154" s="1" t="s">
-        <v>4814</v>
+        <v>4727</v>
       </c>
       <c r="C2154" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D2154" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J2154" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2154" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O2154" s="1" t="s">
-        <v>4815</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="2155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2155" s="1" t="s">
-        <v>4816</v>
+        <v>4824</v>
       </c>
       <c r="B2155" s="1" t="s">
-        <v>4814</v>
+        <v>4825</v>
       </c>
       <c r="C2155" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D2155" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J2155" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2155" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O2155" s="1" t="s">
-        <v>4817</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="2156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2156" s="1" t="s">
-        <v>4818</v>
+        <v>4827</v>
       </c>
       <c r="B2156" s="1" t="s">
-        <v>4727</v>
+        <v>4825</v>
       </c>
       <c r="C2156" s="1" t="s">
         <v>348</v>
@@ -62482,140 +62550,152 @@
         <v>1925</v>
       </c>
       <c r="O2156" s="1" t="s">
-        <v>4819</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="2157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2157" s="1" t="s">
-        <v>4820</v>
+        <v>4829</v>
       </c>
       <c r="B2157" s="1" t="s">
-        <v>4727</v>
+        <v>4830</v>
       </c>
       <c r="C2157" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="J2157" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
+      </c>
+      <c r="K2157" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="O2157" s="1" t="s">
-        <v>4821</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="2158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2158" s="1" t="s">
-        <v>4822</v>
+        <v>4832</v>
       </c>
       <c r="B2158" s="1" t="s">
-        <v>4727</v>
+        <v>4830</v>
       </c>
       <c r="C2158" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="J2158" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
+      </c>
+      <c r="K2158" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="O2158" s="1" t="s">
-        <v>4823</v>
+        <v>4833</v>
       </c>
     </row>
     <row r="2159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2159" s="1" t="s">
-        <v>4824</v>
+        <v>4834</v>
       </c>
       <c r="B2159" s="1" t="s">
-        <v>4825</v>
+        <v>4830</v>
       </c>
       <c r="C2159" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="J2159" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
+      </c>
+      <c r="K2159" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="O2159" s="1" t="s">
-        <v>4826</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="2160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2160" s="1" t="s">
-        <v>4827</v>
+        <v>4836</v>
       </c>
       <c r="B2160" s="1" t="s">
-        <v>4825</v>
+        <v>4837</v>
       </c>
       <c r="C2160" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
+      </c>
+      <c r="D2160" s="1" t="s">
+        <v>806</v>
       </c>
       <c r="J2160" s="1" t="s">
-        <v>1925</v>
+        <v>171</v>
       </c>
       <c r="O2160" s="1" t="s">
-        <v>4828</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="2161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2161" s="1" t="s">
-        <v>4829</v>
+        <v>4839</v>
       </c>
       <c r="B2161" s="1" t="s">
-        <v>4830</v>
+        <v>4837</v>
       </c>
       <c r="C2161" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2161" s="1" t="s">
+        <v>806</v>
+      </c>
       <c r="J2161" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2161" s="1" t="s">
-        <v>447</v>
+        <v>171</v>
       </c>
       <c r="O2161" s="1" t="s">
-        <v>4831</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="2162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2162" s="1" t="s">
-        <v>4832</v>
+        <v>4841</v>
       </c>
       <c r="B2162" s="1" t="s">
-        <v>4830</v>
+        <v>4837</v>
       </c>
       <c r="C2162" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2162" s="1" t="s">
+        <v>806</v>
+      </c>
       <c r="J2162" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2162" s="1" t="s">
-        <v>447</v>
+        <v>171</v>
       </c>
       <c r="O2162" s="1" t="s">
-        <v>4833</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="2163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2163" s="1" t="s">
-        <v>4834</v>
+        <v>4843</v>
       </c>
       <c r="B2163" s="1" t="s">
-        <v>4830</v>
+        <v>4837</v>
       </c>
       <c r="C2163" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2163" s="1" t="s">
+        <v>806</v>
+      </c>
       <c r="J2163" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2163" s="1" t="s">
-        <v>447</v>
+        <v>171</v>
       </c>
       <c r="O2163" s="1" t="s">
-        <v>4835</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="2164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2164" s="1" t="s">
-        <v>4836</v>
+        <v>4845</v>
       </c>
       <c r="B2164" s="1" t="s">
         <v>4837</v>
@@ -62630,354 +62710,390 @@
         <v>171</v>
       </c>
       <c r="O2164" s="1" t="s">
-        <v>4838</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="2165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2165" s="1" t="s">
-        <v>4839</v>
+        <v>4847</v>
       </c>
       <c r="B2165" s="1" t="s">
-        <v>4837</v>
+        <v>4848</v>
       </c>
       <c r="C2165" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2165" s="1" t="s">
-        <v>806</v>
+        <v>2</v>
       </c>
       <c r="J2165" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="O2165" s="1" t="s">
-        <v>4840</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="2166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2166" s="1" t="s">
-        <v>4841</v>
+        <v>4850</v>
       </c>
       <c r="B2166" s="1" t="s">
-        <v>4837</v>
+        <v>4848</v>
       </c>
       <c r="C2166" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2166" s="1" t="s">
-        <v>806</v>
+        <v>2</v>
       </c>
       <c r="J2166" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="O2166" s="1" t="s">
-        <v>4842</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="2167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2167" s="1" t="s">
-        <v>4843</v>
+        <v>4852</v>
       </c>
       <c r="B2167" s="1" t="s">
-        <v>4837</v>
+        <v>4848</v>
       </c>
       <c r="C2167" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2167" s="1" t="s">
-        <v>806</v>
+        <v>2</v>
       </c>
       <c r="J2167" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="O2167" s="1" t="s">
-        <v>4844</v>
+        <v>4853</v>
       </c>
     </row>
     <row r="2168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2168" s="1" t="s">
-        <v>4845</v>
+        <v>4854</v>
       </c>
       <c r="B2168" s="1" t="s">
-        <v>4837</v>
+        <v>4855</v>
       </c>
       <c r="C2168" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2168" s="1" t="s">
-        <v>806</v>
+        <v>158</v>
       </c>
       <c r="J2168" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="O2168" s="1" t="s">
-        <v>4846</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="2169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2169" s="1" t="s">
-        <v>4847</v>
+        <v>4857</v>
       </c>
       <c r="B2169" s="1" t="s">
-        <v>4848</v>
+        <v>4858</v>
       </c>
       <c r="C2169" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2169" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2169" s="1" t="s">
         <v>177</v>
       </c>
       <c r="O2169" s="1" t="s">
-        <v>4849</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="2170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2170" s="1" t="s">
-        <v>4850</v>
+        <v>4860</v>
       </c>
       <c r="B2170" s="1" t="s">
-        <v>4848</v>
+        <v>4858</v>
       </c>
       <c r="C2170" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2170" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2170" s="1" t="s">
         <v>177</v>
       </c>
       <c r="O2170" s="1" t="s">
-        <v>4851</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="2171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2171" s="1" t="s">
-        <v>4852</v>
+        <v>4862</v>
       </c>
       <c r="B2171" s="1" t="s">
-        <v>4848</v>
+        <v>4863</v>
       </c>
       <c r="C2171" s="1" t="s">
-        <v>2</v>
+        <v>446</v>
       </c>
       <c r="D2171" s="1" t="s">
-        <v>2</v>
+        <v>1266</v>
       </c>
       <c r="J2171" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="O2171" s="1" t="s">
-        <v>4853</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="2172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2172" s="1" t="s">
-        <v>4854</v>
+        <v>4865</v>
       </c>
       <c r="B2172" s="1" t="s">
-        <v>4855</v>
+        <v>4863</v>
       </c>
       <c r="C2172" s="1" t="s">
-        <v>2</v>
+        <v>446</v>
       </c>
       <c r="D2172" s="1" t="s">
-        <v>158</v>
+        <v>1266</v>
       </c>
       <c r="J2172" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="O2172" s="1" t="s">
-        <v>4856</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="2173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2173" s="1" t="s">
-        <v>4857</v>
+        <v>4867</v>
       </c>
       <c r="B2173" s="1" t="s">
-        <v>4858</v>
+        <v>4868</v>
       </c>
       <c r="C2173" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2173" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="O2173" s="1" t="s">
-        <v>4859</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="2174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2174" s="1" t="s">
-        <v>4860</v>
+        <v>4870</v>
       </c>
       <c r="B2174" s="1" t="s">
-        <v>4858</v>
+        <v>4871</v>
       </c>
       <c r="C2174" s="1" t="s">
-        <v>2</v>
+        <v>521</v>
       </c>
       <c r="J2174" s="1" t="s">
-        <v>177</v>
+        <v>3704</v>
       </c>
       <c r="O2174" s="1" t="s">
-        <v>4861</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="2175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2175" s="1" t="s">
-        <v>4862</v>
+        <v>4873</v>
       </c>
       <c r="B2175" s="1" t="s">
-        <v>4863</v>
+        <v>4874</v>
       </c>
       <c r="C2175" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D2175" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="J2175" s="1" t="s">
-        <v>62</v>
+        <v>521</v>
       </c>
       <c r="O2175" s="1" t="s">
-        <v>4864</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="2176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2176" s="1" t="s">
-        <v>4865</v>
+        <v>4876</v>
       </c>
       <c r="B2176" s="1" t="s">
-        <v>4863</v>
+        <v>4874</v>
       </c>
       <c r="C2176" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D2176" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="J2176" s="1" t="s">
-        <v>62</v>
+        <v>521</v>
       </c>
       <c r="O2176" s="1" t="s">
-        <v>4866</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="2177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2177" s="1" t="s">
-        <v>4867</v>
+        <v>4878</v>
       </c>
       <c r="B2177" s="1" t="s">
-        <v>4868</v>
+        <v>4879</v>
       </c>
       <c r="C2177" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2177" s="1" t="s">
-        <v>62</v>
+        <v>395</v>
       </c>
       <c r="O2177" s="1" t="s">
-        <v>4869</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="2178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2178" s="1" t="s">
-        <v>4870</v>
+        <v>4881</v>
       </c>
       <c r="B2178" s="1" t="s">
-        <v>4871</v>
+        <v>4882</v>
       </c>
       <c r="C2178" s="1" t="s">
-        <v>521</v>
+        <v>4294</v>
+      </c>
+      <c r="D2178" s="1" t="s">
+        <v>4294</v>
+      </c>
+      <c r="E2178" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F2178" s="1" t="s">
+        <v>1266</v>
       </c>
       <c r="J2178" s="1" t="s">
-        <v>3704</v>
+        <v>359</v>
+      </c>
+      <c r="K2178" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="O2178" s="1" t="s">
-        <v>4872</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="2179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2179" s="1" t="s">
-        <v>4873</v>
+        <v>4884</v>
       </c>
       <c r="B2179" s="1" t="s">
-        <v>4874</v>
+        <v>4885</v>
       </c>
       <c r="C2179" s="1" t="s">
-        <v>521</v>
+        <v>2</v>
+      </c>
+      <c r="D2179" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2179" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2179" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2179" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2179" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="O2179" s="1" t="s">
-        <v>4875</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="2180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2180" s="1" t="s">
-        <v>4876</v>
+        <v>4887</v>
       </c>
       <c r="B2180" s="1" t="s">
-        <v>4874</v>
+        <v>4885</v>
       </c>
       <c r="C2180" s="1" t="s">
-        <v>521</v>
+        <v>2</v>
+      </c>
+      <c r="D2180" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2180" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2180" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2180" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2180" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="O2180" s="1" t="s">
-        <v>4877</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="2181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2181" s="1" t="s">
-        <v>4878</v>
+        <v>4889</v>
       </c>
       <c r="B2181" s="1" t="s">
-        <v>4879</v>
+        <v>4885</v>
       </c>
       <c r="C2181" s="1" t="s">
-        <v>395</v>
+        <v>2</v>
+      </c>
+      <c r="D2181" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2181" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2181" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2181" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2181" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="O2181" s="1" t="s">
-        <v>4880</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="2182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2182" s="1" t="s">
-        <v>4881</v>
+        <v>4891</v>
       </c>
       <c r="B2182" s="1" t="s">
-        <v>4882</v>
+        <v>4885</v>
       </c>
       <c r="C2182" s="1" t="s">
-        <v>4294</v>
+        <v>2</v>
       </c>
       <c r="D2182" s="1" t="s">
-        <v>4294</v>
+        <v>2</v>
       </c>
       <c r="E2182" s="1" t="s">
-        <v>1266</v>
+        <v>2</v>
       </c>
       <c r="F2182" s="1" t="s">
-        <v>1266</v>
+        <v>158</v>
       </c>
       <c r="J2182" s="1" t="s">
-        <v>359</v>
+        <v>62</v>
       </c>
       <c r="K2182" s="1" t="s">
-        <v>609</v>
+        <v>171</v>
       </c>
       <c r="O2182" s="1" t="s">
-        <v>4883</v>
+        <v>4892</v>
       </c>
     </row>
     <row r="2183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2183" s="1" t="s">
-        <v>4884</v>
+        <v>4893</v>
       </c>
       <c r="B2183" s="1" t="s">
-        <v>4885</v>
+        <v>4894</v>
       </c>
       <c r="C2183" s="1" t="s">
         <v>2</v>
@@ -62985,388 +63101,352 @@
       <c r="D2183" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2183" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2183" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J2183" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2183" s="1" t="s">
-        <v>171</v>
+        <v>383</v>
       </c>
       <c r="O2183" s="1" t="s">
-        <v>4886</v>
+        <v>4895</v>
       </c>
     </row>
     <row r="2184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2184" s="1" t="s">
-        <v>4887</v>
+        <v>4896</v>
       </c>
       <c r="B2184" s="1" t="s">
-        <v>4885</v>
+        <v>4897</v>
       </c>
       <c r="C2184" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2184" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2184" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2184" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J2184" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2184" s="1" t="s">
-        <v>171</v>
+        <v>383</v>
       </c>
       <c r="O2184" s="1" t="s">
-        <v>4888</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="2185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2185" s="1" t="s">
-        <v>4889</v>
+        <v>4899</v>
       </c>
       <c r="B2185" s="1" t="s">
-        <v>4885</v>
+        <v>4900</v>
       </c>
       <c r="C2185" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2185" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2185" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2185" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J2185" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2185" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="O2185" s="1" t="s">
-        <v>4890</v>
+        <v>4901</v>
       </c>
     </row>
     <row r="2186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2186" s="1" t="s">
-        <v>4891</v>
+        <v>4902</v>
       </c>
       <c r="B2186" s="1" t="s">
-        <v>4885</v>
+        <v>4903</v>
       </c>
       <c r="C2186" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2186" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2186" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2186" s="1" t="s">
-        <v>158</v>
+        <v>395</v>
       </c>
       <c r="J2186" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2186" s="1" t="s">
-        <v>171</v>
+        <v>447</v>
       </c>
       <c r="O2186" s="1" t="s">
-        <v>4892</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="2187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2187" s="1" t="s">
-        <v>4893</v>
+        <v>4905</v>
       </c>
       <c r="B2187" s="1" t="s">
-        <v>4894</v>
+        <v>4779</v>
       </c>
       <c r="C2187" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2187" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J2187" s="1" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="O2187" s="1" t="s">
-        <v>4895</v>
+        <v>4906</v>
       </c>
     </row>
     <row r="2188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2188" s="1" t="s">
-        <v>4896</v>
+        <v>4907</v>
       </c>
       <c r="B2188" s="1" t="s">
-        <v>4897</v>
+        <v>4908</v>
       </c>
       <c r="C2188" s="1" t="s">
-        <v>2</v>
+        <v>4909</v>
       </c>
       <c r="D2188" s="1" t="s">
-        <v>158</v>
+        <v>806</v>
       </c>
       <c r="J2188" s="1" t="s">
-        <v>383</v>
+        <v>2678</v>
       </c>
       <c r="O2188" s="1" t="s">
-        <v>4898</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="2189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2189" s="1" t="s">
-        <v>4899</v>
+        <v>4911</v>
       </c>
       <c r="B2189" s="1" t="s">
-        <v>4900</v>
+        <v>4912</v>
       </c>
       <c r="C2189" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
+      </c>
+      <c r="D2189" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J2189" s="1" t="s">
-        <v>177</v>
+        <v>1493</v>
       </c>
       <c r="O2189" s="1" t="s">
-        <v>4901</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="2190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2190" s="1" t="s">
-        <v>4902</v>
+        <v>4914</v>
       </c>
       <c r="B2190" s="1" t="s">
-        <v>4903</v>
+        <v>4915</v>
       </c>
       <c r="C2190" s="1" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="J2190" s="1" t="s">
-        <v>447</v>
+        <v>62</v>
       </c>
       <c r="O2190" s="1" t="s">
-        <v>4904</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="2191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2191" s="1" t="s">
-        <v>4905</v>
+        <v>4917</v>
       </c>
       <c r="B2191" s="1" t="s">
-        <v>4779</v>
+        <v>4918</v>
       </c>
       <c r="C2191" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2191" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J2191" s="1" t="s">
-        <v>364</v>
+        <v>447</v>
       </c>
       <c r="O2191" s="1" t="s">
-        <v>4906</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="2192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2192" s="1" t="s">
-        <v>4907</v>
+        <v>4920</v>
       </c>
       <c r="B2192" s="1" t="s">
-        <v>4908</v>
+        <v>4921</v>
       </c>
       <c r="C2192" s="1" t="s">
-        <v>4909</v>
-      </c>
-      <c r="D2192" s="1" t="s">
-        <v>806</v>
+        <v>2</v>
       </c>
       <c r="J2192" s="1" t="s">
-        <v>2678</v>
+        <v>65</v>
       </c>
       <c r="O2192" s="1" t="s">
-        <v>4910</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="2193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2193" s="1" t="s">
-        <v>4911</v>
+        <v>4923</v>
       </c>
       <c r="B2193" s="1" t="s">
-        <v>4912</v>
+        <v>4921</v>
       </c>
       <c r="C2193" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2193" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J2193" s="1" t="s">
-        <v>1493</v>
+        <v>65</v>
       </c>
       <c r="O2193" s="1" t="s">
-        <v>4913</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="2194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2194" s="1" t="s">
-        <v>4914</v>
+        <v>4925</v>
       </c>
       <c r="B2194" s="1" t="s">
-        <v>4915</v>
+        <v>4926</v>
       </c>
       <c r="C2194" s="1" t="s">
-        <v>446</v>
+        <v>2</v>
       </c>
       <c r="J2194" s="1" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="O2194" s="1" t="s">
-        <v>4916</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="2195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2195" s="1" t="s">
-        <v>4917</v>
+        <v>4928</v>
       </c>
       <c r="B2195" s="1" t="s">
-        <v>4918</v>
+        <v>4929</v>
       </c>
       <c r="C2195" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2195" s="1" t="s">
-        <v>447</v>
+        <v>177</v>
       </c>
       <c r="O2195" s="1" t="s">
-        <v>4919</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="2196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2196" s="1" t="s">
-        <v>4920</v>
+        <v>4931</v>
       </c>
       <c r="B2196" s="1" t="s">
-        <v>4921</v>
+        <v>4932</v>
       </c>
       <c r="C2196" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2196" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2196" s="1" t="s">
-        <v>65</v>
+        <v>383</v>
+      </c>
+      <c r="K2196" s="1" t="s">
+        <v>1534</v>
       </c>
       <c r="O2196" s="1" t="s">
-        <v>4922</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="2197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2197" s="1" t="s">
-        <v>4923</v>
+        <v>4934</v>
       </c>
       <c r="B2197" s="1" t="s">
-        <v>4921</v>
+        <v>4935</v>
       </c>
       <c r="C2197" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2197" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O2197" s="1" t="s">
-        <v>4924</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="2198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2198" s="1" t="s">
-        <v>4925</v>
+        <v>4937</v>
       </c>
       <c r="B2198" s="1" t="s">
-        <v>4926</v>
+        <v>4938</v>
       </c>
       <c r="C2198" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
+      </c>
+      <c r="D2198" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J2198" s="1" t="s">
-        <v>85</v>
+        <v>1640</v>
       </c>
       <c r="O2198" s="1" t="s">
-        <v>4927</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="2199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2199" s="1" t="s">
-        <v>4928</v>
+        <v>4940</v>
       </c>
       <c r="B2199" s="1" t="s">
-        <v>4929</v>
+        <v>4938</v>
       </c>
       <c r="C2199" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
+      </c>
+      <c r="D2199" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J2199" s="1" t="s">
-        <v>177</v>
+        <v>1640</v>
       </c>
       <c r="O2199" s="1" t="s">
-        <v>4930</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="2200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2200" s="1" t="s">
-        <v>4931</v>
+        <v>4942</v>
       </c>
       <c r="B2200" s="1" t="s">
-        <v>4932</v>
+        <v>4938</v>
       </c>
       <c r="C2200" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2200" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J2200" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2200" s="1" t="s">
-        <v>1534</v>
+        <v>1640</v>
       </c>
       <c r="O2200" s="1" t="s">
-        <v>4933</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="2201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2201" s="1" t="s">
-        <v>4934</v>
+        <v>4944</v>
       </c>
       <c r="B2201" s="1" t="s">
-        <v>4935</v>
+        <v>4938</v>
       </c>
       <c r="C2201" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
+      </c>
+      <c r="D2201" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J2201" s="1" t="s">
-        <v>62</v>
+        <v>1640</v>
       </c>
       <c r="O2201" s="1" t="s">
-        <v>4936</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="2202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2202" s="1" t="s">
-        <v>4937</v>
+        <v>4946</v>
       </c>
       <c r="B2202" s="1" t="s">
         <v>4938</v>
@@ -63381,12 +63461,12 @@
         <v>1640</v>
       </c>
       <c r="O2202" s="1" t="s">
-        <v>4939</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="2203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2203" s="1" t="s">
-        <v>4940</v>
+        <v>4948</v>
       </c>
       <c r="B2203" s="1" t="s">
         <v>4938</v>
@@ -63401,12 +63481,12 @@
         <v>1640</v>
       </c>
       <c r="O2203" s="1" t="s">
-        <v>4941</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="2204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2204" s="1" t="s">
-        <v>4942</v>
+        <v>4950</v>
       </c>
       <c r="B2204" s="1" t="s">
         <v>4938</v>
@@ -63421,12 +63501,12 @@
         <v>1640</v>
       </c>
       <c r="O2204" s="1" t="s">
-        <v>4943</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="2205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2205" s="1" t="s">
-        <v>4944</v>
+        <v>4952</v>
       </c>
       <c r="B2205" s="1" t="s">
         <v>4938</v>
@@ -63441,12 +63521,12 @@
         <v>1640</v>
       </c>
       <c r="O2205" s="1" t="s">
-        <v>4945</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="2206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2206" s="1" t="s">
-        <v>4946</v>
+        <v>4954</v>
       </c>
       <c r="B2206" s="1" t="s">
         <v>4938</v>
@@ -63461,12 +63541,12 @@
         <v>1640</v>
       </c>
       <c r="O2206" s="1" t="s">
-        <v>4947</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="2207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2207" s="1" t="s">
-        <v>4948</v>
+        <v>4956</v>
       </c>
       <c r="B2207" s="1" t="s">
         <v>4938</v>
@@ -63481,12 +63561,12 @@
         <v>1640</v>
       </c>
       <c r="O2207" s="1" t="s">
-        <v>4949</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="2208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2208" s="1" t="s">
-        <v>4950</v>
+        <v>4958</v>
       </c>
       <c r="B2208" s="1" t="s">
         <v>4938</v>
@@ -63501,12 +63581,12 @@
         <v>1640</v>
       </c>
       <c r="O2208" s="1" t="s">
-        <v>4951</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="2209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2209" s="1" t="s">
-        <v>4952</v>
+        <v>4960</v>
       </c>
       <c r="B2209" s="1" t="s">
         <v>4938</v>
@@ -63521,12 +63601,12 @@
         <v>1640</v>
       </c>
       <c r="O2209" s="1" t="s">
-        <v>4953</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="2210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2210" s="1" t="s">
-        <v>4954</v>
+        <v>4962</v>
       </c>
       <c r="B2210" s="1" t="s">
         <v>4938</v>
@@ -63541,12 +63621,12 @@
         <v>1640</v>
       </c>
       <c r="O2210" s="1" t="s">
-        <v>4955</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="2211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2211" s="1" t="s">
-        <v>4956</v>
+        <v>4964</v>
       </c>
       <c r="B2211" s="1" t="s">
         <v>4938</v>
@@ -63561,12 +63641,12 @@
         <v>1640</v>
       </c>
       <c r="O2211" s="1" t="s">
-        <v>4957</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="2212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2212" s="1" t="s">
-        <v>4958</v>
+        <v>4966</v>
       </c>
       <c r="B2212" s="1" t="s">
         <v>4938</v>
@@ -63581,12 +63661,12 @@
         <v>1640</v>
       </c>
       <c r="O2212" s="1" t="s">
-        <v>4959</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="2213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2213" s="1" t="s">
-        <v>4960</v>
+        <v>4968</v>
       </c>
       <c r="B2213" s="1" t="s">
         <v>4938</v>
@@ -63601,12 +63681,12 @@
         <v>1640</v>
       </c>
       <c r="O2213" s="1" t="s">
-        <v>4961</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="2214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2214" s="1" t="s">
-        <v>4962</v>
+        <v>4970</v>
       </c>
       <c r="B2214" s="1" t="s">
         <v>4938</v>
@@ -63621,12 +63701,12 @@
         <v>1640</v>
       </c>
       <c r="O2214" s="1" t="s">
-        <v>4963</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="2215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2215" s="1" t="s">
-        <v>4964</v>
+        <v>4972</v>
       </c>
       <c r="B2215" s="1" t="s">
         <v>4938</v>
@@ -63641,12 +63721,12 @@
         <v>1640</v>
       </c>
       <c r="O2215" s="1" t="s">
-        <v>4965</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="2216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2216" s="1" t="s">
-        <v>4966</v>
+        <v>4974</v>
       </c>
       <c r="B2216" s="1" t="s">
         <v>4938</v>
@@ -63661,12 +63741,12 @@
         <v>1640</v>
       </c>
       <c r="O2216" s="1" t="s">
-        <v>4967</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="2217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2217" s="1" t="s">
-        <v>4968</v>
+        <v>4976</v>
       </c>
       <c r="B2217" s="1" t="s">
         <v>4938</v>
@@ -63681,12 +63761,12 @@
         <v>1640</v>
       </c>
       <c r="O2217" s="1" t="s">
-        <v>4969</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="2218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2218" s="1" t="s">
-        <v>4970</v>
+        <v>4978</v>
       </c>
       <c r="B2218" s="1" t="s">
         <v>4938</v>
@@ -63701,12 +63781,12 @@
         <v>1640</v>
       </c>
       <c r="O2218" s="1" t="s">
-        <v>4971</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="2219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2219" s="1" t="s">
-        <v>4972</v>
+        <v>4980</v>
       </c>
       <c r="B2219" s="1" t="s">
         <v>4938</v>
@@ -63721,12 +63801,12 @@
         <v>1640</v>
       </c>
       <c r="O2219" s="1" t="s">
-        <v>4973</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="2220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2220" s="1" t="s">
-        <v>4974</v>
+        <v>4982</v>
       </c>
       <c r="B2220" s="1" t="s">
         <v>4938</v>
@@ -63741,12 +63821,12 @@
         <v>1640</v>
       </c>
       <c r="O2220" s="1" t="s">
-        <v>4975</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="2221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2221" s="1" t="s">
-        <v>4976</v>
+        <v>4984</v>
       </c>
       <c r="B2221" s="1" t="s">
         <v>4938</v>
@@ -63761,12 +63841,12 @@
         <v>1640</v>
       </c>
       <c r="O2221" s="1" t="s">
-        <v>4977</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="2222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2222" s="1" t="s">
-        <v>4978</v>
+        <v>4986</v>
       </c>
       <c r="B2222" s="1" t="s">
         <v>4938</v>
@@ -63781,12 +63861,12 @@
         <v>1640</v>
       </c>
       <c r="O2222" s="1" t="s">
-        <v>4979</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="2223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2223" s="1" t="s">
-        <v>4980</v>
+        <v>4988</v>
       </c>
       <c r="B2223" s="1" t="s">
         <v>4938</v>
@@ -63801,12 +63881,12 @@
         <v>1640</v>
       </c>
       <c r="O2223" s="1" t="s">
-        <v>4981</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="2224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2224" s="1" t="s">
-        <v>4982</v>
+        <v>4990</v>
       </c>
       <c r="B2224" s="1" t="s">
         <v>4938</v>
@@ -63821,12 +63901,12 @@
         <v>1640</v>
       </c>
       <c r="O2224" s="1" t="s">
-        <v>4983</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="2225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2225" s="1" t="s">
-        <v>4984</v>
+        <v>4992</v>
       </c>
       <c r="B2225" s="1" t="s">
         <v>4938</v>
@@ -63841,12 +63921,12 @@
         <v>1640</v>
       </c>
       <c r="O2225" s="1" t="s">
-        <v>4985</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="2226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2226" s="1" t="s">
-        <v>4986</v>
+        <v>4994</v>
       </c>
       <c r="B2226" s="1" t="s">
         <v>4938</v>
@@ -63861,12 +63941,12 @@
         <v>1640</v>
       </c>
       <c r="O2226" s="1" t="s">
-        <v>4987</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="2227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2227" s="1" t="s">
-        <v>4988</v>
+        <v>4996</v>
       </c>
       <c r="B2227" s="1" t="s">
         <v>4938</v>
@@ -63881,12 +63961,12 @@
         <v>1640</v>
       </c>
       <c r="O2227" s="1" t="s">
-        <v>4989</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="2228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2228" s="1" t="s">
-        <v>4990</v>
+        <v>4998</v>
       </c>
       <c r="B2228" s="1" t="s">
         <v>4938</v>
@@ -63901,12 +63981,12 @@
         <v>1640</v>
       </c>
       <c r="O2228" s="1" t="s">
-        <v>4991</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="2229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2229" s="1" t="s">
-        <v>4992</v>
+        <v>5000</v>
       </c>
       <c r="B2229" s="1" t="s">
         <v>4938</v>
@@ -63921,12 +64001,12 @@
         <v>1640</v>
       </c>
       <c r="O2229" s="1" t="s">
-        <v>4993</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="2230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2230" s="1" t="s">
-        <v>4994</v>
+        <v>5002</v>
       </c>
       <c r="B2230" s="1" t="s">
         <v>4938</v>
@@ -63941,12 +64021,12 @@
         <v>1640</v>
       </c>
       <c r="O2230" s="1" t="s">
-        <v>4995</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="2231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2231" s="1" t="s">
-        <v>4996</v>
+        <v>5004</v>
       </c>
       <c r="B2231" s="1" t="s">
         <v>4938</v>
@@ -63961,12 +64041,12 @@
         <v>1640</v>
       </c>
       <c r="O2231" s="1" t="s">
-        <v>4997</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="2232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2232" s="1" t="s">
-        <v>4998</v>
+        <v>5006</v>
       </c>
       <c r="B2232" s="1" t="s">
         <v>4938</v>
@@ -63981,12 +64061,12 @@
         <v>1640</v>
       </c>
       <c r="O2232" s="1" t="s">
-        <v>4999</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="2233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2233" s="1" t="s">
-        <v>5000</v>
+        <v>5008</v>
       </c>
       <c r="B2233" s="1" t="s">
         <v>4938</v>
@@ -64001,12 +64081,12 @@
         <v>1640</v>
       </c>
       <c r="O2233" s="1" t="s">
-        <v>5001</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="2234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2234" s="1" t="s">
-        <v>5002</v>
+        <v>5010</v>
       </c>
       <c r="B2234" s="1" t="s">
         <v>4938</v>
@@ -64021,12 +64101,12 @@
         <v>1640</v>
       </c>
       <c r="O2234" s="1" t="s">
-        <v>5003</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="2235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2235" s="1" t="s">
-        <v>5004</v>
+        <v>5012</v>
       </c>
       <c r="B2235" s="1" t="s">
         <v>4938</v>
@@ -64041,12 +64121,12 @@
         <v>1640</v>
       </c>
       <c r="O2235" s="1" t="s">
-        <v>5005</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="2236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2236" s="1" t="s">
-        <v>5006</v>
+        <v>5014</v>
       </c>
       <c r="B2236" s="1" t="s">
         <v>4938</v>
@@ -64061,12 +64141,12 @@
         <v>1640</v>
       </c>
       <c r="O2236" s="1" t="s">
-        <v>5007</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="2237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2237" s="1" t="s">
-        <v>5008</v>
+        <v>5016</v>
       </c>
       <c r="B2237" s="1" t="s">
         <v>4938</v>
@@ -64081,12 +64161,12 @@
         <v>1640</v>
       </c>
       <c r="O2237" s="1" t="s">
-        <v>5009</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="2238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2238" s="1" t="s">
-        <v>5010</v>
+        <v>5018</v>
       </c>
       <c r="B2238" s="1" t="s">
         <v>4938</v>
@@ -64101,12 +64181,12 @@
         <v>1640</v>
       </c>
       <c r="O2238" s="1" t="s">
-        <v>5011</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="2239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2239" s="1" t="s">
-        <v>5012</v>
+        <v>5020</v>
       </c>
       <c r="B2239" s="1" t="s">
         <v>4938</v>
@@ -64121,12 +64201,12 @@
         <v>1640</v>
       </c>
       <c r="O2239" s="1" t="s">
-        <v>5013</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="2240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2240" s="1" t="s">
-        <v>5014</v>
+        <v>5022</v>
       </c>
       <c r="B2240" s="1" t="s">
         <v>4938</v>
@@ -64141,12 +64221,12 @@
         <v>1640</v>
       </c>
       <c r="O2240" s="1" t="s">
-        <v>5015</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="2241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2241" s="1" t="s">
-        <v>5016</v>
+        <v>5024</v>
       </c>
       <c r="B2241" s="1" t="s">
         <v>4938</v>
@@ -64161,12 +64241,12 @@
         <v>1640</v>
       </c>
       <c r="O2241" s="1" t="s">
-        <v>5017</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="2242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2242" s="1" t="s">
-        <v>5018</v>
+        <v>5026</v>
       </c>
       <c r="B2242" s="1" t="s">
         <v>4938</v>
@@ -64181,12 +64261,12 @@
         <v>1640</v>
       </c>
       <c r="O2242" s="1" t="s">
-        <v>5019</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="2243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2243" s="1" t="s">
-        <v>5020</v>
+        <v>5028</v>
       </c>
       <c r="B2243" s="1" t="s">
         <v>4938</v>
@@ -64201,12 +64281,12 @@
         <v>1640</v>
       </c>
       <c r="O2243" s="1" t="s">
-        <v>5021</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="2244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2244" s="1" t="s">
-        <v>5022</v>
+        <v>5030</v>
       </c>
       <c r="B2244" s="1" t="s">
         <v>4938</v>
@@ -64221,12 +64301,12 @@
         <v>1640</v>
       </c>
       <c r="O2244" s="1" t="s">
-        <v>5023</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="2245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2245" s="1" t="s">
-        <v>5024</v>
+        <v>5032</v>
       </c>
       <c r="B2245" s="1" t="s">
         <v>4938</v>
@@ -64241,12 +64321,12 @@
         <v>1640</v>
       </c>
       <c r="O2245" s="1" t="s">
-        <v>5025</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="2246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2246" s="1" t="s">
-        <v>5026</v>
+        <v>5034</v>
       </c>
       <c r="B2246" s="1" t="s">
         <v>4938</v>
@@ -64261,12 +64341,12 @@
         <v>1640</v>
       </c>
       <c r="O2246" s="1" t="s">
-        <v>5027</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="2247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2247" s="1" t="s">
-        <v>5028</v>
+        <v>5036</v>
       </c>
       <c r="B2247" s="1" t="s">
         <v>4938</v>
@@ -64281,12 +64361,12 @@
         <v>1640</v>
       </c>
       <c r="O2247" s="1" t="s">
-        <v>5029</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="2248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2248" s="1" t="s">
-        <v>5030</v>
+        <v>5038</v>
       </c>
       <c r="B2248" s="1" t="s">
         <v>4938</v>
@@ -64301,12 +64381,12 @@
         <v>1640</v>
       </c>
       <c r="O2248" s="1" t="s">
-        <v>5031</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="2249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2249" s="1" t="s">
-        <v>5032</v>
+        <v>5040</v>
       </c>
       <c r="B2249" s="1" t="s">
         <v>4938</v>
@@ -64321,12 +64401,12 @@
         <v>1640</v>
       </c>
       <c r="O2249" s="1" t="s">
-        <v>5033</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="2250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2250" s="1" t="s">
-        <v>5034</v>
+        <v>5042</v>
       </c>
       <c r="B2250" s="1" t="s">
         <v>4938</v>
@@ -64341,12 +64421,12 @@
         <v>1640</v>
       </c>
       <c r="O2250" s="1" t="s">
-        <v>5035</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="2251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2251" s="1" t="s">
-        <v>5036</v>
+        <v>5044</v>
       </c>
       <c r="B2251" s="1" t="s">
         <v>4938</v>
@@ -64361,12 +64441,12 @@
         <v>1640</v>
       </c>
       <c r="O2251" s="1" t="s">
-        <v>5037</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="2252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2252" s="1" t="s">
-        <v>5038</v>
+        <v>5046</v>
       </c>
       <c r="B2252" s="1" t="s">
         <v>4938</v>
@@ -64381,12 +64461,12 @@
         <v>1640</v>
       </c>
       <c r="O2252" s="1" t="s">
-        <v>5039</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="2253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2253" s="1" t="s">
-        <v>5040</v>
+        <v>5048</v>
       </c>
       <c r="B2253" s="1" t="s">
         <v>4938</v>
@@ -64401,12 +64481,12 @@
         <v>1640</v>
       </c>
       <c r="O2253" s="1" t="s">
-        <v>5041</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="2254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2254" s="1" t="s">
-        <v>5042</v>
+        <v>5050</v>
       </c>
       <c r="B2254" s="1" t="s">
         <v>4938</v>
@@ -64421,12 +64501,12 @@
         <v>1640</v>
       </c>
       <c r="O2254" s="1" t="s">
-        <v>5043</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="2255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2255" s="1" t="s">
-        <v>5044</v>
+        <v>5052</v>
       </c>
       <c r="B2255" s="1" t="s">
         <v>4938</v>
@@ -64441,12 +64521,12 @@
         <v>1640</v>
       </c>
       <c r="O2255" s="1" t="s">
-        <v>5045</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="2256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2256" s="1" t="s">
-        <v>5046</v>
+        <v>5054</v>
       </c>
       <c r="B2256" s="1" t="s">
         <v>4938</v>
@@ -64461,12 +64541,12 @@
         <v>1640</v>
       </c>
       <c r="O2256" s="1" t="s">
-        <v>5047</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="2257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2257" s="1" t="s">
-        <v>5048</v>
+        <v>5056</v>
       </c>
       <c r="B2257" s="1" t="s">
         <v>4938</v>
@@ -64481,12 +64561,12 @@
         <v>1640</v>
       </c>
       <c r="O2257" s="1" t="s">
-        <v>5049</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="2258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2258" s="1" t="s">
-        <v>5050</v>
+        <v>5058</v>
       </c>
       <c r="B2258" s="1" t="s">
         <v>4938</v>
@@ -64501,12 +64581,12 @@
         <v>1640</v>
       </c>
       <c r="O2258" s="1" t="s">
-        <v>5051</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="2259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2259" s="1" t="s">
-        <v>5052</v>
+        <v>5060</v>
       </c>
       <c r="B2259" s="1" t="s">
         <v>4938</v>
@@ -64521,12 +64601,12 @@
         <v>1640</v>
       </c>
       <c r="O2259" s="1" t="s">
-        <v>5053</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="2260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2260" s="1" t="s">
-        <v>5054</v>
+        <v>5062</v>
       </c>
       <c r="B2260" s="1" t="s">
         <v>4938</v>
@@ -64541,12 +64621,12 @@
         <v>1640</v>
       </c>
       <c r="O2260" s="1" t="s">
-        <v>5055</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="2261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2261" s="1" t="s">
-        <v>5056</v>
+        <v>5064</v>
       </c>
       <c r="B2261" s="1" t="s">
         <v>4938</v>
@@ -64561,12 +64641,12 @@
         <v>1640</v>
       </c>
       <c r="O2261" s="1" t="s">
-        <v>5057</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="2262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2262" s="1" t="s">
-        <v>5058</v>
+        <v>5066</v>
       </c>
       <c r="B2262" s="1" t="s">
         <v>4938</v>
@@ -64581,12 +64661,12 @@
         <v>1640</v>
       </c>
       <c r="O2262" s="1" t="s">
-        <v>5059</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="2263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2263" s="1" t="s">
-        <v>5060</v>
+        <v>5068</v>
       </c>
       <c r="B2263" s="1" t="s">
         <v>4938</v>
@@ -64601,12 +64681,12 @@
         <v>1640</v>
       </c>
       <c r="O2263" s="1" t="s">
-        <v>5061</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="2264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2264" s="1" t="s">
-        <v>5062</v>
+        <v>5070</v>
       </c>
       <c r="B2264" s="1" t="s">
         <v>4938</v>
@@ -64621,12 +64701,12 @@
         <v>1640</v>
       </c>
       <c r="O2264" s="1" t="s">
-        <v>5063</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="2265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2265" s="1" t="s">
-        <v>5064</v>
+        <v>5072</v>
       </c>
       <c r="B2265" s="1" t="s">
         <v>4938</v>
@@ -64641,12 +64721,12 @@
         <v>1640</v>
       </c>
       <c r="O2265" s="1" t="s">
-        <v>5065</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="2266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2266" s="1" t="s">
-        <v>5066</v>
+        <v>5074</v>
       </c>
       <c r="B2266" s="1" t="s">
         <v>4938</v>
@@ -64661,12 +64741,12 @@
         <v>1640</v>
       </c>
       <c r="O2266" s="1" t="s">
-        <v>5067</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="2267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2267" s="1" t="s">
-        <v>5068</v>
+        <v>5076</v>
       </c>
       <c r="B2267" s="1" t="s">
         <v>4938</v>
@@ -64681,12 +64761,12 @@
         <v>1640</v>
       </c>
       <c r="O2267" s="1" t="s">
-        <v>5069</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="2268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2268" s="1" t="s">
-        <v>5070</v>
+        <v>5078</v>
       </c>
       <c r="B2268" s="1" t="s">
         <v>4938</v>
@@ -64701,12 +64781,12 @@
         <v>1640</v>
       </c>
       <c r="O2268" s="1" t="s">
-        <v>5071</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="2269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2269" s="1" t="s">
-        <v>5072</v>
+        <v>5080</v>
       </c>
       <c r="B2269" s="1" t="s">
         <v>4938</v>
@@ -64721,12 +64801,12 @@
         <v>1640</v>
       </c>
       <c r="O2269" s="1" t="s">
-        <v>5073</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="2270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2270" s="1" t="s">
-        <v>5074</v>
+        <v>5082</v>
       </c>
       <c r="B2270" s="1" t="s">
         <v>4938</v>
@@ -64741,12 +64821,12 @@
         <v>1640</v>
       </c>
       <c r="O2270" s="1" t="s">
-        <v>5075</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="2271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2271" s="1" t="s">
-        <v>5076</v>
+        <v>5084</v>
       </c>
       <c r="B2271" s="1" t="s">
         <v>4938</v>
@@ -64761,12 +64841,12 @@
         <v>1640</v>
       </c>
       <c r="O2271" s="1" t="s">
-        <v>5077</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="2272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2272" s="1" t="s">
-        <v>5078</v>
+        <v>5086</v>
       </c>
       <c r="B2272" s="1" t="s">
         <v>4938</v>
@@ -64781,12 +64861,12 @@
         <v>1640</v>
       </c>
       <c r="O2272" s="1" t="s">
-        <v>5079</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="2273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2273" s="1" t="s">
-        <v>5080</v>
+        <v>5088</v>
       </c>
       <c r="B2273" s="1" t="s">
         <v>4938</v>
@@ -64801,12 +64881,12 @@
         <v>1640</v>
       </c>
       <c r="O2273" s="1" t="s">
-        <v>5081</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="2274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2274" s="1" t="s">
-        <v>5082</v>
+        <v>5090</v>
       </c>
       <c r="B2274" s="1" t="s">
         <v>4938</v>
@@ -64821,12 +64901,12 @@
         <v>1640</v>
       </c>
       <c r="O2274" s="1" t="s">
-        <v>5083</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="2275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2275" s="1" t="s">
-        <v>5084</v>
+        <v>5092</v>
       </c>
       <c r="B2275" s="1" t="s">
         <v>4938</v>
@@ -64841,12 +64921,12 @@
         <v>1640</v>
       </c>
       <c r="O2275" s="1" t="s">
-        <v>5085</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="2276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2276" s="1" t="s">
-        <v>5086</v>
+        <v>5094</v>
       </c>
       <c r="B2276" s="1" t="s">
         <v>4938</v>
@@ -64861,12 +64941,12 @@
         <v>1640</v>
       </c>
       <c r="O2276" s="1" t="s">
-        <v>5087</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="2277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2277" s="1" t="s">
-        <v>5088</v>
+        <v>5096</v>
       </c>
       <c r="B2277" s="1" t="s">
         <v>4938</v>
@@ -64881,12 +64961,12 @@
         <v>1640</v>
       </c>
       <c r="O2277" s="1" t="s">
-        <v>5089</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="2278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2278" s="1" t="s">
-        <v>5090</v>
+        <v>5098</v>
       </c>
       <c r="B2278" s="1" t="s">
         <v>4938</v>
@@ -64901,12 +64981,12 @@
         <v>1640</v>
       </c>
       <c r="O2278" s="1" t="s">
-        <v>5091</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="2279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2279" s="1" t="s">
-        <v>5092</v>
+        <v>5100</v>
       </c>
       <c r="B2279" s="1" t="s">
         <v>4938</v>
@@ -64921,12 +65001,12 @@
         <v>1640</v>
       </c>
       <c r="O2279" s="1" t="s">
-        <v>5093</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="2280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2280" s="1" t="s">
-        <v>5094</v>
+        <v>5102</v>
       </c>
       <c r="B2280" s="1" t="s">
         <v>4938</v>
@@ -64941,12 +65021,12 @@
         <v>1640</v>
       </c>
       <c r="O2280" s="1" t="s">
-        <v>5095</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="2281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2281" s="1" t="s">
-        <v>5096</v>
+        <v>5104</v>
       </c>
       <c r="B2281" s="1" t="s">
         <v>4938</v>
@@ -64961,12 +65041,12 @@
         <v>1640</v>
       </c>
       <c r="O2281" s="1" t="s">
-        <v>5097</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="2282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2282" s="1" t="s">
-        <v>5098</v>
+        <v>5106</v>
       </c>
       <c r="B2282" s="1" t="s">
         <v>4938</v>
@@ -64981,12 +65061,12 @@
         <v>1640</v>
       </c>
       <c r="O2282" s="1" t="s">
-        <v>5099</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="2283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2283" s="1" t="s">
-        <v>5100</v>
+        <v>5108</v>
       </c>
       <c r="B2283" s="1" t="s">
         <v>4938</v>
@@ -65001,12 +65081,12 @@
         <v>1640</v>
       </c>
       <c r="O2283" s="1" t="s">
-        <v>5101</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="2284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2284" s="1" t="s">
-        <v>5102</v>
+        <v>5110</v>
       </c>
       <c r="B2284" s="1" t="s">
         <v>4938</v>
@@ -65021,12 +65101,12 @@
         <v>1640</v>
       </c>
       <c r="O2284" s="1" t="s">
-        <v>5103</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="2285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2285" s="1" t="s">
-        <v>5104</v>
+        <v>5112</v>
       </c>
       <c r="B2285" s="1" t="s">
         <v>4938</v>
@@ -65041,12 +65121,12 @@
         <v>1640</v>
       </c>
       <c r="O2285" s="1" t="s">
-        <v>5105</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="2286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2286" s="1" t="s">
-        <v>5106</v>
+        <v>5114</v>
       </c>
       <c r="B2286" s="1" t="s">
         <v>4938</v>
@@ -65061,12 +65141,12 @@
         <v>1640</v>
       </c>
       <c r="O2286" s="1" t="s">
-        <v>5107</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="2287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2287" s="1" t="s">
-        <v>5108</v>
+        <v>5116</v>
       </c>
       <c r="B2287" s="1" t="s">
         <v>4938</v>
@@ -65081,12 +65161,12 @@
         <v>1640</v>
       </c>
       <c r="O2287" s="1" t="s">
-        <v>5109</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="2288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2288" s="1" t="s">
-        <v>5110</v>
+        <v>5118</v>
       </c>
       <c r="B2288" s="1" t="s">
         <v>4938</v>
@@ -65101,12 +65181,12 @@
         <v>1640</v>
       </c>
       <c r="O2288" s="1" t="s">
-        <v>5111</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="2289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2289" s="1" t="s">
-        <v>5112</v>
+        <v>5120</v>
       </c>
       <c r="B2289" s="1" t="s">
         <v>4938</v>
@@ -65121,12 +65201,12 @@
         <v>1640</v>
       </c>
       <c r="O2289" s="1" t="s">
-        <v>5113</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="2290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2290" s="1" t="s">
-        <v>5114</v>
+        <v>5122</v>
       </c>
       <c r="B2290" s="1" t="s">
         <v>4938</v>
@@ -65141,12 +65221,12 @@
         <v>1640</v>
       </c>
       <c r="O2290" s="1" t="s">
-        <v>5115</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="2291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2291" s="1" t="s">
-        <v>5116</v>
+        <v>5124</v>
       </c>
       <c r="B2291" s="1" t="s">
         <v>4938</v>
@@ -65161,12 +65241,12 @@
         <v>1640</v>
       </c>
       <c r="O2291" s="1" t="s">
-        <v>5117</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="2292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2292" s="1" t="s">
-        <v>5118</v>
+        <v>5126</v>
       </c>
       <c r="B2292" s="1" t="s">
         <v>4938</v>
@@ -65181,12 +65261,12 @@
         <v>1640</v>
       </c>
       <c r="O2292" s="1" t="s">
-        <v>5119</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="2293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2293" s="1" t="s">
-        <v>5120</v>
+        <v>5128</v>
       </c>
       <c r="B2293" s="1" t="s">
         <v>4938</v>
@@ -65201,12 +65281,12 @@
         <v>1640</v>
       </c>
       <c r="O2293" s="1" t="s">
-        <v>5121</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="2294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2294" s="1" t="s">
-        <v>5122</v>
+        <v>5130</v>
       </c>
       <c r="B2294" s="1" t="s">
         <v>4938</v>
@@ -65221,12 +65301,12 @@
         <v>1640</v>
       </c>
       <c r="O2294" s="1" t="s">
-        <v>5123</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="2295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2295" s="1" t="s">
-        <v>5124</v>
+        <v>5132</v>
       </c>
       <c r="B2295" s="1" t="s">
         <v>4938</v>
@@ -65241,12 +65321,12 @@
         <v>1640</v>
       </c>
       <c r="O2295" s="1" t="s">
-        <v>5125</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="2296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2296" s="1" t="s">
-        <v>5126</v>
+        <v>5134</v>
       </c>
       <c r="B2296" s="1" t="s">
         <v>4938</v>
@@ -65261,12 +65341,12 @@
         <v>1640</v>
       </c>
       <c r="O2296" s="1" t="s">
-        <v>5127</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="2297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2297" s="1" t="s">
-        <v>5128</v>
+        <v>5136</v>
       </c>
       <c r="B2297" s="1" t="s">
         <v>4938</v>
@@ -65281,12 +65361,12 @@
         <v>1640</v>
       </c>
       <c r="O2297" s="1" t="s">
-        <v>5129</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="2298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2298" s="1" t="s">
-        <v>5130</v>
+        <v>5138</v>
       </c>
       <c r="B2298" s="1" t="s">
         <v>4938</v>
@@ -65301,12 +65381,12 @@
         <v>1640</v>
       </c>
       <c r="O2298" s="1" t="s">
-        <v>5131</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="2299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2299" s="1" t="s">
-        <v>5132</v>
+        <v>5140</v>
       </c>
       <c r="B2299" s="1" t="s">
         <v>4938</v>
@@ -65321,12 +65401,12 @@
         <v>1640</v>
       </c>
       <c r="O2299" s="1" t="s">
-        <v>5133</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="2300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2300" s="1" t="s">
-        <v>5134</v>
+        <v>5142</v>
       </c>
       <c r="B2300" s="1" t="s">
         <v>4938</v>
@@ -65341,12 +65421,12 @@
         <v>1640</v>
       </c>
       <c r="O2300" s="1" t="s">
-        <v>5135</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="2301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2301" s="1" t="s">
-        <v>5136</v>
+        <v>5144</v>
       </c>
       <c r="B2301" s="1" t="s">
         <v>4938</v>
@@ -65361,12 +65441,12 @@
         <v>1640</v>
       </c>
       <c r="O2301" s="1" t="s">
-        <v>5137</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="2302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2302" s="1" t="s">
-        <v>5138</v>
+        <v>5146</v>
       </c>
       <c r="B2302" s="1" t="s">
         <v>4938</v>
@@ -65381,12 +65461,12 @@
         <v>1640</v>
       </c>
       <c r="O2302" s="1" t="s">
-        <v>5139</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="2303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2303" s="1" t="s">
-        <v>5140</v>
+        <v>5148</v>
       </c>
       <c r="B2303" s="1" t="s">
         <v>4938</v>
@@ -65401,12 +65481,12 @@
         <v>1640</v>
       </c>
       <c r="O2303" s="1" t="s">
-        <v>5141</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="2304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2304" s="1" t="s">
-        <v>5142</v>
+        <v>5150</v>
       </c>
       <c r="B2304" s="1" t="s">
         <v>4938</v>
@@ -65421,12 +65501,12 @@
         <v>1640</v>
       </c>
       <c r="O2304" s="1" t="s">
-        <v>5143</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="2305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2305" s="1" t="s">
-        <v>5144</v>
+        <v>5152</v>
       </c>
       <c r="B2305" s="1" t="s">
         <v>4938</v>
@@ -65441,12 +65521,12 @@
         <v>1640</v>
       </c>
       <c r="O2305" s="1" t="s">
-        <v>5145</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="2306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2306" s="1" t="s">
-        <v>5146</v>
+        <v>5154</v>
       </c>
       <c r="B2306" s="1" t="s">
         <v>4938</v>
@@ -65461,12 +65541,12 @@
         <v>1640</v>
       </c>
       <c r="O2306" s="1" t="s">
-        <v>5147</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="2307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2307" s="1" t="s">
-        <v>5148</v>
+        <v>5156</v>
       </c>
       <c r="B2307" s="1" t="s">
         <v>4938</v>
@@ -65481,12 +65561,12 @@
         <v>1640</v>
       </c>
       <c r="O2307" s="1" t="s">
-        <v>5149</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="2308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2308" s="1" t="s">
-        <v>5150</v>
+        <v>5158</v>
       </c>
       <c r="B2308" s="1" t="s">
         <v>4938</v>
@@ -65501,12 +65581,12 @@
         <v>1640</v>
       </c>
       <c r="O2308" s="1" t="s">
-        <v>5151</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="2309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2309" s="1" t="s">
-        <v>5152</v>
+        <v>5160</v>
       </c>
       <c r="B2309" s="1" t="s">
         <v>4938</v>
@@ -65521,12 +65601,12 @@
         <v>1640</v>
       </c>
       <c r="O2309" s="1" t="s">
-        <v>5153</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="2310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2310" s="1" t="s">
-        <v>5154</v>
+        <v>5162</v>
       </c>
       <c r="B2310" s="1" t="s">
         <v>4938</v>
@@ -65541,12 +65621,12 @@
         <v>1640</v>
       </c>
       <c r="O2310" s="1" t="s">
-        <v>5155</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="2311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2311" s="1" t="s">
-        <v>5156</v>
+        <v>5164</v>
       </c>
       <c r="B2311" s="1" t="s">
         <v>4938</v>
@@ -65561,12 +65641,12 @@
         <v>1640</v>
       </c>
       <c r="O2311" s="1" t="s">
-        <v>5157</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="2312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2312" s="1" t="s">
-        <v>5158</v>
+        <v>5166</v>
       </c>
       <c r="B2312" s="1" t="s">
         <v>4938</v>
@@ -65581,12 +65661,12 @@
         <v>1640</v>
       </c>
       <c r="O2312" s="1" t="s">
-        <v>5159</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2313" s="1" t="s">
-        <v>5160</v>
+        <v>5168</v>
       </c>
       <c r="B2313" s="1" t="s">
         <v>4938</v>
@@ -65601,12 +65681,12 @@
         <v>1640</v>
       </c>
       <c r="O2313" s="1" t="s">
-        <v>5161</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="2314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2314" s="1" t="s">
-        <v>5162</v>
+        <v>5170</v>
       </c>
       <c r="B2314" s="1" t="s">
         <v>4938</v>
@@ -65621,12 +65701,12 @@
         <v>1640</v>
       </c>
       <c r="O2314" s="1" t="s">
-        <v>5163</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="2315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2315" s="1" t="s">
-        <v>5164</v>
+        <v>5172</v>
       </c>
       <c r="B2315" s="1" t="s">
         <v>4938</v>
@@ -65641,12 +65721,12 @@
         <v>1640</v>
       </c>
       <c r="O2315" s="1" t="s">
-        <v>5165</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="2316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2316" s="1" t="s">
-        <v>5166</v>
+        <v>5174</v>
       </c>
       <c r="B2316" s="1" t="s">
         <v>4938</v>
@@ -65661,12 +65741,12 @@
         <v>1640</v>
       </c>
       <c r="O2316" s="1" t="s">
-        <v>5167</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="2317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2317" s="1" t="s">
-        <v>5168</v>
+        <v>5176</v>
       </c>
       <c r="B2317" s="1" t="s">
         <v>4938</v>
@@ -65681,12 +65761,12 @@
         <v>1640</v>
       </c>
       <c r="O2317" s="1" t="s">
-        <v>5169</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="2318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2318" s="1" t="s">
-        <v>5170</v>
+        <v>5178</v>
       </c>
       <c r="B2318" s="1" t="s">
         <v>4938</v>
@@ -65701,12 +65781,12 @@
         <v>1640</v>
       </c>
       <c r="O2318" s="1" t="s">
-        <v>5171</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="2319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2319" s="1" t="s">
-        <v>5172</v>
+        <v>5180</v>
       </c>
       <c r="B2319" s="1" t="s">
         <v>4938</v>
@@ -65721,12 +65801,12 @@
         <v>1640</v>
       </c>
       <c r="O2319" s="1" t="s">
-        <v>5173</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="2320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2320" s="1" t="s">
-        <v>5174</v>
+        <v>5182</v>
       </c>
       <c r="B2320" s="1" t="s">
         <v>4938</v>
@@ -65741,12 +65821,12 @@
         <v>1640</v>
       </c>
       <c r="O2320" s="1" t="s">
-        <v>5175</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="2321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2321" s="1" t="s">
-        <v>5176</v>
+        <v>5184</v>
       </c>
       <c r="B2321" s="1" t="s">
         <v>4938</v>
@@ -65761,12 +65841,12 @@
         <v>1640</v>
       </c>
       <c r="O2321" s="1" t="s">
-        <v>5177</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="2322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2322" s="1" t="s">
-        <v>5178</v>
+        <v>5186</v>
       </c>
       <c r="B2322" s="1" t="s">
         <v>4938</v>
@@ -65781,12 +65861,12 @@
         <v>1640</v>
       </c>
       <c r="O2322" s="1" t="s">
-        <v>5179</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="2323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2323" s="1" t="s">
-        <v>5180</v>
+        <v>5188</v>
       </c>
       <c r="B2323" s="1" t="s">
         <v>4938</v>
@@ -65801,12 +65881,12 @@
         <v>1640</v>
       </c>
       <c r="O2323" s="1" t="s">
-        <v>5181</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="2324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2324" s="1" t="s">
-        <v>5182</v>
+        <v>5190</v>
       </c>
       <c r="B2324" s="1" t="s">
         <v>4938</v>
@@ -65821,12 +65901,12 @@
         <v>1640</v>
       </c>
       <c r="O2324" s="1" t="s">
-        <v>5183</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="2325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2325" s="1" t="s">
-        <v>5184</v>
+        <v>5192</v>
       </c>
       <c r="B2325" s="1" t="s">
         <v>4938</v>
@@ -65841,86 +65921,6 @@
         <v>1640</v>
       </c>
       <c r="O2325" s="1" t="s">
-        <v>5185</v>
-      </c>
-    </row>
-    <row r="2326" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2326" s="1" t="s">
-        <v>5186</v>
-      </c>
-      <c r="B2326" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C2326" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2326" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2326" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O2326" s="1" t="s">
-        <v>5187</v>
-      </c>
-    </row>
-    <row r="2327" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2327" s="1" t="s">
-        <v>5188</v>
-      </c>
-      <c r="B2327" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C2327" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2327" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2327" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O2327" s="1" t="s">
-        <v>5189</v>
-      </c>
-    </row>
-    <row r="2328" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2328" s="1" t="s">
-        <v>5190</v>
-      </c>
-      <c r="B2328" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C2328" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2328" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2328" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O2328" s="1" t="s">
-        <v>5191</v>
-      </c>
-    </row>
-    <row r="2329" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2329" s="1" t="s">
-        <v>5192</v>
-      </c>
-      <c r="B2329" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C2329" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2329" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2329" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O2329" s="1" t="s">
         <v>5193</v>
       </c>
     </row>

--- a/compatibility.xlsx
+++ b/compatibility.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="DETAILS" localSheetId="2">Φύλλο1!$A$1:$O$2325</definedName>
+    <definedName name="DETAILS" localSheetId="2">Φύλλο1!$A$1:$O$2324</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -15969,10 +15969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD11"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16244,6 +16244,26 @@
       </c>
       <c r="O11" s="1" t="s">
         <v>4239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4907</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4908</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4909</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>2678</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>4910</v>
       </c>
     </row>
   </sheetData>
@@ -16300,10 +16320,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2325"/>
+  <dimension ref="A1:O2324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1885" workbookViewId="0">
-      <selection activeCell="I1894" sqref="I1894"/>
+    <sheetView tabSelected="1" topLeftCell="A2174" workbookViewId="0">
+      <selection activeCell="G2191" sqref="G2191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63184,81 +63204,78 @@
     </row>
     <row r="2188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2188" s="1" t="s">
-        <v>4907</v>
+        <v>4911</v>
       </c>
       <c r="B2188" s="1" t="s">
-        <v>4908</v>
+        <v>4912</v>
       </c>
       <c r="C2188" s="1" t="s">
-        <v>4909</v>
+        <v>348</v>
       </c>
       <c r="D2188" s="1" t="s">
-        <v>806</v>
+        <v>158</v>
       </c>
       <c r="J2188" s="1" t="s">
-        <v>2678</v>
+        <v>1493</v>
       </c>
       <c r="O2188" s="1" t="s">
-        <v>4910</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="2189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2189" s="1" t="s">
-        <v>4911</v>
+        <v>4914</v>
       </c>
       <c r="B2189" s="1" t="s">
-        <v>4912</v>
+        <v>4915</v>
       </c>
       <c r="C2189" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2189" s="1" t="s">
-        <v>158</v>
+        <v>446</v>
       </c>
       <c r="J2189" s="1" t="s">
-        <v>1493</v>
+        <v>62</v>
       </c>
       <c r="O2189" s="1" t="s">
-        <v>4913</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="2190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2190" s="1" t="s">
-        <v>4914</v>
+        <v>4917</v>
       </c>
       <c r="B2190" s="1" t="s">
-        <v>4915</v>
+        <v>4918</v>
       </c>
       <c r="C2190" s="1" t="s">
-        <v>446</v>
+        <v>2</v>
       </c>
       <c r="J2190" s="1" t="s">
-        <v>62</v>
+        <v>447</v>
       </c>
       <c r="O2190" s="1" t="s">
-        <v>4916</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="2191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2191" s="1" t="s">
-        <v>4917</v>
+        <v>4920</v>
       </c>
       <c r="B2191" s="1" t="s">
-        <v>4918</v>
+        <v>4921</v>
       </c>
       <c r="C2191" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2191" s="1" t="s">
-        <v>447</v>
+        <v>65</v>
       </c>
       <c r="O2191" s="1" t="s">
-        <v>4919</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="2192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2192" s="1" t="s">
-        <v>4920</v>
+        <v>4923</v>
       </c>
       <c r="B2192" s="1" t="s">
         <v>4921</v>
@@ -63270,103 +63287,106 @@
         <v>65</v>
       </c>
       <c r="O2192" s="1" t="s">
-        <v>4922</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="2193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2193" s="1" t="s">
-        <v>4923</v>
+        <v>4925</v>
       </c>
       <c r="B2193" s="1" t="s">
-        <v>4921</v>
+        <v>4926</v>
       </c>
       <c r="C2193" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2193" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="O2193" s="1" t="s">
-        <v>4924</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="2194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2194" s="1" t="s">
-        <v>4925</v>
+        <v>4928</v>
       </c>
       <c r="B2194" s="1" t="s">
-        <v>4926</v>
+        <v>4929</v>
       </c>
       <c r="C2194" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2194" s="1" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="O2194" s="1" t="s">
-        <v>4927</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="2195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2195" s="1" t="s">
-        <v>4928</v>
+        <v>4931</v>
       </c>
       <c r="B2195" s="1" t="s">
-        <v>4929</v>
+        <v>4932</v>
       </c>
       <c r="C2195" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2195" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2195" s="1" t="s">
-        <v>177</v>
+        <v>383</v>
+      </c>
+      <c r="K2195" s="1" t="s">
+        <v>1534</v>
       </c>
       <c r="O2195" s="1" t="s">
-        <v>4930</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="2196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2196" s="1" t="s">
-        <v>4931</v>
+        <v>4934</v>
       </c>
       <c r="B2196" s="1" t="s">
-        <v>4932</v>
+        <v>4935</v>
       </c>
       <c r="C2196" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2196" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J2196" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2196" s="1" t="s">
-        <v>1534</v>
+        <v>62</v>
       </c>
       <c r="O2196" s="1" t="s">
-        <v>4933</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="2197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2197" s="1" t="s">
-        <v>4934</v>
+        <v>4937</v>
       </c>
       <c r="B2197" s="1" t="s">
-        <v>4935</v>
+        <v>4938</v>
       </c>
       <c r="C2197" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
+      </c>
+      <c r="D2197" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J2197" s="1" t="s">
-        <v>62</v>
+        <v>1640</v>
       </c>
       <c r="O2197" s="1" t="s">
-        <v>4936</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="2198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2198" s="1" t="s">
-        <v>4937</v>
+        <v>4940</v>
       </c>
       <c r="B2198" s="1" t="s">
         <v>4938</v>
@@ -63381,12 +63401,12 @@
         <v>1640</v>
       </c>
       <c r="O2198" s="1" t="s">
-        <v>4939</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="2199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2199" s="1" t="s">
-        <v>4940</v>
+        <v>4942</v>
       </c>
       <c r="B2199" s="1" t="s">
         <v>4938</v>
@@ -63401,12 +63421,12 @@
         <v>1640</v>
       </c>
       <c r="O2199" s="1" t="s">
-        <v>4941</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="2200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2200" s="1" t="s">
-        <v>4942</v>
+        <v>4944</v>
       </c>
       <c r="B2200" s="1" t="s">
         <v>4938</v>
@@ -63421,12 +63441,12 @@
         <v>1640</v>
       </c>
       <c r="O2200" s="1" t="s">
-        <v>4943</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="2201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2201" s="1" t="s">
-        <v>4944</v>
+        <v>4946</v>
       </c>
       <c r="B2201" s="1" t="s">
         <v>4938</v>
@@ -63441,12 +63461,12 @@
         <v>1640</v>
       </c>
       <c r="O2201" s="1" t="s">
-        <v>4945</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="2202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2202" s="1" t="s">
-        <v>4946</v>
+        <v>4948</v>
       </c>
       <c r="B2202" s="1" t="s">
         <v>4938</v>
@@ -63461,12 +63481,12 @@
         <v>1640</v>
       </c>
       <c r="O2202" s="1" t="s">
-        <v>4947</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="2203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2203" s="1" t="s">
-        <v>4948</v>
+        <v>4950</v>
       </c>
       <c r="B2203" s="1" t="s">
         <v>4938</v>
@@ -63481,12 +63501,12 @@
         <v>1640</v>
       </c>
       <c r="O2203" s="1" t="s">
-        <v>4949</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="2204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2204" s="1" t="s">
-        <v>4950</v>
+        <v>4952</v>
       </c>
       <c r="B2204" s="1" t="s">
         <v>4938</v>
@@ -63501,12 +63521,12 @@
         <v>1640</v>
       </c>
       <c r="O2204" s="1" t="s">
-        <v>4951</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="2205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2205" s="1" t="s">
-        <v>4952</v>
+        <v>4954</v>
       </c>
       <c r="B2205" s="1" t="s">
         <v>4938</v>
@@ -63521,12 +63541,12 @@
         <v>1640</v>
       </c>
       <c r="O2205" s="1" t="s">
-        <v>4953</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="2206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2206" s="1" t="s">
-        <v>4954</v>
+        <v>4956</v>
       </c>
       <c r="B2206" s="1" t="s">
         <v>4938</v>
@@ -63541,12 +63561,12 @@
         <v>1640</v>
       </c>
       <c r="O2206" s="1" t="s">
-        <v>4955</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="2207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2207" s="1" t="s">
-        <v>4956</v>
+        <v>4958</v>
       </c>
       <c r="B2207" s="1" t="s">
         <v>4938</v>
@@ -63561,12 +63581,12 @@
         <v>1640</v>
       </c>
       <c r="O2207" s="1" t="s">
-        <v>4957</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="2208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2208" s="1" t="s">
-        <v>4958</v>
+        <v>4960</v>
       </c>
       <c r="B2208" s="1" t="s">
         <v>4938</v>
@@ -63581,12 +63601,12 @@
         <v>1640</v>
       </c>
       <c r="O2208" s="1" t="s">
-        <v>4959</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="2209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2209" s="1" t="s">
-        <v>4960</v>
+        <v>4962</v>
       </c>
       <c r="B2209" s="1" t="s">
         <v>4938</v>
@@ -63601,12 +63621,12 @@
         <v>1640</v>
       </c>
       <c r="O2209" s="1" t="s">
-        <v>4961</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="2210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2210" s="1" t="s">
-        <v>4962</v>
+        <v>4964</v>
       </c>
       <c r="B2210" s="1" t="s">
         <v>4938</v>
@@ -63621,12 +63641,12 @@
         <v>1640</v>
       </c>
       <c r="O2210" s="1" t="s">
-        <v>4963</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="2211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2211" s="1" t="s">
-        <v>4964</v>
+        <v>4966</v>
       </c>
       <c r="B2211" s="1" t="s">
         <v>4938</v>
@@ -63641,12 +63661,12 @@
         <v>1640</v>
       </c>
       <c r="O2211" s="1" t="s">
-        <v>4965</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="2212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2212" s="1" t="s">
-        <v>4966</v>
+        <v>4968</v>
       </c>
       <c r="B2212" s="1" t="s">
         <v>4938</v>
@@ -63661,12 +63681,12 @@
         <v>1640</v>
       </c>
       <c r="O2212" s="1" t="s">
-        <v>4967</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="2213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2213" s="1" t="s">
-        <v>4968</v>
+        <v>4970</v>
       </c>
       <c r="B2213" s="1" t="s">
         <v>4938</v>
@@ -63681,12 +63701,12 @@
         <v>1640</v>
       </c>
       <c r="O2213" s="1" t="s">
-        <v>4969</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="2214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2214" s="1" t="s">
-        <v>4970</v>
+        <v>4972</v>
       </c>
       <c r="B2214" s="1" t="s">
         <v>4938</v>
@@ -63701,12 +63721,12 @@
         <v>1640</v>
       </c>
       <c r="O2214" s="1" t="s">
-        <v>4971</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="2215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2215" s="1" t="s">
-        <v>4972</v>
+        <v>4974</v>
       </c>
       <c r="B2215" s="1" t="s">
         <v>4938</v>
@@ -63721,12 +63741,12 @@
         <v>1640</v>
       </c>
       <c r="O2215" s="1" t="s">
-        <v>4973</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="2216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2216" s="1" t="s">
-        <v>4974</v>
+        <v>4976</v>
       </c>
       <c r="B2216" s="1" t="s">
         <v>4938</v>
@@ -63741,12 +63761,12 @@
         <v>1640</v>
       </c>
       <c r="O2216" s="1" t="s">
-        <v>4975</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="2217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2217" s="1" t="s">
-        <v>4976</v>
+        <v>4978</v>
       </c>
       <c r="B2217" s="1" t="s">
         <v>4938</v>
@@ -63761,12 +63781,12 @@
         <v>1640</v>
       </c>
       <c r="O2217" s="1" t="s">
-        <v>4977</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="2218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2218" s="1" t="s">
-        <v>4978</v>
+        <v>4980</v>
       </c>
       <c r="B2218" s="1" t="s">
         <v>4938</v>
@@ -63781,12 +63801,12 @@
         <v>1640</v>
       </c>
       <c r="O2218" s="1" t="s">
-        <v>4979</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="2219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2219" s="1" t="s">
-        <v>4980</v>
+        <v>4982</v>
       </c>
       <c r="B2219" s="1" t="s">
         <v>4938</v>
@@ -63801,12 +63821,12 @@
         <v>1640</v>
       </c>
       <c r="O2219" s="1" t="s">
-        <v>4981</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="2220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2220" s="1" t="s">
-        <v>4982</v>
+        <v>4984</v>
       </c>
       <c r="B2220" s="1" t="s">
         <v>4938</v>
@@ -63821,12 +63841,12 @@
         <v>1640</v>
       </c>
       <c r="O2220" s="1" t="s">
-        <v>4983</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="2221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2221" s="1" t="s">
-        <v>4984</v>
+        <v>4986</v>
       </c>
       <c r="B2221" s="1" t="s">
         <v>4938</v>
@@ -63841,12 +63861,12 @@
         <v>1640</v>
       </c>
       <c r="O2221" s="1" t="s">
-        <v>4985</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="2222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2222" s="1" t="s">
-        <v>4986</v>
+        <v>4988</v>
       </c>
       <c r="B2222" s="1" t="s">
         <v>4938</v>
@@ -63861,12 +63881,12 @@
         <v>1640</v>
       </c>
       <c r="O2222" s="1" t="s">
-        <v>4987</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="2223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2223" s="1" t="s">
-        <v>4988</v>
+        <v>4990</v>
       </c>
       <c r="B2223" s="1" t="s">
         <v>4938</v>
@@ -63881,12 +63901,12 @@
         <v>1640</v>
       </c>
       <c r="O2223" s="1" t="s">
-        <v>4989</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="2224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2224" s="1" t="s">
-        <v>4990</v>
+        <v>4992</v>
       </c>
       <c r="B2224" s="1" t="s">
         <v>4938</v>
@@ -63901,12 +63921,12 @@
         <v>1640</v>
       </c>
       <c r="O2224" s="1" t="s">
-        <v>4991</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="2225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2225" s="1" t="s">
-        <v>4992</v>
+        <v>4994</v>
       </c>
       <c r="B2225" s="1" t="s">
         <v>4938</v>
@@ -63921,12 +63941,12 @@
         <v>1640</v>
       </c>
       <c r="O2225" s="1" t="s">
-        <v>4993</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="2226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2226" s="1" t="s">
-        <v>4994</v>
+        <v>4996</v>
       </c>
       <c r="B2226" s="1" t="s">
         <v>4938</v>
@@ -63941,12 +63961,12 @@
         <v>1640</v>
       </c>
       <c r="O2226" s="1" t="s">
-        <v>4995</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="2227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2227" s="1" t="s">
-        <v>4996</v>
+        <v>4998</v>
       </c>
       <c r="B2227" s="1" t="s">
         <v>4938</v>
@@ -63961,12 +63981,12 @@
         <v>1640</v>
       </c>
       <c r="O2227" s="1" t="s">
-        <v>4997</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="2228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2228" s="1" t="s">
-        <v>4998</v>
+        <v>5000</v>
       </c>
       <c r="B2228" s="1" t="s">
         <v>4938</v>
@@ -63981,12 +64001,12 @@
         <v>1640</v>
       </c>
       <c r="O2228" s="1" t="s">
-        <v>4999</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="2229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2229" s="1" t="s">
-        <v>5000</v>
+        <v>5002</v>
       </c>
       <c r="B2229" s="1" t="s">
         <v>4938</v>
@@ -64001,12 +64021,12 @@
         <v>1640</v>
       </c>
       <c r="O2229" s="1" t="s">
-        <v>5001</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="2230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2230" s="1" t="s">
-        <v>5002</v>
+        <v>5004</v>
       </c>
       <c r="B2230" s="1" t="s">
         <v>4938</v>
@@ -64021,12 +64041,12 @@
         <v>1640</v>
       </c>
       <c r="O2230" s="1" t="s">
-        <v>5003</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="2231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2231" s="1" t="s">
-        <v>5004</v>
+        <v>5006</v>
       </c>
       <c r="B2231" s="1" t="s">
         <v>4938</v>
@@ -64041,12 +64061,12 @@
         <v>1640</v>
       </c>
       <c r="O2231" s="1" t="s">
-        <v>5005</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="2232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2232" s="1" t="s">
-        <v>5006</v>
+        <v>5008</v>
       </c>
       <c r="B2232" s="1" t="s">
         <v>4938</v>
@@ -64061,12 +64081,12 @@
         <v>1640</v>
       </c>
       <c r="O2232" s="1" t="s">
-        <v>5007</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="2233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2233" s="1" t="s">
-        <v>5008</v>
+        <v>5010</v>
       </c>
       <c r="B2233" s="1" t="s">
         <v>4938</v>
@@ -64081,12 +64101,12 @@
         <v>1640</v>
       </c>
       <c r="O2233" s="1" t="s">
-        <v>5009</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="2234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2234" s="1" t="s">
-        <v>5010</v>
+        <v>5012</v>
       </c>
       <c r="B2234" s="1" t="s">
         <v>4938</v>
@@ -64101,12 +64121,12 @@
         <v>1640</v>
       </c>
       <c r="O2234" s="1" t="s">
-        <v>5011</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="2235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2235" s="1" t="s">
-        <v>5012</v>
+        <v>5014</v>
       </c>
       <c r="B2235" s="1" t="s">
         <v>4938</v>
@@ -64121,12 +64141,12 @@
         <v>1640</v>
       </c>
       <c r="O2235" s="1" t="s">
-        <v>5013</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="2236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2236" s="1" t="s">
-        <v>5014</v>
+        <v>5016</v>
       </c>
       <c r="B2236" s="1" t="s">
         <v>4938</v>
@@ -64141,12 +64161,12 @@
         <v>1640</v>
       </c>
       <c r="O2236" s="1" t="s">
-        <v>5015</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="2237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2237" s="1" t="s">
-        <v>5016</v>
+        <v>5018</v>
       </c>
       <c r="B2237" s="1" t="s">
         <v>4938</v>
@@ -64161,12 +64181,12 @@
         <v>1640</v>
       </c>
       <c r="O2237" s="1" t="s">
-        <v>5017</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="2238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2238" s="1" t="s">
-        <v>5018</v>
+        <v>5020</v>
       </c>
       <c r="B2238" s="1" t="s">
         <v>4938</v>
@@ -64181,12 +64201,12 @@
         <v>1640</v>
       </c>
       <c r="O2238" s="1" t="s">
-        <v>5019</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="2239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2239" s="1" t="s">
-        <v>5020</v>
+        <v>5022</v>
       </c>
       <c r="B2239" s="1" t="s">
         <v>4938</v>
@@ -64201,12 +64221,12 @@
         <v>1640</v>
       </c>
       <c r="O2239" s="1" t="s">
-        <v>5021</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="2240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2240" s="1" t="s">
-        <v>5022</v>
+        <v>5024</v>
       </c>
       <c r="B2240" s="1" t="s">
         <v>4938</v>
@@ -64221,12 +64241,12 @@
         <v>1640</v>
       </c>
       <c r="O2240" s="1" t="s">
-        <v>5023</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="2241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2241" s="1" t="s">
-        <v>5024</v>
+        <v>5026</v>
       </c>
       <c r="B2241" s="1" t="s">
         <v>4938</v>
@@ -64241,12 +64261,12 @@
         <v>1640</v>
       </c>
       <c r="O2241" s="1" t="s">
-        <v>5025</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="2242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2242" s="1" t="s">
-        <v>5026</v>
+        <v>5028</v>
       </c>
       <c r="B2242" s="1" t="s">
         <v>4938</v>
@@ -64261,12 +64281,12 @@
         <v>1640</v>
       </c>
       <c r="O2242" s="1" t="s">
-        <v>5027</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="2243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2243" s="1" t="s">
-        <v>5028</v>
+        <v>5030</v>
       </c>
       <c r="B2243" s="1" t="s">
         <v>4938</v>
@@ -64281,12 +64301,12 @@
         <v>1640</v>
       </c>
       <c r="O2243" s="1" t="s">
-        <v>5029</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="2244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2244" s="1" t="s">
-        <v>5030</v>
+        <v>5032</v>
       </c>
       <c r="B2244" s="1" t="s">
         <v>4938</v>
@@ -64301,12 +64321,12 @@
         <v>1640</v>
       </c>
       <c r="O2244" s="1" t="s">
-        <v>5031</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="2245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2245" s="1" t="s">
-        <v>5032</v>
+        <v>5034</v>
       </c>
       <c r="B2245" s="1" t="s">
         <v>4938</v>
@@ -64321,12 +64341,12 @@
         <v>1640</v>
       </c>
       <c r="O2245" s="1" t="s">
-        <v>5033</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="2246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2246" s="1" t="s">
-        <v>5034</v>
+        <v>5036</v>
       </c>
       <c r="B2246" s="1" t="s">
         <v>4938</v>
@@ -64341,12 +64361,12 @@
         <v>1640</v>
       </c>
       <c r="O2246" s="1" t="s">
-        <v>5035</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="2247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2247" s="1" t="s">
-        <v>5036</v>
+        <v>5038</v>
       </c>
       <c r="B2247" s="1" t="s">
         <v>4938</v>
@@ -64361,12 +64381,12 @@
         <v>1640</v>
       </c>
       <c r="O2247" s="1" t="s">
-        <v>5037</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="2248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2248" s="1" t="s">
-        <v>5038</v>
+        <v>5040</v>
       </c>
       <c r="B2248" s="1" t="s">
         <v>4938</v>
@@ -64381,12 +64401,12 @@
         <v>1640</v>
       </c>
       <c r="O2248" s="1" t="s">
-        <v>5039</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="2249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2249" s="1" t="s">
-        <v>5040</v>
+        <v>5042</v>
       </c>
       <c r="B2249" s="1" t="s">
         <v>4938</v>
@@ -64401,12 +64421,12 @@
         <v>1640</v>
       </c>
       <c r="O2249" s="1" t="s">
-        <v>5041</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="2250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2250" s="1" t="s">
-        <v>5042</v>
+        <v>5044</v>
       </c>
       <c r="B2250" s="1" t="s">
         <v>4938</v>
@@ -64421,12 +64441,12 @@
         <v>1640</v>
       </c>
       <c r="O2250" s="1" t="s">
-        <v>5043</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="2251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2251" s="1" t="s">
-        <v>5044</v>
+        <v>5046</v>
       </c>
       <c r="B2251" s="1" t="s">
         <v>4938</v>
@@ -64441,12 +64461,12 @@
         <v>1640</v>
       </c>
       <c r="O2251" s="1" t="s">
-        <v>5045</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="2252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2252" s="1" t="s">
-        <v>5046</v>
+        <v>5048</v>
       </c>
       <c r="B2252" s="1" t="s">
         <v>4938</v>
@@ -64461,12 +64481,12 @@
         <v>1640</v>
       </c>
       <c r="O2252" s="1" t="s">
-        <v>5047</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="2253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2253" s="1" t="s">
-        <v>5048</v>
+        <v>5050</v>
       </c>
       <c r="B2253" s="1" t="s">
         <v>4938</v>
@@ -64481,12 +64501,12 @@
         <v>1640</v>
       </c>
       <c r="O2253" s="1" t="s">
-        <v>5049</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="2254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2254" s="1" t="s">
-        <v>5050</v>
+        <v>5052</v>
       </c>
       <c r="B2254" s="1" t="s">
         <v>4938</v>
@@ -64501,12 +64521,12 @@
         <v>1640</v>
       </c>
       <c r="O2254" s="1" t="s">
-        <v>5051</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="2255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2255" s="1" t="s">
-        <v>5052</v>
+        <v>5054</v>
       </c>
       <c r="B2255" s="1" t="s">
         <v>4938</v>
@@ -64521,12 +64541,12 @@
         <v>1640</v>
       </c>
       <c r="O2255" s="1" t="s">
-        <v>5053</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="2256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2256" s="1" t="s">
-        <v>5054</v>
+        <v>5056</v>
       </c>
       <c r="B2256" s="1" t="s">
         <v>4938</v>
@@ -64541,12 +64561,12 @@
         <v>1640</v>
       </c>
       <c r="O2256" s="1" t="s">
-        <v>5055</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="2257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2257" s="1" t="s">
-        <v>5056</v>
+        <v>5058</v>
       </c>
       <c r="B2257" s="1" t="s">
         <v>4938</v>
@@ -64561,12 +64581,12 @@
         <v>1640</v>
       </c>
       <c r="O2257" s="1" t="s">
-        <v>5057</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="2258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2258" s="1" t="s">
-        <v>5058</v>
+        <v>5060</v>
       </c>
       <c r="B2258" s="1" t="s">
         <v>4938</v>
@@ -64581,12 +64601,12 @@
         <v>1640</v>
       </c>
       <c r="O2258" s="1" t="s">
-        <v>5059</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="2259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2259" s="1" t="s">
-        <v>5060</v>
+        <v>5062</v>
       </c>
       <c r="B2259" s="1" t="s">
         <v>4938</v>
@@ -64601,12 +64621,12 @@
         <v>1640</v>
       </c>
       <c r="O2259" s="1" t="s">
-        <v>5061</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="2260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2260" s="1" t="s">
-        <v>5062</v>
+        <v>5064</v>
       </c>
       <c r="B2260" s="1" t="s">
         <v>4938</v>
@@ -64621,12 +64641,12 @@
         <v>1640</v>
       </c>
       <c r="O2260" s="1" t="s">
-        <v>5063</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="2261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2261" s="1" t="s">
-        <v>5064</v>
+        <v>5066</v>
       </c>
       <c r="B2261" s="1" t="s">
         <v>4938</v>
@@ -64641,12 +64661,12 @@
         <v>1640</v>
       </c>
       <c r="O2261" s="1" t="s">
-        <v>5065</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="2262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2262" s="1" t="s">
-        <v>5066</v>
+        <v>5068</v>
       </c>
       <c r="B2262" s="1" t="s">
         <v>4938</v>
@@ -64661,12 +64681,12 @@
         <v>1640</v>
       </c>
       <c r="O2262" s="1" t="s">
-        <v>5067</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="2263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2263" s="1" t="s">
-        <v>5068</v>
+        <v>5070</v>
       </c>
       <c r="B2263" s="1" t="s">
         <v>4938</v>
@@ -64681,12 +64701,12 @@
         <v>1640</v>
       </c>
       <c r="O2263" s="1" t="s">
-        <v>5069</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="2264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2264" s="1" t="s">
-        <v>5070</v>
+        <v>5072</v>
       </c>
       <c r="B2264" s="1" t="s">
         <v>4938</v>
@@ -64701,12 +64721,12 @@
         <v>1640</v>
       </c>
       <c r="O2264" s="1" t="s">
-        <v>5071</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="2265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2265" s="1" t="s">
-        <v>5072</v>
+        <v>5074</v>
       </c>
       <c r="B2265" s="1" t="s">
         <v>4938</v>
@@ -64721,12 +64741,12 @@
         <v>1640</v>
       </c>
       <c r="O2265" s="1" t="s">
-        <v>5073</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="2266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2266" s="1" t="s">
-        <v>5074</v>
+        <v>5076</v>
       </c>
       <c r="B2266" s="1" t="s">
         <v>4938</v>
@@ -64741,12 +64761,12 @@
         <v>1640</v>
       </c>
       <c r="O2266" s="1" t="s">
-        <v>5075</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="2267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2267" s="1" t="s">
-        <v>5076</v>
+        <v>5078</v>
       </c>
       <c r="B2267" s="1" t="s">
         <v>4938</v>
@@ -64761,12 +64781,12 @@
         <v>1640</v>
       </c>
       <c r="O2267" s="1" t="s">
-        <v>5077</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="2268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2268" s="1" t="s">
-        <v>5078</v>
+        <v>5080</v>
       </c>
       <c r="B2268" s="1" t="s">
         <v>4938</v>
@@ -64781,12 +64801,12 @@
         <v>1640</v>
       </c>
       <c r="O2268" s="1" t="s">
-        <v>5079</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="2269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2269" s="1" t="s">
-        <v>5080</v>
+        <v>5082</v>
       </c>
       <c r="B2269" s="1" t="s">
         <v>4938</v>
@@ -64801,12 +64821,12 @@
         <v>1640</v>
       </c>
       <c r="O2269" s="1" t="s">
-        <v>5081</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="2270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2270" s="1" t="s">
-        <v>5082</v>
+        <v>5084</v>
       </c>
       <c r="B2270" s="1" t="s">
         <v>4938</v>
@@ -64821,12 +64841,12 @@
         <v>1640</v>
       </c>
       <c r="O2270" s="1" t="s">
-        <v>5083</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="2271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2271" s="1" t="s">
-        <v>5084</v>
+        <v>5086</v>
       </c>
       <c r="B2271" s="1" t="s">
         <v>4938</v>
@@ -64841,12 +64861,12 @@
         <v>1640</v>
       </c>
       <c r="O2271" s="1" t="s">
-        <v>5085</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="2272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2272" s="1" t="s">
-        <v>5086</v>
+        <v>5088</v>
       </c>
       <c r="B2272" s="1" t="s">
         <v>4938</v>
@@ -64861,12 +64881,12 @@
         <v>1640</v>
       </c>
       <c r="O2272" s="1" t="s">
-        <v>5087</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="2273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2273" s="1" t="s">
-        <v>5088</v>
+        <v>5090</v>
       </c>
       <c r="B2273" s="1" t="s">
         <v>4938</v>
@@ -64881,12 +64901,12 @@
         <v>1640</v>
       </c>
       <c r="O2273" s="1" t="s">
-        <v>5089</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="2274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2274" s="1" t="s">
-        <v>5090</v>
+        <v>5092</v>
       </c>
       <c r="B2274" s="1" t="s">
         <v>4938</v>
@@ -64901,12 +64921,12 @@
         <v>1640</v>
       </c>
       <c r="O2274" s="1" t="s">
-        <v>5091</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="2275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2275" s="1" t="s">
-        <v>5092</v>
+        <v>5094</v>
       </c>
       <c r="B2275" s="1" t="s">
         <v>4938</v>
@@ -64921,12 +64941,12 @@
         <v>1640</v>
       </c>
       <c r="O2275" s="1" t="s">
-        <v>5093</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="2276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2276" s="1" t="s">
-        <v>5094</v>
+        <v>5096</v>
       </c>
       <c r="B2276" s="1" t="s">
         <v>4938</v>
@@ -64941,12 +64961,12 @@
         <v>1640</v>
       </c>
       <c r="O2276" s="1" t="s">
-        <v>5095</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="2277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2277" s="1" t="s">
-        <v>5096</v>
+        <v>5098</v>
       </c>
       <c r="B2277" s="1" t="s">
         <v>4938</v>
@@ -64961,12 +64981,12 @@
         <v>1640</v>
       </c>
       <c r="O2277" s="1" t="s">
-        <v>5097</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="2278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2278" s="1" t="s">
-        <v>5098</v>
+        <v>5100</v>
       </c>
       <c r="B2278" s="1" t="s">
         <v>4938</v>
@@ -64981,12 +65001,12 @@
         <v>1640</v>
       </c>
       <c r="O2278" s="1" t="s">
-        <v>5099</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="2279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2279" s="1" t="s">
-        <v>5100</v>
+        <v>5102</v>
       </c>
       <c r="B2279" s="1" t="s">
         <v>4938</v>
@@ -65001,12 +65021,12 @@
         <v>1640</v>
       </c>
       <c r="O2279" s="1" t="s">
-        <v>5101</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="2280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2280" s="1" t="s">
-        <v>5102</v>
+        <v>5104</v>
       </c>
       <c r="B2280" s="1" t="s">
         <v>4938</v>
@@ -65021,12 +65041,12 @@
         <v>1640</v>
       </c>
       <c r="O2280" s="1" t="s">
-        <v>5103</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="2281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2281" s="1" t="s">
-        <v>5104</v>
+        <v>5106</v>
       </c>
       <c r="B2281" s="1" t="s">
         <v>4938</v>
@@ -65041,12 +65061,12 @@
         <v>1640</v>
       </c>
       <c r="O2281" s="1" t="s">
-        <v>5105</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="2282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2282" s="1" t="s">
-        <v>5106</v>
+        <v>5108</v>
       </c>
       <c r="B2282" s="1" t="s">
         <v>4938</v>
@@ -65061,12 +65081,12 @@
         <v>1640</v>
       </c>
       <c r="O2282" s="1" t="s">
-        <v>5107</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="2283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2283" s="1" t="s">
-        <v>5108</v>
+        <v>5110</v>
       </c>
       <c r="B2283" s="1" t="s">
         <v>4938</v>
@@ -65081,12 +65101,12 @@
         <v>1640</v>
       </c>
       <c r="O2283" s="1" t="s">
-        <v>5109</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="2284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2284" s="1" t="s">
-        <v>5110</v>
+        <v>5112</v>
       </c>
       <c r="B2284" s="1" t="s">
         <v>4938</v>
@@ -65101,12 +65121,12 @@
         <v>1640</v>
       </c>
       <c r="O2284" s="1" t="s">
-        <v>5111</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="2285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2285" s="1" t="s">
-        <v>5112</v>
+        <v>5114</v>
       </c>
       <c r="B2285" s="1" t="s">
         <v>4938</v>
@@ -65121,12 +65141,12 @@
         <v>1640</v>
       </c>
       <c r="O2285" s="1" t="s">
-        <v>5113</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="2286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2286" s="1" t="s">
-        <v>5114</v>
+        <v>5116</v>
       </c>
       <c r="B2286" s="1" t="s">
         <v>4938</v>
@@ -65141,12 +65161,12 @@
         <v>1640</v>
       </c>
       <c r="O2286" s="1" t="s">
-        <v>5115</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="2287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2287" s="1" t="s">
-        <v>5116</v>
+        <v>5118</v>
       </c>
       <c r="B2287" s="1" t="s">
         <v>4938</v>
@@ -65161,12 +65181,12 @@
         <v>1640</v>
       </c>
       <c r="O2287" s="1" t="s">
-        <v>5117</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="2288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2288" s="1" t="s">
-        <v>5118</v>
+        <v>5120</v>
       </c>
       <c r="B2288" s="1" t="s">
         <v>4938</v>
@@ -65181,12 +65201,12 @@
         <v>1640</v>
       </c>
       <c r="O2288" s="1" t="s">
-        <v>5119</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="2289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2289" s="1" t="s">
-        <v>5120</v>
+        <v>5122</v>
       </c>
       <c r="B2289" s="1" t="s">
         <v>4938</v>
@@ -65201,12 +65221,12 @@
         <v>1640</v>
       </c>
       <c r="O2289" s="1" t="s">
-        <v>5121</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="2290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2290" s="1" t="s">
-        <v>5122</v>
+        <v>5124</v>
       </c>
       <c r="B2290" s="1" t="s">
         <v>4938</v>
@@ -65221,12 +65241,12 @@
         <v>1640</v>
       </c>
       <c r="O2290" s="1" t="s">
-        <v>5123</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="2291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2291" s="1" t="s">
-        <v>5124</v>
+        <v>5126</v>
       </c>
       <c r="B2291" s="1" t="s">
         <v>4938</v>
@@ -65241,12 +65261,12 @@
         <v>1640</v>
       </c>
       <c r="O2291" s="1" t="s">
-        <v>5125</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="2292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2292" s="1" t="s">
-        <v>5126</v>
+        <v>5128</v>
       </c>
       <c r="B2292" s="1" t="s">
         <v>4938</v>
@@ -65261,12 +65281,12 @@
         <v>1640</v>
       </c>
       <c r="O2292" s="1" t="s">
-        <v>5127</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="2293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2293" s="1" t="s">
-        <v>5128</v>
+        <v>5130</v>
       </c>
       <c r="B2293" s="1" t="s">
         <v>4938</v>
@@ -65281,12 +65301,12 @@
         <v>1640</v>
       </c>
       <c r="O2293" s="1" t="s">
-        <v>5129</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="2294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2294" s="1" t="s">
-        <v>5130</v>
+        <v>5132</v>
       </c>
       <c r="B2294" s="1" t="s">
         <v>4938</v>
@@ -65301,12 +65321,12 @@
         <v>1640</v>
       </c>
       <c r="O2294" s="1" t="s">
-        <v>5131</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="2295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2295" s="1" t="s">
-        <v>5132</v>
+        <v>5134</v>
       </c>
       <c r="B2295" s="1" t="s">
         <v>4938</v>
@@ -65321,12 +65341,12 @@
         <v>1640</v>
       </c>
       <c r="O2295" s="1" t="s">
-        <v>5133</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="2296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2296" s="1" t="s">
-        <v>5134</v>
+        <v>5136</v>
       </c>
       <c r="B2296" s="1" t="s">
         <v>4938</v>
@@ -65341,12 +65361,12 @@
         <v>1640</v>
       </c>
       <c r="O2296" s="1" t="s">
-        <v>5135</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="2297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2297" s="1" t="s">
-        <v>5136</v>
+        <v>5138</v>
       </c>
       <c r="B2297" s="1" t="s">
         <v>4938</v>
@@ -65361,12 +65381,12 @@
         <v>1640</v>
       </c>
       <c r="O2297" s="1" t="s">
-        <v>5137</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="2298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2298" s="1" t="s">
-        <v>5138</v>
+        <v>5140</v>
       </c>
       <c r="B2298" s="1" t="s">
         <v>4938</v>
@@ -65381,12 +65401,12 @@
         <v>1640</v>
       </c>
       <c r="O2298" s="1" t="s">
-        <v>5139</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="2299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2299" s="1" t="s">
-        <v>5140</v>
+        <v>5142</v>
       </c>
       <c r="B2299" s="1" t="s">
         <v>4938</v>
@@ -65401,12 +65421,12 @@
         <v>1640</v>
       </c>
       <c r="O2299" s="1" t="s">
-        <v>5141</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="2300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2300" s="1" t="s">
-        <v>5142</v>
+        <v>5144</v>
       </c>
       <c r="B2300" s="1" t="s">
         <v>4938</v>
@@ -65421,12 +65441,12 @@
         <v>1640</v>
       </c>
       <c r="O2300" s="1" t="s">
-        <v>5143</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="2301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2301" s="1" t="s">
-        <v>5144</v>
+        <v>5146</v>
       </c>
       <c r="B2301" s="1" t="s">
         <v>4938</v>
@@ -65441,12 +65461,12 @@
         <v>1640</v>
       </c>
       <c r="O2301" s="1" t="s">
-        <v>5145</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="2302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2302" s="1" t="s">
-        <v>5146</v>
+        <v>5148</v>
       </c>
       <c r="B2302" s="1" t="s">
         <v>4938</v>
@@ -65461,12 +65481,12 @@
         <v>1640</v>
       </c>
       <c r="O2302" s="1" t="s">
-        <v>5147</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="2303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2303" s="1" t="s">
-        <v>5148</v>
+        <v>5150</v>
       </c>
       <c r="B2303" s="1" t="s">
         <v>4938</v>
@@ -65481,12 +65501,12 @@
         <v>1640</v>
       </c>
       <c r="O2303" s="1" t="s">
-        <v>5149</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="2304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2304" s="1" t="s">
-        <v>5150</v>
+        <v>5152</v>
       </c>
       <c r="B2304" s="1" t="s">
         <v>4938</v>
@@ -65501,12 +65521,12 @@
         <v>1640</v>
       </c>
       <c r="O2304" s="1" t="s">
-        <v>5151</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="2305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2305" s="1" t="s">
-        <v>5152</v>
+        <v>5154</v>
       </c>
       <c r="B2305" s="1" t="s">
         <v>4938</v>
@@ -65521,12 +65541,12 @@
         <v>1640</v>
       </c>
       <c r="O2305" s="1" t="s">
-        <v>5153</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="2306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2306" s="1" t="s">
-        <v>5154</v>
+        <v>5156</v>
       </c>
       <c r="B2306" s="1" t="s">
         <v>4938</v>
@@ -65541,12 +65561,12 @@
         <v>1640</v>
       </c>
       <c r="O2306" s="1" t="s">
-        <v>5155</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="2307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2307" s="1" t="s">
-        <v>5156</v>
+        <v>5158</v>
       </c>
       <c r="B2307" s="1" t="s">
         <v>4938</v>
@@ -65561,12 +65581,12 @@
         <v>1640</v>
       </c>
       <c r="O2307" s="1" t="s">
-        <v>5157</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="2308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2308" s="1" t="s">
-        <v>5158</v>
+        <v>5160</v>
       </c>
       <c r="B2308" s="1" t="s">
         <v>4938</v>
@@ -65581,12 +65601,12 @@
         <v>1640</v>
       </c>
       <c r="O2308" s="1" t="s">
-        <v>5159</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="2309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2309" s="1" t="s">
-        <v>5160</v>
+        <v>5162</v>
       </c>
       <c r="B2309" s="1" t="s">
         <v>4938</v>
@@ -65601,12 +65621,12 @@
         <v>1640</v>
       </c>
       <c r="O2309" s="1" t="s">
-        <v>5161</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="2310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2310" s="1" t="s">
-        <v>5162</v>
+        <v>5164</v>
       </c>
       <c r="B2310" s="1" t="s">
         <v>4938</v>
@@ -65621,12 +65641,12 @@
         <v>1640</v>
       </c>
       <c r="O2310" s="1" t="s">
-        <v>5163</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="2311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2311" s="1" t="s">
-        <v>5164</v>
+        <v>5166</v>
       </c>
       <c r="B2311" s="1" t="s">
         <v>4938</v>
@@ -65641,12 +65661,12 @@
         <v>1640</v>
       </c>
       <c r="O2311" s="1" t="s">
-        <v>5165</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2312" s="1" t="s">
-        <v>5166</v>
+        <v>5168</v>
       </c>
       <c r="B2312" s="1" t="s">
         <v>4938</v>
@@ -65661,12 +65681,12 @@
         <v>1640</v>
       </c>
       <c r="O2312" s="1" t="s">
-        <v>5167</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="2313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2313" s="1" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="B2313" s="1" t="s">
         <v>4938</v>
@@ -65681,12 +65701,12 @@
         <v>1640</v>
       </c>
       <c r="O2313" s="1" t="s">
-        <v>5169</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="2314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2314" s="1" t="s">
-        <v>5170</v>
+        <v>5172</v>
       </c>
       <c r="B2314" s="1" t="s">
         <v>4938</v>
@@ -65701,12 +65721,12 @@
         <v>1640</v>
       </c>
       <c r="O2314" s="1" t="s">
-        <v>5171</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="2315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2315" s="1" t="s">
-        <v>5172</v>
+        <v>5174</v>
       </c>
       <c r="B2315" s="1" t="s">
         <v>4938</v>
@@ -65721,12 +65741,12 @@
         <v>1640</v>
       </c>
       <c r="O2315" s="1" t="s">
-        <v>5173</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="2316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2316" s="1" t="s">
-        <v>5174</v>
+        <v>5176</v>
       </c>
       <c r="B2316" s="1" t="s">
         <v>4938</v>
@@ -65741,12 +65761,12 @@
         <v>1640</v>
       </c>
       <c r="O2316" s="1" t="s">
-        <v>5175</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="2317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2317" s="1" t="s">
-        <v>5176</v>
+        <v>5178</v>
       </c>
       <c r="B2317" s="1" t="s">
         <v>4938</v>
@@ -65761,12 +65781,12 @@
         <v>1640</v>
       </c>
       <c r="O2317" s="1" t="s">
-        <v>5177</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="2318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2318" s="1" t="s">
-        <v>5178</v>
+        <v>5180</v>
       </c>
       <c r="B2318" s="1" t="s">
         <v>4938</v>
@@ -65781,12 +65801,12 @@
         <v>1640</v>
       </c>
       <c r="O2318" s="1" t="s">
-        <v>5179</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="2319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2319" s="1" t="s">
-        <v>5180</v>
+        <v>5182</v>
       </c>
       <c r="B2319" s="1" t="s">
         <v>4938</v>
@@ -65801,12 +65821,12 @@
         <v>1640</v>
       </c>
       <c r="O2319" s="1" t="s">
-        <v>5181</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="2320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2320" s="1" t="s">
-        <v>5182</v>
+        <v>5184</v>
       </c>
       <c r="B2320" s="1" t="s">
         <v>4938</v>
@@ -65821,12 +65841,12 @@
         <v>1640</v>
       </c>
       <c r="O2320" s="1" t="s">
-        <v>5183</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="2321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2321" s="1" t="s">
-        <v>5184</v>
+        <v>5186</v>
       </c>
       <c r="B2321" s="1" t="s">
         <v>4938</v>
@@ -65841,12 +65861,12 @@
         <v>1640</v>
       </c>
       <c r="O2321" s="1" t="s">
-        <v>5185</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="2322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2322" s="1" t="s">
-        <v>5186</v>
+        <v>5188</v>
       </c>
       <c r="B2322" s="1" t="s">
         <v>4938</v>
@@ -65861,12 +65881,12 @@
         <v>1640</v>
       </c>
       <c r="O2322" s="1" t="s">
-        <v>5187</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="2323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2323" s="1" t="s">
-        <v>5188</v>
+        <v>5190</v>
       </c>
       <c r="B2323" s="1" t="s">
         <v>4938</v>
@@ -65881,12 +65901,12 @@
         <v>1640</v>
       </c>
       <c r="O2323" s="1" t="s">
-        <v>5189</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="2324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2324" s="1" t="s">
-        <v>5190</v>
+        <v>5192</v>
       </c>
       <c r="B2324" s="1" t="s">
         <v>4938</v>
@@ -65901,26 +65921,6 @@
         <v>1640</v>
       </c>
       <c r="O2324" s="1" t="s">
-        <v>5191</v>
-      </c>
-    </row>
-    <row r="2325" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2325" s="1" t="s">
-        <v>5192</v>
-      </c>
-      <c r="B2325" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C2325" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2325" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2325" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O2325" s="1" t="s">
         <v>5193</v>
       </c>
     </row>

--- a/compatibility.xlsx
+++ b/compatibility.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="DETAILS" localSheetId="2">Φύλλο1!$A$1:$O$2324</definedName>
+    <definedName name="DETAILS" localSheetId="2">Φύλλο1!$A$1:$O$2321</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15071" uniqueCount="5197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15074" uniqueCount="5198">
   <si>
     <t>pacman</t>
   </si>
@@ -15646,6 +15646,9 @@
   </si>
   <si>
     <t>STEREO SOUND</t>
+  </si>
+  <si>
+    <t>tilemaps</t>
   </si>
 </sst>
 </file>
@@ -15969,10 +15972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15981,7 +15984,7 @@
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -16264,6 +16267,84 @@
       </c>
       <c r="O12" s="1" t="s">
         <v>4910</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4179</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4180</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>4181</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>4182</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4180</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>4183</v>
+      </c>
+      <c r="P14" t="s">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4184</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4180</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>4185</v>
+      </c>
+      <c r="P15" t="s">
+        <v>5197</v>
       </c>
     </row>
   </sheetData>
@@ -16320,10 +16401,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2324"/>
+  <dimension ref="A1:O2321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2174" workbookViewId="0">
-      <selection activeCell="G2191" sqref="G2191"/>
+    <sheetView tabSelected="1" topLeftCell="A1863" workbookViewId="0">
+      <selection activeCell="G1871" sqref="G1871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56585,79 +56666,79 @@
     </row>
     <row r="1877" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1877" s="1" t="s">
-        <v>4179</v>
+        <v>4186</v>
       </c>
       <c r="B1877" s="1" t="s">
-        <v>4180</v>
+        <v>4187</v>
       </c>
       <c r="C1877" s="1" t="s">
-        <v>446</v>
+        <v>521</v>
       </c>
       <c r="D1877" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1877" s="1" t="s">
         <v>567</v>
       </c>
       <c r="J1877" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K1877" s="1" t="s">
-        <v>1601</v>
+        <v>1538</v>
       </c>
       <c r="O1877" s="1" t="s">
-        <v>4181</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="1878" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1878" s="1" t="s">
-        <v>4182</v>
+        <v>4189</v>
       </c>
       <c r="B1878" s="1" t="s">
-        <v>4180</v>
+        <v>4187</v>
       </c>
       <c r="C1878" s="1" t="s">
-        <v>446</v>
+        <v>521</v>
       </c>
       <c r="D1878" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1878" s="1" t="s">
         <v>567</v>
       </c>
       <c r="J1878" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K1878" s="1" t="s">
-        <v>1601</v>
+        <v>1538</v>
       </c>
       <c r="O1878" s="1" t="s">
-        <v>4183</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="1879" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1879" s="1" t="s">
-        <v>4184</v>
+        <v>4191</v>
       </c>
       <c r="B1879" s="1" t="s">
-        <v>4180</v>
+        <v>4187</v>
       </c>
       <c r="C1879" s="1" t="s">
-        <v>446</v>
+        <v>521</v>
       </c>
       <c r="D1879" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1879" s="1" t="s">
         <v>567</v>
       </c>
       <c r="J1879" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K1879" s="1" t="s">
-        <v>1601</v>
+        <v>1538</v>
       </c>
       <c r="O1879" s="1" t="s">
-        <v>4185</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="1880" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1880" s="1" t="s">
-        <v>4186</v>
+        <v>4193</v>
       </c>
       <c r="B1880" s="1" t="s">
-        <v>4187</v>
+        <v>4194</v>
       </c>
       <c r="C1880" s="1" t="s">
         <v>521</v>
@@ -56665,22 +56746,19 @@
       <c r="D1880" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="E1880" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="J1880" s="1" t="s">
-        <v>1538</v>
+        <v>358</v>
       </c>
       <c r="O1880" s="1" t="s">
-        <v>4188</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="1881" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1881" s="1" t="s">
-        <v>4189</v>
+        <v>4196</v>
       </c>
       <c r="B1881" s="1" t="s">
-        <v>4187</v>
+        <v>4194</v>
       </c>
       <c r="C1881" s="1" t="s">
         <v>521</v>
@@ -56688,22 +56766,19 @@
       <c r="D1881" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="E1881" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="J1881" s="1" t="s">
-        <v>1538</v>
+        <v>358</v>
       </c>
       <c r="O1881" s="1" t="s">
-        <v>4190</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="1882" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1882" s="1" t="s">
-        <v>4191</v>
+        <v>4198</v>
       </c>
       <c r="B1882" s="1" t="s">
-        <v>4187</v>
+        <v>4194</v>
       </c>
       <c r="C1882" s="1" t="s">
         <v>521</v>
@@ -56711,79 +56786,94 @@
       <c r="D1882" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="E1882" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="J1882" s="1" t="s">
-        <v>1538</v>
+        <v>358</v>
       </c>
       <c r="O1882" s="1" t="s">
-        <v>4192</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="1883" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1883" s="1" t="s">
-        <v>4193</v>
+        <v>4200</v>
       </c>
       <c r="B1883" s="1" t="s">
-        <v>4194</v>
+        <v>4201</v>
       </c>
       <c r="C1883" s="1" t="s">
-        <v>521</v>
+        <v>2972</v>
       </c>
       <c r="D1883" s="1" t="s">
-        <v>521</v>
+        <v>589</v>
+      </c>
+      <c r="E1883" s="1" t="s">
+        <v>4202</v>
       </c>
       <c r="J1883" s="1" t="s">
-        <v>358</v>
+        <v>609</v>
+      </c>
+      <c r="K1883" s="1" t="s">
+        <v>1275</v>
       </c>
       <c r="O1883" s="1" t="s">
-        <v>4195</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="1884" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1884" s="1" t="s">
-        <v>4196</v>
+        <v>4204</v>
       </c>
       <c r="B1884" s="1" t="s">
-        <v>4194</v>
+        <v>4201</v>
       </c>
       <c r="C1884" s="1" t="s">
-        <v>521</v>
+        <v>2972</v>
       </c>
       <c r="D1884" s="1" t="s">
-        <v>521</v>
+        <v>589</v>
+      </c>
+      <c r="E1884" s="1" t="s">
+        <v>4202</v>
       </c>
       <c r="J1884" s="1" t="s">
-        <v>358</v>
+        <v>609</v>
+      </c>
+      <c r="K1884" s="1" t="s">
+        <v>1275</v>
       </c>
       <c r="O1884" s="1" t="s">
-        <v>4197</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="1885" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1885" s="1" t="s">
-        <v>4198</v>
+        <v>4206</v>
       </c>
       <c r="B1885" s="1" t="s">
-        <v>4194</v>
+        <v>4201</v>
       </c>
       <c r="C1885" s="1" t="s">
-        <v>521</v>
+        <v>2972</v>
       </c>
       <c r="D1885" s="1" t="s">
-        <v>521</v>
+        <v>2972</v>
+      </c>
+      <c r="E1885" s="1" t="s">
+        <v>4202</v>
       </c>
       <c r="J1885" s="1" t="s">
-        <v>358</v>
+        <v>609</v>
+      </c>
+      <c r="K1885" s="1" t="s">
+        <v>1275</v>
       </c>
       <c r="O1885" s="1" t="s">
-        <v>4199</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="1886" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1886" s="1" t="s">
-        <v>4200</v>
+        <v>4208</v>
       </c>
       <c r="B1886" s="1" t="s">
         <v>4201</v>
@@ -56792,87 +56882,78 @@
         <v>2972</v>
       </c>
       <c r="D1886" s="1" t="s">
-        <v>589</v>
+        <v>2</v>
       </c>
       <c r="E1886" s="1" t="s">
-        <v>4202</v>
+        <v>158</v>
       </c>
       <c r="J1886" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1886" s="1" t="s">
-        <v>1275</v>
+        <v>1925</v>
       </c>
       <c r="O1886" s="1" t="s">
-        <v>4203</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="1887" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1887" s="1" t="s">
-        <v>4204</v>
+        <v>4210</v>
       </c>
       <c r="B1887" s="1" t="s">
-        <v>4201</v>
+        <v>4211</v>
       </c>
       <c r="C1887" s="1" t="s">
-        <v>2972</v>
+        <v>348</v>
       </c>
       <c r="D1887" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="E1887" s="1" t="s">
-        <v>4202</v>
+        <v>158</v>
       </c>
       <c r="J1887" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1887" s="1" t="s">
-        <v>1275</v>
+        <v>1925</v>
       </c>
       <c r="O1887" s="1" t="s">
-        <v>4205</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="1888" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1888" s="1" t="s">
-        <v>4206</v>
+        <v>4213</v>
       </c>
       <c r="B1888" s="1" t="s">
-        <v>4201</v>
+        <v>4211</v>
       </c>
       <c r="C1888" s="1" t="s">
-        <v>2972</v>
+        <v>348</v>
       </c>
       <c r="D1888" s="1" t="s">
-        <v>2972</v>
-      </c>
-      <c r="E1888" s="1" t="s">
-        <v>4202</v>
+        <v>158</v>
       </c>
       <c r="J1888" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K1888" s="1" t="s">
-        <v>1275</v>
+        <v>1925</v>
       </c>
       <c r="O1888" s="1" t="s">
-        <v>4207</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="1889" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1889" s="1" t="s">
-        <v>4208</v>
+        <v>4215</v>
       </c>
       <c r="B1889" s="1" t="s">
-        <v>4201</v>
+        <v>4216</v>
       </c>
       <c r="C1889" s="1" t="s">
-        <v>2972</v>
+        <v>348</v>
       </c>
       <c r="D1889" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1889" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J1889" s="1" t="s">
@@ -56882,15 +56963,15 @@
         <v>1925</v>
       </c>
       <c r="O1889" s="1" t="s">
-        <v>4209</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="1890" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1890" s="1" t="s">
-        <v>4210</v>
+        <v>4218</v>
       </c>
       <c r="B1890" s="1" t="s">
-        <v>4211</v>
+        <v>4216</v>
       </c>
       <c r="C1890" s="1" t="s">
         <v>348</v>
@@ -56905,12 +56986,12 @@
         <v>1925</v>
       </c>
       <c r="O1890" s="1" t="s">
-        <v>4212</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="1891" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1891" s="1" t="s">
-        <v>4213</v>
+        <v>4220</v>
       </c>
       <c r="B1891" s="1" t="s">
         <v>4211</v>
@@ -56928,15 +57009,15 @@
         <v>1925</v>
       </c>
       <c r="O1891" s="1" t="s">
-        <v>4214</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="1892" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1892" s="1" t="s">
-        <v>4215</v>
+        <v>4222</v>
       </c>
       <c r="B1892" s="1" t="s">
-        <v>4216</v>
+        <v>4211</v>
       </c>
       <c r="C1892" s="1" t="s">
         <v>348</v>
@@ -56951,141 +57032,138 @@
         <v>1925</v>
       </c>
       <c r="O1892" s="1" t="s">
-        <v>4217</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="1893" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1893" s="1" t="s">
-        <v>4218</v>
+        <v>4224</v>
       </c>
       <c r="B1893" s="1" t="s">
-        <v>4216</v>
+        <v>4225</v>
       </c>
       <c r="C1893" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1893" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1893" s="1" t="s">
-        <v>609</v>
+        <v>447</v>
       </c>
       <c r="K1893" s="1" t="s">
-        <v>1925</v>
+        <v>85</v>
       </c>
       <c r="O1893" s="1" t="s">
-        <v>4219</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="1894" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1894" s="1" t="s">
-        <v>4220</v>
+        <v>4227</v>
       </c>
       <c r="B1894" s="1" t="s">
-        <v>4211</v>
+        <v>4225</v>
       </c>
       <c r="C1894" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1894" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1894" s="1" t="s">
-        <v>609</v>
+        <v>447</v>
       </c>
       <c r="K1894" s="1" t="s">
-        <v>1925</v>
+        <v>85</v>
       </c>
       <c r="O1894" s="1" t="s">
-        <v>4221</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1895" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1895" s="1" t="s">
-        <v>4222</v>
+        <v>4229</v>
       </c>
       <c r="B1895" s="1" t="s">
-        <v>4211</v>
+        <v>4225</v>
       </c>
       <c r="C1895" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1895" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J1895" s="1" t="s">
-        <v>609</v>
+        <v>447</v>
       </c>
       <c r="K1895" s="1" t="s">
-        <v>1925</v>
+        <v>85</v>
       </c>
       <c r="O1895" s="1" t="s">
-        <v>4223</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="1896" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1896" s="1" t="s">
-        <v>4224</v>
+        <v>4240</v>
       </c>
       <c r="B1896" s="1" t="s">
-        <v>4225</v>
+        <v>4241</v>
       </c>
       <c r="C1896" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1896" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="J1896" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="K1896" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="O1896" s="1" t="s">
-        <v>4226</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="1897" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1897" s="1" t="s">
-        <v>4227</v>
+        <v>4243</v>
       </c>
       <c r="B1897" s="1" t="s">
-        <v>4225</v>
+        <v>4241</v>
       </c>
       <c r="C1897" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1897" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="J1897" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="K1897" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="O1897" s="1" t="s">
-        <v>4228</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="1898" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1898" s="1" t="s">
-        <v>4229</v>
+        <v>4245</v>
       </c>
       <c r="B1898" s="1" t="s">
-        <v>4225</v>
+        <v>4241</v>
       </c>
       <c r="C1898" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1898" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="J1898" s="1" t="s">
-        <v>447</v>
+        <v>62</v>
       </c>
       <c r="K1898" s="1" t="s">
-        <v>85</v>
+        <v>990</v>
+      </c>
+      <c r="L1898" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="O1898" s="1" t="s">
-        <v>4230</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="1899" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1899" s="1" t="s">
-        <v>4240</v>
+        <v>4247</v>
       </c>
       <c r="B1899" s="1" t="s">
         <v>4241</v>
@@ -57099,13 +57177,19 @@
       <c r="J1899" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="K1899" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="L1899" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="O1899" s="1" t="s">
-        <v>4242</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="1900" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1900" s="1" t="s">
-        <v>4243</v>
+        <v>4249</v>
       </c>
       <c r="B1900" s="1" t="s">
         <v>4241</v>
@@ -57119,16 +57203,22 @@
       <c r="J1900" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="K1900" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="L1900" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="O1900" s="1" t="s">
-        <v>4244</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="1901" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1901" s="1" t="s">
-        <v>4245</v>
+        <v>4251</v>
       </c>
       <c r="B1901" s="1" t="s">
-        <v>4241</v>
+        <v>4252</v>
       </c>
       <c r="C1901" s="1" t="s">
         <v>2</v>
@@ -57139,119 +57229,101 @@
       <c r="J1901" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K1901" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="L1901" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="O1901" s="1" t="s">
-        <v>4246</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="1902" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1902" s="1" t="s">
-        <v>4247</v>
+        <v>4254</v>
       </c>
       <c r="B1902" s="1" t="s">
-        <v>4241</v>
+        <v>4255</v>
       </c>
       <c r="C1902" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1902" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1902" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1902" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="L1902" s="1" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="O1902" s="1" t="s">
-        <v>4248</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="1903" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1903" s="1" t="s">
-        <v>4249</v>
+        <v>4257</v>
       </c>
       <c r="B1903" s="1" t="s">
-        <v>4241</v>
+        <v>4255</v>
       </c>
       <c r="C1903" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1903" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1903" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1903" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="L1903" s="1" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="O1903" s="1" t="s">
-        <v>4250</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="1904" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1904" s="1" t="s">
-        <v>4251</v>
+        <v>4259</v>
       </c>
       <c r="B1904" s="1" t="s">
-        <v>4252</v>
+        <v>4260</v>
       </c>
       <c r="C1904" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1904" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1904" s="1" t="s">
-        <v>62</v>
+        <v>1165</v>
+      </c>
+      <c r="E1904" s="1" t="s">
+        <v>1165</v>
       </c>
       <c r="O1904" s="1" t="s">
-        <v>4253</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="1905" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1905" s="1" t="s">
-        <v>4254</v>
+        <v>4262</v>
       </c>
       <c r="B1905" s="1" t="s">
-        <v>4255</v>
+        <v>4260</v>
       </c>
       <c r="C1905" s="1" t="s">
-        <v>214</v>
+        <v>2</v>
+      </c>
+      <c r="D1905" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E1905" s="1" t="s">
+        <v>1165</v>
       </c>
       <c r="O1905" s="1" t="s">
-        <v>4256</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="1906" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1906" s="1" t="s">
-        <v>4257</v>
+        <v>4264</v>
       </c>
       <c r="B1906" s="1" t="s">
-        <v>4255</v>
+        <v>4260</v>
       </c>
       <c r="C1906" s="1" t="s">
-        <v>214</v>
+        <v>2</v>
+      </c>
+      <c r="D1906" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E1906" s="1" t="s">
+        <v>1165</v>
       </c>
       <c r="O1906" s="1" t="s">
-        <v>4258</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="1907" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1907" s="1" t="s">
-        <v>4259</v>
+        <v>4266</v>
       </c>
       <c r="B1907" s="1" t="s">
         <v>4260</v>
@@ -57266,75 +57338,66 @@
         <v>1165</v>
       </c>
       <c r="O1907" s="1" t="s">
-        <v>4261</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="1908" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1908" s="1" t="s">
-        <v>4262</v>
+        <v>4268</v>
       </c>
       <c r="B1908" s="1" t="s">
-        <v>4260</v>
+        <v>4269</v>
       </c>
       <c r="C1908" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1908" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E1908" s="1" t="s">
-        <v>1165</v>
+      <c r="J1908" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="O1908" s="1" t="s">
-        <v>4263</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="1909" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1909" s="1" t="s">
-        <v>4264</v>
+        <v>4271</v>
       </c>
       <c r="B1909" s="1" t="s">
-        <v>4260</v>
+        <v>4269</v>
       </c>
       <c r="C1909" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1909" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E1909" s="1" t="s">
-        <v>1165</v>
+      <c r="J1909" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="O1909" s="1" t="s">
-        <v>4265</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="1910" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1910" s="1" t="s">
-        <v>4266</v>
+        <v>4273</v>
       </c>
       <c r="B1910" s="1" t="s">
-        <v>4260</v>
+        <v>4274</v>
       </c>
       <c r="C1910" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1910" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E1910" s="1" t="s">
-        <v>1165</v>
+      <c r="J1910" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="O1910" s="1" t="s">
-        <v>4267</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="1911" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1911" s="1" t="s">
-        <v>4268</v>
+        <v>4276</v>
       </c>
       <c r="B1911" s="1" t="s">
-        <v>4269</v>
+        <v>4274</v>
       </c>
       <c r="C1911" s="1" t="s">
         <v>2</v>
@@ -57343,63 +57406,81 @@
         <v>177</v>
       </c>
       <c r="O1911" s="1" t="s">
-        <v>4270</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="1912" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1912" s="1" t="s">
-        <v>4271</v>
+        <v>4278</v>
       </c>
       <c r="B1912" s="1" t="s">
-        <v>4269</v>
+        <v>4279</v>
       </c>
       <c r="C1912" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1912" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
       </c>
       <c r="O1912" s="1" t="s">
-        <v>4272</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="1913" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1913" s="1" t="s">
-        <v>4273</v>
+        <v>4281</v>
       </c>
       <c r="B1913" s="1" t="s">
-        <v>4274</v>
+        <v>4279</v>
       </c>
       <c r="C1913" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1913" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J1913" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
+      </c>
+      <c r="K1913" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="L1913" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="O1913" s="1" t="s">
-        <v>4275</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="1914" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1914" s="1" t="s">
-        <v>4276</v>
+        <v>4283</v>
       </c>
       <c r="B1914" s="1" t="s">
-        <v>4274</v>
+        <v>4279</v>
       </c>
       <c r="C1914" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1914" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J1914" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
+      </c>
+      <c r="K1914" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="L1914" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="O1914" s="1" t="s">
-        <v>4277</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="1915" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1915" s="1" t="s">
-        <v>4278</v>
+        <v>4285</v>
       </c>
       <c r="B1915" s="1" t="s">
         <v>4279</v>
@@ -57407,19 +57488,28 @@
       <c r="C1915" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1915" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J1915" s="1" t="s">
         <v>1538</v>
       </c>
+      <c r="K1915" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="L1915" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="O1915" s="1" t="s">
-        <v>4280</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="1916" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1916" s="1" t="s">
-        <v>4281</v>
+        <v>4287</v>
       </c>
       <c r="B1916" s="1" t="s">
-        <v>4279</v>
+        <v>4288</v>
       </c>
       <c r="C1916" s="1" t="s">
         <v>2</v>
@@ -57430,22 +57520,16 @@
       <c r="J1916" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="K1916" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="L1916" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="O1916" s="1" t="s">
-        <v>4282</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="1917" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1917" s="1" t="s">
-        <v>4283</v>
+        <v>4290</v>
       </c>
       <c r="B1917" s="1" t="s">
-        <v>4279</v>
+        <v>4288</v>
       </c>
       <c r="C1917" s="1" t="s">
         <v>2</v>
@@ -57456,85 +57540,106 @@
       <c r="J1917" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="K1917" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="L1917" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="O1917" s="1" t="s">
-        <v>4284</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="1918" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1918" s="1" t="s">
-        <v>4285</v>
+        <v>4292</v>
       </c>
       <c r="B1918" s="1" t="s">
-        <v>4279</v>
+        <v>4293</v>
       </c>
       <c r="C1918" s="1" t="s">
-        <v>2</v>
+        <v>4294</v>
       </c>
       <c r="D1918" s="1" t="s">
-        <v>158</v>
+        <v>567</v>
+      </c>
+      <c r="E1918" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="J1918" s="1" t="s">
-        <v>1538</v>
+        <v>85</v>
       </c>
       <c r="K1918" s="1" t="s">
-        <v>447</v>
+        <v>609</v>
       </c>
       <c r="L1918" s="1" t="s">
-        <v>85</v>
+        <v>359</v>
+      </c>
+      <c r="M1918" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="O1918" s="1" t="s">
-        <v>4286</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="1919" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1919" s="1" t="s">
-        <v>4287</v>
+        <v>4296</v>
       </c>
       <c r="B1919" s="1" t="s">
-        <v>4288</v>
+        <v>4293</v>
       </c>
       <c r="C1919" s="1" t="s">
-        <v>2</v>
+        <v>4294</v>
       </c>
       <c r="D1919" s="1" t="s">
-        <v>158</v>
+        <v>567</v>
+      </c>
+      <c r="E1919" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="J1919" s="1" t="s">
-        <v>1538</v>
+        <v>85</v>
+      </c>
+      <c r="K1919" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1919" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M1919" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="O1919" s="1" t="s">
-        <v>4289</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1920" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1920" s="1" t="s">
-        <v>4290</v>
+        <v>4298</v>
       </c>
       <c r="B1920" s="1" t="s">
-        <v>4288</v>
+        <v>4293</v>
       </c>
       <c r="C1920" s="1" t="s">
-        <v>2</v>
+        <v>4294</v>
       </c>
       <c r="D1920" s="1" t="s">
-        <v>158</v>
+        <v>567</v>
       </c>
       <c r="J1920" s="1" t="s">
-        <v>1538</v>
+        <v>85</v>
+      </c>
+      <c r="K1920" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1920" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1920" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="O1920" s="1" t="s">
-        <v>4291</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1921" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1921" s="1" t="s">
-        <v>4292</v>
+        <v>4300</v>
       </c>
       <c r="B1921" s="1" t="s">
         <v>4293</v>
@@ -57545,9 +57650,6 @@
       <c r="D1921" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E1921" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="J1921" s="1" t="s">
         <v>85</v>
       </c>
@@ -57555,18 +57657,18 @@
         <v>609</v>
       </c>
       <c r="L1921" s="1" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
       <c r="M1921" s="1" t="s">
         <v>1203</v>
       </c>
       <c r="O1921" s="1" t="s">
-        <v>4295</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="1922" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1922" s="1" t="s">
-        <v>4296</v>
+        <v>4302</v>
       </c>
       <c r="B1922" s="1" t="s">
         <v>4293</v>
@@ -57577,9 +57679,6 @@
       <c r="D1922" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E1922" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="J1922" s="1" t="s">
         <v>85</v>
       </c>
@@ -57587,18 +57686,18 @@
         <v>609</v>
       </c>
       <c r="L1922" s="1" t="s">
-        <v>359</v>
+        <v>171</v>
       </c>
       <c r="M1922" s="1" t="s">
         <v>1203</v>
       </c>
       <c r="O1922" s="1" t="s">
-        <v>4297</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="1923" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1923" s="1" t="s">
-        <v>4298</v>
+        <v>4304</v>
       </c>
       <c r="B1923" s="1" t="s">
         <v>4293</v>
@@ -57622,12 +57721,12 @@
         <v>1203</v>
       </c>
       <c r="O1923" s="1" t="s">
-        <v>4299</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="1924" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1924" s="1" t="s">
-        <v>4300</v>
+        <v>4306</v>
       </c>
       <c r="B1924" s="1" t="s">
         <v>4293</v>
@@ -57651,12 +57750,12 @@
         <v>1203</v>
       </c>
       <c r="O1924" s="1" t="s">
-        <v>4301</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1925" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1925" s="1" t="s">
-        <v>4302</v>
+        <v>4308</v>
       </c>
       <c r="B1925" s="1" t="s">
         <v>4293</v>
@@ -57680,12 +57779,12 @@
         <v>1203</v>
       </c>
       <c r="O1925" s="1" t="s">
-        <v>4303</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="1926" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1926" s="1" t="s">
-        <v>4304</v>
+        <v>4310</v>
       </c>
       <c r="B1926" s="1" t="s">
         <v>4293</v>
@@ -57709,12 +57808,12 @@
         <v>1203</v>
       </c>
       <c r="O1926" s="1" t="s">
-        <v>4305</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="1927" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1927" s="1" t="s">
-        <v>4306</v>
+        <v>4312</v>
       </c>
       <c r="B1927" s="1" t="s">
         <v>4293</v>
@@ -57738,12 +57837,12 @@
         <v>1203</v>
       </c>
       <c r="O1927" s="1" t="s">
-        <v>4307</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="1928" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1928" s="1" t="s">
-        <v>4308</v>
+        <v>4314</v>
       </c>
       <c r="B1928" s="1" t="s">
         <v>4293</v>
@@ -57767,12 +57866,12 @@
         <v>1203</v>
       </c>
       <c r="O1928" s="1" t="s">
-        <v>4309</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="1929" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1929" s="1" t="s">
-        <v>4310</v>
+        <v>4316</v>
       </c>
       <c r="B1929" s="1" t="s">
         <v>4293</v>
@@ -57796,15 +57895,15 @@
         <v>1203</v>
       </c>
       <c r="O1929" s="1" t="s">
-        <v>4311</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="1930" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1930" s="1" t="s">
-        <v>4312</v>
+        <v>4318</v>
       </c>
       <c r="B1930" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1930" s="1" t="s">
         <v>4294</v>
@@ -57822,15 +57921,15 @@
         <v>171</v>
       </c>
       <c r="M1930" s="1" t="s">
-        <v>1203</v>
+        <v>1925</v>
       </c>
       <c r="O1930" s="1" t="s">
-        <v>4313</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1931" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1931" s="1" t="s">
-        <v>4314</v>
+        <v>4321</v>
       </c>
       <c r="B1931" s="1" t="s">
         <v>4293</v>
@@ -57851,15 +57950,15 @@
         <v>171</v>
       </c>
       <c r="M1931" s="1" t="s">
-        <v>1203</v>
+        <v>1925</v>
       </c>
       <c r="O1931" s="1" t="s">
-        <v>4315</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1932" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1932" s="1" t="s">
-        <v>4316</v>
+        <v>4323</v>
       </c>
       <c r="B1932" s="1" t="s">
         <v>4293</v>
@@ -57880,18 +57979,18 @@
         <v>171</v>
       </c>
       <c r="M1932" s="1" t="s">
-        <v>1203</v>
+        <v>1925</v>
       </c>
       <c r="O1932" s="1" t="s">
-        <v>4317</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1933" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1933" s="1" t="s">
-        <v>4318</v>
+        <v>4325</v>
       </c>
       <c r="B1933" s="1" t="s">
-        <v>4319</v>
+        <v>4293</v>
       </c>
       <c r="C1933" s="1" t="s">
         <v>4294</v>
@@ -57912,12 +58011,12 @@
         <v>1925</v>
       </c>
       <c r="O1933" s="1" t="s">
-        <v>4320</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1934" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1934" s="1" t="s">
-        <v>4321</v>
+        <v>4327</v>
       </c>
       <c r="B1934" s="1" t="s">
         <v>4293</v>
@@ -57941,12 +58040,12 @@
         <v>1925</v>
       </c>
       <c r="O1934" s="1" t="s">
-        <v>4322</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1935" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1935" s="1" t="s">
-        <v>4323</v>
+        <v>4329</v>
       </c>
       <c r="B1935" s="1" t="s">
         <v>4293</v>
@@ -57970,12 +58069,12 @@
         <v>1925</v>
       </c>
       <c r="O1935" s="1" t="s">
-        <v>4324</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="1936" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1936" s="1" t="s">
-        <v>4325</v>
+        <v>4331</v>
       </c>
       <c r="B1936" s="1" t="s">
         <v>4293</v>
@@ -57999,12 +58098,12 @@
         <v>1925</v>
       </c>
       <c r="O1936" s="1" t="s">
-        <v>4326</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1937" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1937" s="1" t="s">
-        <v>4327</v>
+        <v>4333</v>
       </c>
       <c r="B1937" s="1" t="s">
         <v>4293</v>
@@ -58028,99 +58127,81 @@
         <v>1925</v>
       </c>
       <c r="O1937" s="1" t="s">
-        <v>4328</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1938" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1938" s="1" t="s">
-        <v>4329</v>
+        <v>4335</v>
       </c>
       <c r="B1938" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1938" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1938" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1938" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1938" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1938" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1938" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1938" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1938" s="1" t="s">
-        <v>4330</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="1939" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1939" s="1" t="s">
-        <v>4331</v>
+        <v>4339</v>
       </c>
       <c r="B1939" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1939" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1939" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1939" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1939" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1939" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1939" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1939" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1939" s="1" t="s">
-        <v>4332</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1940" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1940" s="1" t="s">
-        <v>4333</v>
+        <v>4341</v>
       </c>
       <c r="B1940" s="1" t="s">
-        <v>4293</v>
+        <v>4319</v>
       </c>
       <c r="C1940" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1940" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1940" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1940" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1940" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1940" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1940" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1940" s="1" t="s">
-        <v>4334</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1941" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1941" s="1" t="s">
-        <v>4335</v>
+        <v>4343</v>
       </c>
       <c r="B1941" s="1" t="s">
         <v>4319</v>
@@ -58129,21 +58210,27 @@
         <v>4294</v>
       </c>
       <c r="D1941" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1941" s="1" t="s">
-        <v>4337</v>
+        <v>567</v>
       </c>
       <c r="J1941" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="K1941" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1941" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1941" s="1" t="s">
+        <v>1925</v>
+      </c>
       <c r="O1941" s="1" t="s">
-        <v>4338</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1942" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1942" s="1" t="s">
-        <v>4339</v>
+        <v>4345</v>
       </c>
       <c r="B1942" s="1" t="s">
         <v>4319</v>
@@ -58152,21 +58239,27 @@
         <v>4294</v>
       </c>
       <c r="D1942" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1942" s="1" t="s">
-        <v>4337</v>
+        <v>567</v>
       </c>
       <c r="J1942" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="K1942" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1942" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1942" s="1" t="s">
+        <v>1925</v>
+      </c>
       <c r="O1942" s="1" t="s">
-        <v>4340</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="1943" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1943" s="1" t="s">
-        <v>4341</v>
+        <v>4347</v>
       </c>
       <c r="B1943" s="1" t="s">
         <v>4319</v>
@@ -58175,21 +58268,27 @@
         <v>4294</v>
       </c>
       <c r="D1943" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1943" s="1" t="s">
-        <v>4337</v>
+        <v>567</v>
       </c>
       <c r="J1943" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="K1943" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1943" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1943" s="1" t="s">
+        <v>1925</v>
+      </c>
       <c r="O1943" s="1" t="s">
-        <v>4342</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1944" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1944" s="1" t="s">
-        <v>4343</v>
+        <v>4349</v>
       </c>
       <c r="B1944" s="1" t="s">
         <v>4319</v>
@@ -58213,12 +58312,12 @@
         <v>1925</v>
       </c>
       <c r="O1944" s="1" t="s">
-        <v>4344</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1945" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1945" s="1" t="s">
-        <v>4345</v>
+        <v>4351</v>
       </c>
       <c r="B1945" s="1" t="s">
         <v>4319</v>
@@ -58242,12 +58341,12 @@
         <v>1925</v>
       </c>
       <c r="O1945" s="1" t="s">
-        <v>4346</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="1946" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1946" s="1" t="s">
-        <v>4347</v>
+        <v>4353</v>
       </c>
       <c r="B1946" s="1" t="s">
         <v>4319</v>
@@ -58271,99 +58370,81 @@
         <v>1925</v>
       </c>
       <c r="O1946" s="1" t="s">
-        <v>4348</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1947" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1947" s="1" t="s">
-        <v>4349</v>
+        <v>4355</v>
       </c>
       <c r="B1947" s="1" t="s">
-        <v>4319</v>
+        <v>4356</v>
       </c>
       <c r="C1947" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1947" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1947" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1947" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1947" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1947" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1947" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1947" s="1" t="s">
-        <v>4350</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1948" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1948" s="1" t="s">
-        <v>4351</v>
+        <v>4358</v>
       </c>
       <c r="B1948" s="1" t="s">
-        <v>4319</v>
+        <v>4356</v>
       </c>
       <c r="C1948" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1948" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1948" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1948" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1948" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1948" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1948" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1948" s="1" t="s">
-        <v>4352</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1949" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1949" s="1" t="s">
-        <v>4353</v>
+        <v>4360</v>
       </c>
       <c r="B1949" s="1" t="s">
-        <v>4319</v>
+        <v>4356</v>
       </c>
       <c r="C1949" s="1" t="s">
         <v>4294</v>
       </c>
       <c r="D1949" s="1" t="s">
-        <v>567</v>
+        <v>4336</v>
+      </c>
+      <c r="E1949" s="1" t="s">
+        <v>4337</v>
       </c>
       <c r="J1949" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1949" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L1949" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1949" s="1" t="s">
-        <v>1925</v>
-      </c>
       <c r="O1949" s="1" t="s">
-        <v>4354</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1950" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1950" s="1" t="s">
-        <v>4355</v>
+        <v>4362</v>
       </c>
       <c r="B1950" s="1" t="s">
         <v>4356</v>
@@ -58381,12 +58462,12 @@
         <v>85</v>
       </c>
       <c r="O1950" s="1" t="s">
-        <v>4357</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="1951" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1951" s="1" t="s">
-        <v>4358</v>
+        <v>4364</v>
       </c>
       <c r="B1951" s="1" t="s">
         <v>4356</v>
@@ -58404,12 +58485,12 @@
         <v>85</v>
       </c>
       <c r="O1951" s="1" t="s">
-        <v>4359</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1952" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1952" s="1" t="s">
-        <v>4360</v>
+        <v>4366</v>
       </c>
       <c r="B1952" s="1" t="s">
         <v>4356</v>
@@ -58427,12 +58508,12 @@
         <v>85</v>
       </c>
       <c r="O1952" s="1" t="s">
-        <v>4361</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="1953" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1953" s="1" t="s">
-        <v>4362</v>
+        <v>4368</v>
       </c>
       <c r="B1953" s="1" t="s">
         <v>4356</v>
@@ -58450,12 +58531,12 @@
         <v>85</v>
       </c>
       <c r="O1953" s="1" t="s">
-        <v>4363</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="1954" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1954" s="1" t="s">
-        <v>4364</v>
+        <v>4370</v>
       </c>
       <c r="B1954" s="1" t="s">
         <v>4356</v>
@@ -58473,12 +58554,12 @@
         <v>85</v>
       </c>
       <c r="O1954" s="1" t="s">
-        <v>4365</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="1955" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1955" s="1" t="s">
-        <v>4366</v>
+        <v>4372</v>
       </c>
       <c r="B1955" s="1" t="s">
         <v>4356</v>
@@ -58496,12 +58577,12 @@
         <v>85</v>
       </c>
       <c r="O1955" s="1" t="s">
-        <v>4367</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="1956" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1956" s="1" t="s">
-        <v>4368</v>
+        <v>4374</v>
       </c>
       <c r="B1956" s="1" t="s">
         <v>4356</v>
@@ -58519,81 +58600,72 @@
         <v>85</v>
       </c>
       <c r="O1956" s="1" t="s">
-        <v>4369</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="1957" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1957" s="1" t="s">
-        <v>4370</v>
+        <v>4376</v>
       </c>
       <c r="B1957" s="1" t="s">
-        <v>4356</v>
+        <v>4377</v>
       </c>
       <c r="C1957" s="1" t="s">
-        <v>4294</v>
+        <v>2</v>
       </c>
       <c r="D1957" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1957" s="1" t="s">
-        <v>4337</v>
+        <v>158</v>
       </c>
       <c r="J1957" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="O1957" s="1" t="s">
-        <v>4371</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1958" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1958" s="1" t="s">
-        <v>4372</v>
+        <v>4379</v>
       </c>
       <c r="B1958" s="1" t="s">
-        <v>4356</v>
+        <v>4377</v>
       </c>
       <c r="C1958" s="1" t="s">
-        <v>4294</v>
+        <v>2</v>
       </c>
       <c r="D1958" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1958" s="1" t="s">
-        <v>4337</v>
+        <v>158</v>
       </c>
       <c r="J1958" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="O1958" s="1" t="s">
-        <v>4373</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1959" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1959" s="1" t="s">
-        <v>4374</v>
+        <v>4381</v>
       </c>
       <c r="B1959" s="1" t="s">
-        <v>4356</v>
+        <v>4377</v>
       </c>
       <c r="C1959" s="1" t="s">
-        <v>4294</v>
+        <v>2</v>
       </c>
       <c r="D1959" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E1959" s="1" t="s">
-        <v>4337</v>
+        <v>158</v>
       </c>
       <c r="J1959" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="O1959" s="1" t="s">
-        <v>4375</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1960" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1960" s="1" t="s">
-        <v>4376</v>
+        <v>4383</v>
       </c>
       <c r="B1960" s="1" t="s">
         <v>4377</v>
@@ -58608,12 +58680,12 @@
         <v>62</v>
       </c>
       <c r="O1960" s="1" t="s">
-        <v>4378</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="1961" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1961" s="1" t="s">
-        <v>4379</v>
+        <v>4385</v>
       </c>
       <c r="B1961" s="1" t="s">
         <v>4377</v>
@@ -58628,12 +58700,12 @@
         <v>62</v>
       </c>
       <c r="O1961" s="1" t="s">
-        <v>4380</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1962" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1962" s="1" t="s">
-        <v>4381</v>
+        <v>4387</v>
       </c>
       <c r="B1962" s="1" t="s">
         <v>4377</v>
@@ -58648,12 +58720,12 @@
         <v>62</v>
       </c>
       <c r="O1962" s="1" t="s">
-        <v>4382</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1963" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1963" s="1" t="s">
-        <v>4383</v>
+        <v>4389</v>
       </c>
       <c r="B1963" s="1" t="s">
         <v>4377</v>
@@ -58668,12 +58740,12 @@
         <v>62</v>
       </c>
       <c r="O1963" s="1" t="s">
-        <v>4384</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1964" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1964" s="1" t="s">
-        <v>4385</v>
+        <v>4391</v>
       </c>
       <c r="B1964" s="1" t="s">
         <v>4377</v>
@@ -58688,12 +58760,12 @@
         <v>62</v>
       </c>
       <c r="O1964" s="1" t="s">
-        <v>4386</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1965" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1965" s="1" t="s">
-        <v>4387</v>
+        <v>4393</v>
       </c>
       <c r="B1965" s="1" t="s">
         <v>4377</v>
@@ -58708,72 +58780,60 @@
         <v>62</v>
       </c>
       <c r="O1965" s="1" t="s">
-        <v>4388</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1966" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1966" s="1" t="s">
-        <v>4389</v>
+        <v>4395</v>
       </c>
       <c r="B1966" s="1" t="s">
-        <v>4377</v>
+        <v>4396</v>
       </c>
       <c r="C1966" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1966" s="1" t="s">
-        <v>158</v>
+        <v>4397</v>
       </c>
       <c r="J1966" s="1" t="s">
-        <v>62</v>
+        <v>447</v>
       </c>
       <c r="O1966" s="1" t="s">
-        <v>4390</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1967" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1967" s="1" t="s">
-        <v>4391</v>
+        <v>4399</v>
       </c>
       <c r="B1967" s="1" t="s">
-        <v>4377</v>
+        <v>4396</v>
       </c>
       <c r="C1967" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1967" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1967" s="1" t="s">
-        <v>62</v>
+        <v>4397</v>
       </c>
       <c r="O1967" s="1" t="s">
-        <v>4392</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1968" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1968" s="1" t="s">
-        <v>4393</v>
+        <v>4401</v>
       </c>
       <c r="B1968" s="1" t="s">
-        <v>4377</v>
+        <v>4396</v>
       </c>
       <c r="C1968" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1968" s="1" t="s">
-        <v>158</v>
+        <v>4397</v>
       </c>
       <c r="J1968" s="1" t="s">
-        <v>62</v>
+        <v>447</v>
       </c>
       <c r="O1968" s="1" t="s">
-        <v>4394</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="1969" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1969" s="1" t="s">
-        <v>4395</v>
+        <v>4403</v>
       </c>
       <c r="B1969" s="1" t="s">
         <v>4396</v>
@@ -58785,12 +58845,12 @@
         <v>447</v>
       </c>
       <c r="O1969" s="1" t="s">
-        <v>4398</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="1970" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1970" s="1" t="s">
-        <v>4399</v>
+        <v>4405</v>
       </c>
       <c r="B1970" s="1" t="s">
         <v>4396</v>
@@ -58799,12 +58859,12 @@
         <v>4397</v>
       </c>
       <c r="O1970" s="1" t="s">
-        <v>4400</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="1971" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1971" s="1" t="s">
-        <v>4401</v>
+        <v>4407</v>
       </c>
       <c r="B1971" s="1" t="s">
         <v>4396</v>
@@ -58816,12 +58876,12 @@
         <v>447</v>
       </c>
       <c r="O1971" s="1" t="s">
-        <v>4402</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="1972" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1972" s="1" t="s">
-        <v>4403</v>
+        <v>4409</v>
       </c>
       <c r="B1972" s="1" t="s">
         <v>4396</v>
@@ -58829,16 +58889,13 @@
       <c r="C1972" s="1" t="s">
         <v>4397</v>
       </c>
-      <c r="J1972" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="O1972" s="1" t="s">
-        <v>4404</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="1973" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1973" s="1" t="s">
-        <v>4405</v>
+        <v>4411</v>
       </c>
       <c r="B1973" s="1" t="s">
         <v>4396</v>
@@ -58847,12 +58904,12 @@
         <v>4397</v>
       </c>
       <c r="O1973" s="1" t="s">
-        <v>4406</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="1974" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1974" s="1" t="s">
-        <v>4407</v>
+        <v>4413</v>
       </c>
       <c r="B1974" s="1" t="s">
         <v>4396</v>
@@ -58864,12 +58921,12 @@
         <v>447</v>
       </c>
       <c r="O1974" s="1" t="s">
-        <v>4408</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="1975" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1975" s="1" t="s">
-        <v>4409</v>
+        <v>4415</v>
       </c>
       <c r="B1975" s="1" t="s">
         <v>4396</v>
@@ -58878,12 +58935,12 @@
         <v>4397</v>
       </c>
       <c r="O1975" s="1" t="s">
-        <v>4410</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="1976" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1976" s="1" t="s">
-        <v>4411</v>
+        <v>4417</v>
       </c>
       <c r="B1976" s="1" t="s">
         <v>4396</v>
@@ -58891,13 +58948,16 @@
       <c r="C1976" s="1" t="s">
         <v>4397</v>
       </c>
+      <c r="J1976" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="O1976" s="1" t="s">
-        <v>4412</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="1977" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1977" s="1" t="s">
-        <v>4413</v>
+        <v>4419</v>
       </c>
       <c r="B1977" s="1" t="s">
         <v>4396</v>
@@ -58905,16 +58965,13 @@
       <c r="C1977" s="1" t="s">
         <v>4397</v>
       </c>
-      <c r="J1977" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="O1977" s="1" t="s">
-        <v>4414</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="1978" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1978" s="1" t="s">
-        <v>4415</v>
+        <v>4421</v>
       </c>
       <c r="B1978" s="1" t="s">
         <v>4396</v>
@@ -58923,12 +58980,12 @@
         <v>4397</v>
       </c>
       <c r="O1978" s="1" t="s">
-        <v>4416</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="1979" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1979" s="1" t="s">
-        <v>4417</v>
+        <v>4423</v>
       </c>
       <c r="B1979" s="1" t="s">
         <v>4396</v>
@@ -58936,16 +58993,13 @@
       <c r="C1979" s="1" t="s">
         <v>4397</v>
       </c>
-      <c r="J1979" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="O1979" s="1" t="s">
-        <v>4418</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1980" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1980" s="1" t="s">
-        <v>4419</v>
+        <v>4425</v>
       </c>
       <c r="B1980" s="1" t="s">
         <v>4396</v>
@@ -58953,107 +59007,125 @@
       <c r="C1980" s="1" t="s">
         <v>4397</v>
       </c>
+      <c r="D1980" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1980" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="O1980" s="1" t="s">
-        <v>4420</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1981" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1981" s="1" t="s">
-        <v>4421</v>
+        <v>4427</v>
       </c>
       <c r="B1981" s="1" t="s">
-        <v>4396</v>
+        <v>4428</v>
       </c>
       <c r="C1981" s="1" t="s">
-        <v>4397</v>
+        <v>348</v>
+      </c>
+      <c r="D1981" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1981" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1981" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="O1981" s="1" t="s">
-        <v>4422</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="1982" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1982" s="1" t="s">
-        <v>4423</v>
+        <v>4430</v>
       </c>
       <c r="B1982" s="1" t="s">
-        <v>4396</v>
+        <v>4428</v>
       </c>
       <c r="C1982" s="1" t="s">
-        <v>4397</v>
+        <v>348</v>
+      </c>
+      <c r="D1982" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1982" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1982" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="O1982" s="1" t="s">
-        <v>4424</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="1983" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1983" s="1" t="s">
-        <v>4425</v>
+        <v>4432</v>
       </c>
       <c r="B1983" s="1" t="s">
-        <v>4396</v>
+        <v>4433</v>
       </c>
       <c r="C1983" s="1" t="s">
-        <v>4397</v>
+        <v>2</v>
       </c>
       <c r="D1983" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J1983" s="1" t="s">
-        <v>349</v>
+        <v>177</v>
       </c>
       <c r="O1983" s="1" t="s">
-        <v>4426</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="1984" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1984" s="1" t="s">
-        <v>4427</v>
+        <v>4435</v>
       </c>
       <c r="B1984" s="1" t="s">
-        <v>4428</v>
+        <v>4433</v>
       </c>
       <c r="C1984" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1984" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1984" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K1984" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="O1984" s="1" t="s">
-        <v>4429</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="1985" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1985" s="1" t="s">
-        <v>4430</v>
+        <v>4437</v>
       </c>
       <c r="B1985" s="1" t="s">
-        <v>4428</v>
+        <v>4433</v>
       </c>
       <c r="C1985" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D1985" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J1985" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K1985" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="O1985" s="1" t="s">
-        <v>4431</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="1986" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1986" s="1" t="s">
-        <v>4432</v>
+        <v>4439</v>
       </c>
       <c r="B1986" s="1" t="s">
         <v>4433</v>
@@ -59068,12 +59140,12 @@
         <v>177</v>
       </c>
       <c r="O1986" s="1" t="s">
-        <v>4434</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="1987" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1987" s="1" t="s">
-        <v>4435</v>
+        <v>4441</v>
       </c>
       <c r="B1987" s="1" t="s">
         <v>4433</v>
@@ -59088,12 +59160,12 @@
         <v>177</v>
       </c>
       <c r="O1987" s="1" t="s">
-        <v>4436</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="1988" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1988" s="1" t="s">
-        <v>4437</v>
+        <v>4443</v>
       </c>
       <c r="B1988" s="1" t="s">
         <v>4433</v>
@@ -59108,12 +59180,12 @@
         <v>177</v>
       </c>
       <c r="O1988" s="1" t="s">
-        <v>4438</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="1989" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1989" s="1" t="s">
-        <v>4439</v>
+        <v>4445</v>
       </c>
       <c r="B1989" s="1" t="s">
         <v>4433</v>
@@ -59128,12 +59200,12 @@
         <v>177</v>
       </c>
       <c r="O1989" s="1" t="s">
-        <v>4440</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="1990" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1990" s="1" t="s">
-        <v>4441</v>
+        <v>4447</v>
       </c>
       <c r="B1990" s="1" t="s">
         <v>4433</v>
@@ -59148,12 +59220,12 @@
         <v>177</v>
       </c>
       <c r="O1990" s="1" t="s">
-        <v>4442</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="1991" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1991" s="1" t="s">
-        <v>4443</v>
+        <v>4449</v>
       </c>
       <c r="B1991" s="1" t="s">
         <v>4433</v>
@@ -59168,72 +59240,72 @@
         <v>177</v>
       </c>
       <c r="O1991" s="1" t="s">
-        <v>4444</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="1992" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1992" s="1" t="s">
-        <v>4445</v>
+        <v>4451</v>
       </c>
       <c r="B1992" s="1" t="s">
-        <v>4433</v>
+        <v>4452</v>
       </c>
       <c r="C1992" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1992" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J1992" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
+      </c>
+      <c r="K1992" s="1" t="s">
+        <v>4453</v>
       </c>
       <c r="O1992" s="1" t="s">
-        <v>4446</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="1993" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1993" s="1" t="s">
-        <v>4447</v>
+        <v>4455</v>
       </c>
       <c r="B1993" s="1" t="s">
-        <v>4433</v>
+        <v>4452</v>
       </c>
       <c r="C1993" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1993" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J1993" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
+      </c>
+      <c r="K1993" s="1" t="s">
+        <v>4453</v>
       </c>
       <c r="O1993" s="1" t="s">
-        <v>4448</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1994" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1994" s="1" t="s">
-        <v>4449</v>
+        <v>4457</v>
       </c>
       <c r="B1994" s="1" t="s">
-        <v>4433</v>
+        <v>4452</v>
       </c>
       <c r="C1994" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1994" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J1994" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
+      </c>
+      <c r="K1994" s="1" t="s">
+        <v>4453</v>
       </c>
       <c r="O1994" s="1" t="s">
-        <v>4450</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="1995" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1995" s="1" t="s">
-        <v>4451</v>
+        <v>4459</v>
       </c>
       <c r="B1995" s="1" t="s">
         <v>4452</v>
@@ -59248,12 +59320,12 @@
         <v>4453</v>
       </c>
       <c r="O1995" s="1" t="s">
-        <v>4454</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1996" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1996" s="1" t="s">
-        <v>4455</v>
+        <v>4461</v>
       </c>
       <c r="B1996" s="1" t="s">
         <v>4452</v>
@@ -59268,12 +59340,12 @@
         <v>4453</v>
       </c>
       <c r="O1996" s="1" t="s">
-        <v>4456</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1997" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1997" s="1" t="s">
-        <v>4457</v>
+        <v>4463</v>
       </c>
       <c r="B1997" s="1" t="s">
         <v>4452</v>
@@ -59288,12 +59360,12 @@
         <v>4453</v>
       </c>
       <c r="O1997" s="1" t="s">
-        <v>4458</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="1998" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1998" s="1" t="s">
-        <v>4459</v>
+        <v>4465</v>
       </c>
       <c r="B1998" s="1" t="s">
         <v>4452</v>
@@ -59304,73 +59376,73 @@
       <c r="J1998" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K1998" s="1" t="s">
-        <v>4453</v>
-      </c>
       <c r="O1998" s="1" t="s">
-        <v>4460</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1999" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1999" s="1" t="s">
-        <v>4461</v>
+        <v>4467</v>
       </c>
       <c r="B1999" s="1" t="s">
-        <v>4452</v>
+        <v>4468</v>
       </c>
       <c r="C1999" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1999" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J1999" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1999" s="1" t="s">
-        <v>4453</v>
+        <v>177</v>
       </c>
       <c r="O1999" s="1" t="s">
-        <v>4462</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="2000" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2000" s="1" t="s">
-        <v>4463</v>
+        <v>4470</v>
       </c>
       <c r="B2000" s="1" t="s">
-        <v>4452</v>
+        <v>4468</v>
       </c>
       <c r="C2000" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2000" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2000" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2000" s="1" t="s">
-        <v>4453</v>
+        <v>177</v>
       </c>
       <c r="O2000" s="1" t="s">
-        <v>4464</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="2001" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2001" s="1" t="s">
-        <v>4465</v>
+        <v>4472</v>
       </c>
       <c r="B2001" s="1" t="s">
-        <v>4452</v>
+        <v>4468</v>
       </c>
       <c r="C2001" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2001" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2001" s="1" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="O2001" s="1" t="s">
-        <v>4466</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="2002" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2002" s="1" t="s">
-        <v>4467</v>
+        <v>4474</v>
       </c>
       <c r="B2002" s="1" t="s">
         <v>4468</v>
@@ -59382,15 +59454,15 @@
         <v>158</v>
       </c>
       <c r="J2002" s="1" t="s">
-        <v>177</v>
+        <v>349</v>
       </c>
       <c r="O2002" s="1" t="s">
-        <v>4469</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="2003" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2003" s="1" t="s">
-        <v>4470</v>
+        <v>4476</v>
       </c>
       <c r="B2003" s="1" t="s">
         <v>4468</v>
@@ -59402,58 +59474,64 @@
         <v>158</v>
       </c>
       <c r="J2003" s="1" t="s">
-        <v>177</v>
+        <v>349</v>
       </c>
       <c r="O2003" s="1" t="s">
-        <v>4471</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="2004" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2004" s="1" t="s">
-        <v>4472</v>
+        <v>4478</v>
       </c>
       <c r="B2004" s="1" t="s">
-        <v>4468</v>
+        <v>4479</v>
       </c>
       <c r="C2004" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2004" s="1" t="s">
-        <v>158</v>
+        <v>1274</v>
       </c>
       <c r="J2004" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="K2004" s="1" t="s">
+        <v>1275</v>
+      </c>
       <c r="O2004" s="1" t="s">
-        <v>4473</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="2005" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2005" s="1" t="s">
-        <v>4474</v>
+        <v>4481</v>
       </c>
       <c r="B2005" s="1" t="s">
-        <v>4468</v>
+        <v>4479</v>
       </c>
       <c r="C2005" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2005" s="1" t="s">
-        <v>158</v>
+        <v>1274</v>
       </c>
       <c r="J2005" s="1" t="s">
-        <v>349</v>
+        <v>177</v>
+      </c>
+      <c r="K2005" s="1" t="s">
+        <v>1275</v>
       </c>
       <c r="O2005" s="1" t="s">
-        <v>4475</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="2006" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2006" s="1" t="s">
-        <v>4476</v>
+        <v>4483</v>
       </c>
       <c r="B2006" s="1" t="s">
-        <v>4468</v>
+        <v>4484</v>
       </c>
       <c r="C2006" s="1" t="s">
         <v>2</v>
@@ -59462,133 +59540,139 @@
         <v>158</v>
       </c>
       <c r="J2006" s="1" t="s">
-        <v>349</v>
+        <v>1538</v>
+      </c>
+      <c r="K2006" s="1" t="s">
+        <v>1534</v>
       </c>
       <c r="O2006" s="1" t="s">
-        <v>4477</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="2007" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2007" s="1" t="s">
-        <v>4478</v>
+        <v>4486</v>
       </c>
       <c r="B2007" s="1" t="s">
-        <v>4479</v>
+        <v>4484</v>
       </c>
       <c r="C2007" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2007" s="1" t="s">
-        <v>1274</v>
+        <v>158</v>
       </c>
       <c r="J2007" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
       </c>
       <c r="K2007" s="1" t="s">
-        <v>1275</v>
+        <v>1534</v>
       </c>
       <c r="O2007" s="1" t="s">
-        <v>4480</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="2008" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2008" s="1" t="s">
-        <v>4481</v>
+        <v>4488</v>
       </c>
       <c r="B2008" s="1" t="s">
-        <v>4479</v>
+        <v>4484</v>
       </c>
       <c r="C2008" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2008" s="1" t="s">
-        <v>1274</v>
+        <v>158</v>
       </c>
       <c r="J2008" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
       </c>
       <c r="K2008" s="1" t="s">
-        <v>1275</v>
+        <v>1534</v>
       </c>
       <c r="O2008" s="1" t="s">
-        <v>4482</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="2009" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2009" s="1" t="s">
-        <v>4483</v>
+        <v>4490</v>
       </c>
       <c r="B2009" s="1" t="s">
-        <v>4484</v>
+        <v>4491</v>
       </c>
       <c r="C2009" s="1" t="s">
-        <v>2</v>
+        <v>1340</v>
       </c>
       <c r="D2009" s="1" t="s">
-        <v>158</v>
+        <v>1340</v>
       </c>
       <c r="J2009" s="1" t="s">
-        <v>1538</v>
+        <v>383</v>
       </c>
       <c r="K2009" s="1" t="s">
-        <v>1534</v>
+        <v>1925</v>
       </c>
       <c r="O2009" s="1" t="s">
-        <v>4485</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="2010" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2010" s="1" t="s">
-        <v>4486</v>
+        <v>4493</v>
       </c>
       <c r="B2010" s="1" t="s">
-        <v>4484</v>
+        <v>4491</v>
       </c>
       <c r="C2010" s="1" t="s">
-        <v>2</v>
+        <v>1340</v>
       </c>
       <c r="D2010" s="1" t="s">
-        <v>158</v>
+        <v>1340</v>
       </c>
       <c r="J2010" s="1" t="s">
-        <v>1538</v>
+        <v>383</v>
       </c>
       <c r="K2010" s="1" t="s">
-        <v>1534</v>
+        <v>1925</v>
       </c>
       <c r="O2010" s="1" t="s">
-        <v>4487</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="2011" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2011" s="1" t="s">
-        <v>4488</v>
+        <v>4495</v>
       </c>
       <c r="B2011" s="1" t="s">
-        <v>4484</v>
+        <v>4496</v>
       </c>
       <c r="C2011" s="1" t="s">
-        <v>2</v>
+        <v>1340</v>
       </c>
       <c r="D2011" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E2011" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J2011" s="1" t="s">
-        <v>1538</v>
+        <v>383</v>
       </c>
       <c r="K2011" s="1" t="s">
-        <v>1534</v>
+        <v>1925</v>
       </c>
       <c r="O2011" s="1" t="s">
-        <v>4489</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="2012" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2012" s="1" t="s">
-        <v>4490</v>
+        <v>4498</v>
       </c>
       <c r="B2012" s="1" t="s">
-        <v>4491</v>
+        <v>4496</v>
       </c>
       <c r="C2012" s="1" t="s">
         <v>1340</v>
@@ -59596,6 +59680,9 @@
       <c r="D2012" s="1" t="s">
         <v>1340</v>
       </c>
+      <c r="E2012" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2012" s="1" t="s">
         <v>383</v>
       </c>
@@ -59603,15 +59690,15 @@
         <v>1925</v>
       </c>
       <c r="O2012" s="1" t="s">
-        <v>4492</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="2013" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2013" s="1" t="s">
-        <v>4493</v>
+        <v>4500</v>
       </c>
       <c r="B2013" s="1" t="s">
-        <v>4491</v>
+        <v>4496</v>
       </c>
       <c r="C2013" s="1" t="s">
         <v>1340</v>
@@ -59619,6 +59706,9 @@
       <c r="D2013" s="1" t="s">
         <v>1340</v>
       </c>
+      <c r="E2013" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2013" s="1" t="s">
         <v>383</v>
       </c>
@@ -59626,23 +59716,20 @@
         <v>1925</v>
       </c>
       <c r="O2013" s="1" t="s">
-        <v>4494</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="2014" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2014" s="1" t="s">
-        <v>4495</v>
+        <v>4502</v>
       </c>
       <c r="B2014" s="1" t="s">
-        <v>4496</v>
+        <v>4503</v>
       </c>
       <c r="C2014" s="1" t="s">
-        <v>1340</v>
+        <v>348</v>
       </c>
       <c r="D2014" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E2014" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J2014" s="1" t="s">
@@ -59652,67 +59739,49 @@
         <v>1925</v>
       </c>
       <c r="O2014" s="1" t="s">
-        <v>4497</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="2015" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2015" s="1" t="s">
-        <v>4498</v>
+        <v>4505</v>
       </c>
       <c r="B2015" s="1" t="s">
-        <v>4496</v>
+        <v>4506</v>
       </c>
       <c r="C2015" s="1" t="s">
-        <v>1340</v>
+        <v>348</v>
       </c>
       <c r="D2015" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E2015" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2015" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2015" s="1" t="s">
-        <v>1925</v>
+        <v>158</v>
       </c>
       <c r="O2015" s="1" t="s">
-        <v>4499</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="2016" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2016" s="1" t="s">
-        <v>4500</v>
+        <v>4508</v>
       </c>
       <c r="B2016" s="1" t="s">
-        <v>4496</v>
+        <v>4506</v>
       </c>
       <c r="C2016" s="1" t="s">
-        <v>1340</v>
+        <v>348</v>
       </c>
       <c r="D2016" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E2016" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2016" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2016" s="1" t="s">
-        <v>1925</v>
+        <v>158</v>
       </c>
       <c r="O2016" s="1" t="s">
-        <v>4501</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="2017" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2017" s="1" t="s">
-        <v>4502</v>
+        <v>4510</v>
       </c>
       <c r="B2017" s="1" t="s">
-        <v>4503</v>
+        <v>4506</v>
       </c>
       <c r="C2017" s="1" t="s">
         <v>348</v>
@@ -59721,21 +59790,21 @@
         <v>158</v>
       </c>
       <c r="J2017" s="1" t="s">
-        <v>383</v>
+        <v>609</v>
       </c>
       <c r="K2017" s="1" t="s">
-        <v>1925</v>
+        <v>4511</v>
       </c>
       <c r="O2017" s="1" t="s">
-        <v>4504</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="2018" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2018" s="1" t="s">
-        <v>4505</v>
+        <v>4513</v>
       </c>
       <c r="B2018" s="1" t="s">
-        <v>4506</v>
+        <v>4514</v>
       </c>
       <c r="C2018" s="1" t="s">
         <v>348</v>
@@ -59743,16 +59812,22 @@
       <c r="D2018" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="J2018" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="K2018" s="1" t="s">
+        <v>1534</v>
+      </c>
       <c r="O2018" s="1" t="s">
-        <v>4507</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="2019" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2019" s="1" t="s">
-        <v>4508</v>
+        <v>4516</v>
       </c>
       <c r="B2019" s="1" t="s">
-        <v>4506</v>
+        <v>4514</v>
       </c>
       <c r="C2019" s="1" t="s">
         <v>348</v>
@@ -59760,16 +59835,22 @@
       <c r="D2019" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="J2019" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="K2019" s="1" t="s">
+        <v>1534</v>
+      </c>
       <c r="O2019" s="1" t="s">
-        <v>4509</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="2020" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2020" s="1" t="s">
-        <v>4510</v>
+        <v>4518</v>
       </c>
       <c r="B2020" s="1" t="s">
-        <v>4506</v>
+        <v>4514</v>
       </c>
       <c r="C2020" s="1" t="s">
         <v>348</v>
@@ -59778,18 +59859,18 @@
         <v>158</v>
       </c>
       <c r="J2020" s="1" t="s">
-        <v>609</v>
+        <v>383</v>
       </c>
       <c r="K2020" s="1" t="s">
-        <v>4511</v>
+        <v>1534</v>
       </c>
       <c r="O2020" s="1" t="s">
-        <v>4512</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="2021" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2021" s="1" t="s">
-        <v>4513</v>
+        <v>4520</v>
       </c>
       <c r="B2021" s="1" t="s">
         <v>4514</v>
@@ -59807,12 +59888,12 @@
         <v>1534</v>
       </c>
       <c r="O2021" s="1" t="s">
-        <v>4515</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="2022" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2022" s="1" t="s">
-        <v>4516</v>
+        <v>4522</v>
       </c>
       <c r="B2022" s="1" t="s">
         <v>4514</v>
@@ -59830,15 +59911,15 @@
         <v>1534</v>
       </c>
       <c r="O2022" s="1" t="s">
-        <v>4517</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="2023" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2023" s="1" t="s">
-        <v>4518</v>
+        <v>4524</v>
       </c>
       <c r="B2023" s="1" t="s">
-        <v>4514</v>
+        <v>4525</v>
       </c>
       <c r="C2023" s="1" t="s">
         <v>348</v>
@@ -59850,18 +59931,18 @@
         <v>383</v>
       </c>
       <c r="K2023" s="1" t="s">
-        <v>1534</v>
+        <v>1925</v>
       </c>
       <c r="O2023" s="1" t="s">
-        <v>4519</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="2024" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2024" s="1" t="s">
-        <v>4520</v>
+        <v>4527</v>
       </c>
       <c r="B2024" s="1" t="s">
-        <v>4514</v>
+        <v>4525</v>
       </c>
       <c r="C2024" s="1" t="s">
         <v>348</v>
@@ -59873,147 +59954,138 @@
         <v>383</v>
       </c>
       <c r="K2024" s="1" t="s">
-        <v>1534</v>
+        <v>1925</v>
       </c>
       <c r="O2024" s="1" t="s">
-        <v>4521</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="2025" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2025" s="1" t="s">
-        <v>4522</v>
+        <v>4529</v>
       </c>
       <c r="B2025" s="1" t="s">
-        <v>4514</v>
+        <v>4530</v>
       </c>
       <c r="C2025" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D2025" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J2025" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2025" s="1" t="s">
-        <v>1534</v>
+        <v>177</v>
       </c>
       <c r="O2025" s="1" t="s">
-        <v>4523</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="2026" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2026" s="1" t="s">
-        <v>4524</v>
+        <v>4532</v>
       </c>
       <c r="B2026" s="1" t="s">
-        <v>4525</v>
+        <v>4530</v>
       </c>
       <c r="C2026" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D2026" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J2026" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2026" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
       </c>
       <c r="O2026" s="1" t="s">
-        <v>4526</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="2027" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2027" s="1" t="s">
-        <v>4527</v>
+        <v>4534</v>
       </c>
       <c r="B2027" s="1" t="s">
-        <v>4525</v>
+        <v>4530</v>
       </c>
       <c r="C2027" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D2027" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J2027" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2027" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
       </c>
       <c r="O2027" s="1" t="s">
-        <v>4528</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="2028" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2028" s="1" t="s">
-        <v>4529</v>
+        <v>4536</v>
       </c>
       <c r="B2028" s="1" t="s">
-        <v>4530</v>
+        <v>4537</v>
       </c>
       <c r="C2028" s="1" t="s">
-        <v>2</v>
+        <v>521</v>
       </c>
       <c r="D2028" s="1" t="s">
-        <v>2</v>
+        <v>567</v>
       </c>
       <c r="J2028" s="1" t="s">
         <v>177</v>
       </c>
       <c r="O2028" s="1" t="s">
-        <v>4531</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="2029" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2029" s="1" t="s">
-        <v>4532</v>
+        <v>4539</v>
       </c>
       <c r="B2029" s="1" t="s">
-        <v>4530</v>
+        <v>4537</v>
       </c>
       <c r="C2029" s="1" t="s">
-        <v>2</v>
+        <v>521</v>
       </c>
       <c r="D2029" s="1" t="s">
-        <v>2</v>
+        <v>567</v>
       </c>
       <c r="J2029" s="1" t="s">
         <v>177</v>
       </c>
       <c r="O2029" s="1" t="s">
-        <v>4533</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="2030" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2030" s="1" t="s">
-        <v>4534</v>
+        <v>4541</v>
       </c>
       <c r="B2030" s="1" t="s">
-        <v>4530</v>
+        <v>4542</v>
       </c>
       <c r="C2030" s="1" t="s">
-        <v>2</v>
+        <v>521</v>
       </c>
       <c r="D2030" s="1" t="s">
-        <v>2</v>
+        <v>567</v>
       </c>
       <c r="J2030" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
       </c>
       <c r="O2030" s="1" t="s">
-        <v>4535</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="2031" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2031" s="1" t="s">
-        <v>4536</v>
+        <v>4544</v>
       </c>
       <c r="B2031" s="1" t="s">
-        <v>4537</v>
+        <v>4542</v>
       </c>
       <c r="C2031" s="1" t="s">
         <v>521</v>
@@ -60022,18 +60094,18 @@
         <v>567</v>
       </c>
       <c r="J2031" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
       </c>
       <c r="O2031" s="1" t="s">
-        <v>4538</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="2032" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2032" s="1" t="s">
-        <v>4539</v>
+        <v>4546</v>
       </c>
       <c r="B2032" s="1" t="s">
-        <v>4537</v>
+        <v>4542</v>
       </c>
       <c r="C2032" s="1" t="s">
         <v>521</v>
@@ -60042,118 +60114,121 @@
         <v>567</v>
       </c>
       <c r="J2032" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
       </c>
       <c r="O2032" s="1" t="s">
-        <v>4540</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="2033" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2033" s="1" t="s">
-        <v>4541</v>
+        <v>4548</v>
       </c>
       <c r="B2033" s="1" t="s">
-        <v>4542</v>
+        <v>4549</v>
       </c>
       <c r="C2033" s="1" t="s">
-        <v>521</v>
+        <v>446</v>
       </c>
       <c r="D2033" s="1" t="s">
-        <v>567</v>
+        <v>2</v>
       </c>
       <c r="J2033" s="1" t="s">
-        <v>1538</v>
+        <v>177</v>
       </c>
       <c r="O2033" s="1" t="s">
-        <v>4543</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="2034" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2034" s="1" t="s">
-        <v>4544</v>
+        <v>4551</v>
       </c>
       <c r="B2034" s="1" t="s">
-        <v>4542</v>
+        <v>4549</v>
       </c>
       <c r="C2034" s="1" t="s">
-        <v>521</v>
+        <v>446</v>
       </c>
       <c r="D2034" s="1" t="s">
-        <v>567</v>
+        <v>2</v>
       </c>
       <c r="J2034" s="1" t="s">
-        <v>1538</v>
+        <v>177</v>
       </c>
       <c r="O2034" s="1" t="s">
-        <v>4545</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="2035" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2035" s="1" t="s">
-        <v>4546</v>
+        <v>4553</v>
       </c>
       <c r="B2035" s="1" t="s">
-        <v>4542</v>
+        <v>4554</v>
       </c>
       <c r="C2035" s="1" t="s">
-        <v>521</v>
+        <v>2</v>
       </c>
       <c r="D2035" s="1" t="s">
-        <v>567</v>
+        <v>158</v>
       </c>
       <c r="J2035" s="1" t="s">
         <v>1538</v>
       </c>
       <c r="O2035" s="1" t="s">
-        <v>4547</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="2036" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2036" s="1" t="s">
-        <v>4548</v>
+        <v>4556</v>
       </c>
       <c r="B2036" s="1" t="s">
-        <v>4549</v>
+        <v>4557</v>
       </c>
       <c r="C2036" s="1" t="s">
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="D2036" s="1" t="s">
-        <v>2</v>
+        <v>567</v>
       </c>
       <c r="J2036" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
+      </c>
+      <c r="K2036" s="1" t="s">
+        <v>4078</v>
       </c>
       <c r="O2036" s="1" t="s">
-        <v>4550</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="2037" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2037" s="1" t="s">
-        <v>4551</v>
+        <v>4559</v>
       </c>
       <c r="B2037" s="1" t="s">
-        <v>4549</v>
+        <v>4560</v>
       </c>
       <c r="C2037" s="1" t="s">
-        <v>446</v>
+        <v>2</v>
       </c>
       <c r="D2037" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J2037" s="1" t="s">
-        <v>177</v>
+        <v>1538</v>
       </c>
       <c r="O2037" s="1" t="s">
-        <v>4552</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="2038" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2038" s="1" t="s">
-        <v>4553</v>
+        <v>4562</v>
       </c>
       <c r="B2038" s="1" t="s">
-        <v>4554</v>
+        <v>4560</v>
       </c>
       <c r="C2038" s="1" t="s">
         <v>2</v>
@@ -60165,118 +60240,118 @@
         <v>1538</v>
       </c>
       <c r="O2038" s="1" t="s">
-        <v>4555</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="2039" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2039" s="1" t="s">
-        <v>4556</v>
+        <v>4564</v>
       </c>
       <c r="B2039" s="1" t="s">
-        <v>4557</v>
+        <v>4565</v>
       </c>
       <c r="C2039" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D2039" s="1" t="s">
-        <v>567</v>
+        <v>348</v>
+      </c>
+      <c r="E2039" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2039" s="1" t="s">
+        <v>1177</v>
       </c>
       <c r="J2039" s="1" t="s">
-        <v>62</v>
+        <v>609</v>
       </c>
       <c r="K2039" s="1" t="s">
-        <v>4078</v>
+        <v>1723</v>
       </c>
       <c r="O2039" s="1" t="s">
-        <v>4558</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="2040" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2040" s="1" t="s">
-        <v>4559</v>
+        <v>4567</v>
       </c>
       <c r="B2040" s="1" t="s">
-        <v>4560</v>
+        <v>4565</v>
       </c>
       <c r="C2040" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2040" s="1" t="s">
-        <v>158</v>
+        <v>348</v>
+      </c>
+      <c r="E2040" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2040" s="1" t="s">
+        <v>1177</v>
       </c>
       <c r="J2040" s="1" t="s">
-        <v>1538</v>
+        <v>609</v>
+      </c>
+      <c r="K2040" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O2040" s="1" t="s">
-        <v>4561</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="2041" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2041" s="1" t="s">
-        <v>4562</v>
+        <v>4569</v>
       </c>
       <c r="B2041" s="1" t="s">
-        <v>4560</v>
+        <v>4570</v>
       </c>
       <c r="C2041" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2041" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J2041" s="1" t="s">
-        <v>1538</v>
+        <v>364</v>
       </c>
       <c r="O2041" s="1" t="s">
-        <v>4563</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="2042" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2042" s="1" t="s">
-        <v>4564</v>
+        <v>4572</v>
       </c>
       <c r="B2042" s="1" t="s">
-        <v>4565</v>
+        <v>4570</v>
       </c>
       <c r="C2042" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D2042" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E2042" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F2042" s="1" t="s">
-        <v>1177</v>
+        <v>158</v>
       </c>
       <c r="J2042" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K2042" s="1" t="s">
-        <v>1723</v>
+        <v>364</v>
       </c>
       <c r="O2042" s="1" t="s">
-        <v>4566</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="2043" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2043" s="1" t="s">
-        <v>4567</v>
+        <v>4574</v>
       </c>
       <c r="B2043" s="1" t="s">
-        <v>4565</v>
+        <v>4570</v>
       </c>
       <c r="C2043" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D2043" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E2043" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F2043" s="1" t="s">
         <v>1177</v>
       </c>
       <c r="J2043" s="1" t="s">
@@ -60286,12 +60361,12 @@
         <v>1723</v>
       </c>
       <c r="O2043" s="1" t="s">
-        <v>4568</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="2044" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2044" s="1" t="s">
-        <v>4569</v>
+        <v>4576</v>
       </c>
       <c r="B2044" s="1" t="s">
         <v>4570</v>
@@ -60300,18 +60375,21 @@
         <v>348</v>
       </c>
       <c r="D2044" s="1" t="s">
-        <v>158</v>
+        <v>1177</v>
       </c>
       <c r="J2044" s="1" t="s">
-        <v>364</v>
+        <v>609</v>
+      </c>
+      <c r="K2044" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O2044" s="1" t="s">
-        <v>4571</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="2045" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2045" s="1" t="s">
-        <v>4572</v>
+        <v>4578</v>
       </c>
       <c r="B2045" s="1" t="s">
         <v>4570</v>
@@ -60320,18 +60398,21 @@
         <v>348</v>
       </c>
       <c r="D2045" s="1" t="s">
-        <v>158</v>
+        <v>1177</v>
       </c>
       <c r="J2045" s="1" t="s">
-        <v>364</v>
+        <v>609</v>
+      </c>
+      <c r="K2045" s="1" t="s">
+        <v>1723</v>
       </c>
       <c r="O2045" s="1" t="s">
-        <v>4573</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="2046" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2046" s="1" t="s">
-        <v>4574</v>
+        <v>4580</v>
       </c>
       <c r="B2046" s="1" t="s">
         <v>4570</v>
@@ -60349,12 +60430,12 @@
         <v>1723</v>
       </c>
       <c r="O2046" s="1" t="s">
-        <v>4575</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="2047" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2047" s="1" t="s">
-        <v>4576</v>
+        <v>4582</v>
       </c>
       <c r="B2047" s="1" t="s">
         <v>4570</v>
@@ -60372,12 +60453,12 @@
         <v>1723</v>
       </c>
       <c r="O2047" s="1" t="s">
-        <v>4577</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="2048" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2048" s="1" t="s">
-        <v>4578</v>
+        <v>4584</v>
       </c>
       <c r="B2048" s="1" t="s">
         <v>4570</v>
@@ -60395,12 +60476,12 @@
         <v>1723</v>
       </c>
       <c r="O2048" s="1" t="s">
-        <v>4579</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="2049" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2049" s="1" t="s">
-        <v>4580</v>
+        <v>4586</v>
       </c>
       <c r="B2049" s="1" t="s">
         <v>4570</v>
@@ -60418,12 +60499,12 @@
         <v>1723</v>
       </c>
       <c r="O2049" s="1" t="s">
-        <v>4581</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="2050" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2050" s="1" t="s">
-        <v>4582</v>
+        <v>4588</v>
       </c>
       <c r="B2050" s="1" t="s">
         <v>4570</v>
@@ -60441,12 +60522,12 @@
         <v>1723</v>
       </c>
       <c r="O2050" s="1" t="s">
-        <v>4583</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="2051" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2051" s="1" t="s">
-        <v>4584</v>
+        <v>4590</v>
       </c>
       <c r="B2051" s="1" t="s">
         <v>4570</v>
@@ -60464,12 +60545,12 @@
         <v>1723</v>
       </c>
       <c r="O2051" s="1" t="s">
-        <v>4585</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="2052" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2052" s="1" t="s">
-        <v>4586</v>
+        <v>4592</v>
       </c>
       <c r="B2052" s="1" t="s">
         <v>4570</v>
@@ -60487,12 +60568,12 @@
         <v>1723</v>
       </c>
       <c r="O2052" s="1" t="s">
-        <v>4587</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="2053" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2053" s="1" t="s">
-        <v>4588</v>
+        <v>4594</v>
       </c>
       <c r="B2053" s="1" t="s">
         <v>4570</v>
@@ -60510,12 +60591,12 @@
         <v>1723</v>
       </c>
       <c r="O2053" s="1" t="s">
-        <v>4589</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="2054" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2054" s="1" t="s">
-        <v>4590</v>
+        <v>4596</v>
       </c>
       <c r="B2054" s="1" t="s">
         <v>4570</v>
@@ -60533,12 +60614,12 @@
         <v>1723</v>
       </c>
       <c r="O2054" s="1" t="s">
-        <v>4591</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="2055" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2055" s="1" t="s">
-        <v>4592</v>
+        <v>4598</v>
       </c>
       <c r="B2055" s="1" t="s">
         <v>4570</v>
@@ -60556,12 +60637,12 @@
         <v>1723</v>
       </c>
       <c r="O2055" s="1" t="s">
-        <v>4593</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="2056" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2056" s="1" t="s">
-        <v>4594</v>
+        <v>4600</v>
       </c>
       <c r="B2056" s="1" t="s">
         <v>4570</v>
@@ -60579,12 +60660,12 @@
         <v>1723</v>
       </c>
       <c r="O2056" s="1" t="s">
-        <v>4595</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="2057" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2057" s="1" t="s">
-        <v>4596</v>
+        <v>4602</v>
       </c>
       <c r="B2057" s="1" t="s">
         <v>4570</v>
@@ -60602,12 +60683,12 @@
         <v>1723</v>
       </c>
       <c r="O2057" s="1" t="s">
-        <v>4597</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="2058" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2058" s="1" t="s">
-        <v>4598</v>
+        <v>4604</v>
       </c>
       <c r="B2058" s="1" t="s">
         <v>4570</v>
@@ -60625,12 +60706,12 @@
         <v>1723</v>
       </c>
       <c r="O2058" s="1" t="s">
-        <v>4599</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="2059" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2059" s="1" t="s">
-        <v>4600</v>
+        <v>4606</v>
       </c>
       <c r="B2059" s="1" t="s">
         <v>4570</v>
@@ -60648,12 +60729,12 @@
         <v>1723</v>
       </c>
       <c r="O2059" s="1" t="s">
-        <v>4601</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="2060" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2060" s="1" t="s">
-        <v>4602</v>
+        <v>4608</v>
       </c>
       <c r="B2060" s="1" t="s">
         <v>4570</v>
@@ -60671,12 +60752,12 @@
         <v>1723</v>
       </c>
       <c r="O2060" s="1" t="s">
-        <v>4603</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="2061" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2061" s="1" t="s">
-        <v>4604</v>
+        <v>4610</v>
       </c>
       <c r="B2061" s="1" t="s">
         <v>4570</v>
@@ -60694,12 +60775,12 @@
         <v>1723</v>
       </c>
       <c r="O2061" s="1" t="s">
-        <v>4605</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="2062" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2062" s="1" t="s">
-        <v>4606</v>
+        <v>4612</v>
       </c>
       <c r="B2062" s="1" t="s">
         <v>4570</v>
@@ -60717,12 +60798,12 @@
         <v>1723</v>
       </c>
       <c r="O2062" s="1" t="s">
-        <v>4607</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="2063" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2063" s="1" t="s">
-        <v>4608</v>
+        <v>4614</v>
       </c>
       <c r="B2063" s="1" t="s">
         <v>4570</v>
@@ -60730,22 +60811,16 @@
       <c r="C2063" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D2063" s="1" t="s">
-        <v>1177</v>
-      </c>
       <c r="J2063" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K2063" s="1" t="s">
-        <v>1723</v>
+        <v>1925</v>
       </c>
       <c r="O2063" s="1" t="s">
-        <v>4609</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="2064" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2064" s="1" t="s">
-        <v>4610</v>
+        <v>4616</v>
       </c>
       <c r="B2064" s="1" t="s">
         <v>4570</v>
@@ -60763,75 +60838,81 @@
         <v>1723</v>
       </c>
       <c r="O2064" s="1" t="s">
-        <v>4611</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="2065" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2065" s="1" t="s">
-        <v>4612</v>
+        <v>4618</v>
       </c>
       <c r="B2065" s="1" t="s">
-        <v>4570</v>
+        <v>4619</v>
       </c>
       <c r="C2065" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D2065" s="1" t="s">
-        <v>1177</v>
+        <v>2</v>
       </c>
       <c r="J2065" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K2065" s="1" t="s">
-        <v>1723</v>
+        <v>2692</v>
       </c>
       <c r="O2065" s="1" t="s">
-        <v>4613</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="2066" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2066" s="1" t="s">
-        <v>4614</v>
+        <v>4621</v>
       </c>
       <c r="B2066" s="1" t="s">
-        <v>4570</v>
+        <v>4619</v>
       </c>
       <c r="C2066" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D2066" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="J2066" s="1" t="s">
-        <v>1925</v>
+        <v>609</v>
+      </c>
+      <c r="K2066" s="1" t="s">
+        <v>2692</v>
       </c>
       <c r="O2066" s="1" t="s">
-        <v>4615</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="2067" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2067" s="1" t="s">
-        <v>4616</v>
+        <v>4623</v>
       </c>
       <c r="B2067" s="1" t="s">
-        <v>4570</v>
+        <v>4619</v>
       </c>
       <c r="C2067" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D2067" s="1" t="s">
-        <v>1177</v>
+        <v>2</v>
       </c>
       <c r="J2067" s="1" t="s">
         <v>609</v>
       </c>
       <c r="K2067" s="1" t="s">
-        <v>1723</v>
+        <v>2692</v>
       </c>
       <c r="O2067" s="1" t="s">
-        <v>4617</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="2068" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2068" s="1" t="s">
-        <v>4618</v>
+        <v>4625</v>
       </c>
       <c r="B2068" s="1" t="s">
         <v>4619</v>
@@ -60849,87 +60930,78 @@
         <v>2692</v>
       </c>
       <c r="O2068" s="1" t="s">
-        <v>4620</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="2069" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2069" s="1" t="s">
-        <v>4621</v>
+        <v>4627</v>
       </c>
       <c r="B2069" s="1" t="s">
-        <v>4619</v>
+        <v>4628</v>
       </c>
       <c r="C2069" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D2069" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J2069" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K2069" s="1" t="s">
-        <v>2692</v>
+        <v>4629</v>
       </c>
       <c r="O2069" s="1" t="s">
-        <v>4622</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="2070" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2070" s="1" t="s">
-        <v>4623</v>
+        <v>4631</v>
       </c>
       <c r="B2070" s="1" t="s">
-        <v>4619</v>
+        <v>4628</v>
       </c>
       <c r="C2070" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D2070" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J2070" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K2070" s="1" t="s">
-        <v>2692</v>
+        <v>4629</v>
       </c>
       <c r="O2070" s="1" t="s">
-        <v>4624</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="2071" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2071" s="1" t="s">
-        <v>4625</v>
+        <v>4633</v>
       </c>
       <c r="B2071" s="1" t="s">
-        <v>4619</v>
+        <v>4634</v>
       </c>
       <c r="C2071" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D2071" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J2071" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K2071" s="1" t="s">
-        <v>2692</v>
+        <v>1640</v>
       </c>
       <c r="O2071" s="1" t="s">
-        <v>4626</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="2072" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2072" s="1" t="s">
-        <v>4627</v>
+        <v>4636</v>
       </c>
       <c r="B2072" s="1" t="s">
-        <v>4628</v>
+        <v>4634</v>
       </c>
       <c r="C2072" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D2072" s="1" t="s">
         <v>158</v>
@@ -60938,15 +61010,15 @@
         <v>4629</v>
       </c>
       <c r="O2072" s="1" t="s">
-        <v>4630</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="2073" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2073" s="1" t="s">
-        <v>4631</v>
+        <v>4638</v>
       </c>
       <c r="B2073" s="1" t="s">
-        <v>4628</v>
+        <v>4639</v>
       </c>
       <c r="C2073" s="1" t="s">
         <v>348</v>
@@ -60955,21 +61027,21 @@
         <v>158</v>
       </c>
       <c r="J2073" s="1" t="s">
-        <v>4629</v>
+        <v>1640</v>
       </c>
       <c r="O2073" s="1" t="s">
-        <v>4632</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="2074" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2074" s="1" t="s">
-        <v>4633</v>
+        <v>4641</v>
       </c>
       <c r="B2074" s="1" t="s">
-        <v>4634</v>
+        <v>4639</v>
       </c>
       <c r="C2074" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2074" s="1" t="s">
         <v>158</v>
@@ -60978,32 +61050,32 @@
         <v>1640</v>
       </c>
       <c r="O2074" s="1" t="s">
-        <v>4635</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="2075" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2075" s="1" t="s">
-        <v>4636</v>
+        <v>4643</v>
       </c>
       <c r="B2075" s="1" t="s">
-        <v>4634</v>
+        <v>4639</v>
       </c>
       <c r="C2075" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2075" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J2075" s="1" t="s">
-        <v>4629</v>
+        <v>1640</v>
       </c>
       <c r="O2075" s="1" t="s">
-        <v>4637</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="2076" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2076" s="1" t="s">
-        <v>4638</v>
+        <v>4645</v>
       </c>
       <c r="B2076" s="1" t="s">
         <v>4639</v>
@@ -61018,12 +61090,12 @@
         <v>1640</v>
       </c>
       <c r="O2076" s="1" t="s">
-        <v>4640</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="2077" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2077" s="1" t="s">
-        <v>4641</v>
+        <v>4647</v>
       </c>
       <c r="B2077" s="1" t="s">
         <v>4639</v>
@@ -61038,12 +61110,12 @@
         <v>1640</v>
       </c>
       <c r="O2077" s="1" t="s">
-        <v>4642</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="2078" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2078" s="1" t="s">
-        <v>4643</v>
+        <v>4649</v>
       </c>
       <c r="B2078" s="1" t="s">
         <v>4639</v>
@@ -61058,12 +61130,12 @@
         <v>1640</v>
       </c>
       <c r="O2078" s="1" t="s">
-        <v>4644</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="2079" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2079" s="1" t="s">
-        <v>4645</v>
+        <v>4651</v>
       </c>
       <c r="B2079" s="1" t="s">
         <v>4639</v>
@@ -61078,12 +61150,12 @@
         <v>1640</v>
       </c>
       <c r="O2079" s="1" t="s">
-        <v>4646</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="2080" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2080" s="1" t="s">
-        <v>4647</v>
+        <v>4653</v>
       </c>
       <c r="B2080" s="1" t="s">
         <v>4639</v>
@@ -61098,12 +61170,12 @@
         <v>1640</v>
       </c>
       <c r="O2080" s="1" t="s">
-        <v>4648</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="2081" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2081" s="1" t="s">
-        <v>4649</v>
+        <v>4655</v>
       </c>
       <c r="B2081" s="1" t="s">
         <v>4639</v>
@@ -61118,12 +61190,12 @@
         <v>1640</v>
       </c>
       <c r="O2081" s="1" t="s">
-        <v>4650</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="2082" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2082" s="1" t="s">
-        <v>4651</v>
+        <v>4657</v>
       </c>
       <c r="B2082" s="1" t="s">
         <v>4639</v>
@@ -61138,12 +61210,12 @@
         <v>1640</v>
       </c>
       <c r="O2082" s="1" t="s">
-        <v>4652</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="2083" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2083" s="1" t="s">
-        <v>4653</v>
+        <v>4659</v>
       </c>
       <c r="B2083" s="1" t="s">
         <v>4639</v>
@@ -61158,12 +61230,12 @@
         <v>1640</v>
       </c>
       <c r="O2083" s="1" t="s">
-        <v>4654</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="2084" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2084" s="1" t="s">
-        <v>4655</v>
+        <v>4661</v>
       </c>
       <c r="B2084" s="1" t="s">
         <v>4639</v>
@@ -61178,18 +61250,18 @@
         <v>1640</v>
       </c>
       <c r="O2084" s="1" t="s">
-        <v>4656</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="2085" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2085" s="1" t="s">
-        <v>4657</v>
+        <v>4663</v>
       </c>
       <c r="B2085" s="1" t="s">
-        <v>4639</v>
+        <v>4664</v>
       </c>
       <c r="C2085" s="1" t="s">
-        <v>348</v>
+        <v>2297</v>
       </c>
       <c r="D2085" s="1" t="s">
         <v>158</v>
@@ -61198,18 +61270,18 @@
         <v>1640</v>
       </c>
       <c r="O2085" s="1" t="s">
-        <v>4658</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="2086" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2086" s="1" t="s">
-        <v>4659</v>
+        <v>4666</v>
       </c>
       <c r="B2086" s="1" t="s">
-        <v>4639</v>
+        <v>4664</v>
       </c>
       <c r="C2086" s="1" t="s">
-        <v>348</v>
+        <v>2297</v>
       </c>
       <c r="D2086" s="1" t="s">
         <v>158</v>
@@ -61218,72 +61290,63 @@
         <v>1640</v>
       </c>
       <c r="O2086" s="1" t="s">
-        <v>4660</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="2087" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2087" s="1" t="s">
-        <v>4661</v>
+        <v>4668</v>
       </c>
       <c r="B2087" s="1" t="s">
-        <v>4639</v>
+        <v>4669</v>
       </c>
       <c r="C2087" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2087" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J2087" s="1" t="s">
-        <v>1640</v>
+        <v>62</v>
       </c>
       <c r="O2087" s="1" t="s">
-        <v>4662</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="2088" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2088" s="1" t="s">
-        <v>4663</v>
+        <v>4671</v>
       </c>
       <c r="B2088" s="1" t="s">
-        <v>4664</v>
+        <v>4669</v>
       </c>
       <c r="C2088" s="1" t="s">
-        <v>2297</v>
-      </c>
-      <c r="D2088" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J2088" s="1" t="s">
-        <v>1640</v>
+        <v>62</v>
       </c>
       <c r="O2088" s="1" t="s">
-        <v>4665</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="2089" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2089" s="1" t="s">
-        <v>4666</v>
+        <v>4673</v>
       </c>
       <c r="B2089" s="1" t="s">
-        <v>4664</v>
+        <v>4669</v>
       </c>
       <c r="C2089" s="1" t="s">
-        <v>2297</v>
-      </c>
-      <c r="D2089" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J2089" s="1" t="s">
-        <v>1640</v>
+        <v>62</v>
       </c>
       <c r="O2089" s="1" t="s">
-        <v>4667</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="2090" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2090" s="1" t="s">
-        <v>4668</v>
+        <v>4675</v>
       </c>
       <c r="B2090" s="1" t="s">
         <v>4669</v>
@@ -61295,12 +61358,12 @@
         <v>62</v>
       </c>
       <c r="O2090" s="1" t="s">
-        <v>4670</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="2091" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2091" s="1" t="s">
-        <v>4671</v>
+        <v>4677</v>
       </c>
       <c r="B2091" s="1" t="s">
         <v>4669</v>
@@ -61312,12 +61375,12 @@
         <v>62</v>
       </c>
       <c r="O2091" s="1" t="s">
-        <v>4672</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="2092" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2092" s="1" t="s">
-        <v>4673</v>
+        <v>4679</v>
       </c>
       <c r="B2092" s="1" t="s">
         <v>4669</v>
@@ -61329,12 +61392,12 @@
         <v>62</v>
       </c>
       <c r="O2092" s="1" t="s">
-        <v>4674</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="2093" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2093" s="1" t="s">
-        <v>4675</v>
+        <v>4681</v>
       </c>
       <c r="B2093" s="1" t="s">
         <v>4669</v>
@@ -61346,12 +61409,12 @@
         <v>62</v>
       </c>
       <c r="O2093" s="1" t="s">
-        <v>4676</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="2094" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2094" s="1" t="s">
-        <v>4677</v>
+        <v>4683</v>
       </c>
       <c r="B2094" s="1" t="s">
         <v>4669</v>
@@ -61360,18 +61423,18 @@
         <v>2</v>
       </c>
       <c r="J2094" s="1" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="O2094" s="1" t="s">
-        <v>4678</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="2095" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2095" s="1" t="s">
-        <v>4679</v>
+        <v>4685</v>
       </c>
       <c r="B2095" s="1" t="s">
-        <v>4669</v>
+        <v>4686</v>
       </c>
       <c r="C2095" s="1" t="s">
         <v>2</v>
@@ -61380,15 +61443,15 @@
         <v>62</v>
       </c>
       <c r="O2095" s="1" t="s">
-        <v>4680</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="2096" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2096" s="1" t="s">
-        <v>4681</v>
+        <v>4688</v>
       </c>
       <c r="B2096" s="1" t="s">
-        <v>4669</v>
+        <v>4686</v>
       </c>
       <c r="C2096" s="1" t="s">
         <v>2</v>
@@ -61397,63 +61460,72 @@
         <v>62</v>
       </c>
       <c r="O2096" s="1" t="s">
-        <v>4682</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="2097" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2097" s="1" t="s">
-        <v>4683</v>
+        <v>4690</v>
       </c>
       <c r="B2097" s="1" t="s">
-        <v>4669</v>
+        <v>4691</v>
       </c>
       <c r="C2097" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2097" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="J2097" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="O2097" s="1" t="s">
-        <v>4684</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="2098" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2098" s="1" t="s">
-        <v>4685</v>
+        <v>4693</v>
       </c>
       <c r="B2098" s="1" t="s">
-        <v>4686</v>
+        <v>4691</v>
       </c>
       <c r="C2098" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2098" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2098" s="1" t="s">
         <v>62</v>
       </c>
       <c r="O2098" s="1" t="s">
-        <v>4687</v>
+        <v>4694</v>
       </c>
     </row>
     <row r="2099" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2099" s="1" t="s">
-        <v>4688</v>
+        <v>4695</v>
       </c>
       <c r="B2099" s="1" t="s">
-        <v>4686</v>
+        <v>4691</v>
       </c>
       <c r="C2099" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2099" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2099" s="1" t="s">
         <v>62</v>
       </c>
       <c r="O2099" s="1" t="s">
-        <v>4689</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="2100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2100" s="1" t="s">
-        <v>4690</v>
+        <v>4697</v>
       </c>
       <c r="B2100" s="1" t="s">
         <v>4691</v>
@@ -61468,15 +61540,15 @@
         <v>62</v>
       </c>
       <c r="O2100" s="1" t="s">
-        <v>4692</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="2101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2101" s="1" t="s">
-        <v>4693</v>
+        <v>4699</v>
       </c>
       <c r="B2101" s="1" t="s">
-        <v>4691</v>
+        <v>4700</v>
       </c>
       <c r="C2101" s="1" t="s">
         <v>2</v>
@@ -61488,15 +61560,15 @@
         <v>62</v>
       </c>
       <c r="O2101" s="1" t="s">
-        <v>4694</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="2102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2102" s="1" t="s">
-        <v>4695</v>
+        <v>4702</v>
       </c>
       <c r="B2102" s="1" t="s">
-        <v>4691</v>
+        <v>4700</v>
       </c>
       <c r="C2102" s="1" t="s">
         <v>2</v>
@@ -61508,15 +61580,15 @@
         <v>62</v>
       </c>
       <c r="O2102" s="1" t="s">
-        <v>4696</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="2103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2103" s="1" t="s">
-        <v>4697</v>
+        <v>4704</v>
       </c>
       <c r="B2103" s="1" t="s">
-        <v>4691</v>
+        <v>4705</v>
       </c>
       <c r="C2103" s="1" t="s">
         <v>2</v>
@@ -61528,15 +61600,15 @@
         <v>62</v>
       </c>
       <c r="O2103" s="1" t="s">
-        <v>4698</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="2104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2104" s="1" t="s">
-        <v>4699</v>
+        <v>4707</v>
       </c>
       <c r="B2104" s="1" t="s">
-        <v>4700</v>
+        <v>4705</v>
       </c>
       <c r="C2104" s="1" t="s">
         <v>2</v>
@@ -61548,135 +61620,132 @@
         <v>62</v>
       </c>
       <c r="O2104" s="1" t="s">
-        <v>4701</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="2105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2105" s="1" t="s">
-        <v>4702</v>
+        <v>4709</v>
       </c>
       <c r="B2105" s="1" t="s">
-        <v>4700</v>
+        <v>4710</v>
       </c>
       <c r="C2105" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2105" s="1" t="s">
-        <v>2</v>
+        <v>567</v>
       </c>
       <c r="J2105" s="1" t="s">
-        <v>62</v>
+        <v>383</v>
+      </c>
+      <c r="K2105" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O2105" s="1" t="s">
-        <v>4703</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="2106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2106" s="1" t="s">
-        <v>4704</v>
+        <v>4712</v>
       </c>
       <c r="B2106" s="1" t="s">
-        <v>4705</v>
+        <v>4713</v>
       </c>
       <c r="C2106" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2106" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2106" s="1" t="s">
-        <v>62</v>
+        <v>383</v>
+      </c>
+      <c r="K2106" s="1" t="s">
+        <v>1534</v>
       </c>
       <c r="O2106" s="1" t="s">
-        <v>4706</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="2107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2107" s="1" t="s">
-        <v>4707</v>
+        <v>4715</v>
       </c>
       <c r="B2107" s="1" t="s">
-        <v>4705</v>
+        <v>4710</v>
       </c>
       <c r="C2107" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2107" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="J2107" s="1" t="s">
-        <v>62</v>
+        <v>1925</v>
       </c>
       <c r="O2107" s="1" t="s">
-        <v>4708</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="2108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2108" s="1" t="s">
-        <v>4709</v>
+        <v>4717</v>
       </c>
       <c r="B2108" s="1" t="s">
-        <v>4710</v>
+        <v>4718</v>
       </c>
       <c r="C2108" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D2108" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="J2108" s="1" t="s">
-        <v>383</v>
+        <v>177</v>
       </c>
       <c r="K2108" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O2108" s="1" t="s">
-        <v>4711</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="2109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2109" s="1" t="s">
-        <v>4712</v>
+        <v>4720</v>
       </c>
       <c r="B2109" s="1" t="s">
-        <v>4713</v>
+        <v>4718</v>
       </c>
       <c r="C2109" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D2109" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="J2109" s="1" t="s">
-        <v>383</v>
+        <v>177</v>
       </c>
       <c r="K2109" s="1" t="s">
-        <v>1534</v>
+        <v>1925</v>
       </c>
       <c r="O2109" s="1" t="s">
-        <v>4714</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="2110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2110" s="1" t="s">
-        <v>4715</v>
+        <v>4722</v>
       </c>
       <c r="B2110" s="1" t="s">
-        <v>4710</v>
+        <v>4718</v>
       </c>
       <c r="C2110" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J2110" s="1" t="s">
-        <v>1925</v>
+        <v>1723</v>
       </c>
       <c r="O2110" s="1" t="s">
-        <v>4716</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="2111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2111" s="1" t="s">
-        <v>4717</v>
+        <v>4724</v>
       </c>
       <c r="B2111" s="1" t="s">
         <v>4718</v>
@@ -61685,132 +61754,141 @@
         <v>348</v>
       </c>
       <c r="J2111" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2111" s="1" t="s">
-        <v>1925</v>
+        <v>1723</v>
       </c>
       <c r="O2111" s="1" t="s">
-        <v>4719</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="2112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2112" s="1" t="s">
-        <v>4720</v>
+        <v>4726</v>
       </c>
       <c r="B2112" s="1" t="s">
-        <v>4718</v>
+        <v>4727</v>
       </c>
       <c r="C2112" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J2112" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2112" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O2112" s="1" t="s">
-        <v>4721</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="2113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2113" s="1" t="s">
-        <v>4722</v>
+        <v>4729</v>
       </c>
       <c r="B2113" s="1" t="s">
-        <v>4718</v>
+        <v>4730</v>
       </c>
       <c r="C2113" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
+      </c>
+      <c r="D2113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2113" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="J2113" s="1" t="s">
-        <v>1723</v>
+        <v>364</v>
+      </c>
+      <c r="K2113" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O2113" s="1" t="s">
-        <v>4723</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="2114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2114" s="1" t="s">
-        <v>4724</v>
+        <v>4732</v>
       </c>
       <c r="B2114" s="1" t="s">
-        <v>4718</v>
+        <v>4733</v>
       </c>
       <c r="C2114" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="J2114" s="1" t="s">
-        <v>1723</v>
+        <v>62</v>
       </c>
       <c r="O2114" s="1" t="s">
-        <v>4725</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="2115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2115" s="1" t="s">
-        <v>4726</v>
+        <v>4735</v>
       </c>
       <c r="B2115" s="1" t="s">
-        <v>4727</v>
+        <v>4736</v>
       </c>
       <c r="C2115" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D2115" s="1" t="s">
+        <v>4737</v>
+      </c>
       <c r="J2115" s="1" t="s">
-        <v>1925</v>
+        <v>364</v>
+      </c>
+      <c r="K2115" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="O2115" s="1" t="s">
-        <v>4728</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="2116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2116" s="1" t="s">
-        <v>4729</v>
+        <v>4739</v>
       </c>
       <c r="B2116" s="1" t="s">
-        <v>4730</v>
+        <v>4736</v>
       </c>
       <c r="C2116" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2116" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2116" s="1" t="s">
-        <v>2</v>
+        <v>4737</v>
       </c>
       <c r="J2116" s="1" t="s">
         <v>364</v>
       </c>
       <c r="K2116" s="1" t="s">
-        <v>1925</v>
+        <v>383</v>
       </c>
       <c r="O2116" s="1" t="s">
-        <v>4731</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="2117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2117" s="1" t="s">
-        <v>4732</v>
+        <v>4741</v>
       </c>
       <c r="B2117" s="1" t="s">
-        <v>4733</v>
+        <v>4736</v>
       </c>
       <c r="C2117" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
+      </c>
+      <c r="D2117" s="1" t="s">
+        <v>4737</v>
       </c>
       <c r="J2117" s="1" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="O2117" s="1" t="s">
-        <v>4734</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="2118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2118" s="1" t="s">
-        <v>4735</v>
+        <v>4743</v>
       </c>
       <c r="B2118" s="1" t="s">
         <v>4736</v>
@@ -61822,18 +61900,15 @@
         <v>4737</v>
       </c>
       <c r="J2118" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K2118" s="1" t="s">
-        <v>383</v>
+        <v>85</v>
       </c>
       <c r="O2118" s="1" t="s">
-        <v>4738</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="2119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2119" s="1" t="s">
-        <v>4739</v>
+        <v>4745</v>
       </c>
       <c r="B2119" s="1" t="s">
         <v>4736</v>
@@ -61845,18 +61920,15 @@
         <v>4737</v>
       </c>
       <c r="J2119" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K2119" s="1" t="s">
-        <v>383</v>
+        <v>85</v>
       </c>
       <c r="O2119" s="1" t="s">
-        <v>4740</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="2120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2120" s="1" t="s">
-        <v>4741</v>
+        <v>4747</v>
       </c>
       <c r="B2120" s="1" t="s">
         <v>4736</v>
@@ -61871,12 +61943,12 @@
         <v>85</v>
       </c>
       <c r="O2120" s="1" t="s">
-        <v>4742</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="2121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2121" s="1" t="s">
-        <v>4743</v>
+        <v>4749</v>
       </c>
       <c r="B2121" s="1" t="s">
         <v>4736</v>
@@ -61884,19 +61956,16 @@
       <c r="C2121" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D2121" s="1" t="s">
-        <v>4737</v>
-      </c>
       <c r="J2121" s="1" t="s">
         <v>85</v>
       </c>
       <c r="O2121" s="1" t="s">
-        <v>4744</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="2122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2122" s="1" t="s">
-        <v>4745</v>
+        <v>4751</v>
       </c>
       <c r="B2122" s="1" t="s">
         <v>4736</v>
@@ -61911,12 +61980,12 @@
         <v>85</v>
       </c>
       <c r="O2122" s="1" t="s">
-        <v>4746</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="2123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2123" s="1" t="s">
-        <v>4747</v>
+        <v>4753</v>
       </c>
       <c r="B2123" s="1" t="s">
         <v>4736</v>
@@ -61931,12 +62000,12 @@
         <v>85</v>
       </c>
       <c r="O2123" s="1" t="s">
-        <v>4748</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="2124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2124" s="1" t="s">
-        <v>4749</v>
+        <v>4755</v>
       </c>
       <c r="B2124" s="1" t="s">
         <v>4736</v>
@@ -61948,12 +62017,12 @@
         <v>85</v>
       </c>
       <c r="O2124" s="1" t="s">
-        <v>4750</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="2125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2125" s="1" t="s">
-        <v>4751</v>
+        <v>4757</v>
       </c>
       <c r="B2125" s="1" t="s">
         <v>4736</v>
@@ -61961,19 +62030,16 @@
       <c r="C2125" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D2125" s="1" t="s">
-        <v>4737</v>
-      </c>
       <c r="J2125" s="1" t="s">
         <v>85</v>
       </c>
       <c r="O2125" s="1" t="s">
-        <v>4752</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="2126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2126" s="1" t="s">
-        <v>4753</v>
+        <v>4759</v>
       </c>
       <c r="B2126" s="1" t="s">
         <v>4736</v>
@@ -61981,236 +62047,233 @@
       <c r="C2126" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D2126" s="1" t="s">
-        <v>4737</v>
-      </c>
       <c r="J2126" s="1" t="s">
         <v>85</v>
       </c>
       <c r="O2126" s="1" t="s">
-        <v>4754</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="2127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2127" s="1" t="s">
-        <v>4755</v>
+        <v>4761</v>
       </c>
       <c r="B2127" s="1" t="s">
-        <v>4736</v>
+        <v>4762</v>
       </c>
       <c r="C2127" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J2127" s="1" t="s">
-        <v>85</v>
+        <v>1925</v>
       </c>
       <c r="O2127" s="1" t="s">
-        <v>4756</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="2128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2128" s="1" t="s">
-        <v>4757</v>
+        <v>4764</v>
       </c>
       <c r="B2128" s="1" t="s">
-        <v>4736</v>
+        <v>4765</v>
       </c>
       <c r="C2128" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J2128" s="1" t="s">
-        <v>85</v>
+        <v>1925</v>
       </c>
       <c r="O2128" s="1" t="s">
-        <v>4758</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="2129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2129" s="1" t="s">
-        <v>4759</v>
+        <v>4767</v>
       </c>
       <c r="B2129" s="1" t="s">
-        <v>4736</v>
+        <v>4768</v>
       </c>
       <c r="C2129" s="1" t="s">
-        <v>348</v>
+        <v>1340</v>
       </c>
       <c r="J2129" s="1" t="s">
-        <v>85</v>
+        <v>364</v>
       </c>
       <c r="O2129" s="1" t="s">
-        <v>4760</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="2130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2130" s="1" t="s">
-        <v>4761</v>
+        <v>4770</v>
       </c>
       <c r="B2130" s="1" t="s">
-        <v>4762</v>
+        <v>4771</v>
       </c>
       <c r="C2130" s="1" t="s">
         <v>348</v>
       </c>
       <c r="J2130" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2130" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O2130" s="1" t="s">
-        <v>4763</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="2131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2131" s="1" t="s">
-        <v>4764</v>
+        <v>4773</v>
       </c>
       <c r="B2131" s="1" t="s">
-        <v>4765</v>
+        <v>4771</v>
       </c>
       <c r="C2131" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D2131" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="J2131" s="1" t="s">
+        <v>4774</v>
+      </c>
+      <c r="K2131" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O2131" s="1" t="s">
-        <v>4766</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="2132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2132" s="1" t="s">
-        <v>4767</v>
+        <v>4776</v>
       </c>
       <c r="B2132" s="1" t="s">
-        <v>4768</v>
+        <v>4771</v>
       </c>
       <c r="C2132" s="1" t="s">
-        <v>1340</v>
+        <v>348</v>
+      </c>
+      <c r="D2132" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="J2132" s="1" t="s">
-        <v>364</v>
+        <v>4774</v>
+      </c>
+      <c r="K2132" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O2132" s="1" t="s">
-        <v>4769</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="2133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2133" s="1" t="s">
-        <v>4770</v>
+        <v>4778</v>
       </c>
       <c r="B2133" s="1" t="s">
-        <v>4771</v>
+        <v>4779</v>
       </c>
       <c r="C2133" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
+      </c>
+      <c r="D2133" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J2133" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2133" s="1" t="s">
-        <v>1925</v>
+        <v>364</v>
       </c>
       <c r="O2133" s="1" t="s">
-        <v>4772</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="2134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2134" s="1" t="s">
-        <v>4773</v>
+        <v>4781</v>
       </c>
       <c r="B2134" s="1" t="s">
-        <v>4771</v>
+        <v>4782</v>
       </c>
       <c r="C2134" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D2134" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
+      </c>
+      <c r="E2134" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2134" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J2134" s="1" t="s">
-        <v>4774</v>
+        <v>609</v>
       </c>
       <c r="K2134" s="1" t="s">
-        <v>1925</v>
+        <v>4783</v>
       </c>
       <c r="O2134" s="1" t="s">
-        <v>4775</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="2135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2135" s="1" t="s">
-        <v>4776</v>
+        <v>4785</v>
       </c>
       <c r="B2135" s="1" t="s">
-        <v>4771</v>
+        <v>4786</v>
       </c>
       <c r="C2135" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2135" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2135" s="1" t="s">
-        <v>4774</v>
-      </c>
-      <c r="K2135" s="1" t="s">
-        <v>1925</v>
+        <v>364</v>
       </c>
       <c r="O2135" s="1" t="s">
-        <v>4777</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="2136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2136" s="1" t="s">
-        <v>4778</v>
+        <v>4788</v>
       </c>
       <c r="B2136" s="1" t="s">
-        <v>4779</v>
+        <v>4786</v>
       </c>
       <c r="C2136" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D2136" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="J2136" s="1" t="s">
         <v>364</v>
       </c>
       <c r="O2136" s="1" t="s">
-        <v>4780</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="2137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2137" s="1" t="s">
-        <v>4781</v>
+        <v>4790</v>
       </c>
       <c r="B2137" s="1" t="s">
-        <v>4782</v>
+        <v>4786</v>
       </c>
       <c r="C2137" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2137" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2137" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2137" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J2137" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K2137" s="1" t="s">
-        <v>4783</v>
+        <v>364</v>
       </c>
       <c r="O2137" s="1" t="s">
-        <v>4784</v>
+        <v>4791</v>
       </c>
     </row>
     <row r="2138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2138" s="1" t="s">
-        <v>4785</v>
+        <v>4792</v>
       </c>
       <c r="B2138" s="1" t="s">
         <v>4786</v>
@@ -62222,63 +62285,72 @@
         <v>364</v>
       </c>
       <c r="O2138" s="1" t="s">
-        <v>4787</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="2139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2139" s="1" t="s">
-        <v>4788</v>
+        <v>4794</v>
       </c>
       <c r="B2139" s="1" t="s">
-        <v>4786</v>
+        <v>4795</v>
       </c>
       <c r="C2139" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2139" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2139" s="1" t="s">
-        <v>364</v>
+        <v>1538</v>
       </c>
       <c r="O2139" s="1" t="s">
-        <v>4789</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="2140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2140" s="1" t="s">
-        <v>4790</v>
+        <v>4797</v>
       </c>
       <c r="B2140" s="1" t="s">
-        <v>4786</v>
+        <v>4795</v>
       </c>
       <c r="C2140" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2140" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2140" s="1" t="s">
-        <v>364</v>
+        <v>1538</v>
       </c>
       <c r="O2140" s="1" t="s">
-        <v>4791</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="2141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2141" s="1" t="s">
-        <v>4792</v>
+        <v>4799</v>
       </c>
       <c r="B2141" s="1" t="s">
-        <v>4786</v>
+        <v>4795</v>
       </c>
       <c r="C2141" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2141" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2141" s="1" t="s">
-        <v>364</v>
+        <v>1538</v>
       </c>
       <c r="O2141" s="1" t="s">
-        <v>4793</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="2142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2142" s="1" t="s">
-        <v>4794</v>
+        <v>4801</v>
       </c>
       <c r="B2142" s="1" t="s">
         <v>4795</v>
@@ -62290,15 +62362,18 @@
         <v>158</v>
       </c>
       <c r="J2142" s="1" t="s">
-        <v>1538</v>
+        <v>609</v>
+      </c>
+      <c r="K2142" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O2142" s="1" t="s">
-        <v>4796</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="2143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2143" s="1" t="s">
-        <v>4797</v>
+        <v>4803</v>
       </c>
       <c r="B2143" s="1" t="s">
         <v>4795</v>
@@ -62310,84 +62385,81 @@
         <v>158</v>
       </c>
       <c r="J2143" s="1" t="s">
-        <v>1538</v>
+        <v>609</v>
+      </c>
+      <c r="K2143" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O2143" s="1" t="s">
-        <v>4798</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="2144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2144" s="1" t="s">
-        <v>4799</v>
+        <v>4805</v>
       </c>
       <c r="B2144" s="1" t="s">
         <v>4795</v>
       </c>
       <c r="C2144" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2144" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J2144" s="1" t="s">
-        <v>1538</v>
+        <v>609</v>
+      </c>
+      <c r="K2144" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O2144" s="1" t="s">
-        <v>4800</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="2145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2145" s="1" t="s">
-        <v>4801</v>
+        <v>4807</v>
       </c>
       <c r="B2145" s="1" t="s">
-        <v>4795</v>
+        <v>4808</v>
       </c>
       <c r="C2145" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2145" s="1" t="s">
-        <v>158</v>
+        <v>348</v>
       </c>
       <c r="J2145" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K2145" s="1" t="s">
-        <v>1925</v>
+        <v>1723</v>
       </c>
       <c r="O2145" s="1" t="s">
-        <v>4802</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="2146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2146" s="1" t="s">
-        <v>4803</v>
+        <v>4810</v>
       </c>
       <c r="B2146" s="1" t="s">
-        <v>4795</v>
+        <v>4811</v>
       </c>
       <c r="C2146" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J2146" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K2146" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O2146" s="1" t="s">
-        <v>4804</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="2147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2147" s="1" t="s">
-        <v>4805</v>
+        <v>4813</v>
       </c>
       <c r="B2147" s="1" t="s">
-        <v>4795</v>
+        <v>4814</v>
       </c>
       <c r="C2147" s="1" t="s">
         <v>348</v>
@@ -62396,104 +62468,95 @@
         <v>158</v>
       </c>
       <c r="J2147" s="1" t="s">
-        <v>609</v>
+        <v>383</v>
       </c>
       <c r="K2147" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O2147" s="1" t="s">
-        <v>4806</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="2148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2148" s="1" t="s">
-        <v>4807</v>
+        <v>4816</v>
       </c>
       <c r="B2148" s="1" t="s">
-        <v>4808</v>
+        <v>4814</v>
       </c>
       <c r="C2148" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D2148" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2148" s="1" t="s">
-        <v>1723</v>
+        <v>383</v>
+      </c>
+      <c r="K2148" s="1" t="s">
+        <v>1925</v>
       </c>
       <c r="O2148" s="1" t="s">
-        <v>4809</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="2149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2149" s="1" t="s">
-        <v>4810</v>
+        <v>4818</v>
       </c>
       <c r="B2149" s="1" t="s">
-        <v>4811</v>
+        <v>4727</v>
       </c>
       <c r="C2149" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="D2149" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="J2149" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O2149" s="1" t="s">
-        <v>4812</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="2150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2150" s="1" t="s">
-        <v>4813</v>
+        <v>4820</v>
       </c>
       <c r="B2150" s="1" t="s">
-        <v>4814</v>
+        <v>4727</v>
       </c>
       <c r="C2150" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D2150" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J2150" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2150" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O2150" s="1" t="s">
-        <v>4815</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="2151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2151" s="1" t="s">
-        <v>4816</v>
+        <v>4822</v>
       </c>
       <c r="B2151" s="1" t="s">
-        <v>4814</v>
+        <v>4727</v>
       </c>
       <c r="C2151" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D2151" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J2151" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2151" s="1" t="s">
         <v>1925</v>
       </c>
       <c r="O2151" s="1" t="s">
-        <v>4817</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="2152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2152" s="1" t="s">
-        <v>4818</v>
+        <v>4824</v>
       </c>
       <c r="B2152" s="1" t="s">
-        <v>4727</v>
+        <v>4825</v>
       </c>
       <c r="C2152" s="1" t="s">
         <v>348</v>
@@ -62502,15 +62565,15 @@
         <v>1925</v>
       </c>
       <c r="O2152" s="1" t="s">
-        <v>4819</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="2153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2153" s="1" t="s">
-        <v>4820</v>
+        <v>4827</v>
       </c>
       <c r="B2153" s="1" t="s">
-        <v>4727</v>
+        <v>4825</v>
       </c>
       <c r="C2153" s="1" t="s">
         <v>348</v>
@@ -62519,123 +62582,132 @@
         <v>1925</v>
       </c>
       <c r="O2153" s="1" t="s">
-        <v>4821</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="2154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2154" s="1" t="s">
-        <v>4822</v>
+        <v>4829</v>
       </c>
       <c r="B2154" s="1" t="s">
-        <v>4727</v>
+        <v>4830</v>
       </c>
       <c r="C2154" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="J2154" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
+      </c>
+      <c r="K2154" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="O2154" s="1" t="s">
-        <v>4823</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="2155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2155" s="1" t="s">
-        <v>4824</v>
+        <v>4832</v>
       </c>
       <c r="B2155" s="1" t="s">
-        <v>4825</v>
+        <v>4830</v>
       </c>
       <c r="C2155" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="J2155" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
+      </c>
+      <c r="K2155" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="O2155" s="1" t="s">
-        <v>4826</v>
+        <v>4833</v>
       </c>
     </row>
     <row r="2156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2156" s="1" t="s">
-        <v>4827</v>
+        <v>4834</v>
       </c>
       <c r="B2156" s="1" t="s">
-        <v>4825</v>
+        <v>4830</v>
       </c>
       <c r="C2156" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="J2156" s="1" t="s">
-        <v>1925</v>
+        <v>177</v>
+      </c>
+      <c r="K2156" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="O2156" s="1" t="s">
-        <v>4828</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="2157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2157" s="1" t="s">
-        <v>4829</v>
+        <v>4836</v>
       </c>
       <c r="B2157" s="1" t="s">
-        <v>4830</v>
+        <v>4837</v>
       </c>
       <c r="C2157" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2157" s="1" t="s">
+        <v>806</v>
+      </c>
       <c r="J2157" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2157" s="1" t="s">
-        <v>447</v>
+        <v>171</v>
       </c>
       <c r="O2157" s="1" t="s">
-        <v>4831</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="2158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2158" s="1" t="s">
-        <v>4832</v>
+        <v>4839</v>
       </c>
       <c r="B2158" s="1" t="s">
-        <v>4830</v>
+        <v>4837</v>
       </c>
       <c r="C2158" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2158" s="1" t="s">
+        <v>806</v>
+      </c>
       <c r="J2158" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2158" s="1" t="s">
-        <v>447</v>
+        <v>171</v>
       </c>
       <c r="O2158" s="1" t="s">
-        <v>4833</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="2159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2159" s="1" t="s">
-        <v>4834</v>
+        <v>4841</v>
       </c>
       <c r="B2159" s="1" t="s">
-        <v>4830</v>
+        <v>4837</v>
       </c>
       <c r="C2159" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2159" s="1" t="s">
+        <v>806</v>
+      </c>
       <c r="J2159" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2159" s="1" t="s">
-        <v>447</v>
+        <v>171</v>
       </c>
       <c r="O2159" s="1" t="s">
-        <v>4835</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="2160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2160" s="1" t="s">
-        <v>4836</v>
+        <v>4843</v>
       </c>
       <c r="B2160" s="1" t="s">
         <v>4837</v>
@@ -62650,12 +62722,12 @@
         <v>171</v>
       </c>
       <c r="O2160" s="1" t="s">
-        <v>4838</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="2161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2161" s="1" t="s">
-        <v>4839</v>
+        <v>4845</v>
       </c>
       <c r="B2161" s="1" t="s">
         <v>4837</v>
@@ -62670,331 +62742,358 @@
         <v>171</v>
       </c>
       <c r="O2161" s="1" t="s">
-        <v>4840</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="2162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2162" s="1" t="s">
-        <v>4841</v>
+        <v>4847</v>
       </c>
       <c r="B2162" s="1" t="s">
-        <v>4837</v>
+        <v>4848</v>
       </c>
       <c r="C2162" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2162" s="1" t="s">
-        <v>806</v>
+        <v>2</v>
       </c>
       <c r="J2162" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="O2162" s="1" t="s">
-        <v>4842</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="2163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2163" s="1" t="s">
-        <v>4843</v>
+        <v>4850</v>
       </c>
       <c r="B2163" s="1" t="s">
-        <v>4837</v>
+        <v>4848</v>
       </c>
       <c r="C2163" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2163" s="1" t="s">
-        <v>806</v>
+        <v>2</v>
       </c>
       <c r="J2163" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="O2163" s="1" t="s">
-        <v>4844</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="2164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2164" s="1" t="s">
-        <v>4845</v>
+        <v>4852</v>
       </c>
       <c r="B2164" s="1" t="s">
-        <v>4837</v>
+        <v>4848</v>
       </c>
       <c r="C2164" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2164" s="1" t="s">
-        <v>806</v>
+        <v>2</v>
       </c>
       <c r="J2164" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="O2164" s="1" t="s">
-        <v>4846</v>
+        <v>4853</v>
       </c>
     </row>
     <row r="2165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2165" s="1" t="s">
-        <v>4847</v>
+        <v>4854</v>
       </c>
       <c r="B2165" s="1" t="s">
-        <v>4848</v>
+        <v>4855</v>
       </c>
       <c r="C2165" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2165" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J2165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="O2165" s="1" t="s">
-        <v>4849</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="2166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2166" s="1" t="s">
-        <v>4850</v>
+        <v>4857</v>
       </c>
       <c r="B2166" s="1" t="s">
-        <v>4848</v>
+        <v>4858</v>
       </c>
       <c r="C2166" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2166" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2166" s="1" t="s">
         <v>177</v>
       </c>
       <c r="O2166" s="1" t="s">
-        <v>4851</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="2167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2167" s="1" t="s">
-        <v>4852</v>
+        <v>4860</v>
       </c>
       <c r="B2167" s="1" t="s">
-        <v>4848</v>
+        <v>4858</v>
       </c>
       <c r="C2167" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2167" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2167" s="1" t="s">
         <v>177</v>
       </c>
       <c r="O2167" s="1" t="s">
-        <v>4853</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="2168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2168" s="1" t="s">
-        <v>4854</v>
+        <v>4862</v>
       </c>
       <c r="B2168" s="1" t="s">
-        <v>4855</v>
+        <v>4863</v>
       </c>
       <c r="C2168" s="1" t="s">
-        <v>2</v>
+        <v>446</v>
       </c>
       <c r="D2168" s="1" t="s">
-        <v>158</v>
+        <v>1266</v>
       </c>
       <c r="J2168" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="O2168" s="1" t="s">
-        <v>4856</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="2169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2169" s="1" t="s">
-        <v>4857</v>
+        <v>4865</v>
       </c>
       <c r="B2169" s="1" t="s">
-        <v>4858</v>
+        <v>4863</v>
       </c>
       <c r="C2169" s="1" t="s">
-        <v>2</v>
+        <v>446</v>
+      </c>
+      <c r="D2169" s="1" t="s">
+        <v>1266</v>
       </c>
       <c r="J2169" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="O2169" s="1" t="s">
-        <v>4859</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="2170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2170" s="1" t="s">
-        <v>4860</v>
+        <v>4867</v>
       </c>
       <c r="B2170" s="1" t="s">
-        <v>4858</v>
+        <v>4868</v>
       </c>
       <c r="C2170" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2170" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="O2170" s="1" t="s">
-        <v>4861</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="2171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2171" s="1" t="s">
-        <v>4862</v>
+        <v>4870</v>
       </c>
       <c r="B2171" s="1" t="s">
-        <v>4863</v>
+        <v>4871</v>
       </c>
       <c r="C2171" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D2171" s="1" t="s">
-        <v>1266</v>
+        <v>521</v>
       </c>
       <c r="J2171" s="1" t="s">
-        <v>62</v>
+        <v>3704</v>
       </c>
       <c r="O2171" s="1" t="s">
-        <v>4864</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="2172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2172" s="1" t="s">
-        <v>4865</v>
+        <v>4873</v>
       </c>
       <c r="B2172" s="1" t="s">
-        <v>4863</v>
+        <v>4874</v>
       </c>
       <c r="C2172" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D2172" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="J2172" s="1" t="s">
-        <v>62</v>
+        <v>521</v>
       </c>
       <c r="O2172" s="1" t="s">
-        <v>4866</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="2173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2173" s="1" t="s">
-        <v>4867</v>
+        <v>4876</v>
       </c>
       <c r="B2173" s="1" t="s">
-        <v>4868</v>
+        <v>4874</v>
       </c>
       <c r="C2173" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2173" s="1" t="s">
-        <v>62</v>
+        <v>521</v>
       </c>
       <c r="O2173" s="1" t="s">
-        <v>4869</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="2174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2174" s="1" t="s">
-        <v>4870</v>
+        <v>4878</v>
       </c>
       <c r="B2174" s="1" t="s">
-        <v>4871</v>
+        <v>4879</v>
       </c>
       <c r="C2174" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="J2174" s="1" t="s">
-        <v>3704</v>
+        <v>395</v>
       </c>
       <c r="O2174" s="1" t="s">
-        <v>4872</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="2175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2175" s="1" t="s">
-        <v>4873</v>
+        <v>4881</v>
       </c>
       <c r="B2175" s="1" t="s">
-        <v>4874</v>
+        <v>4882</v>
       </c>
       <c r="C2175" s="1" t="s">
-        <v>521</v>
+        <v>4294</v>
+      </c>
+      <c r="D2175" s="1" t="s">
+        <v>4294</v>
+      </c>
+      <c r="E2175" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F2175" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J2175" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K2175" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="O2175" s="1" t="s">
-        <v>4875</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="2176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2176" s="1" t="s">
-        <v>4876</v>
+        <v>4884</v>
       </c>
       <c r="B2176" s="1" t="s">
-        <v>4874</v>
+        <v>4885</v>
       </c>
       <c r="C2176" s="1" t="s">
-        <v>521</v>
+        <v>2</v>
+      </c>
+      <c r="D2176" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2176" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2176" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2176" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2176" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="O2176" s="1" t="s">
-        <v>4877</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="2177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2177" s="1" t="s">
-        <v>4878</v>
+        <v>4887</v>
       </c>
       <c r="B2177" s="1" t="s">
-        <v>4879</v>
+        <v>4885</v>
       </c>
       <c r="C2177" s="1" t="s">
-        <v>395</v>
+        <v>2</v>
+      </c>
+      <c r="D2177" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2177" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2177" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2177" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2177" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="O2177" s="1" t="s">
-        <v>4880</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="2178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2178" s="1" t="s">
-        <v>4881</v>
+        <v>4889</v>
       </c>
       <c r="B2178" s="1" t="s">
-        <v>4882</v>
+        <v>4885</v>
       </c>
       <c r="C2178" s="1" t="s">
-        <v>4294</v>
+        <v>2</v>
       </c>
       <c r="D2178" s="1" t="s">
-        <v>4294</v>
+        <v>2</v>
       </c>
       <c r="E2178" s="1" t="s">
-        <v>1266</v>
+        <v>2</v>
       </c>
       <c r="F2178" s="1" t="s">
-        <v>1266</v>
+        <v>158</v>
       </c>
       <c r="J2178" s="1" t="s">
-        <v>359</v>
+        <v>62</v>
       </c>
       <c r="K2178" s="1" t="s">
-        <v>609</v>
+        <v>171</v>
       </c>
       <c r="O2178" s="1" t="s">
-        <v>4883</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="2179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2179" s="1" t="s">
-        <v>4884</v>
+        <v>4891</v>
       </c>
       <c r="B2179" s="1" t="s">
         <v>4885</v>
@@ -63018,15 +63117,15 @@
         <v>171</v>
       </c>
       <c r="O2179" s="1" t="s">
-        <v>4886</v>
+        <v>4892</v>
       </c>
     </row>
     <row r="2180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2180" s="1" t="s">
-        <v>4887</v>
+        <v>4893</v>
       </c>
       <c r="B2180" s="1" t="s">
-        <v>4885</v>
+        <v>4894</v>
       </c>
       <c r="C2180" s="1" t="s">
         <v>2</v>
@@ -63034,106 +63133,73 @@
       <c r="D2180" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2180" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2180" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J2180" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2180" s="1" t="s">
-        <v>171</v>
+        <v>383</v>
       </c>
       <c r="O2180" s="1" t="s">
-        <v>4888</v>
+        <v>4895</v>
       </c>
     </row>
     <row r="2181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2181" s="1" t="s">
-        <v>4889</v>
+        <v>4896</v>
       </c>
       <c r="B2181" s="1" t="s">
-        <v>4885</v>
+        <v>4897</v>
       </c>
       <c r="C2181" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2181" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2181" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2181" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J2181" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2181" s="1" t="s">
-        <v>171</v>
+        <v>383</v>
       </c>
       <c r="O2181" s="1" t="s">
-        <v>4890</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="2182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2182" s="1" t="s">
-        <v>4891</v>
+        <v>4899</v>
       </c>
       <c r="B2182" s="1" t="s">
-        <v>4885</v>
+        <v>4900</v>
       </c>
       <c r="C2182" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2182" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2182" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2182" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J2182" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2182" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="O2182" s="1" t="s">
-        <v>4892</v>
+        <v>4901</v>
       </c>
     </row>
     <row r="2183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2183" s="1" t="s">
-        <v>4893</v>
+        <v>4902</v>
       </c>
       <c r="B2183" s="1" t="s">
-        <v>4894</v>
+        <v>4903</v>
       </c>
       <c r="C2183" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2183" s="1" t="s">
-        <v>2</v>
+        <v>395</v>
       </c>
       <c r="J2183" s="1" t="s">
-        <v>383</v>
+        <v>447</v>
       </c>
       <c r="O2183" s="1" t="s">
-        <v>4895</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="2184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2184" s="1" t="s">
-        <v>4896</v>
+        <v>4905</v>
       </c>
       <c r="B2184" s="1" t="s">
-        <v>4897</v>
+        <v>4779</v>
       </c>
       <c r="C2184" s="1" t="s">
         <v>2</v>
@@ -63142,231 +63208,237 @@
         <v>158</v>
       </c>
       <c r="J2184" s="1" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="O2184" s="1" t="s">
-        <v>4898</v>
+        <v>4906</v>
       </c>
     </row>
     <row r="2185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2185" s="1" t="s">
-        <v>4899</v>
+        <v>4911</v>
       </c>
       <c r="B2185" s="1" t="s">
-        <v>4900</v>
+        <v>4912</v>
       </c>
       <c r="C2185" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
+      </c>
+      <c r="D2185" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J2185" s="1" t="s">
-        <v>177</v>
+        <v>1493</v>
       </c>
       <c r="O2185" s="1" t="s">
-        <v>4901</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="2186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2186" s="1" t="s">
-        <v>4902</v>
+        <v>4914</v>
       </c>
       <c r="B2186" s="1" t="s">
-        <v>4903</v>
+        <v>4915</v>
       </c>
       <c r="C2186" s="1" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="J2186" s="1" t="s">
-        <v>447</v>
+        <v>62</v>
       </c>
       <c r="O2186" s="1" t="s">
-        <v>4904</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="2187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2187" s="1" t="s">
-        <v>4905</v>
+        <v>4917</v>
       </c>
       <c r="B2187" s="1" t="s">
-        <v>4779</v>
+        <v>4918</v>
       </c>
       <c r="C2187" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2187" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J2187" s="1" t="s">
-        <v>364</v>
+        <v>447</v>
       </c>
       <c r="O2187" s="1" t="s">
-        <v>4906</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="2188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2188" s="1" t="s">
-        <v>4911</v>
+        <v>4920</v>
       </c>
       <c r="B2188" s="1" t="s">
-        <v>4912</v>
+        <v>4921</v>
       </c>
       <c r="C2188" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2188" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J2188" s="1" t="s">
-        <v>1493</v>
+        <v>65</v>
       </c>
       <c r="O2188" s="1" t="s">
-        <v>4913</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="2189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2189" s="1" t="s">
-        <v>4914</v>
+        <v>4923</v>
       </c>
       <c r="B2189" s="1" t="s">
-        <v>4915</v>
+        <v>4921</v>
       </c>
       <c r="C2189" s="1" t="s">
-        <v>446</v>
+        <v>2</v>
       </c>
       <c r="J2189" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O2189" s="1" t="s">
-        <v>4916</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="2190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2190" s="1" t="s">
-        <v>4917</v>
+        <v>4925</v>
       </c>
       <c r="B2190" s="1" t="s">
-        <v>4918</v>
+        <v>4926</v>
       </c>
       <c r="C2190" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2190" s="1" t="s">
-        <v>447</v>
+        <v>85</v>
       </c>
       <c r="O2190" s="1" t="s">
-        <v>4919</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="2191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2191" s="1" t="s">
-        <v>4920</v>
+        <v>4928</v>
       </c>
       <c r="B2191" s="1" t="s">
-        <v>4921</v>
+        <v>4929</v>
       </c>
       <c r="C2191" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2191" s="1" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="O2191" s="1" t="s">
-        <v>4922</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="2192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2192" s="1" t="s">
-        <v>4923</v>
+        <v>4931</v>
       </c>
       <c r="B2192" s="1" t="s">
-        <v>4921</v>
+        <v>4932</v>
       </c>
       <c r="C2192" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2192" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2192" s="1" t="s">
-        <v>65</v>
+        <v>383</v>
+      </c>
+      <c r="K2192" s="1" t="s">
+        <v>1534</v>
       </c>
       <c r="O2192" s="1" t="s">
-        <v>4924</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="2193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2193" s="1" t="s">
-        <v>4925</v>
+        <v>4934</v>
       </c>
       <c r="B2193" s="1" t="s">
-        <v>4926</v>
+        <v>4935</v>
       </c>
       <c r="C2193" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2193" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="O2193" s="1" t="s">
-        <v>4927</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="2194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2194" s="1" t="s">
-        <v>4928</v>
+        <v>4937</v>
       </c>
       <c r="B2194" s="1" t="s">
-        <v>4929</v>
+        <v>4938</v>
       </c>
       <c r="C2194" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
+      </c>
+      <c r="D2194" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J2194" s="1" t="s">
-        <v>177</v>
+        <v>1640</v>
       </c>
       <c r="O2194" s="1" t="s">
-        <v>4930</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="2195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2195" s="1" t="s">
-        <v>4931</v>
+        <v>4940</v>
       </c>
       <c r="B2195" s="1" t="s">
-        <v>4932</v>
+        <v>4938</v>
       </c>
       <c r="C2195" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2195" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J2195" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2195" s="1" t="s">
-        <v>1534</v>
+        <v>1640</v>
       </c>
       <c r="O2195" s="1" t="s">
-        <v>4933</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="2196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2196" s="1" t="s">
-        <v>4934</v>
+        <v>4942</v>
       </c>
       <c r="B2196" s="1" t="s">
-        <v>4935</v>
+        <v>4938</v>
       </c>
       <c r="C2196" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
+      </c>
+      <c r="D2196" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J2196" s="1" t="s">
-        <v>62</v>
+        <v>1640</v>
       </c>
       <c r="O2196" s="1" t="s">
-        <v>4936</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="2197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2197" s="1" t="s">
-        <v>4937</v>
+        <v>4944</v>
       </c>
       <c r="B2197" s="1" t="s">
         <v>4938</v>
@@ -63381,12 +63453,12 @@
         <v>1640</v>
       </c>
       <c r="O2197" s="1" t="s">
-        <v>4939</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="2198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2198" s="1" t="s">
-        <v>4940</v>
+        <v>4946</v>
       </c>
       <c r="B2198" s="1" t="s">
         <v>4938</v>
@@ -63401,12 +63473,12 @@
         <v>1640</v>
       </c>
       <c r="O2198" s="1" t="s">
-        <v>4941</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="2199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2199" s="1" t="s">
-        <v>4942</v>
+        <v>4948</v>
       </c>
       <c r="B2199" s="1" t="s">
         <v>4938</v>
@@ -63421,12 +63493,12 @@
         <v>1640</v>
       </c>
       <c r="O2199" s="1" t="s">
-        <v>4943</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="2200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2200" s="1" t="s">
-        <v>4944</v>
+        <v>4950</v>
       </c>
       <c r="B2200" s="1" t="s">
         <v>4938</v>
@@ -63441,12 +63513,12 @@
         <v>1640</v>
       </c>
       <c r="O2200" s="1" t="s">
-        <v>4945</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="2201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2201" s="1" t="s">
-        <v>4946</v>
+        <v>4952</v>
       </c>
       <c r="B2201" s="1" t="s">
         <v>4938</v>
@@ -63461,12 +63533,12 @@
         <v>1640</v>
       </c>
       <c r="O2201" s="1" t="s">
-        <v>4947</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="2202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2202" s="1" t="s">
-        <v>4948</v>
+        <v>4954</v>
       </c>
       <c r="B2202" s="1" t="s">
         <v>4938</v>
@@ -63481,12 +63553,12 @@
         <v>1640</v>
       </c>
       <c r="O2202" s="1" t="s">
-        <v>4949</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="2203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2203" s="1" t="s">
-        <v>4950</v>
+        <v>4956</v>
       </c>
       <c r="B2203" s="1" t="s">
         <v>4938</v>
@@ -63501,12 +63573,12 @@
         <v>1640</v>
       </c>
       <c r="O2203" s="1" t="s">
-        <v>4951</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="2204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2204" s="1" t="s">
-        <v>4952</v>
+        <v>4958</v>
       </c>
       <c r="B2204" s="1" t="s">
         <v>4938</v>
@@ -63521,12 +63593,12 @@
         <v>1640</v>
       </c>
       <c r="O2204" s="1" t="s">
-        <v>4953</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="2205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2205" s="1" t="s">
-        <v>4954</v>
+        <v>4960</v>
       </c>
       <c r="B2205" s="1" t="s">
         <v>4938</v>
@@ -63541,12 +63613,12 @@
         <v>1640</v>
       </c>
       <c r="O2205" s="1" t="s">
-        <v>4955</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="2206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2206" s="1" t="s">
-        <v>4956</v>
+        <v>4962</v>
       </c>
       <c r="B2206" s="1" t="s">
         <v>4938</v>
@@ -63561,12 +63633,12 @@
         <v>1640</v>
       </c>
       <c r="O2206" s="1" t="s">
-        <v>4957</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="2207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2207" s="1" t="s">
-        <v>4958</v>
+        <v>4964</v>
       </c>
       <c r="B2207" s="1" t="s">
         <v>4938</v>
@@ -63581,12 +63653,12 @@
         <v>1640</v>
       </c>
       <c r="O2207" s="1" t="s">
-        <v>4959</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="2208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2208" s="1" t="s">
-        <v>4960</v>
+        <v>4966</v>
       </c>
       <c r="B2208" s="1" t="s">
         <v>4938</v>
@@ -63601,12 +63673,12 @@
         <v>1640</v>
       </c>
       <c r="O2208" s="1" t="s">
-        <v>4961</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="2209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2209" s="1" t="s">
-        <v>4962</v>
+        <v>4968</v>
       </c>
       <c r="B2209" s="1" t="s">
         <v>4938</v>
@@ -63621,12 +63693,12 @@
         <v>1640</v>
       </c>
       <c r="O2209" s="1" t="s">
-        <v>4963</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="2210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2210" s="1" t="s">
-        <v>4964</v>
+        <v>4970</v>
       </c>
       <c r="B2210" s="1" t="s">
         <v>4938</v>
@@ -63641,12 +63713,12 @@
         <v>1640</v>
       </c>
       <c r="O2210" s="1" t="s">
-        <v>4965</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="2211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2211" s="1" t="s">
-        <v>4966</v>
+        <v>4972</v>
       </c>
       <c r="B2211" s="1" t="s">
         <v>4938</v>
@@ -63661,12 +63733,12 @@
         <v>1640</v>
       </c>
       <c r="O2211" s="1" t="s">
-        <v>4967</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="2212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2212" s="1" t="s">
-        <v>4968</v>
+        <v>4974</v>
       </c>
       <c r="B2212" s="1" t="s">
         <v>4938</v>
@@ -63681,12 +63753,12 @@
         <v>1640</v>
       </c>
       <c r="O2212" s="1" t="s">
-        <v>4969</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="2213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2213" s="1" t="s">
-        <v>4970</v>
+        <v>4976</v>
       </c>
       <c r="B2213" s="1" t="s">
         <v>4938</v>
@@ -63701,12 +63773,12 @@
         <v>1640</v>
       </c>
       <c r="O2213" s="1" t="s">
-        <v>4971</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="2214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2214" s="1" t="s">
-        <v>4972</v>
+        <v>4978</v>
       </c>
       <c r="B2214" s="1" t="s">
         <v>4938</v>
@@ -63721,12 +63793,12 @@
         <v>1640</v>
       </c>
       <c r="O2214" s="1" t="s">
-        <v>4973</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="2215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2215" s="1" t="s">
-        <v>4974</v>
+        <v>4980</v>
       </c>
       <c r="B2215" s="1" t="s">
         <v>4938</v>
@@ -63741,12 +63813,12 @@
         <v>1640</v>
       </c>
       <c r="O2215" s="1" t="s">
-        <v>4975</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="2216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2216" s="1" t="s">
-        <v>4976</v>
+        <v>4982</v>
       </c>
       <c r="B2216" s="1" t="s">
         <v>4938</v>
@@ -63761,12 +63833,12 @@
         <v>1640</v>
       </c>
       <c r="O2216" s="1" t="s">
-        <v>4977</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="2217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2217" s="1" t="s">
-        <v>4978</v>
+        <v>4984</v>
       </c>
       <c r="B2217" s="1" t="s">
         <v>4938</v>
@@ -63781,12 +63853,12 @@
         <v>1640</v>
       </c>
       <c r="O2217" s="1" t="s">
-        <v>4979</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="2218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2218" s="1" t="s">
-        <v>4980</v>
+        <v>4986</v>
       </c>
       <c r="B2218" s="1" t="s">
         <v>4938</v>
@@ -63801,12 +63873,12 @@
         <v>1640</v>
       </c>
       <c r="O2218" s="1" t="s">
-        <v>4981</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="2219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2219" s="1" t="s">
-        <v>4982</v>
+        <v>4988</v>
       </c>
       <c r="B2219" s="1" t="s">
         <v>4938</v>
@@ -63821,12 +63893,12 @@
         <v>1640</v>
       </c>
       <c r="O2219" s="1" t="s">
-        <v>4983</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="2220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2220" s="1" t="s">
-        <v>4984</v>
+        <v>4990</v>
       </c>
       <c r="B2220" s="1" t="s">
         <v>4938</v>
@@ -63841,12 +63913,12 @@
         <v>1640</v>
       </c>
       <c r="O2220" s="1" t="s">
-        <v>4985</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="2221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2221" s="1" t="s">
-        <v>4986</v>
+        <v>4992</v>
       </c>
       <c r="B2221" s="1" t="s">
         <v>4938</v>
@@ -63861,12 +63933,12 @@
         <v>1640</v>
       </c>
       <c r="O2221" s="1" t="s">
-        <v>4987</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="2222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2222" s="1" t="s">
-        <v>4988</v>
+        <v>4994</v>
       </c>
       <c r="B2222" s="1" t="s">
         <v>4938</v>
@@ -63881,12 +63953,12 @@
         <v>1640</v>
       </c>
       <c r="O2222" s="1" t="s">
-        <v>4989</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="2223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2223" s="1" t="s">
-        <v>4990</v>
+        <v>4996</v>
       </c>
       <c r="B2223" s="1" t="s">
         <v>4938</v>
@@ -63901,12 +63973,12 @@
         <v>1640</v>
       </c>
       <c r="O2223" s="1" t="s">
-        <v>4991</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="2224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2224" s="1" t="s">
-        <v>4992</v>
+        <v>4998</v>
       </c>
       <c r="B2224" s="1" t="s">
         <v>4938</v>
@@ -63921,12 +63993,12 @@
         <v>1640</v>
       </c>
       <c r="O2224" s="1" t="s">
-        <v>4993</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="2225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2225" s="1" t="s">
-        <v>4994</v>
+        <v>5000</v>
       </c>
       <c r="B2225" s="1" t="s">
         <v>4938</v>
@@ -63941,12 +64013,12 @@
         <v>1640</v>
       </c>
       <c r="O2225" s="1" t="s">
-        <v>4995</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="2226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2226" s="1" t="s">
-        <v>4996</v>
+        <v>5002</v>
       </c>
       <c r="B2226" s="1" t="s">
         <v>4938</v>
@@ -63961,12 +64033,12 @@
         <v>1640</v>
       </c>
       <c r="O2226" s="1" t="s">
-        <v>4997</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="2227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2227" s="1" t="s">
-        <v>4998</v>
+        <v>5004</v>
       </c>
       <c r="B2227" s="1" t="s">
         <v>4938</v>
@@ -63981,12 +64053,12 @@
         <v>1640</v>
       </c>
       <c r="O2227" s="1" t="s">
-        <v>4999</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="2228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2228" s="1" t="s">
-        <v>5000</v>
+        <v>5006</v>
       </c>
       <c r="B2228" s="1" t="s">
         <v>4938</v>
@@ -64001,12 +64073,12 @@
         <v>1640</v>
       </c>
       <c r="O2228" s="1" t="s">
-        <v>5001</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="2229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2229" s="1" t="s">
-        <v>5002</v>
+        <v>5008</v>
       </c>
       <c r="B2229" s="1" t="s">
         <v>4938</v>
@@ -64021,12 +64093,12 @@
         <v>1640</v>
       </c>
       <c r="O2229" s="1" t="s">
-        <v>5003</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="2230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2230" s="1" t="s">
-        <v>5004</v>
+        <v>5010</v>
       </c>
       <c r="B2230" s="1" t="s">
         <v>4938</v>
@@ -64041,12 +64113,12 @@
         <v>1640</v>
       </c>
       <c r="O2230" s="1" t="s">
-        <v>5005</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="2231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2231" s="1" t="s">
-        <v>5006</v>
+        <v>5012</v>
       </c>
       <c r="B2231" s="1" t="s">
         <v>4938</v>
@@ -64061,12 +64133,12 @@
         <v>1640</v>
       </c>
       <c r="O2231" s="1" t="s">
-        <v>5007</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="2232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2232" s="1" t="s">
-        <v>5008</v>
+        <v>5014</v>
       </c>
       <c r="B2232" s="1" t="s">
         <v>4938</v>
@@ -64081,12 +64153,12 @@
         <v>1640</v>
       </c>
       <c r="O2232" s="1" t="s">
-        <v>5009</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="2233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2233" s="1" t="s">
-        <v>5010</v>
+        <v>5016</v>
       </c>
       <c r="B2233" s="1" t="s">
         <v>4938</v>
@@ -64101,12 +64173,12 @@
         <v>1640</v>
       </c>
       <c r="O2233" s="1" t="s">
-        <v>5011</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="2234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2234" s="1" t="s">
-        <v>5012</v>
+        <v>5018</v>
       </c>
       <c r="B2234" s="1" t="s">
         <v>4938</v>
@@ -64121,12 +64193,12 @@
         <v>1640</v>
       </c>
       <c r="O2234" s="1" t="s">
-        <v>5013</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="2235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2235" s="1" t="s">
-        <v>5014</v>
+        <v>5020</v>
       </c>
       <c r="B2235" s="1" t="s">
         <v>4938</v>
@@ -64141,12 +64213,12 @@
         <v>1640</v>
       </c>
       <c r="O2235" s="1" t="s">
-        <v>5015</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="2236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2236" s="1" t="s">
-        <v>5016</v>
+        <v>5022</v>
       </c>
       <c r="B2236" s="1" t="s">
         <v>4938</v>
@@ -64161,12 +64233,12 @@
         <v>1640</v>
       </c>
       <c r="O2236" s="1" t="s">
-        <v>5017</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="2237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2237" s="1" t="s">
-        <v>5018</v>
+        <v>5024</v>
       </c>
       <c r="B2237" s="1" t="s">
         <v>4938</v>
@@ -64181,12 +64253,12 @@
         <v>1640</v>
       </c>
       <c r="O2237" s="1" t="s">
-        <v>5019</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="2238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2238" s="1" t="s">
-        <v>5020</v>
+        <v>5026</v>
       </c>
       <c r="B2238" s="1" t="s">
         <v>4938</v>
@@ -64201,12 +64273,12 @@
         <v>1640</v>
       </c>
       <c r="O2238" s="1" t="s">
-        <v>5021</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="2239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2239" s="1" t="s">
-        <v>5022</v>
+        <v>5028</v>
       </c>
       <c r="B2239" s="1" t="s">
         <v>4938</v>
@@ -64221,12 +64293,12 @@
         <v>1640</v>
       </c>
       <c r="O2239" s="1" t="s">
-        <v>5023</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="2240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2240" s="1" t="s">
-        <v>5024</v>
+        <v>5030</v>
       </c>
       <c r="B2240" s="1" t="s">
         <v>4938</v>
@@ -64241,12 +64313,12 @@
         <v>1640</v>
       </c>
       <c r="O2240" s="1" t="s">
-        <v>5025</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="2241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2241" s="1" t="s">
-        <v>5026</v>
+        <v>5032</v>
       </c>
       <c r="B2241" s="1" t="s">
         <v>4938</v>
@@ -64261,12 +64333,12 @@
         <v>1640</v>
       </c>
       <c r="O2241" s="1" t="s">
-        <v>5027</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="2242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2242" s="1" t="s">
-        <v>5028</v>
+        <v>5034</v>
       </c>
       <c r="B2242" s="1" t="s">
         <v>4938</v>
@@ -64281,12 +64353,12 @@
         <v>1640</v>
       </c>
       <c r="O2242" s="1" t="s">
-        <v>5029</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="2243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2243" s="1" t="s">
-        <v>5030</v>
+        <v>5036</v>
       </c>
       <c r="B2243" s="1" t="s">
         <v>4938</v>
@@ -64301,12 +64373,12 @@
         <v>1640</v>
       </c>
       <c r="O2243" s="1" t="s">
-        <v>5031</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="2244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2244" s="1" t="s">
-        <v>5032</v>
+        <v>5038</v>
       </c>
       <c r="B2244" s="1" t="s">
         <v>4938</v>
@@ -64321,12 +64393,12 @@
         <v>1640</v>
       </c>
       <c r="O2244" s="1" t="s">
-        <v>5033</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="2245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2245" s="1" t="s">
-        <v>5034</v>
+        <v>5040</v>
       </c>
       <c r="B2245" s="1" t="s">
         <v>4938</v>
@@ -64341,12 +64413,12 @@
         <v>1640</v>
       </c>
       <c r="O2245" s="1" t="s">
-        <v>5035</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="2246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2246" s="1" t="s">
-        <v>5036</v>
+        <v>5042</v>
       </c>
       <c r="B2246" s="1" t="s">
         <v>4938</v>
@@ -64361,12 +64433,12 @@
         <v>1640</v>
       </c>
       <c r="O2246" s="1" t="s">
-        <v>5037</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="2247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2247" s="1" t="s">
-        <v>5038</v>
+        <v>5044</v>
       </c>
       <c r="B2247" s="1" t="s">
         <v>4938</v>
@@ -64381,12 +64453,12 @@
         <v>1640</v>
       </c>
       <c r="O2247" s="1" t="s">
-        <v>5039</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="2248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2248" s="1" t="s">
-        <v>5040</v>
+        <v>5046</v>
       </c>
       <c r="B2248" s="1" t="s">
         <v>4938</v>
@@ -64401,12 +64473,12 @@
         <v>1640</v>
       </c>
       <c r="O2248" s="1" t="s">
-        <v>5041</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="2249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2249" s="1" t="s">
-        <v>5042</v>
+        <v>5048</v>
       </c>
       <c r="B2249" s="1" t="s">
         <v>4938</v>
@@ -64421,12 +64493,12 @@
         <v>1640</v>
       </c>
       <c r="O2249" s="1" t="s">
-        <v>5043</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="2250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2250" s="1" t="s">
-        <v>5044</v>
+        <v>5050</v>
       </c>
       <c r="B2250" s="1" t="s">
         <v>4938</v>
@@ -64441,12 +64513,12 @@
         <v>1640</v>
       </c>
       <c r="O2250" s="1" t="s">
-        <v>5045</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="2251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2251" s="1" t="s">
-        <v>5046</v>
+        <v>5052</v>
       </c>
       <c r="B2251" s="1" t="s">
         <v>4938</v>
@@ -64461,12 +64533,12 @@
         <v>1640</v>
       </c>
       <c r="O2251" s="1" t="s">
-        <v>5047</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="2252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2252" s="1" t="s">
-        <v>5048</v>
+        <v>5054</v>
       </c>
       <c r="B2252" s="1" t="s">
         <v>4938</v>
@@ -64481,12 +64553,12 @@
         <v>1640</v>
       </c>
       <c r="O2252" s="1" t="s">
-        <v>5049</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="2253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2253" s="1" t="s">
-        <v>5050</v>
+        <v>5056</v>
       </c>
       <c r="B2253" s="1" t="s">
         <v>4938</v>
@@ -64501,12 +64573,12 @@
         <v>1640</v>
       </c>
       <c r="O2253" s="1" t="s">
-        <v>5051</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="2254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2254" s="1" t="s">
-        <v>5052</v>
+        <v>5058</v>
       </c>
       <c r="B2254" s="1" t="s">
         <v>4938</v>
@@ -64521,12 +64593,12 @@
         <v>1640</v>
       </c>
       <c r="O2254" s="1" t="s">
-        <v>5053</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="2255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2255" s="1" t="s">
-        <v>5054</v>
+        <v>5060</v>
       </c>
       <c r="B2255" s="1" t="s">
         <v>4938</v>
@@ -64541,12 +64613,12 @@
         <v>1640</v>
       </c>
       <c r="O2255" s="1" t="s">
-        <v>5055</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="2256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2256" s="1" t="s">
-        <v>5056</v>
+        <v>5062</v>
       </c>
       <c r="B2256" s="1" t="s">
         <v>4938</v>
@@ -64561,12 +64633,12 @@
         <v>1640</v>
       </c>
       <c r="O2256" s="1" t="s">
-        <v>5057</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="2257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2257" s="1" t="s">
-        <v>5058</v>
+        <v>5064</v>
       </c>
       <c r="B2257" s="1" t="s">
         <v>4938</v>
@@ -64581,12 +64653,12 @@
         <v>1640</v>
       </c>
       <c r="O2257" s="1" t="s">
-        <v>5059</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="2258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2258" s="1" t="s">
-        <v>5060</v>
+        <v>5066</v>
       </c>
       <c r="B2258" s="1" t="s">
         <v>4938</v>
@@ -64601,12 +64673,12 @@
         <v>1640</v>
       </c>
       <c r="O2258" s="1" t="s">
-        <v>5061</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="2259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2259" s="1" t="s">
-        <v>5062</v>
+        <v>5068</v>
       </c>
       <c r="B2259" s="1" t="s">
         <v>4938</v>
@@ -64621,12 +64693,12 @@
         <v>1640</v>
       </c>
       <c r="O2259" s="1" t="s">
-        <v>5063</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="2260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2260" s="1" t="s">
-        <v>5064</v>
+        <v>5070</v>
       </c>
       <c r="B2260" s="1" t="s">
         <v>4938</v>
@@ -64641,12 +64713,12 @@
         <v>1640</v>
       </c>
       <c r="O2260" s="1" t="s">
-        <v>5065</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="2261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2261" s="1" t="s">
-        <v>5066</v>
+        <v>5072</v>
       </c>
       <c r="B2261" s="1" t="s">
         <v>4938</v>
@@ -64661,12 +64733,12 @@
         <v>1640</v>
       </c>
       <c r="O2261" s="1" t="s">
-        <v>5067</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="2262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2262" s="1" t="s">
-        <v>5068</v>
+        <v>5074</v>
       </c>
       <c r="B2262" s="1" t="s">
         <v>4938</v>
@@ -64681,12 +64753,12 @@
         <v>1640</v>
       </c>
       <c r="O2262" s="1" t="s">
-        <v>5069</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="2263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2263" s="1" t="s">
-        <v>5070</v>
+        <v>5076</v>
       </c>
       <c r="B2263" s="1" t="s">
         <v>4938</v>
@@ -64701,12 +64773,12 @@
         <v>1640</v>
       </c>
       <c r="O2263" s="1" t="s">
-        <v>5071</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="2264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2264" s="1" t="s">
-        <v>5072</v>
+        <v>5078</v>
       </c>
       <c r="B2264" s="1" t="s">
         <v>4938</v>
@@ -64721,12 +64793,12 @@
         <v>1640</v>
       </c>
       <c r="O2264" s="1" t="s">
-        <v>5073</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="2265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2265" s="1" t="s">
-        <v>5074</v>
+        <v>5080</v>
       </c>
       <c r="B2265" s="1" t="s">
         <v>4938</v>
@@ -64741,12 +64813,12 @@
         <v>1640</v>
       </c>
       <c r="O2265" s="1" t="s">
-        <v>5075</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="2266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2266" s="1" t="s">
-        <v>5076</v>
+        <v>5082</v>
       </c>
       <c r="B2266" s="1" t="s">
         <v>4938</v>
@@ -64761,12 +64833,12 @@
         <v>1640</v>
       </c>
       <c r="O2266" s="1" t="s">
-        <v>5077</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="2267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2267" s="1" t="s">
-        <v>5078</v>
+        <v>5084</v>
       </c>
       <c r="B2267" s="1" t="s">
         <v>4938</v>
@@ -64781,12 +64853,12 @@
         <v>1640</v>
       </c>
       <c r="O2267" s="1" t="s">
-        <v>5079</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="2268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2268" s="1" t="s">
-        <v>5080</v>
+        <v>5086</v>
       </c>
       <c r="B2268" s="1" t="s">
         <v>4938</v>
@@ -64801,12 +64873,12 @@
         <v>1640</v>
       </c>
       <c r="O2268" s="1" t="s">
-        <v>5081</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="2269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2269" s="1" t="s">
-        <v>5082</v>
+        <v>5088</v>
       </c>
       <c r="B2269" s="1" t="s">
         <v>4938</v>
@@ -64821,12 +64893,12 @@
         <v>1640</v>
       </c>
       <c r="O2269" s="1" t="s">
-        <v>5083</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="2270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2270" s="1" t="s">
-        <v>5084</v>
+        <v>5090</v>
       </c>
       <c r="B2270" s="1" t="s">
         <v>4938</v>
@@ -64841,12 +64913,12 @@
         <v>1640</v>
       </c>
       <c r="O2270" s="1" t="s">
-        <v>5085</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="2271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2271" s="1" t="s">
-        <v>5086</v>
+        <v>5092</v>
       </c>
       <c r="B2271" s="1" t="s">
         <v>4938</v>
@@ -64861,12 +64933,12 @@
         <v>1640</v>
       </c>
       <c r="O2271" s="1" t="s">
-        <v>5087</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="2272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2272" s="1" t="s">
-        <v>5088</v>
+        <v>5094</v>
       </c>
       <c r="B2272" s="1" t="s">
         <v>4938</v>
@@ -64881,12 +64953,12 @@
         <v>1640</v>
       </c>
       <c r="O2272" s="1" t="s">
-        <v>5089</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="2273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2273" s="1" t="s">
-        <v>5090</v>
+        <v>5096</v>
       </c>
       <c r="B2273" s="1" t="s">
         <v>4938</v>
@@ -64901,12 +64973,12 @@
         <v>1640</v>
       </c>
       <c r="O2273" s="1" t="s">
-        <v>5091</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="2274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2274" s="1" t="s">
-        <v>5092</v>
+        <v>5098</v>
       </c>
       <c r="B2274" s="1" t="s">
         <v>4938</v>
@@ -64921,12 +64993,12 @@
         <v>1640</v>
       </c>
       <c r="O2274" s="1" t="s">
-        <v>5093</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="2275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2275" s="1" t="s">
-        <v>5094</v>
+        <v>5100</v>
       </c>
       <c r="B2275" s="1" t="s">
         <v>4938</v>
@@ -64941,12 +65013,12 @@
         <v>1640</v>
       </c>
       <c r="O2275" s="1" t="s">
-        <v>5095</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="2276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2276" s="1" t="s">
-        <v>5096</v>
+        <v>5102</v>
       </c>
       <c r="B2276" s="1" t="s">
         <v>4938</v>
@@ -64961,12 +65033,12 @@
         <v>1640</v>
       </c>
       <c r="O2276" s="1" t="s">
-        <v>5097</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="2277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2277" s="1" t="s">
-        <v>5098</v>
+        <v>5104</v>
       </c>
       <c r="B2277" s="1" t="s">
         <v>4938</v>
@@ -64981,12 +65053,12 @@
         <v>1640</v>
       </c>
       <c r="O2277" s="1" t="s">
-        <v>5099</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="2278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2278" s="1" t="s">
-        <v>5100</v>
+        <v>5106</v>
       </c>
       <c r="B2278" s="1" t="s">
         <v>4938</v>
@@ -65001,12 +65073,12 @@
         <v>1640</v>
       </c>
       <c r="O2278" s="1" t="s">
-        <v>5101</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="2279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2279" s="1" t="s">
-        <v>5102</v>
+        <v>5108</v>
       </c>
       <c r="B2279" s="1" t="s">
         <v>4938</v>
@@ -65021,12 +65093,12 @@
         <v>1640</v>
       </c>
       <c r="O2279" s="1" t="s">
-        <v>5103</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="2280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2280" s="1" t="s">
-        <v>5104</v>
+        <v>5110</v>
       </c>
       <c r="B2280" s="1" t="s">
         <v>4938</v>
@@ -65041,12 +65113,12 @@
         <v>1640</v>
       </c>
       <c r="O2280" s="1" t="s">
-        <v>5105</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="2281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2281" s="1" t="s">
-        <v>5106</v>
+        <v>5112</v>
       </c>
       <c r="B2281" s="1" t="s">
         <v>4938</v>
@@ -65061,12 +65133,12 @@
         <v>1640</v>
       </c>
       <c r="O2281" s="1" t="s">
-        <v>5107</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="2282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2282" s="1" t="s">
-        <v>5108</v>
+        <v>5114</v>
       </c>
       <c r="B2282" s="1" t="s">
         <v>4938</v>
@@ -65081,12 +65153,12 @@
         <v>1640</v>
       </c>
       <c r="O2282" s="1" t="s">
-        <v>5109</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="2283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2283" s="1" t="s">
-        <v>5110</v>
+        <v>5116</v>
       </c>
       <c r="B2283" s="1" t="s">
         <v>4938</v>
@@ -65101,12 +65173,12 @@
         <v>1640</v>
       </c>
       <c r="O2283" s="1" t="s">
-        <v>5111</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="2284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2284" s="1" t="s">
-        <v>5112</v>
+        <v>5118</v>
       </c>
       <c r="B2284" s="1" t="s">
         <v>4938</v>
@@ -65121,12 +65193,12 @@
         <v>1640</v>
       </c>
       <c r="O2284" s="1" t="s">
-        <v>5113</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="2285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2285" s="1" t="s">
-        <v>5114</v>
+        <v>5120</v>
       </c>
       <c r="B2285" s="1" t="s">
         <v>4938</v>
@@ -65141,12 +65213,12 @@
         <v>1640</v>
       </c>
       <c r="O2285" s="1" t="s">
-        <v>5115</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="2286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2286" s="1" t="s">
-        <v>5116</v>
+        <v>5122</v>
       </c>
       <c r="B2286" s="1" t="s">
         <v>4938</v>
@@ -65161,12 +65233,12 @@
         <v>1640</v>
       </c>
       <c r="O2286" s="1" t="s">
-        <v>5117</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="2287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2287" s="1" t="s">
-        <v>5118</v>
+        <v>5124</v>
       </c>
       <c r="B2287" s="1" t="s">
         <v>4938</v>
@@ -65181,12 +65253,12 @@
         <v>1640</v>
       </c>
       <c r="O2287" s="1" t="s">
-        <v>5119</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="2288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2288" s="1" t="s">
-        <v>5120</v>
+        <v>5126</v>
       </c>
       <c r="B2288" s="1" t="s">
         <v>4938</v>
@@ -65201,12 +65273,12 @@
         <v>1640</v>
       </c>
       <c r="O2288" s="1" t="s">
-        <v>5121</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="2289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2289" s="1" t="s">
-        <v>5122</v>
+        <v>5128</v>
       </c>
       <c r="B2289" s="1" t="s">
         <v>4938</v>
@@ -65221,12 +65293,12 @@
         <v>1640</v>
       </c>
       <c r="O2289" s="1" t="s">
-        <v>5123</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="2290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2290" s="1" t="s">
-        <v>5124</v>
+        <v>5130</v>
       </c>
       <c r="B2290" s="1" t="s">
         <v>4938</v>
@@ -65241,12 +65313,12 @@
         <v>1640</v>
       </c>
       <c r="O2290" s="1" t="s">
-        <v>5125</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="2291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2291" s="1" t="s">
-        <v>5126</v>
+        <v>5132</v>
       </c>
       <c r="B2291" s="1" t="s">
         <v>4938</v>
@@ -65261,12 +65333,12 @@
         <v>1640</v>
       </c>
       <c r="O2291" s="1" t="s">
-        <v>5127</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="2292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2292" s="1" t="s">
-        <v>5128</v>
+        <v>5134</v>
       </c>
       <c r="B2292" s="1" t="s">
         <v>4938</v>
@@ -65281,12 +65353,12 @@
         <v>1640</v>
       </c>
       <c r="O2292" s="1" t="s">
-        <v>5129</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="2293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2293" s="1" t="s">
-        <v>5130</v>
+        <v>5136</v>
       </c>
       <c r="B2293" s="1" t="s">
         <v>4938</v>
@@ -65301,12 +65373,12 @@
         <v>1640</v>
       </c>
       <c r="O2293" s="1" t="s">
-        <v>5131</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="2294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2294" s="1" t="s">
-        <v>5132</v>
+        <v>5138</v>
       </c>
       <c r="B2294" s="1" t="s">
         <v>4938</v>
@@ -65321,12 +65393,12 @@
         <v>1640</v>
       </c>
       <c r="O2294" s="1" t="s">
-        <v>5133</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="2295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2295" s="1" t="s">
-        <v>5134</v>
+        <v>5140</v>
       </c>
       <c r="B2295" s="1" t="s">
         <v>4938</v>
@@ -65341,12 +65413,12 @@
         <v>1640</v>
       </c>
       <c r="O2295" s="1" t="s">
-        <v>5135</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="2296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2296" s="1" t="s">
-        <v>5136</v>
+        <v>5142</v>
       </c>
       <c r="B2296" s="1" t="s">
         <v>4938</v>
@@ -65361,12 +65433,12 @@
         <v>1640</v>
       </c>
       <c r="O2296" s="1" t="s">
-        <v>5137</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="2297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2297" s="1" t="s">
-        <v>5138</v>
+        <v>5144</v>
       </c>
       <c r="B2297" s="1" t="s">
         <v>4938</v>
@@ -65381,12 +65453,12 @@
         <v>1640</v>
       </c>
       <c r="O2297" s="1" t="s">
-        <v>5139</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="2298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2298" s="1" t="s">
-        <v>5140</v>
+        <v>5146</v>
       </c>
       <c r="B2298" s="1" t="s">
         <v>4938</v>
@@ -65401,12 +65473,12 @@
         <v>1640</v>
       </c>
       <c r="O2298" s="1" t="s">
-        <v>5141</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="2299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2299" s="1" t="s">
-        <v>5142</v>
+        <v>5148</v>
       </c>
       <c r="B2299" s="1" t="s">
         <v>4938</v>
@@ -65421,12 +65493,12 @@
         <v>1640</v>
       </c>
       <c r="O2299" s="1" t="s">
-        <v>5143</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="2300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2300" s="1" t="s">
-        <v>5144</v>
+        <v>5150</v>
       </c>
       <c r="B2300" s="1" t="s">
         <v>4938</v>
@@ -65441,12 +65513,12 @@
         <v>1640</v>
       </c>
       <c r="O2300" s="1" t="s">
-        <v>5145</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="2301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2301" s="1" t="s">
-        <v>5146</v>
+        <v>5152</v>
       </c>
       <c r="B2301" s="1" t="s">
         <v>4938</v>
@@ -65461,12 +65533,12 @@
         <v>1640</v>
       </c>
       <c r="O2301" s="1" t="s">
-        <v>5147</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="2302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2302" s="1" t="s">
-        <v>5148</v>
+        <v>5154</v>
       </c>
       <c r="B2302" s="1" t="s">
         <v>4938</v>
@@ -65481,12 +65553,12 @@
         <v>1640</v>
       </c>
       <c r="O2302" s="1" t="s">
-        <v>5149</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="2303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2303" s="1" t="s">
-        <v>5150</v>
+        <v>5156</v>
       </c>
       <c r="B2303" s="1" t="s">
         <v>4938</v>
@@ -65501,12 +65573,12 @@
         <v>1640</v>
       </c>
       <c r="O2303" s="1" t="s">
-        <v>5151</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="2304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2304" s="1" t="s">
-        <v>5152</v>
+        <v>5158</v>
       </c>
       <c r="B2304" s="1" t="s">
         <v>4938</v>
@@ -65521,12 +65593,12 @@
         <v>1640</v>
       </c>
       <c r="O2304" s="1" t="s">
-        <v>5153</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="2305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2305" s="1" t="s">
-        <v>5154</v>
+        <v>5160</v>
       </c>
       <c r="B2305" s="1" t="s">
         <v>4938</v>
@@ -65541,12 +65613,12 @@
         <v>1640</v>
       </c>
       <c r="O2305" s="1" t="s">
-        <v>5155</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="2306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2306" s="1" t="s">
-        <v>5156</v>
+        <v>5162</v>
       </c>
       <c r="B2306" s="1" t="s">
         <v>4938</v>
@@ -65561,12 +65633,12 @@
         <v>1640</v>
       </c>
       <c r="O2306" s="1" t="s">
-        <v>5157</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="2307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2307" s="1" t="s">
-        <v>5158</v>
+        <v>5164</v>
       </c>
       <c r="B2307" s="1" t="s">
         <v>4938</v>
@@ -65581,12 +65653,12 @@
         <v>1640</v>
       </c>
       <c r="O2307" s="1" t="s">
-        <v>5159</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="2308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2308" s="1" t="s">
-        <v>5160</v>
+        <v>5166</v>
       </c>
       <c r="B2308" s="1" t="s">
         <v>4938</v>
@@ -65601,12 +65673,12 @@
         <v>1640</v>
       </c>
       <c r="O2308" s="1" t="s">
-        <v>5161</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2309" s="1" t="s">
-        <v>5162</v>
+        <v>5168</v>
       </c>
       <c r="B2309" s="1" t="s">
         <v>4938</v>
@@ -65621,12 +65693,12 @@
         <v>1640</v>
       </c>
       <c r="O2309" s="1" t="s">
-        <v>5163</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="2310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2310" s="1" t="s">
-        <v>5164</v>
+        <v>5170</v>
       </c>
       <c r="B2310" s="1" t="s">
         <v>4938</v>
@@ -65641,12 +65713,12 @@
         <v>1640</v>
       </c>
       <c r="O2310" s="1" t="s">
-        <v>5165</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="2311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2311" s="1" t="s">
-        <v>5166</v>
+        <v>5172</v>
       </c>
       <c r="B2311" s="1" t="s">
         <v>4938</v>
@@ -65661,12 +65733,12 @@
         <v>1640</v>
       </c>
       <c r="O2311" s="1" t="s">
-        <v>5167</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="2312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2312" s="1" t="s">
-        <v>5168</v>
+        <v>5174</v>
       </c>
       <c r="B2312" s="1" t="s">
         <v>4938</v>
@@ -65681,12 +65753,12 @@
         <v>1640</v>
       </c>
       <c r="O2312" s="1" t="s">
-        <v>5169</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="2313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2313" s="1" t="s">
-        <v>5170</v>
+        <v>5176</v>
       </c>
       <c r="B2313" s="1" t="s">
         <v>4938</v>
@@ -65701,12 +65773,12 @@
         <v>1640</v>
       </c>
       <c r="O2313" s="1" t="s">
-        <v>5171</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="2314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2314" s="1" t="s">
-        <v>5172</v>
+        <v>5178</v>
       </c>
       <c r="B2314" s="1" t="s">
         <v>4938</v>
@@ -65721,12 +65793,12 @@
         <v>1640</v>
       </c>
       <c r="O2314" s="1" t="s">
-        <v>5173</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="2315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2315" s="1" t="s">
-        <v>5174</v>
+        <v>5180</v>
       </c>
       <c r="B2315" s="1" t="s">
         <v>4938</v>
@@ -65741,12 +65813,12 @@
         <v>1640</v>
       </c>
       <c r="O2315" s="1" t="s">
-        <v>5175</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="2316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2316" s="1" t="s">
-        <v>5176</v>
+        <v>5182</v>
       </c>
       <c r="B2316" s="1" t="s">
         <v>4938</v>
@@ -65761,12 +65833,12 @@
         <v>1640</v>
       </c>
       <c r="O2316" s="1" t="s">
-        <v>5177</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="2317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2317" s="1" t="s">
-        <v>5178</v>
+        <v>5184</v>
       </c>
       <c r="B2317" s="1" t="s">
         <v>4938</v>
@@ -65781,12 +65853,12 @@
         <v>1640</v>
       </c>
       <c r="O2317" s="1" t="s">
-        <v>5179</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="2318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2318" s="1" t="s">
-        <v>5180</v>
+        <v>5186</v>
       </c>
       <c r="B2318" s="1" t="s">
         <v>4938</v>
@@ -65801,12 +65873,12 @@
         <v>1640</v>
       </c>
       <c r="O2318" s="1" t="s">
-        <v>5181</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="2319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2319" s="1" t="s">
-        <v>5182</v>
+        <v>5188</v>
       </c>
       <c r="B2319" s="1" t="s">
         <v>4938</v>
@@ -65821,12 +65893,12 @@
         <v>1640</v>
       </c>
       <c r="O2319" s="1" t="s">
-        <v>5183</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="2320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2320" s="1" t="s">
-        <v>5184</v>
+        <v>5190</v>
       </c>
       <c r="B2320" s="1" t="s">
         <v>4938</v>
@@ -65841,12 +65913,12 @@
         <v>1640</v>
       </c>
       <c r="O2320" s="1" t="s">
-        <v>5185</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="2321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2321" s="1" t="s">
-        <v>5186</v>
+        <v>5192</v>
       </c>
       <c r="B2321" s="1" t="s">
         <v>4938</v>
@@ -65861,70 +65933,11 @@
         <v>1640</v>
       </c>
       <c r="O2321" s="1" t="s">
-        <v>5187</v>
-      </c>
-    </row>
-    <row r="2322" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2322" s="1" t="s">
-        <v>5188</v>
-      </c>
-      <c r="B2322" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C2322" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2322" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2322" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O2322" s="1" t="s">
-        <v>5189</v>
-      </c>
-    </row>
-    <row r="2323" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2323" s="1" t="s">
-        <v>5190</v>
-      </c>
-      <c r="B2323" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C2323" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2323" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2323" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O2323" s="1" t="s">
-        <v>5191</v>
-      </c>
-    </row>
-    <row r="2324" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2324" s="1" t="s">
-        <v>5192</v>
-      </c>
-      <c r="B2324" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C2324" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2324" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2324" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O2324" s="1" t="s">
         <v>5193</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/compatibility.xlsx
+++ b/compatibility.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="working" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Φύλλο1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="DETAILS" localSheetId="2">Φύλλο1!$A$1:$O$2317</definedName>
+    <definedName name="DETAILS" localSheetId="2">Φύλλο1!$A$1:$O$2315</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -15972,10 +15972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16437,6 +16437,37 @@
       </c>
       <c r="O19" s="1" t="s">
         <v>3006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>4878</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4879</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>4902</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4903</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>4904</v>
       </c>
     </row>
   </sheetData>
@@ -16493,10 +16524,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2317"/>
+  <dimension ref="A1:O2315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1365" workbookViewId="0">
-      <selection activeCell="H1374" sqref="H1374"/>
+    <sheetView topLeftCell="A2156" workbookViewId="0">
+      <selection activeCell="A2178" sqref="A2178:XFD2178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62963,50 +62994,65 @@
     </row>
     <row r="2170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2170" s="1" t="s">
-        <v>4878</v>
+        <v>4881</v>
       </c>
       <c r="B2170" s="1" t="s">
-        <v>4879</v>
+        <v>4882</v>
       </c>
       <c r="C2170" s="1" t="s">
-        <v>395</v>
+        <v>4294</v>
+      </c>
+      <c r="D2170" s="1" t="s">
+        <v>4294</v>
+      </c>
+      <c r="E2170" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F2170" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J2170" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K2170" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="O2170" s="1" t="s">
-        <v>4880</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="2171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2171" s="1" t="s">
-        <v>4881</v>
+        <v>4884</v>
       </c>
       <c r="B2171" s="1" t="s">
-        <v>4882</v>
+        <v>4885</v>
       </c>
       <c r="C2171" s="1" t="s">
-        <v>4294</v>
+        <v>2</v>
       </c>
       <c r="D2171" s="1" t="s">
-        <v>4294</v>
+        <v>2</v>
       </c>
       <c r="E2171" s="1" t="s">
-        <v>1266</v>
+        <v>2</v>
       </c>
       <c r="F2171" s="1" t="s">
-        <v>1266</v>
+        <v>158</v>
       </c>
       <c r="J2171" s="1" t="s">
-        <v>359</v>
+        <v>62</v>
       </c>
       <c r="K2171" s="1" t="s">
-        <v>609</v>
+        <v>171</v>
       </c>
       <c r="O2171" s="1" t="s">
-        <v>4883</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="2172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2172" s="1" t="s">
-        <v>4884</v>
+        <v>4887</v>
       </c>
       <c r="B2172" s="1" t="s">
         <v>4885</v>
@@ -63030,12 +63076,12 @@
         <v>171</v>
       </c>
       <c r="O2172" s="1" t="s">
-        <v>4886</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="2173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2173" s="1" t="s">
-        <v>4887</v>
+        <v>4889</v>
       </c>
       <c r="B2173" s="1" t="s">
         <v>4885</v>
@@ -63059,12 +63105,12 @@
         <v>171</v>
       </c>
       <c r="O2173" s="1" t="s">
-        <v>4888</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="2174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2174" s="1" t="s">
-        <v>4889</v>
+        <v>4891</v>
       </c>
       <c r="B2174" s="1" t="s">
         <v>4885</v>
@@ -63088,15 +63134,15 @@
         <v>171</v>
       </c>
       <c r="O2174" s="1" t="s">
-        <v>4890</v>
+        <v>4892</v>
       </c>
     </row>
     <row r="2175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2175" s="1" t="s">
-        <v>4891</v>
+        <v>4893</v>
       </c>
       <c r="B2175" s="1" t="s">
-        <v>4885</v>
+        <v>4894</v>
       </c>
       <c r="C2175" s="1" t="s">
         <v>2</v>
@@ -63104,281 +63150,275 @@
       <c r="D2175" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2175" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2175" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J2175" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2175" s="1" t="s">
-        <v>171</v>
+        <v>383</v>
       </c>
       <c r="O2175" s="1" t="s">
-        <v>4892</v>
+        <v>4895</v>
       </c>
     </row>
     <row r="2176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2176" s="1" t="s">
-        <v>4893</v>
+        <v>4896</v>
       </c>
       <c r="B2176" s="1" t="s">
-        <v>4894</v>
+        <v>4897</v>
       </c>
       <c r="C2176" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2176" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J2176" s="1" t="s">
         <v>383</v>
       </c>
       <c r="O2176" s="1" t="s">
-        <v>4895</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="2177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2177" s="1" t="s">
-        <v>4896</v>
+        <v>4899</v>
       </c>
       <c r="B2177" s="1" t="s">
-        <v>4897</v>
+        <v>4900</v>
       </c>
       <c r="C2177" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2177" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J2177" s="1" t="s">
-        <v>383</v>
+        <v>177</v>
       </c>
       <c r="O2177" s="1" t="s">
-        <v>4898</v>
+        <v>4901</v>
       </c>
     </row>
     <row r="2178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2178" s="1" t="s">
-        <v>4899</v>
+        <v>4905</v>
       </c>
       <c r="B2178" s="1" t="s">
-        <v>4900</v>
+        <v>4779</v>
       </c>
       <c r="C2178" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2178" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2178" s="1" t="s">
-        <v>177</v>
+        <v>364</v>
       </c>
       <c r="O2178" s="1" t="s">
-        <v>4901</v>
+        <v>4906</v>
       </c>
     </row>
     <row r="2179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2179" s="1" t="s">
-        <v>4902</v>
+        <v>4911</v>
       </c>
       <c r="B2179" s="1" t="s">
-        <v>4903</v>
+        <v>4912</v>
       </c>
       <c r="C2179" s="1" t="s">
-        <v>395</v>
+        <v>348</v>
+      </c>
+      <c r="D2179" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J2179" s="1" t="s">
-        <v>447</v>
+        <v>1493</v>
       </c>
       <c r="O2179" s="1" t="s">
-        <v>4904</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="2180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2180" s="1" t="s">
-        <v>4905</v>
+        <v>4914</v>
       </c>
       <c r="B2180" s="1" t="s">
-        <v>4779</v>
+        <v>4915</v>
       </c>
       <c r="C2180" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2180" s="1" t="s">
-        <v>158</v>
+        <v>446</v>
       </c>
       <c r="J2180" s="1" t="s">
-        <v>364</v>
+        <v>62</v>
       </c>
       <c r="O2180" s="1" t="s">
-        <v>4906</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="2181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2181" s="1" t="s">
-        <v>4911</v>
+        <v>4917</v>
       </c>
       <c r="B2181" s="1" t="s">
-        <v>4912</v>
+        <v>4918</v>
       </c>
       <c r="C2181" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2181" s="1" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
       <c r="J2181" s="1" t="s">
-        <v>1493</v>
+        <v>447</v>
       </c>
       <c r="O2181" s="1" t="s">
-        <v>4913</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="2182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2182" s="1" t="s">
-        <v>4914</v>
+        <v>4920</v>
       </c>
       <c r="B2182" s="1" t="s">
-        <v>4915</v>
+        <v>4921</v>
       </c>
       <c r="C2182" s="1" t="s">
-        <v>446</v>
+        <v>2</v>
       </c>
       <c r="J2182" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O2182" s="1" t="s">
-        <v>4916</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="2183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2183" s="1" t="s">
-        <v>4917</v>
+        <v>4923</v>
       </c>
       <c r="B2183" s="1" t="s">
-        <v>4918</v>
+        <v>4921</v>
       </c>
       <c r="C2183" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2183" s="1" t="s">
-        <v>447</v>
+        <v>65</v>
       </c>
       <c r="O2183" s="1" t="s">
-        <v>4919</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="2184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2184" s="1" t="s">
-        <v>4920</v>
+        <v>4925</v>
       </c>
       <c r="B2184" s="1" t="s">
-        <v>4921</v>
+        <v>4926</v>
       </c>
       <c r="C2184" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2184" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="O2184" s="1" t="s">
-        <v>4922</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="2185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2185" s="1" t="s">
-        <v>4923</v>
+        <v>4928</v>
       </c>
       <c r="B2185" s="1" t="s">
-        <v>4921</v>
+        <v>4929</v>
       </c>
       <c r="C2185" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2185" s="1" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="O2185" s="1" t="s">
-        <v>4924</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="2186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2186" s="1" t="s">
-        <v>4925</v>
+        <v>4931</v>
       </c>
       <c r="B2186" s="1" t="s">
-        <v>4926</v>
+        <v>4932</v>
       </c>
       <c r="C2186" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2186" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J2186" s="1" t="s">
-        <v>85</v>
+        <v>383</v>
+      </c>
+      <c r="K2186" s="1" t="s">
+        <v>1534</v>
       </c>
       <c r="O2186" s="1" t="s">
-        <v>4927</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="2187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2187" s="1" t="s">
-        <v>4928</v>
+        <v>4934</v>
       </c>
       <c r="B2187" s="1" t="s">
-        <v>4929</v>
+        <v>4935</v>
       </c>
       <c r="C2187" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J2187" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="O2187" s="1" t="s">
-        <v>4930</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="2188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2188" s="1" t="s">
-        <v>4931</v>
+        <v>4937</v>
       </c>
       <c r="B2188" s="1" t="s">
-        <v>4932</v>
+        <v>4938</v>
       </c>
       <c r="C2188" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D2188" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J2188" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2188" s="1" t="s">
-        <v>1534</v>
+        <v>1640</v>
       </c>
       <c r="O2188" s="1" t="s">
-        <v>4933</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="2189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2189" s="1" t="s">
-        <v>4934</v>
+        <v>4940</v>
       </c>
       <c r="B2189" s="1" t="s">
-        <v>4935</v>
+        <v>4938</v>
       </c>
       <c r="C2189" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
+      </c>
+      <c r="D2189" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J2189" s="1" t="s">
-        <v>62</v>
+        <v>1640</v>
       </c>
       <c r="O2189" s="1" t="s">
-        <v>4936</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="2190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2190" s="1" t="s">
-        <v>4937</v>
+        <v>4942</v>
       </c>
       <c r="B2190" s="1" t="s">
         <v>4938</v>
@@ -63393,12 +63433,12 @@
         <v>1640</v>
       </c>
       <c r="O2190" s="1" t="s">
-        <v>4939</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="2191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2191" s="1" t="s">
-        <v>4940</v>
+        <v>4944</v>
       </c>
       <c r="B2191" s="1" t="s">
         <v>4938</v>
@@ -63413,12 +63453,12 @@
         <v>1640</v>
       </c>
       <c r="O2191" s="1" t="s">
-        <v>4941</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="2192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2192" s="1" t="s">
-        <v>4942</v>
+        <v>4946</v>
       </c>
       <c r="B2192" s="1" t="s">
         <v>4938</v>
@@ -63433,12 +63473,12 @@
         <v>1640</v>
       </c>
       <c r="O2192" s="1" t="s">
-        <v>4943</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="2193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2193" s="1" t="s">
-        <v>4944</v>
+        <v>4948</v>
       </c>
       <c r="B2193" s="1" t="s">
         <v>4938</v>
@@ -63453,12 +63493,12 @@
         <v>1640</v>
       </c>
       <c r="O2193" s="1" t="s">
-        <v>4945</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="2194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2194" s="1" t="s">
-        <v>4946</v>
+        <v>4950</v>
       </c>
       <c r="B2194" s="1" t="s">
         <v>4938</v>
@@ -63473,12 +63513,12 @@
         <v>1640</v>
       </c>
       <c r="O2194" s="1" t="s">
-        <v>4947</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="2195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2195" s="1" t="s">
-        <v>4948</v>
+        <v>4952</v>
       </c>
       <c r="B2195" s="1" t="s">
         <v>4938</v>
@@ -63493,12 +63533,12 @@
         <v>1640</v>
       </c>
       <c r="O2195" s="1" t="s">
-        <v>4949</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="2196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2196" s="1" t="s">
-        <v>4950</v>
+        <v>4954</v>
       </c>
       <c r="B2196" s="1" t="s">
         <v>4938</v>
@@ -63513,12 +63553,12 @@
         <v>1640</v>
       </c>
       <c r="O2196" s="1" t="s">
-        <v>4951</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="2197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2197" s="1" t="s">
-        <v>4952</v>
+        <v>4956</v>
       </c>
       <c r="B2197" s="1" t="s">
         <v>4938</v>
@@ -63533,12 +63573,12 @@
         <v>1640</v>
       </c>
       <c r="O2197" s="1" t="s">
-        <v>4953</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="2198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2198" s="1" t="s">
-        <v>4954</v>
+        <v>4958</v>
       </c>
       <c r="B2198" s="1" t="s">
         <v>4938</v>
@@ -63553,12 +63593,12 @@
         <v>1640</v>
       </c>
       <c r="O2198" s="1" t="s">
-        <v>4955</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="2199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2199" s="1" t="s">
-        <v>4956</v>
+        <v>4960</v>
       </c>
       <c r="B2199" s="1" t="s">
         <v>4938</v>
@@ -63573,12 +63613,12 @@
         <v>1640</v>
       </c>
       <c r="O2199" s="1" t="s">
-        <v>4957</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="2200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2200" s="1" t="s">
-        <v>4958</v>
+        <v>4962</v>
       </c>
       <c r="B2200" s="1" t="s">
         <v>4938</v>
@@ -63593,12 +63633,12 @@
         <v>1640</v>
       </c>
       <c r="O2200" s="1" t="s">
-        <v>4959</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="2201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2201" s="1" t="s">
-        <v>4960</v>
+        <v>4964</v>
       </c>
       <c r="B2201" s="1" t="s">
         <v>4938</v>
@@ -63613,12 +63653,12 @@
         <v>1640</v>
       </c>
       <c r="O2201" s="1" t="s">
-        <v>4961</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="2202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2202" s="1" t="s">
-        <v>4962</v>
+        <v>4966</v>
       </c>
       <c r="B2202" s="1" t="s">
         <v>4938</v>
@@ -63633,12 +63673,12 @@
         <v>1640</v>
       </c>
       <c r="O2202" s="1" t="s">
-        <v>4963</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="2203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2203" s="1" t="s">
-        <v>4964</v>
+        <v>4968</v>
       </c>
       <c r="B2203" s="1" t="s">
         <v>4938</v>
@@ -63653,12 +63693,12 @@
         <v>1640</v>
       </c>
       <c r="O2203" s="1" t="s">
-        <v>4965</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="2204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2204" s="1" t="s">
-        <v>4966</v>
+        <v>4970</v>
       </c>
       <c r="B2204" s="1" t="s">
         <v>4938</v>
@@ -63673,12 +63713,12 @@
         <v>1640</v>
       </c>
       <c r="O2204" s="1" t="s">
-        <v>4967</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="2205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2205" s="1" t="s">
-        <v>4968</v>
+        <v>4972</v>
       </c>
       <c r="B2205" s="1" t="s">
         <v>4938</v>
@@ -63693,12 +63733,12 @@
         <v>1640</v>
       </c>
       <c r="O2205" s="1" t="s">
-        <v>4969</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="2206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2206" s="1" t="s">
-        <v>4970</v>
+        <v>4974</v>
       </c>
       <c r="B2206" s="1" t="s">
         <v>4938</v>
@@ -63713,12 +63753,12 @@
         <v>1640</v>
       </c>
       <c r="O2206" s="1" t="s">
-        <v>4971</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="2207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2207" s="1" t="s">
-        <v>4972</v>
+        <v>4976</v>
       </c>
       <c r="B2207" s="1" t="s">
         <v>4938</v>
@@ -63733,12 +63773,12 @@
         <v>1640</v>
       </c>
       <c r="O2207" s="1" t="s">
-        <v>4973</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="2208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2208" s="1" t="s">
-        <v>4974</v>
+        <v>4978</v>
       </c>
       <c r="B2208" s="1" t="s">
         <v>4938</v>
@@ -63753,12 +63793,12 @@
         <v>1640</v>
       </c>
       <c r="O2208" s="1" t="s">
-        <v>4975</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="2209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2209" s="1" t="s">
-        <v>4976</v>
+        <v>4980</v>
       </c>
       <c r="B2209" s="1" t="s">
         <v>4938</v>
@@ -63773,12 +63813,12 @@
         <v>1640</v>
       </c>
       <c r="O2209" s="1" t="s">
-        <v>4977</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="2210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2210" s="1" t="s">
-        <v>4978</v>
+        <v>4982</v>
       </c>
       <c r="B2210" s="1" t="s">
         <v>4938</v>
@@ -63793,12 +63833,12 @@
         <v>1640</v>
       </c>
       <c r="O2210" s="1" t="s">
-        <v>4979</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="2211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2211" s="1" t="s">
-        <v>4980</v>
+        <v>4984</v>
       </c>
       <c r="B2211" s="1" t="s">
         <v>4938</v>
@@ -63813,12 +63853,12 @@
         <v>1640</v>
       </c>
       <c r="O2211" s="1" t="s">
-        <v>4981</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="2212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2212" s="1" t="s">
-        <v>4982</v>
+        <v>4986</v>
       </c>
       <c r="B2212" s="1" t="s">
         <v>4938</v>
@@ -63833,12 +63873,12 @@
         <v>1640</v>
       </c>
       <c r="O2212" s="1" t="s">
-        <v>4983</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="2213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2213" s="1" t="s">
-        <v>4984</v>
+        <v>4988</v>
       </c>
       <c r="B2213" s="1" t="s">
         <v>4938</v>
@@ -63853,12 +63893,12 @@
         <v>1640</v>
       </c>
       <c r="O2213" s="1" t="s">
-        <v>4985</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="2214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2214" s="1" t="s">
-        <v>4986</v>
+        <v>4990</v>
       </c>
       <c r="B2214" s="1" t="s">
         <v>4938</v>
@@ -63873,12 +63913,12 @@
         <v>1640</v>
       </c>
       <c r="O2214" s="1" t="s">
-        <v>4987</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="2215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2215" s="1" t="s">
-        <v>4988</v>
+        <v>4992</v>
       </c>
       <c r="B2215" s="1" t="s">
         <v>4938</v>
@@ -63893,12 +63933,12 @@
         <v>1640</v>
       </c>
       <c r="O2215" s="1" t="s">
-        <v>4989</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="2216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2216" s="1" t="s">
-        <v>4990</v>
+        <v>4994</v>
       </c>
       <c r="B2216" s="1" t="s">
         <v>4938</v>
@@ -63913,12 +63953,12 @@
         <v>1640</v>
       </c>
       <c r="O2216" s="1" t="s">
-        <v>4991</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="2217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2217" s="1" t="s">
-        <v>4992</v>
+        <v>4996</v>
       </c>
       <c r="B2217" s="1" t="s">
         <v>4938</v>
@@ -63933,12 +63973,12 @@
         <v>1640</v>
       </c>
       <c r="O2217" s="1" t="s">
-        <v>4993</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="2218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2218" s="1" t="s">
-        <v>4994</v>
+        <v>4998</v>
       </c>
       <c r="B2218" s="1" t="s">
         <v>4938</v>
@@ -63953,12 +63993,12 @@
         <v>1640</v>
       </c>
       <c r="O2218" s="1" t="s">
-        <v>4995</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="2219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2219" s="1" t="s">
-        <v>4996</v>
+        <v>5000</v>
       </c>
       <c r="B2219" s="1" t="s">
         <v>4938</v>
@@ -63973,12 +64013,12 @@
         <v>1640</v>
       </c>
       <c r="O2219" s="1" t="s">
-        <v>4997</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="2220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2220" s="1" t="s">
-        <v>4998</v>
+        <v>5002</v>
       </c>
       <c r="B2220" s="1" t="s">
         <v>4938</v>
@@ -63993,12 +64033,12 @@
         <v>1640</v>
       </c>
       <c r="O2220" s="1" t="s">
-        <v>4999</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="2221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2221" s="1" t="s">
-        <v>5000</v>
+        <v>5004</v>
       </c>
       <c r="B2221" s="1" t="s">
         <v>4938</v>
@@ -64013,12 +64053,12 @@
         <v>1640</v>
       </c>
       <c r="O2221" s="1" t="s">
-        <v>5001</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="2222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2222" s="1" t="s">
-        <v>5002</v>
+        <v>5006</v>
       </c>
       <c r="B2222" s="1" t="s">
         <v>4938</v>
@@ -64033,12 +64073,12 @@
         <v>1640</v>
       </c>
       <c r="O2222" s="1" t="s">
-        <v>5003</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="2223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2223" s="1" t="s">
-        <v>5004</v>
+        <v>5008</v>
       </c>
       <c r="B2223" s="1" t="s">
         <v>4938</v>
@@ -64053,12 +64093,12 @@
         <v>1640</v>
       </c>
       <c r="O2223" s="1" t="s">
-        <v>5005</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="2224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2224" s="1" t="s">
-        <v>5006</v>
+        <v>5010</v>
       </c>
       <c r="B2224" s="1" t="s">
         <v>4938</v>
@@ -64073,12 +64113,12 @@
         <v>1640</v>
       </c>
       <c r="O2224" s="1" t="s">
-        <v>5007</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="2225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2225" s="1" t="s">
-        <v>5008</v>
+        <v>5012</v>
       </c>
       <c r="B2225" s="1" t="s">
         <v>4938</v>
@@ -64093,12 +64133,12 @@
         <v>1640</v>
       </c>
       <c r="O2225" s="1" t="s">
-        <v>5009</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="2226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2226" s="1" t="s">
-        <v>5010</v>
+        <v>5014</v>
       </c>
       <c r="B2226" s="1" t="s">
         <v>4938</v>
@@ -64113,12 +64153,12 @@
         <v>1640</v>
       </c>
       <c r="O2226" s="1" t="s">
-        <v>5011</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="2227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2227" s="1" t="s">
-        <v>5012</v>
+        <v>5016</v>
       </c>
       <c r="B2227" s="1" t="s">
         <v>4938</v>
@@ -64133,12 +64173,12 @@
         <v>1640</v>
       </c>
       <c r="O2227" s="1" t="s">
-        <v>5013</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="2228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2228" s="1" t="s">
-        <v>5014</v>
+        <v>5018</v>
       </c>
       <c r="B2228" s="1" t="s">
         <v>4938</v>
@@ -64153,12 +64193,12 @@
         <v>1640</v>
       </c>
       <c r="O2228" s="1" t="s">
-        <v>5015</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="2229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2229" s="1" t="s">
-        <v>5016</v>
+        <v>5020</v>
       </c>
       <c r="B2229" s="1" t="s">
         <v>4938</v>
@@ -64173,12 +64213,12 @@
         <v>1640</v>
       </c>
       <c r="O2229" s="1" t="s">
-        <v>5017</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="2230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2230" s="1" t="s">
-        <v>5018</v>
+        <v>5022</v>
       </c>
       <c r="B2230" s="1" t="s">
         <v>4938</v>
@@ -64193,12 +64233,12 @@
         <v>1640</v>
       </c>
       <c r="O2230" s="1" t="s">
-        <v>5019</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="2231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2231" s="1" t="s">
-        <v>5020</v>
+        <v>5024</v>
       </c>
       <c r="B2231" s="1" t="s">
         <v>4938</v>
@@ -64213,12 +64253,12 @@
         <v>1640</v>
       </c>
       <c r="O2231" s="1" t="s">
-        <v>5021</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="2232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2232" s="1" t="s">
-        <v>5022</v>
+        <v>5026</v>
       </c>
       <c r="B2232" s="1" t="s">
         <v>4938</v>
@@ -64233,12 +64273,12 @@
         <v>1640</v>
       </c>
       <c r="O2232" s="1" t="s">
-        <v>5023</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="2233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2233" s="1" t="s">
-        <v>5024</v>
+        <v>5028</v>
       </c>
       <c r="B2233" s="1" t="s">
         <v>4938</v>
@@ -64253,12 +64293,12 @@
         <v>1640</v>
       </c>
       <c r="O2233" s="1" t="s">
-        <v>5025</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="2234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2234" s="1" t="s">
-        <v>5026</v>
+        <v>5030</v>
       </c>
       <c r="B2234" s="1" t="s">
         <v>4938</v>
@@ -64273,12 +64313,12 @@
         <v>1640</v>
       </c>
       <c r="O2234" s="1" t="s">
-        <v>5027</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="2235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2235" s="1" t="s">
-        <v>5028</v>
+        <v>5032</v>
       </c>
       <c r="B2235" s="1" t="s">
         <v>4938</v>
@@ -64293,12 +64333,12 @@
         <v>1640</v>
       </c>
       <c r="O2235" s="1" t="s">
-        <v>5029</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="2236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2236" s="1" t="s">
-        <v>5030</v>
+        <v>5034</v>
       </c>
       <c r="B2236" s="1" t="s">
         <v>4938</v>
@@ -64313,12 +64353,12 @@
         <v>1640</v>
       </c>
       <c r="O2236" s="1" t="s">
-        <v>5031</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="2237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2237" s="1" t="s">
-        <v>5032</v>
+        <v>5036</v>
       </c>
       <c r="B2237" s="1" t="s">
         <v>4938</v>
@@ -64333,12 +64373,12 @@
         <v>1640</v>
       </c>
       <c r="O2237" s="1" t="s">
-        <v>5033</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="2238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2238" s="1" t="s">
-        <v>5034</v>
+        <v>5038</v>
       </c>
       <c r="B2238" s="1" t="s">
         <v>4938</v>
@@ -64353,12 +64393,12 @@
         <v>1640</v>
       </c>
       <c r="O2238" s="1" t="s">
-        <v>5035</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="2239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2239" s="1" t="s">
-        <v>5036</v>
+        <v>5040</v>
       </c>
       <c r="B2239" s="1" t="s">
         <v>4938</v>
@@ -64373,12 +64413,12 @@
         <v>1640</v>
       </c>
       <c r="O2239" s="1" t="s">
-        <v>5037</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="2240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2240" s="1" t="s">
-        <v>5038</v>
+        <v>5042</v>
       </c>
       <c r="B2240" s="1" t="s">
         <v>4938</v>
@@ -64393,12 +64433,12 @@
         <v>1640</v>
       </c>
       <c r="O2240" s="1" t="s">
-        <v>5039</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="2241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2241" s="1" t="s">
-        <v>5040</v>
+        <v>5044</v>
       </c>
       <c r="B2241" s="1" t="s">
         <v>4938</v>
@@ -64413,12 +64453,12 @@
         <v>1640</v>
       </c>
       <c r="O2241" s="1" t="s">
-        <v>5041</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="2242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2242" s="1" t="s">
-        <v>5042</v>
+        <v>5046</v>
       </c>
       <c r="B2242" s="1" t="s">
         <v>4938</v>
@@ -64433,12 +64473,12 @@
         <v>1640</v>
       </c>
       <c r="O2242" s="1" t="s">
-        <v>5043</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="2243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2243" s="1" t="s">
-        <v>5044</v>
+        <v>5048</v>
       </c>
       <c r="B2243" s="1" t="s">
         <v>4938</v>
@@ -64453,12 +64493,12 @@
         <v>1640</v>
       </c>
       <c r="O2243" s="1" t="s">
-        <v>5045</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="2244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2244" s="1" t="s">
-        <v>5046</v>
+        <v>5050</v>
       </c>
       <c r="B2244" s="1" t="s">
         <v>4938</v>
@@ -64473,12 +64513,12 @@
         <v>1640</v>
       </c>
       <c r="O2244" s="1" t="s">
-        <v>5047</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="2245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2245" s="1" t="s">
-        <v>5048</v>
+        <v>5052</v>
       </c>
       <c r="B2245" s="1" t="s">
         <v>4938</v>
@@ -64493,12 +64533,12 @@
         <v>1640</v>
       </c>
       <c r="O2245" s="1" t="s">
-        <v>5049</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="2246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2246" s="1" t="s">
-        <v>5050</v>
+        <v>5054</v>
       </c>
       <c r="B2246" s="1" t="s">
         <v>4938</v>
@@ -64513,12 +64553,12 @@
         <v>1640</v>
       </c>
       <c r="O2246" s="1" t="s">
-        <v>5051</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="2247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2247" s="1" t="s">
-        <v>5052</v>
+        <v>5056</v>
       </c>
       <c r="B2247" s="1" t="s">
         <v>4938</v>
@@ -64533,12 +64573,12 @@
         <v>1640</v>
       </c>
       <c r="O2247" s="1" t="s">
-        <v>5053</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="2248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2248" s="1" t="s">
-        <v>5054</v>
+        <v>5058</v>
       </c>
       <c r="B2248" s="1" t="s">
         <v>4938</v>
@@ -64553,12 +64593,12 @@
         <v>1640</v>
       </c>
       <c r="O2248" s="1" t="s">
-        <v>5055</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="2249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2249" s="1" t="s">
-        <v>5056</v>
+        <v>5060</v>
       </c>
       <c r="B2249" s="1" t="s">
         <v>4938</v>
@@ -64573,12 +64613,12 @@
         <v>1640</v>
       </c>
       <c r="O2249" s="1" t="s">
-        <v>5057</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="2250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2250" s="1" t="s">
-        <v>5058</v>
+        <v>5062</v>
       </c>
       <c r="B2250" s="1" t="s">
         <v>4938</v>
@@ -64593,12 +64633,12 @@
         <v>1640</v>
       </c>
       <c r="O2250" s="1" t="s">
-        <v>5059</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="2251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2251" s="1" t="s">
-        <v>5060</v>
+        <v>5064</v>
       </c>
       <c r="B2251" s="1" t="s">
         <v>4938</v>
@@ -64613,12 +64653,12 @@
         <v>1640</v>
       </c>
       <c r="O2251" s="1" t="s">
-        <v>5061</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="2252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2252" s="1" t="s">
-        <v>5062</v>
+        <v>5066</v>
       </c>
       <c r="B2252" s="1" t="s">
         <v>4938</v>
@@ -64633,12 +64673,12 @@
         <v>1640</v>
       </c>
       <c r="O2252" s="1" t="s">
-        <v>5063</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="2253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2253" s="1" t="s">
-        <v>5064</v>
+        <v>5068</v>
       </c>
       <c r="B2253" s="1" t="s">
         <v>4938</v>
@@ -64653,12 +64693,12 @@
         <v>1640</v>
       </c>
       <c r="O2253" s="1" t="s">
-        <v>5065</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="2254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2254" s="1" t="s">
-        <v>5066</v>
+        <v>5070</v>
       </c>
       <c r="B2254" s="1" t="s">
         <v>4938</v>
@@ -64673,12 +64713,12 @@
         <v>1640</v>
       </c>
       <c r="O2254" s="1" t="s">
-        <v>5067</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="2255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2255" s="1" t="s">
-        <v>5068</v>
+        <v>5072</v>
       </c>
       <c r="B2255" s="1" t="s">
         <v>4938</v>
@@ -64693,12 +64733,12 @@
         <v>1640</v>
       </c>
       <c r="O2255" s="1" t="s">
-        <v>5069</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="2256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2256" s="1" t="s">
-        <v>5070</v>
+        <v>5074</v>
       </c>
       <c r="B2256" s="1" t="s">
         <v>4938</v>
@@ -64713,12 +64753,12 @@
         <v>1640</v>
       </c>
       <c r="O2256" s="1" t="s">
-        <v>5071</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="2257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2257" s="1" t="s">
-        <v>5072</v>
+        <v>5076</v>
       </c>
       <c r="B2257" s="1" t="s">
         <v>4938</v>
@@ -64733,12 +64773,12 @@
         <v>1640</v>
       </c>
       <c r="O2257" s="1" t="s">
-        <v>5073</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="2258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2258" s="1" t="s">
-        <v>5074</v>
+        <v>5078</v>
       </c>
       <c r="B2258" s="1" t="s">
         <v>4938</v>
@@ -64753,12 +64793,12 @@
         <v>1640</v>
       </c>
       <c r="O2258" s="1" t="s">
-        <v>5075</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="2259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2259" s="1" t="s">
-        <v>5076</v>
+        <v>5080</v>
       </c>
       <c r="B2259" s="1" t="s">
         <v>4938</v>
@@ -64773,12 +64813,12 @@
         <v>1640</v>
       </c>
       <c r="O2259" s="1" t="s">
-        <v>5077</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="2260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2260" s="1" t="s">
-        <v>5078</v>
+        <v>5082</v>
       </c>
       <c r="B2260" s="1" t="s">
         <v>4938</v>
@@ -64793,12 +64833,12 @@
         <v>1640</v>
       </c>
       <c r="O2260" s="1" t="s">
-        <v>5079</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="2261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2261" s="1" t="s">
-        <v>5080</v>
+        <v>5084</v>
       </c>
       <c r="B2261" s="1" t="s">
         <v>4938</v>
@@ -64813,12 +64853,12 @@
         <v>1640</v>
       </c>
       <c r="O2261" s="1" t="s">
-        <v>5081</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="2262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2262" s="1" t="s">
-        <v>5082</v>
+        <v>5086</v>
       </c>
       <c r="B2262" s="1" t="s">
         <v>4938</v>
@@ -64833,12 +64873,12 @@
         <v>1640</v>
       </c>
       <c r="O2262" s="1" t="s">
-        <v>5083</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="2263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2263" s="1" t="s">
-        <v>5084</v>
+        <v>5088</v>
       </c>
       <c r="B2263" s="1" t="s">
         <v>4938</v>
@@ -64853,12 +64893,12 @@
         <v>1640</v>
       </c>
       <c r="O2263" s="1" t="s">
-        <v>5085</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="2264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2264" s="1" t="s">
-        <v>5086</v>
+        <v>5090</v>
       </c>
       <c r="B2264" s="1" t="s">
         <v>4938</v>
@@ -64873,12 +64913,12 @@
         <v>1640</v>
       </c>
       <c r="O2264" s="1" t="s">
-        <v>5087</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="2265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2265" s="1" t="s">
-        <v>5088</v>
+        <v>5092</v>
       </c>
       <c r="B2265" s="1" t="s">
         <v>4938</v>
@@ -64893,12 +64933,12 @@
         <v>1640</v>
       </c>
       <c r="O2265" s="1" t="s">
-        <v>5089</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="2266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2266" s="1" t="s">
-        <v>5090</v>
+        <v>5094</v>
       </c>
       <c r="B2266" s="1" t="s">
         <v>4938</v>
@@ -64913,12 +64953,12 @@
         <v>1640</v>
       </c>
       <c r="O2266" s="1" t="s">
-        <v>5091</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="2267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2267" s="1" t="s">
-        <v>5092</v>
+        <v>5096</v>
       </c>
       <c r="B2267" s="1" t="s">
         <v>4938</v>
@@ -64933,12 +64973,12 @@
         <v>1640</v>
       </c>
       <c r="O2267" s="1" t="s">
-        <v>5093</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="2268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2268" s="1" t="s">
-        <v>5094</v>
+        <v>5098</v>
       </c>
       <c r="B2268" s="1" t="s">
         <v>4938</v>
@@ -64953,12 +64993,12 @@
         <v>1640</v>
       </c>
       <c r="O2268" s="1" t="s">
-        <v>5095</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="2269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2269" s="1" t="s">
-        <v>5096</v>
+        <v>5100</v>
       </c>
       <c r="B2269" s="1" t="s">
         <v>4938</v>
@@ -64973,12 +65013,12 @@
         <v>1640</v>
       </c>
       <c r="O2269" s="1" t="s">
-        <v>5097</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="2270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2270" s="1" t="s">
-        <v>5098</v>
+        <v>5102</v>
       </c>
       <c r="B2270" s="1" t="s">
         <v>4938</v>
@@ -64993,12 +65033,12 @@
         <v>1640</v>
       </c>
       <c r="O2270" s="1" t="s">
-        <v>5099</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="2271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2271" s="1" t="s">
-        <v>5100</v>
+        <v>5104</v>
       </c>
       <c r="B2271" s="1" t="s">
         <v>4938</v>
@@ -65013,12 +65053,12 @@
         <v>1640</v>
       </c>
       <c r="O2271" s="1" t="s">
-        <v>5101</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="2272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2272" s="1" t="s">
-        <v>5102</v>
+        <v>5106</v>
       </c>
       <c r="B2272" s="1" t="s">
         <v>4938</v>
@@ -65033,12 +65073,12 @@
         <v>1640</v>
       </c>
       <c r="O2272" s="1" t="s">
-        <v>5103</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="2273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2273" s="1" t="s">
-        <v>5104</v>
+        <v>5108</v>
       </c>
       <c r="B2273" s="1" t="s">
         <v>4938</v>
@@ -65053,12 +65093,12 @@
         <v>1640</v>
       </c>
       <c r="O2273" s="1" t="s">
-        <v>5105</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="2274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2274" s="1" t="s">
-        <v>5106</v>
+        <v>5110</v>
       </c>
       <c r="B2274" s="1" t="s">
         <v>4938</v>
@@ -65073,12 +65113,12 @@
         <v>1640</v>
       </c>
       <c r="O2274" s="1" t="s">
-        <v>5107</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="2275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2275" s="1" t="s">
-        <v>5108</v>
+        <v>5112</v>
       </c>
       <c r="B2275" s="1" t="s">
         <v>4938</v>
@@ -65093,12 +65133,12 @@
         <v>1640</v>
       </c>
       <c r="O2275" s="1" t="s">
-        <v>5109</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="2276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2276" s="1" t="s">
-        <v>5110</v>
+        <v>5114</v>
       </c>
       <c r="B2276" s="1" t="s">
         <v>4938</v>
@@ -65113,12 +65153,12 @@
         <v>1640</v>
       </c>
       <c r="O2276" s="1" t="s">
-        <v>5111</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="2277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2277" s="1" t="s">
-        <v>5112</v>
+        <v>5116</v>
       </c>
       <c r="B2277" s="1" t="s">
         <v>4938</v>
@@ -65133,12 +65173,12 @@
         <v>1640</v>
       </c>
       <c r="O2277" s="1" t="s">
-        <v>5113</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="2278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2278" s="1" t="s">
-        <v>5114</v>
+        <v>5118</v>
       </c>
       <c r="B2278" s="1" t="s">
         <v>4938</v>
@@ -65153,12 +65193,12 @@
         <v>1640</v>
       </c>
       <c r="O2278" s="1" t="s">
-        <v>5115</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="2279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2279" s="1" t="s">
-        <v>5116</v>
+        <v>5120</v>
       </c>
       <c r="B2279" s="1" t="s">
         <v>4938</v>
@@ -65173,12 +65213,12 @@
         <v>1640</v>
       </c>
       <c r="O2279" s="1" t="s">
-        <v>5117</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="2280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2280" s="1" t="s">
-        <v>5118</v>
+        <v>5122</v>
       </c>
       <c r="B2280" s="1" t="s">
         <v>4938</v>
@@ -65193,12 +65233,12 @@
         <v>1640</v>
       </c>
       <c r="O2280" s="1" t="s">
-        <v>5119</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="2281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2281" s="1" t="s">
-        <v>5120</v>
+        <v>5124</v>
       </c>
       <c r="B2281" s="1" t="s">
         <v>4938</v>
@@ -65213,12 +65253,12 @@
         <v>1640</v>
       </c>
       <c r="O2281" s="1" t="s">
-        <v>5121</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="2282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2282" s="1" t="s">
-        <v>5122</v>
+        <v>5126</v>
       </c>
       <c r="B2282" s="1" t="s">
         <v>4938</v>
@@ -65233,12 +65273,12 @@
         <v>1640</v>
       </c>
       <c r="O2282" s="1" t="s">
-        <v>5123</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="2283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2283" s="1" t="s">
-        <v>5124</v>
+        <v>5128</v>
       </c>
       <c r="B2283" s="1" t="s">
         <v>4938</v>
@@ -65253,12 +65293,12 @@
         <v>1640</v>
       </c>
       <c r="O2283" s="1" t="s">
-        <v>5125</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="2284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2284" s="1" t="s">
-        <v>5126</v>
+        <v>5130</v>
       </c>
       <c r="B2284" s="1" t="s">
         <v>4938</v>
@@ -65273,12 +65313,12 @@
         <v>1640</v>
       </c>
       <c r="O2284" s="1" t="s">
-        <v>5127</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="2285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2285" s="1" t="s">
-        <v>5128</v>
+        <v>5132</v>
       </c>
       <c r="B2285" s="1" t="s">
         <v>4938</v>
@@ -65293,12 +65333,12 @@
         <v>1640</v>
       </c>
       <c r="O2285" s="1" t="s">
-        <v>5129</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="2286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2286" s="1" t="s">
-        <v>5130</v>
+        <v>5134</v>
       </c>
       <c r="B2286" s="1" t="s">
         <v>4938</v>
@@ -65313,12 +65353,12 @@
         <v>1640</v>
       </c>
       <c r="O2286" s="1" t="s">
-        <v>5131</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="2287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2287" s="1" t="s">
-        <v>5132</v>
+        <v>5136</v>
       </c>
       <c r="B2287" s="1" t="s">
         <v>4938</v>
@@ -65333,12 +65373,12 @@
         <v>1640</v>
       </c>
       <c r="O2287" s="1" t="s">
-        <v>5133</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="2288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2288" s="1" t="s">
-        <v>5134</v>
+        <v>5138</v>
       </c>
       <c r="B2288" s="1" t="s">
         <v>4938</v>
@@ -65353,12 +65393,12 @@
         <v>1640</v>
       </c>
       <c r="O2288" s="1" t="s">
-        <v>5135</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="2289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2289" s="1" t="s">
-        <v>5136</v>
+        <v>5140</v>
       </c>
       <c r="B2289" s="1" t="s">
         <v>4938</v>
@@ -65373,12 +65413,12 @@
         <v>1640</v>
       </c>
       <c r="O2289" s="1" t="s">
-        <v>5137</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="2290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2290" s="1" t="s">
-        <v>5138</v>
+        <v>5142</v>
       </c>
       <c r="B2290" s="1" t="s">
         <v>4938</v>
@@ -65393,12 +65433,12 @@
         <v>1640</v>
       </c>
       <c r="O2290" s="1" t="s">
-        <v>5139</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="2291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2291" s="1" t="s">
-        <v>5140</v>
+        <v>5144</v>
       </c>
       <c r="B2291" s="1" t="s">
         <v>4938</v>
@@ -65413,12 +65453,12 @@
         <v>1640</v>
       </c>
       <c r="O2291" s="1" t="s">
-        <v>5141</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="2292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2292" s="1" t="s">
-        <v>5142</v>
+        <v>5146</v>
       </c>
       <c r="B2292" s="1" t="s">
         <v>4938</v>
@@ -65433,12 +65473,12 @@
         <v>1640</v>
       </c>
       <c r="O2292" s="1" t="s">
-        <v>5143</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="2293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2293" s="1" t="s">
-        <v>5144</v>
+        <v>5148</v>
       </c>
       <c r="B2293" s="1" t="s">
         <v>4938</v>
@@ -65453,12 +65493,12 @@
         <v>1640</v>
       </c>
       <c r="O2293" s="1" t="s">
-        <v>5145</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="2294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2294" s="1" t="s">
-        <v>5146</v>
+        <v>5150</v>
       </c>
       <c r="B2294" s="1" t="s">
         <v>4938</v>
@@ -65473,12 +65513,12 @@
         <v>1640</v>
       </c>
       <c r="O2294" s="1" t="s">
-        <v>5147</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="2295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2295" s="1" t="s">
-        <v>5148</v>
+        <v>5152</v>
       </c>
       <c r="B2295" s="1" t="s">
         <v>4938</v>
@@ -65493,12 +65533,12 @@
         <v>1640</v>
       </c>
       <c r="O2295" s="1" t="s">
-        <v>5149</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="2296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2296" s="1" t="s">
-        <v>5150</v>
+        <v>5154</v>
       </c>
       <c r="B2296" s="1" t="s">
         <v>4938</v>
@@ -65513,12 +65553,12 @@
         <v>1640</v>
       </c>
       <c r="O2296" s="1" t="s">
-        <v>5151</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="2297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2297" s="1" t="s">
-        <v>5152</v>
+        <v>5156</v>
       </c>
       <c r="B2297" s="1" t="s">
         <v>4938</v>
@@ -65533,12 +65573,12 @@
         <v>1640</v>
       </c>
       <c r="O2297" s="1" t="s">
-        <v>5153</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="2298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2298" s="1" t="s">
-        <v>5154</v>
+        <v>5158</v>
       </c>
       <c r="B2298" s="1" t="s">
         <v>4938</v>
@@ -65553,12 +65593,12 @@
         <v>1640</v>
       </c>
       <c r="O2298" s="1" t="s">
-        <v>5155</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="2299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2299" s="1" t="s">
-        <v>5156</v>
+        <v>5160</v>
       </c>
       <c r="B2299" s="1" t="s">
         <v>4938</v>
@@ -65573,12 +65613,12 @@
         <v>1640</v>
       </c>
       <c r="O2299" s="1" t="s">
-        <v>5157</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="2300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2300" s="1" t="s">
-        <v>5158</v>
+        <v>5162</v>
       </c>
       <c r="B2300" s="1" t="s">
         <v>4938</v>
@@ -65593,12 +65633,12 @@
         <v>1640</v>
       </c>
       <c r="O2300" s="1" t="s">
-        <v>5159</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="2301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2301" s="1" t="s">
-        <v>5160</v>
+        <v>5164</v>
       </c>
       <c r="B2301" s="1" t="s">
         <v>4938</v>
@@ -65613,12 +65653,12 @@
         <v>1640</v>
       </c>
       <c r="O2301" s="1" t="s">
-        <v>5161</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="2302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2302" s="1" t="s">
-        <v>5162</v>
+        <v>5166</v>
       </c>
       <c r="B2302" s="1" t="s">
         <v>4938</v>
@@ -65633,12 +65673,12 @@
         <v>1640</v>
       </c>
       <c r="O2302" s="1" t="s">
-        <v>5163</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2303" s="1" t="s">
-        <v>5164</v>
+        <v>5168</v>
       </c>
       <c r="B2303" s="1" t="s">
         <v>4938</v>
@@ -65653,12 +65693,12 @@
         <v>1640</v>
       </c>
       <c r="O2303" s="1" t="s">
-        <v>5165</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="2304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2304" s="1" t="s">
-        <v>5166</v>
+        <v>5170</v>
       </c>
       <c r="B2304" s="1" t="s">
         <v>4938</v>
@@ -65673,12 +65713,12 @@
         <v>1640</v>
       </c>
       <c r="O2304" s="1" t="s">
-        <v>5167</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="2305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2305" s="1" t="s">
-        <v>5168</v>
+        <v>5172</v>
       </c>
       <c r="B2305" s="1" t="s">
         <v>4938</v>
@@ -65693,12 +65733,12 @@
         <v>1640</v>
       </c>
       <c r="O2305" s="1" t="s">
-        <v>5169</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="2306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2306" s="1" t="s">
-        <v>5170</v>
+        <v>5174</v>
       </c>
       <c r="B2306" s="1" t="s">
         <v>4938</v>
@@ -65713,12 +65753,12 @@
         <v>1640</v>
       </c>
       <c r="O2306" s="1" t="s">
-        <v>5171</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="2307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2307" s="1" t="s">
-        <v>5172</v>
+        <v>5176</v>
       </c>
       <c r="B2307" s="1" t="s">
         <v>4938</v>
@@ -65733,12 +65773,12 @@
         <v>1640</v>
       </c>
       <c r="O2307" s="1" t="s">
-        <v>5173</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="2308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2308" s="1" t="s">
-        <v>5174</v>
+        <v>5178</v>
       </c>
       <c r="B2308" s="1" t="s">
         <v>4938</v>
@@ -65753,12 +65793,12 @@
         <v>1640</v>
       </c>
       <c r="O2308" s="1" t="s">
-        <v>5175</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="2309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2309" s="1" t="s">
-        <v>5176</v>
+        <v>5180</v>
       </c>
       <c r="B2309" s="1" t="s">
         <v>4938</v>
@@ -65773,12 +65813,12 @@
         <v>1640</v>
       </c>
       <c r="O2309" s="1" t="s">
-        <v>5177</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="2310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2310" s="1" t="s">
-        <v>5178</v>
+        <v>5182</v>
       </c>
       <c r="B2310" s="1" t="s">
         <v>4938</v>
@@ -65793,12 +65833,12 @@
         <v>1640</v>
       </c>
       <c r="O2310" s="1" t="s">
-        <v>5179</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="2311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2311" s="1" t="s">
-        <v>5180</v>
+        <v>5184</v>
       </c>
       <c r="B2311" s="1" t="s">
         <v>4938</v>
@@ -65813,12 +65853,12 @@
         <v>1640</v>
       </c>
       <c r="O2311" s="1" t="s">
-        <v>5181</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="2312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2312" s="1" t="s">
-        <v>5182</v>
+        <v>5186</v>
       </c>
       <c r="B2312" s="1" t="s">
         <v>4938</v>
@@ -65833,12 +65873,12 @@
         <v>1640</v>
       </c>
       <c r="O2312" s="1" t="s">
-        <v>5183</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="2313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2313" s="1" t="s">
-        <v>5184</v>
+        <v>5188</v>
       </c>
       <c r="B2313" s="1" t="s">
         <v>4938</v>
@@ -65853,12 +65893,12 @@
         <v>1640</v>
       </c>
       <c r="O2313" s="1" t="s">
-        <v>5185</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="2314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2314" s="1" t="s">
-        <v>5186</v>
+        <v>5190</v>
       </c>
       <c r="B2314" s="1" t="s">
         <v>4938</v>
@@ -65873,12 +65913,12 @@
         <v>1640</v>
       </c>
       <c r="O2314" s="1" t="s">
-        <v>5187</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="2315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2315" s="1" t="s">
-        <v>5188</v>
+        <v>5192</v>
       </c>
       <c r="B2315" s="1" t="s">
         <v>4938</v>
@@ -65893,46 +65933,6 @@
         <v>1640</v>
       </c>
       <c r="O2315" s="1" t="s">
-        <v>5189</v>
-      </c>
-    </row>
-    <row r="2316" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2316" s="1" t="s">
-        <v>5190</v>
-      </c>
-      <c r="B2316" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C2316" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2316" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2316" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O2316" s="1" t="s">
-        <v>5191</v>
-      </c>
-    </row>
-    <row r="2317" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2317" s="1" t="s">
-        <v>5192</v>
-      </c>
-      <c r="B2317" s="1" t="s">
-        <v>4938</v>
-      </c>
-      <c r="C2317" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2317" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2317" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="O2317" s="1" t="s">
         <v>5193</v>
       </c>
     </row>

--- a/compatibility.xlsx
+++ b/compatibility.xlsx
@@ -15999,10 +15999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R172"/>
+  <dimension ref="A1:R171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171:XFD172"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18575,53 +18575,59 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>286</v>
+        <v>4520</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>287</v>
+        <v>4512</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>177</v>
+        <v>383</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>1534</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="P118" t="s">
-        <v>5203</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>4520</v>
+        <v>3200</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>4512</v>
+        <v>3201</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="E119" s="1" t="s">
+        <v>830</v>
+      </c>
       <c r="J119" s="1" t="s">
-        <v>383</v>
+        <v>3202</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>1534</v>
+        <v>171</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>4521</v>
+        <v>3203</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>5199</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>3200</v>
+        <v>3204</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>3201</v>
@@ -18642,7 +18648,7 @@
         <v>171</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>3203</v>
+        <v>3205</v>
       </c>
       <c r="Q120" t="s">
         <v>5199</v>
@@ -18650,7 +18656,7 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>3204</v>
+        <v>3206</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>3201</v>
@@ -18671,7 +18677,7 @@
         <v>171</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>3205</v>
+        <v>3207</v>
       </c>
       <c r="Q121" t="s">
         <v>5199</v>
@@ -18679,10 +18685,10 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>3206</v>
+        <v>263</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>3201</v>
+        <v>264</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>2</v>
@@ -18690,25 +18696,16 @@
       <c r="D122" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>830</v>
-      </c>
       <c r="J122" s="1" t="s">
-        <v>3202</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>3207</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>5199</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>264</v>
@@ -18723,12 +18720,12 @@
         <v>62</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>264</v>
@@ -18743,12 +18740,12 @@
         <v>62</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>264</v>
@@ -18763,15 +18760,15 @@
         <v>62</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>270</v>
+        <v>1536</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>264</v>
+        <v>1537</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>2</v>
@@ -18779,16 +18776,22 @@
       <c r="D126" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="E126" s="1" t="s">
+        <v>1475</v>
+      </c>
       <c r="J126" s="1" t="s">
-        <v>62</v>
+        <v>1538</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>271</v>
+        <v>1539</v>
+      </c>
+      <c r="P126" t="s">
+        <v>5195</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>1537</v>
@@ -18799,14 +18802,11 @@
       <c r="D127" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>1475</v>
-      </c>
       <c r="J127" s="1" t="s">
         <v>1538</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="P127" t="s">
         <v>5195</v>
@@ -18814,7 +18814,7 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>1537</v>
@@ -18829,7 +18829,7 @@
         <v>1538</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="P128" t="s">
         <v>5195</v>
@@ -18837,30 +18837,24 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>1544</v>
+        <v>4268</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1537</v>
+        <v>4269</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J129" s="1" t="s">
-        <v>1538</v>
+        <v>177</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="P129" t="s">
-        <v>5195</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>4268</v>
+        <v>4271</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>4269</v>
@@ -18872,44 +18866,56 @@
         <v>177</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>4270</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>4271</v>
+        <v>2045</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>4269</v>
+        <v>2046</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>2</v>
+        <v>521</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>177</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>4272</v>
+        <v>2047</v>
+      </c>
+      <c r="P131" t="s">
+        <v>5195</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>5204</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>2045</v>
+        <v>1291</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>2046</v>
+        <v>1292</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>521</v>
+        <v>2</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>567</v>
+        <v>1274</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="K132" s="1" t="s">
+        <v>1275</v>
+      </c>
       <c r="O132" s="1" t="s">
-        <v>2047</v>
+        <v>1293</v>
       </c>
       <c r="P132" t="s">
         <v>5195</v>
@@ -18920,7 +18926,7 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>1292</v>
@@ -18938,7 +18944,7 @@
         <v>1275</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="P133" t="s">
         <v>5195</v>
@@ -18949,10 +18955,10 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>1294</v>
+        <v>1281</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>2</v>
@@ -18967,10 +18973,7 @@
         <v>1275</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="P134" t="s">
-        <v>5195</v>
+        <v>1283</v>
       </c>
       <c r="Q134" t="s">
         <v>5204</v>
@@ -18978,53 +18981,47 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>1281</v>
+        <v>4251</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1282</v>
+        <v>4252</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1274</v>
+        <v>2</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>1275</v>
+        <v>62</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="Q135" t="s">
-        <v>5204</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>4251</v>
+        <v>4017</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>4252</v>
+        <v>4018</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>4253</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>4017</v>
+        <v>4020</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>4018</v>
@@ -19039,32 +19036,35 @@
         <v>177</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>4019</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>4020</v>
+        <v>1580</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>4018</v>
+        <v>1578</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>177</v>
+        <v>364</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>4021</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>1578</v>
@@ -19078,16 +19078,22 @@
       <c r="E139" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="F139" s="1" t="s">
+        <v>1475</v>
+      </c>
       <c r="J139" s="1" t="s">
         <v>364</v>
       </c>
+      <c r="K139" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="O139" s="1" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>1578</v>
@@ -19111,12 +19117,12 @@
         <v>358</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>1578</v>
@@ -19140,12 +19146,12 @@
         <v>358</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>1578</v>
@@ -19159,9 +19165,6 @@
       <c r="E142" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>1475</v>
-      </c>
       <c r="J142" s="1" t="s">
         <v>364</v>
       </c>
@@ -19169,12 +19172,12 @@
         <v>358</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>1578</v>
@@ -19195,55 +19198,49 @@
         <v>358</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>1590</v>
+        <v>4923</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1578</v>
+        <v>4924</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J144" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K144" s="1" t="s">
-        <v>358</v>
+        <v>85</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>1591</v>
+        <v>4925</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>4923</v>
+        <v>4273</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>4924</v>
+        <v>4274</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>4925</v>
+        <v>4275</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>5205</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>4273</v>
+        <v>4276</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>4274</v>
@@ -19255,7 +19252,7 @@
         <v>177</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>4275</v>
+        <v>4277</v>
       </c>
       <c r="Q146" t="s">
         <v>5205</v>
@@ -19263,101 +19260,104 @@
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>4276</v>
+        <v>1269</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>4274</v>
+        <v>1270</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D147" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J147" s="1" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>4277</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>5205</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>1269</v>
+        <v>4932</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1270</v>
+        <v>4933</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>62</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>1271</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>4932</v>
+        <v>4894</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>4933</v>
+        <v>4895</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D149" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="J149" s="1" t="s">
-        <v>62</v>
+        <v>383</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>4934</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>4894</v>
+        <v>1636</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>4895</v>
+        <v>1634</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="J150" s="1" t="s">
-        <v>383</v>
+        <v>177</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>4896</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>1636</v>
+        <v>501</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1634</v>
+        <v>502</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D151" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="J151" s="1" t="s">
-        <v>177</v>
+        <v>3</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>1637</v>
+        <v>503</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>502</v>
@@ -19375,12 +19375,12 @@
         <v>3</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>502</v>
@@ -19398,12 +19398,12 @@
         <v>3</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>502</v>
@@ -19421,35 +19421,38 @@
         <v>3</v>
       </c>
       <c r="O154" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>508</v>
+        <v>556</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>2</v>
+        <v>521</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>2</v>
+        <v>521</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>2</v>
+        <v>521</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K155" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="O155" s="1" t="s">
-        <v>509</v>
+        <v>558</v>
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>557</v>
@@ -19470,12 +19473,12 @@
         <v>447</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>557</v>
@@ -19496,12 +19499,12 @@
         <v>447</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>557</v>
@@ -19522,38 +19525,32 @@
         <v>447</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>563</v>
+        <v>3245</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>557</v>
+        <v>3246</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>521</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>521</v>
+        <v>158</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K159" s="1" t="s">
-        <v>447</v>
+        <v>65</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>564</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>3245</v>
+        <v>3248</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>3246</v>
@@ -19568,12 +19565,12 @@
         <v>65</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>3247</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>3248</v>
+        <v>3250</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>3246</v>
@@ -19588,32 +19585,35 @@
         <v>65</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>3249</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>3250</v>
+        <v>828</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>3246</v>
+        <v>829</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>521</v>
+        <v>2</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>158</v>
+        <v>830</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>65</v>
+        <v>171</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>3251</v>
+        <v>831</v>
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>829</v>
@@ -19631,12 +19631,12 @@
         <v>447</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>829</v>
@@ -19645,24 +19645,21 @@
         <v>2</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>830</v>
+        <v>158</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K164" s="1" t="s">
-        <v>447</v>
+        <v>62</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>834</v>
+        <v>2673</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>829</v>
+        <v>2674</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>2</v>
@@ -19671,18 +19668,21 @@
         <v>158</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>835</v>
+        <v>2675</v>
+      </c>
+      <c r="P165" t="s">
+        <v>5195</v>
       </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>2673</v>
+        <v>320</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>2674</v>
+        <v>321</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>2</v>
@@ -19691,18 +19691,18 @@
         <v>158</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>2675</v>
-      </c>
-      <c r="P166" t="s">
-        <v>5195</v>
+        <v>322</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>5206</v>
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>321</v>
@@ -19717,7 +19717,7 @@
         <v>177</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q167" t="s">
         <v>5206</v>
@@ -19725,10 +19725,10 @@
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>323</v>
+        <v>3116</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>321</v>
+        <v>3117</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>2</v>
@@ -19737,18 +19737,15 @@
         <v>158</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>177</v>
+        <v>349</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q168" t="s">
-        <v>5206</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>3116</v>
+        <v>3119</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>3117</v>
@@ -19763,32 +19760,35 @@
         <v>349</v>
       </c>
       <c r="O169" s="1" t="s">
-        <v>3118</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>3119</v>
+        <v>3232</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>3117</v>
+        <v>3233</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>2</v>
+        <v>521</v>
       </c>
       <c r="D170" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>349</v>
+        <v>2678</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>3120</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>3232</v>
+        <v>3235</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>3233</v>
@@ -19806,29 +19806,6 @@
         <v>2678</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>3234</v>
-      </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
-        <v>3235</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>3233</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J172" s="1" t="s">
-        <v>2678</v>
-      </c>
-      <c r="O172" s="1" t="s">
         <v>3236</v>
       </c>
     </row>
@@ -19840,10 +19817,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20191,6 +20168,29 @@
       </c>
       <c r="O16" s="1" t="s">
         <v>1635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="P17" t="s">
+        <v>5203</v>
       </c>
     </row>
   </sheetData>
